--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8352BD32-6499-4604-8377-FD4A370152DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2F0E2-8655-46E1-A21C-A4D4E91FB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>システム名</t>
   </si>
@@ -155,21 +155,6 @@
   <si>
     <t>模擬試験Webアプリ</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>フッタ部</t>
@@ -292,6 +277,66 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>苑</t>
+    <rPh sb="0" eb="1">
+      <t>ソノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェルカム画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タイマー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題に入っていないので空</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回点数</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_score</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -740,19 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -771,7 +803,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,6 +845,48 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,47 +905,248 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -888,17 +1163,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -923,237 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1247,22 +1282,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>213359</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>25741</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE7BF95-51C2-4E20-8C63-766A807020A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3DBF81-14C1-49A1-81F2-100FAFAB2773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,8 +1319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="119744" y="964473"/>
-          <a:ext cx="9169740" cy="7678783"/>
+          <a:off x="127000" y="977900"/>
+          <a:ext cx="9702800" cy="7002527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1562,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="CQ26" sqref="CQ26"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AS5" sqref="AS5:CI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1576,102 +1611,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34" t="s">
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2612,102 +2649,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="25" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27" t="s">
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="20">
+        <v>44509</v>
+      </c>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3735,196 +3774,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="18">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="20"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="20"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="20"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -6128,6 +6167,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -6142,14 +6189,6 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6164,10 +6203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK25"/>
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU12" sqref="AU12:BD12"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6180,102 +6219,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="32" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34" t="s">
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -7216,102 +7257,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="25" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27" t="s">
+      <c r="BM2" s="19"/>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="20">
+        <v>44509</v>
+      </c>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -8339,2053 +8382,2210 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17" t="s">
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
-      <c r="BY4" s="17"/>
-      <c r="BZ4" s="17"/>
-      <c r="CA4" s="17"/>
-      <c r="CB4" s="17"/>
-      <c r="CC4" s="17"/>
-      <c r="CD4" s="17"/>
-      <c r="CE4" s="17"/>
-      <c r="CF4" s="17"/>
-      <c r="CG4" s="17"/>
-      <c r="CH4" s="17"/>
-      <c r="CI4" s="17"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="18">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="20"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="20"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="20"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="120"/>
-      <c r="AM6" s="120"/>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="120"/>
-      <c r="AR6" s="120"/>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="120"/>
-      <c r="AW6" s="120"/>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="120"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="120"/>
-      <c r="BB6" s="120"/>
-      <c r="BC6" s="120"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="120"/>
-      <c r="BF6" s="120"/>
-      <c r="BG6" s="120"/>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="120"/>
-      <c r="BJ6" s="120"/>
-      <c r="BK6" s="120"/>
-      <c r="BL6" s="120"/>
-      <c r="BM6" s="120"/>
-      <c r="BN6" s="120"/>
-      <c r="BO6" s="120"/>
-      <c r="BP6" s="120"/>
-      <c r="BQ6" s="120"/>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="120"/>
-      <c r="BV6" s="120"/>
-      <c r="BW6" s="120"/>
-      <c r="BX6" s="120"/>
-      <c r="BY6" s="120"/>
-      <c r="BZ6" s="120"/>
-      <c r="CA6" s="120"/>
-      <c r="CB6" s="120"/>
-      <c r="CC6" s="120"/>
-      <c r="CD6" s="120"/>
-      <c r="CE6" s="120"/>
-      <c r="CF6" s="120"/>
-      <c r="CG6" s="120"/>
-      <c r="CH6" s="120"/>
-      <c r="CI6" s="120"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="35"/>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="35"/>
+      <c r="BI6" s="35"/>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="35"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="35"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="35"/>
+      <c r="BR6" s="35"/>
+      <c r="BS6" s="35"/>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="35"/>
+      <c r="BV6" s="35"/>
+      <c r="BW6" s="35"/>
+      <c r="BX6" s="35"/>
+      <c r="BY6" s="35"/>
+      <c r="BZ6" s="35"/>
+      <c r="CA6" s="35"/>
+      <c r="CB6" s="35"/>
+      <c r="CC6" s="35"/>
+      <c r="CD6" s="35"/>
+      <c r="CE6" s="35"/>
+      <c r="CF6" s="35"/>
+      <c r="CG6" s="35"/>
+      <c r="CH6" s="35"/>
+      <c r="CI6" s="35"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="122" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="122" t="s">
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="122" t="s">
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="122" t="s">
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="123"/>
-      <c r="AO7" s="123"/>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="127"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="128"/>
-      <c r="AU7" s="125" t="s">
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="125"/>
-      <c r="AW7" s="125"/>
-      <c r="AX7" s="125"/>
-      <c r="AY7" s="125"/>
-      <c r="AZ7" s="125"/>
-      <c r="BA7" s="125"/>
-      <c r="BB7" s="125"/>
-      <c r="BC7" s="125"/>
-      <c r="BD7" s="125"/>
-      <c r="BE7" s="125"/>
-      <c r="BF7" s="125"/>
-      <c r="BG7" s="125"/>
-      <c r="BH7" s="125"/>
-      <c r="BI7" s="125"/>
-      <c r="BJ7" s="125"/>
-      <c r="BK7" s="125"/>
-      <c r="BL7" s="125"/>
-      <c r="BM7" s="125"/>
-      <c r="BN7" s="125"/>
-      <c r="BO7" s="125"/>
-      <c r="BP7" s="125"/>
-      <c r="BQ7" s="126" t="s">
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="126"/>
-      <c r="BS7" s="126"/>
-      <c r="BT7" s="126"/>
-      <c r="BU7" s="126"/>
-      <c r="BV7" s="126"/>
-      <c r="BW7" s="126"/>
-      <c r="BX7" s="126"/>
-      <c r="BY7" s="126"/>
-      <c r="BZ7" s="126"/>
-      <c r="CA7" s="126"/>
-      <c r="CB7" s="126"/>
-      <c r="CC7" s="126"/>
-      <c r="CD7" s="126"/>
-      <c r="CE7" s="126"/>
-      <c r="CF7" s="126"/>
-      <c r="CG7" s="126"/>
-      <c r="CH7" s="126"/>
-      <c r="CI7" s="126"/>
+      <c r="BR7" s="41"/>
+      <c r="BS7" s="41"/>
+      <c r="BT7" s="41"/>
+      <c r="BU7" s="41"/>
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="41"/>
+      <c r="BX7" s="41"/>
+      <c r="BY7" s="41"/>
+      <c r="BZ7" s="41"/>
+      <c r="CA7" s="41"/>
+      <c r="CB7" s="41"/>
+      <c r="CC7" s="41"/>
+      <c r="CD7" s="41"/>
+      <c r="CE7" s="41"/>
+      <c r="CF7" s="41"/>
+      <c r="CG7" s="41"/>
+      <c r="CH7" s="41"/>
+      <c r="CI7" s="41"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="87">
+      <c r="B8" s="46">
         <f>ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="107" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="107"/>
-      <c r="AL8" s="108"/>
-      <c r="AM8" s="108"/>
-      <c r="AN8" s="108"/>
-      <c r="AO8" s="108"/>
-      <c r="AP8" s="108"/>
-      <c r="AQ8" s="108"/>
-      <c r="AR8" s="113"/>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="105"/>
-      <c r="BL8" s="105"/>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
-      <c r="BP8" s="105"/>
-      <c r="BQ8" s="119"/>
-      <c r="BR8" s="119"/>
-      <c r="BS8" s="119"/>
-      <c r="BT8" s="119"/>
-      <c r="BU8" s="119"/>
-      <c r="BV8" s="119"/>
-      <c r="BW8" s="119"/>
-      <c r="BX8" s="119"/>
-      <c r="BY8" s="119"/>
-      <c r="BZ8" s="119"/>
-      <c r="CA8" s="119"/>
-      <c r="CB8" s="119"/>
-      <c r="CC8" s="119"/>
-      <c r="CD8" s="119"/>
-      <c r="CE8" s="119"/>
-      <c r="CF8" s="119"/>
-      <c r="CG8" s="119"/>
-      <c r="CH8" s="119"/>
-      <c r="CI8" s="119"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="44"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="45"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="45"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="45"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="45"/>
+      <c r="BY8" s="45"/>
+      <c r="BZ8" s="45"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="45"/>
+      <c r="CC8" s="45"/>
+      <c r="CD8" s="45"/>
+      <c r="CE8" s="45"/>
+      <c r="CF8" s="45"/>
+      <c r="CG8" s="45"/>
+      <c r="CH8" s="45"/>
+      <c r="CI8" s="45"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="87">
-        <f t="shared" ref="B9:B13" si="0">ROW(B9)-7</f>
+      <c r="B9" s="46">
         <v>2</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="117"/>
-      <c r="AF9" s="117"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="90" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="103" t="s">
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AV9" s="103"/>
-      <c r="AW9" s="103"/>
-      <c r="AX9" s="103"/>
-      <c r="AY9" s="103"/>
-      <c r="AZ9" s="103"/>
-      <c r="BA9" s="103"/>
-      <c r="BB9" s="103"/>
-      <c r="BC9" s="103"/>
-      <c r="BD9" s="103"/>
-      <c r="BE9" s="103" t="s">
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="62"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="BF9" s="103"/>
-      <c r="BG9" s="103"/>
-      <c r="BH9" s="103"/>
-      <c r="BI9" s="103"/>
-      <c r="BJ9" s="103"/>
-      <c r="BK9" s="103"/>
-      <c r="BL9" s="103"/>
-      <c r="BM9" s="103"/>
-      <c r="BN9" s="103"/>
-      <c r="BO9" s="103"/>
-      <c r="BP9" s="103"/>
-      <c r="BQ9" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR9" s="115"/>
-      <c r="BS9" s="115"/>
-      <c r="BT9" s="115"/>
-      <c r="BU9" s="115"/>
-      <c r="BV9" s="115"/>
-      <c r="BW9" s="115"/>
-      <c r="BX9" s="115"/>
-      <c r="BY9" s="115"/>
-      <c r="BZ9" s="115"/>
-      <c r="CA9" s="115"/>
-      <c r="CB9" s="115"/>
-      <c r="CC9" s="115"/>
-      <c r="CD9" s="115"/>
-      <c r="CE9" s="115"/>
-      <c r="CF9" s="115"/>
-      <c r="CG9" s="115"/>
-      <c r="CH9" s="115"/>
-      <c r="CI9" s="115"/>
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="63"/>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63"/>
+      <c r="BJ9" s="63"/>
+      <c r="BK9" s="63"/>
+      <c r="BL9" s="63"/>
+      <c r="BM9" s="63"/>
+      <c r="BN9" s="63"/>
+      <c r="BO9" s="63"/>
+      <c r="BP9" s="63"/>
+      <c r="BQ9" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR9" s="57"/>
+      <c r="BS9" s="57"/>
+      <c r="BT9" s="57"/>
+      <c r="BU9" s="57"/>
+      <c r="BV9" s="57"/>
+      <c r="BW9" s="57"/>
+      <c r="BX9" s="57"/>
+      <c r="BY9" s="57"/>
+      <c r="BZ9" s="57"/>
+      <c r="CA9" s="57"/>
+      <c r="CB9" s="57"/>
+      <c r="CC9" s="57"/>
+      <c r="CD9" s="57"/>
+      <c r="CE9" s="57"/>
+      <c r="CF9" s="57"/>
+      <c r="CG9" s="57"/>
+      <c r="CH9" s="57"/>
+      <c r="CI9" s="64"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="87">
-        <f t="shared" si="0"/>
+      <c r="B10" s="46">
         <v>3</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="112"/>
-      <c r="AK10" s="107"/>
-      <c r="AL10" s="108"/>
-      <c r="AM10" s="108"/>
-      <c r="AN10" s="108"/>
-      <c r="AO10" s="108"/>
-      <c r="AP10" s="108"/>
-      <c r="AQ10" s="108"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="105"/>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="105"/>
-      <c r="AY10" s="105"/>
-      <c r="AZ10" s="105"/>
-      <c r="BA10" s="105"/>
-      <c r="BB10" s="105"/>
-      <c r="BC10" s="105"/>
-      <c r="BD10" s="105"/>
-      <c r="BE10" s="105"/>
-      <c r="BF10" s="105"/>
-      <c r="BG10" s="105"/>
-      <c r="BH10" s="105"/>
-      <c r="BI10" s="105"/>
-      <c r="BJ10" s="105"/>
-      <c r="BK10" s="105"/>
-      <c r="BL10" s="105"/>
-      <c r="BM10" s="105"/>
-      <c r="BN10" s="105"/>
-      <c r="BO10" s="105"/>
-      <c r="BP10" s="105"/>
-      <c r="BQ10" s="106"/>
-      <c r="BR10" s="106"/>
-      <c r="BS10" s="106"/>
-      <c r="BT10" s="106"/>
-      <c r="BU10" s="106"/>
-      <c r="BV10" s="106"/>
-      <c r="BW10" s="106"/>
-      <c r="BX10" s="106"/>
-      <c r="BY10" s="106"/>
-      <c r="BZ10" s="106"/>
-      <c r="CA10" s="106"/>
-      <c r="CB10" s="106"/>
-      <c r="CC10" s="106"/>
-      <c r="CD10" s="106"/>
-      <c r="CE10" s="106"/>
-      <c r="CF10" s="106"/>
-      <c r="CG10" s="106"/>
-      <c r="CH10" s="106"/>
-      <c r="CI10" s="106"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="58"/>
+      <c r="AT10" s="58"/>
+      <c r="AU10" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="57"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="57"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF10" s="58"/>
+      <c r="BG10" s="58"/>
+      <c r="BH10" s="58"/>
+      <c r="BI10" s="58"/>
+      <c r="BJ10" s="58"/>
+      <c r="BK10" s="58"/>
+      <c r="BL10" s="58"/>
+      <c r="BM10" s="58"/>
+      <c r="BN10" s="58"/>
+      <c r="BO10" s="58"/>
+      <c r="BP10" s="58"/>
+      <c r="BQ10" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR10" s="60"/>
+      <c r="BS10" s="60"/>
+      <c r="BT10" s="60"/>
+      <c r="BU10" s="60"/>
+      <c r="BV10" s="60"/>
+      <c r="BW10" s="60"/>
+      <c r="BX10" s="60"/>
+      <c r="BY10" s="60"/>
+      <c r="BZ10" s="60"/>
+      <c r="CA10" s="60"/>
+      <c r="CB10" s="60"/>
+      <c r="CC10" s="60"/>
+      <c r="CD10" s="60"/>
+      <c r="CE10" s="60"/>
+      <c r="CF10" s="60"/>
+      <c r="CG10" s="60"/>
+      <c r="CH10" s="60"/>
+      <c r="CI10" s="61"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="87">
-        <f t="shared" si="0"/>
+      <c r="B11" s="46">
+        <f>ROW(B11)-7</f>
         <v>4</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="81" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="76">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="57"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF11" s="58"/>
+      <c r="BG11" s="58"/>
+      <c r="BH11" s="58"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="58"/>
+      <c r="BK11" s="58"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
+      <c r="BP11" s="58"/>
+      <c r="BQ11" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR11" s="57"/>
+      <c r="BS11" s="57"/>
+      <c r="BT11" s="57"/>
+      <c r="BU11" s="57"/>
+      <c r="BV11" s="57"/>
+      <c r="BW11" s="57"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="57"/>
+      <c r="BZ11" s="57"/>
+      <c r="CA11" s="57"/>
+      <c r="CB11" s="57"/>
+      <c r="CC11" s="57"/>
+      <c r="CD11" s="57"/>
+      <c r="CE11" s="57"/>
+      <c r="CF11" s="57"/>
+      <c r="CG11" s="57"/>
+      <c r="CH11" s="57"/>
+      <c r="CI11" s="64"/>
+    </row>
+    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="46">
+        <f t="shared" ref="B12" si="0">ROW(B12)-7</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="44"/>
+      <c r="BH12" s="44"/>
+      <c r="BI12" s="44"/>
+      <c r="BJ12" s="44"/>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="44"/>
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="44"/>
+      <c r="BQ12" s="84"/>
+      <c r="BR12" s="84"/>
+      <c r="BS12" s="84"/>
+      <c r="BT12" s="84"/>
+      <c r="BU12" s="84"/>
+      <c r="BV12" s="84"/>
+      <c r="BW12" s="84"/>
+      <c r="BX12" s="84"/>
+      <c r="BY12" s="84"/>
+      <c r="BZ12" s="84"/>
+      <c r="CA12" s="84"/>
+      <c r="CB12" s="84"/>
+      <c r="CC12" s="84"/>
+      <c r="CD12" s="84"/>
+      <c r="CE12" s="84"/>
+      <c r="CF12" s="84"/>
+      <c r="CG12" s="84"/>
+      <c r="CH12" s="84"/>
+      <c r="CI12" s="84"/>
+    </row>
+    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="46">
+        <v>6</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL13" s="80"/>
+      <c r="AM13" s="80"/>
+      <c r="AN13" s="80"/>
+      <c r="AO13" s="80"/>
+      <c r="AP13" s="80"/>
+      <c r="AQ13" s="80"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="77"/>
+      <c r="BH13" s="77"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="77"/>
+      <c r="BK13" s="77"/>
+      <c r="BL13" s="77"/>
+      <c r="BM13" s="77"/>
+      <c r="BN13" s="77"/>
+      <c r="BO13" s="77"/>
+      <c r="BP13" s="77"/>
+      <c r="BQ13" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="103"/>
-      <c r="AV11" s="103"/>
-      <c r="AW11" s="103"/>
-      <c r="AX11" s="103"/>
-      <c r="AY11" s="103"/>
-      <c r="AZ11" s="103"/>
-      <c r="BA11" s="103"/>
-      <c r="BB11" s="103"/>
-      <c r="BC11" s="103"/>
-      <c r="BD11" s="103"/>
-      <c r="BE11" s="103"/>
-      <c r="BF11" s="103"/>
-      <c r="BG11" s="103"/>
-      <c r="BH11" s="103"/>
-      <c r="BI11" s="103"/>
-      <c r="BJ11" s="103"/>
-      <c r="BK11" s="103"/>
-      <c r="BL11" s="103"/>
-      <c r="BM11" s="103"/>
-      <c r="BN11" s="103"/>
-      <c r="BO11" s="103"/>
-      <c r="BP11" s="103"/>
-      <c r="BQ11" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR11" s="104"/>
-      <c r="BS11" s="104"/>
-      <c r="BT11" s="104"/>
-      <c r="BU11" s="104"/>
-      <c r="BV11" s="104"/>
-      <c r="BW11" s="104"/>
-      <c r="BX11" s="104"/>
-      <c r="BY11" s="104"/>
-      <c r="BZ11" s="104"/>
-      <c r="CA11" s="104"/>
-      <c r="CB11" s="104"/>
-      <c r="CC11" s="104"/>
-      <c r="CD11" s="104"/>
-      <c r="CE11" s="104"/>
-      <c r="CF11" s="104"/>
-      <c r="CG11" s="104"/>
-      <c r="CH11" s="104"/>
-      <c r="CI11" s="104"/>
-    </row>
-    <row r="12" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="87">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="90">
-        <v>10</v>
-      </c>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="81"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="82"/>
-      <c r="BA12" s="82"/>
-      <c r="BB12" s="82"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="103"/>
-      <c r="BF12" s="103"/>
-      <c r="BG12" s="103"/>
-      <c r="BH12" s="103"/>
-      <c r="BI12" s="103"/>
-      <c r="BJ12" s="103"/>
-      <c r="BK12" s="103"/>
-      <c r="BL12" s="103"/>
-      <c r="BM12" s="103"/>
-      <c r="BN12" s="103"/>
-      <c r="BO12" s="103"/>
-      <c r="BP12" s="103"/>
-      <c r="BQ12" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="BR12" s="104"/>
-      <c r="BS12" s="104"/>
-      <c r="BT12" s="104"/>
-      <c r="BU12" s="104"/>
-      <c r="BV12" s="104"/>
-      <c r="BW12" s="104"/>
-      <c r="BX12" s="104"/>
-      <c r="BY12" s="104"/>
-      <c r="BZ12" s="104"/>
-      <c r="CA12" s="104"/>
-      <c r="CB12" s="104"/>
-      <c r="CC12" s="104"/>
-      <c r="CD12" s="104"/>
-      <c r="CE12" s="104"/>
-      <c r="CF12" s="104"/>
-      <c r="CG12" s="104"/>
-      <c r="CH12" s="104"/>
-      <c r="CI12" s="104"/>
-    </row>
-    <row r="13" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="87">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="82"/>
-      <c r="BA13" s="82"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="83"/>
-      <c r="BE13" s="103"/>
-      <c r="BF13" s="103"/>
-      <c r="BG13" s="103"/>
-      <c r="BH13" s="103"/>
-      <c r="BI13" s="103"/>
-      <c r="BJ13" s="103"/>
-      <c r="BK13" s="103"/>
-      <c r="BL13" s="103"/>
-      <c r="BM13" s="103"/>
-      <c r="BN13" s="103"/>
-      <c r="BO13" s="103"/>
-      <c r="BP13" s="103"/>
-      <c r="BQ13" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="BR13" s="104"/>
-      <c r="BS13" s="104"/>
-      <c r="BT13" s="104"/>
-      <c r="BU13" s="104"/>
-      <c r="BV13" s="104"/>
-      <c r="BW13" s="104"/>
-      <c r="BX13" s="104"/>
-      <c r="BY13" s="104"/>
-      <c r="BZ13" s="104"/>
-      <c r="CA13" s="104"/>
-      <c r="CB13" s="104"/>
-      <c r="CC13" s="104"/>
-      <c r="CD13" s="104"/>
-      <c r="CE13" s="104"/>
-      <c r="CF13" s="104"/>
-      <c r="CG13" s="104"/>
-      <c r="CH13" s="104"/>
-      <c r="CI13" s="104"/>
+      <c r="BR13" s="78"/>
+      <c r="BS13" s="78"/>
+      <c r="BT13" s="78"/>
+      <c r="BU13" s="78"/>
+      <c r="BV13" s="78"/>
+      <c r="BW13" s="78"/>
+      <c r="BX13" s="78"/>
+      <c r="BY13" s="78"/>
+      <c r="BZ13" s="78"/>
+      <c r="CA13" s="78"/>
+      <c r="CB13" s="78"/>
+      <c r="CC13" s="78"/>
+      <c r="CD13" s="78"/>
+      <c r="CE13" s="78"/>
+      <c r="CF13" s="78"/>
+      <c r="CG13" s="78"/>
+      <c r="CH13" s="78"/>
+      <c r="CI13" s="78"/>
     </row>
     <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="87">
-        <v>8</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="101"/>
-      <c r="AS14" s="101"/>
-      <c r="AT14" s="102"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="94"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="96"/>
-      <c r="BF14" s="96"/>
-      <c r="BG14" s="96"/>
-      <c r="BH14" s="96"/>
-      <c r="BI14" s="96"/>
-      <c r="BJ14" s="96"/>
-      <c r="BK14" s="96"/>
-      <c r="BL14" s="96"/>
-      <c r="BM14" s="96"/>
-      <c r="BN14" s="96"/>
-      <c r="BO14" s="96"/>
-      <c r="BP14" s="96"/>
-      <c r="BQ14" s="97"/>
-      <c r="BR14" s="97"/>
-      <c r="BS14" s="97"/>
-      <c r="BT14" s="97"/>
-      <c r="BU14" s="97"/>
-      <c r="BV14" s="97"/>
-      <c r="BW14" s="97"/>
-      <c r="BX14" s="97"/>
-      <c r="BY14" s="97"/>
-      <c r="BZ14" s="97"/>
-      <c r="CA14" s="97"/>
-      <c r="CB14" s="97"/>
-      <c r="CC14" s="97"/>
-      <c r="CD14" s="97"/>
-      <c r="CE14" s="97"/>
-      <c r="CF14" s="97"/>
-      <c r="CG14" s="97"/>
-      <c r="CH14" s="97"/>
-      <c r="CI14" s="97"/>
+      <c r="B14" s="46">
+        <v>7</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="68">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="80"/>
+      <c r="AR14" s="80"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="81"/>
+      <c r="AU14" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV14" s="80"/>
+      <c r="AW14" s="80"/>
+      <c r="AX14" s="80"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="80"/>
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="80"/>
+      <c r="BC14" s="80"/>
+      <c r="BD14" s="81"/>
+      <c r="BE14" s="79"/>
+      <c r="BF14" s="80"/>
+      <c r="BG14" s="80"/>
+      <c r="BH14" s="80"/>
+      <c r="BI14" s="80"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="80"/>
+      <c r="BN14" s="80"/>
+      <c r="BO14" s="80"/>
+      <c r="BP14" s="81"/>
+      <c r="BQ14" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR14" s="86"/>
+      <c r="BS14" s="86"/>
+      <c r="BT14" s="86"/>
+      <c r="BU14" s="86"/>
+      <c r="BV14" s="86"/>
+      <c r="BW14" s="86"/>
+      <c r="BX14" s="86"/>
+      <c r="BY14" s="86"/>
+      <c r="BZ14" s="86"/>
+      <c r="CA14" s="86"/>
+      <c r="CB14" s="86"/>
+      <c r="CC14" s="86"/>
+      <c r="CD14" s="86"/>
+      <c r="CE14" s="86"/>
+      <c r="CF14" s="86"/>
+      <c r="CG14" s="86"/>
+      <c r="CH14" s="86"/>
+      <c r="CI14" s="87"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="81" t="s">
+      <c r="B15" s="46">
+        <f t="shared" ref="B15:B16" si="1">ROW(B15)-7</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="64"/>
-      <c r="AS15" s="64"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="81"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="82"/>
-      <c r="BB15" s="82"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="83"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="82"/>
-      <c r="BG15" s="82"/>
-      <c r="BH15" s="82"/>
-      <c r="BI15" s="82"/>
-      <c r="BJ15" s="82"/>
-      <c r="BK15" s="82"/>
-      <c r="BL15" s="82"/>
-      <c r="BM15" s="82"/>
-      <c r="BN15" s="82"/>
-      <c r="BO15" s="82"/>
-      <c r="BP15" s="83"/>
-      <c r="BQ15" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="BR15" s="85"/>
-      <c r="BS15" s="85"/>
-      <c r="BT15" s="85"/>
-      <c r="BU15" s="85"/>
-      <c r="BV15" s="85"/>
-      <c r="BW15" s="85"/>
-      <c r="BX15" s="85"/>
-      <c r="BY15" s="85"/>
-      <c r="BZ15" s="85"/>
-      <c r="CA15" s="85"/>
-      <c r="CB15" s="85"/>
-      <c r="CC15" s="85"/>
-      <c r="CD15" s="85"/>
-      <c r="CE15" s="85"/>
-      <c r="CF15" s="85"/>
-      <c r="CG15" s="85"/>
-      <c r="CH15" s="85"/>
-      <c r="CI15" s="86"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="80"/>
+      <c r="AP15" s="80"/>
+      <c r="AQ15" s="80"/>
+      <c r="AR15" s="80"/>
+      <c r="AS15" s="80"/>
+      <c r="AT15" s="81"/>
+      <c r="AU15" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+      <c r="BC15" s="69"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF15" s="69"/>
+      <c r="BG15" s="69"/>
+      <c r="BH15" s="69"/>
+      <c r="BI15" s="69"/>
+      <c r="BJ15" s="69"/>
+      <c r="BK15" s="69"/>
+      <c r="BL15" s="69"/>
+      <c r="BM15" s="69"/>
+      <c r="BN15" s="69"/>
+      <c r="BO15" s="69"/>
+      <c r="BP15" s="70"/>
+      <c r="BQ15" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR15" s="86"/>
+      <c r="BS15" s="86"/>
+      <c r="BT15" s="86"/>
+      <c r="BU15" s="86"/>
+      <c r="BV15" s="86"/>
+      <c r="BW15" s="86"/>
+      <c r="BX15" s="86"/>
+      <c r="BY15" s="86"/>
+      <c r="BZ15" s="86"/>
+      <c r="CA15" s="86"/>
+      <c r="CB15" s="86"/>
+      <c r="CC15" s="86"/>
+      <c r="CD15" s="86"/>
+      <c r="CE15" s="86"/>
+      <c r="CF15" s="86"/>
+      <c r="CG15" s="86"/>
+      <c r="CH15" s="86"/>
+      <c r="CI15" s="87"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="81"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="82"/>
-      <c r="AZ16" s="82"/>
-      <c r="BA16" s="82"/>
-      <c r="BB16" s="82"/>
-      <c r="BC16" s="82"/>
-      <c r="BD16" s="83"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="82"/>
-      <c r="BG16" s="82"/>
-      <c r="BH16" s="82"/>
-      <c r="BI16" s="82"/>
-      <c r="BJ16" s="82"/>
-      <c r="BK16" s="82"/>
-      <c r="BL16" s="82"/>
-      <c r="BM16" s="82"/>
-      <c r="BN16" s="82"/>
-      <c r="BO16" s="82"/>
-      <c r="BP16" s="83"/>
-      <c r="BQ16" s="84"/>
-      <c r="BR16" s="85"/>
-      <c r="BS16" s="85"/>
-      <c r="BT16" s="85"/>
-      <c r="BU16" s="85"/>
-      <c r="BV16" s="85"/>
-      <c r="BW16" s="85"/>
-      <c r="BX16" s="85"/>
-      <c r="BY16" s="85"/>
-      <c r="BZ16" s="85"/>
-      <c r="CA16" s="85"/>
-      <c r="CB16" s="85"/>
-      <c r="CC16" s="85"/>
-      <c r="CD16" s="85"/>
-      <c r="CE16" s="85"/>
-      <c r="CF16" s="85"/>
-      <c r="CG16" s="85"/>
-      <c r="CH16" s="85"/>
-      <c r="CI16" s="86"/>
+      <c r="B16" s="46">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="88"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="89"/>
+      <c r="AO16" s="89"/>
+      <c r="AP16" s="89"/>
+      <c r="AQ16" s="89"/>
+      <c r="AR16" s="89"/>
+      <c r="AS16" s="89"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="88"/>
+      <c r="AV16" s="89"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="89"/>
+      <c r="AY16" s="89"/>
+      <c r="AZ16" s="89"/>
+      <c r="BA16" s="89"/>
+      <c r="BB16" s="89"/>
+      <c r="BC16" s="89"/>
+      <c r="BD16" s="90"/>
+      <c r="BE16" s="88"/>
+      <c r="BF16" s="89"/>
+      <c r="BG16" s="89"/>
+      <c r="BH16" s="89"/>
+      <c r="BI16" s="89"/>
+      <c r="BJ16" s="89"/>
+      <c r="BK16" s="89"/>
+      <c r="BL16" s="89"/>
+      <c r="BM16" s="89"/>
+      <c r="BN16" s="89"/>
+      <c r="BO16" s="89"/>
+      <c r="BP16" s="90"/>
+      <c r="BQ16" s="91"/>
+      <c r="BR16" s="92"/>
+      <c r="BS16" s="92"/>
+      <c r="BT16" s="92"/>
+      <c r="BU16" s="92"/>
+      <c r="BV16" s="92"/>
+      <c r="BW16" s="92"/>
+      <c r="BX16" s="92"/>
+      <c r="BY16" s="92"/>
+      <c r="BZ16" s="92"/>
+      <c r="CA16" s="92"/>
+      <c r="CB16" s="92"/>
+      <c r="CC16" s="92"/>
+      <c r="CD16" s="92"/>
+      <c r="CE16" s="92"/>
+      <c r="CF16" s="92"/>
+      <c r="CG16" s="92"/>
+      <c r="CH16" s="92"/>
+      <c r="CI16" s="93"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="82"/>
-      <c r="AY17" s="82"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="82"/>
-      <c r="BB17" s="82"/>
-      <c r="BC17" s="82"/>
-      <c r="BD17" s="83"/>
-      <c r="BE17" s="81"/>
-      <c r="BF17" s="82"/>
-      <c r="BG17" s="82"/>
-      <c r="BH17" s="82"/>
-      <c r="BI17" s="82"/>
-      <c r="BJ17" s="82"/>
-      <c r="BK17" s="82"/>
-      <c r="BL17" s="82"/>
-      <c r="BM17" s="82"/>
-      <c r="BN17" s="82"/>
-      <c r="BO17" s="82"/>
-      <c r="BP17" s="83"/>
-      <c r="BQ17" s="84"/>
-      <c r="BR17" s="85"/>
-      <c r="BS17" s="85"/>
-      <c r="BT17" s="85"/>
-      <c r="BU17" s="85"/>
-      <c r="BV17" s="85"/>
-      <c r="BW17" s="85"/>
-      <c r="BX17" s="85"/>
-      <c r="BY17" s="85"/>
-      <c r="BZ17" s="85"/>
-      <c r="CA17" s="85"/>
-      <c r="CB17" s="85"/>
-      <c r="CC17" s="85"/>
-      <c r="CD17" s="85"/>
-      <c r="CE17" s="85"/>
-      <c r="CF17" s="85"/>
-      <c r="CG17" s="85"/>
-      <c r="CH17" s="85"/>
-      <c r="CI17" s="86"/>
+      <c r="B17" s="46">
+        <v>10</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="80"/>
+      <c r="AN17" s="80"/>
+      <c r="AO17" s="80"/>
+      <c r="AP17" s="80"/>
+      <c r="AQ17" s="80"/>
+      <c r="AR17" s="80"/>
+      <c r="AS17" s="80"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="69"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF17" s="69"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="69"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="69"/>
+      <c r="BK17" s="69"/>
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="69"/>
+      <c r="BN17" s="69"/>
+      <c r="BO17" s="69"/>
+      <c r="BP17" s="70"/>
+      <c r="BQ17" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR17" s="86"/>
+      <c r="BS17" s="86"/>
+      <c r="BT17" s="86"/>
+      <c r="BU17" s="86"/>
+      <c r="BV17" s="86"/>
+      <c r="BW17" s="86"/>
+      <c r="BX17" s="86"/>
+      <c r="BY17" s="86"/>
+      <c r="BZ17" s="86"/>
+      <c r="CA17" s="86"/>
+      <c r="CB17" s="86"/>
+      <c r="CC17" s="86"/>
+      <c r="CD17" s="86"/>
+      <c r="CE17" s="86"/>
+      <c r="CF17" s="86"/>
+      <c r="CG17" s="86"/>
+      <c r="CH17" s="86"/>
+      <c r="CI17" s="87"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="91"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="82"/>
-      <c r="AQ18" s="82"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="81"/>
-      <c r="AV18" s="82"/>
-      <c r="AW18" s="82"/>
-      <c r="AX18" s="82"/>
-      <c r="AY18" s="82"/>
-      <c r="AZ18" s="82"/>
-      <c r="BA18" s="82"/>
-      <c r="BB18" s="82"/>
-      <c r="BC18" s="82"/>
-      <c r="BD18" s="83"/>
-      <c r="BE18" s="81"/>
-      <c r="BF18" s="82"/>
-      <c r="BG18" s="82"/>
-      <c r="BH18" s="82"/>
-      <c r="BI18" s="82"/>
-      <c r="BJ18" s="82"/>
-      <c r="BK18" s="82"/>
-      <c r="BL18" s="82"/>
-      <c r="BM18" s="82"/>
-      <c r="BN18" s="82"/>
-      <c r="BO18" s="82"/>
-      <c r="BP18" s="83"/>
-      <c r="BQ18" s="84"/>
-      <c r="BR18" s="85"/>
-      <c r="BS18" s="85"/>
-      <c r="BT18" s="85"/>
-      <c r="BU18" s="85"/>
-      <c r="BV18" s="85"/>
-      <c r="BW18" s="85"/>
-      <c r="BX18" s="85"/>
-      <c r="BY18" s="85"/>
-      <c r="BZ18" s="85"/>
-      <c r="CA18" s="85"/>
-      <c r="CB18" s="85"/>
-      <c r="CC18" s="85"/>
-      <c r="CD18" s="85"/>
-      <c r="CE18" s="85"/>
-      <c r="CF18" s="85"/>
-      <c r="CG18" s="85"/>
-      <c r="CH18" s="85"/>
-      <c r="CI18" s="86"/>
+      <c r="B18" s="46">
+        <v>11</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="80"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="82"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
+      <c r="AZ18" s="77"/>
+      <c r="BA18" s="77"/>
+      <c r="BB18" s="77"/>
+      <c r="BC18" s="77"/>
+      <c r="BD18" s="77"/>
+      <c r="BE18" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF18" s="77"/>
+      <c r="BG18" s="77"/>
+      <c r="BH18" s="77"/>
+      <c r="BI18" s="77"/>
+      <c r="BJ18" s="77"/>
+      <c r="BK18" s="77"/>
+      <c r="BL18" s="77"/>
+      <c r="BM18" s="77"/>
+      <c r="BN18" s="77"/>
+      <c r="BO18" s="77"/>
+      <c r="BP18" s="77"/>
+      <c r="BQ18" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR18" s="97"/>
+      <c r="BS18" s="97"/>
+      <c r="BT18" s="97"/>
+      <c r="BU18" s="97"/>
+      <c r="BV18" s="97"/>
+      <c r="BW18" s="97"/>
+      <c r="BX18" s="97"/>
+      <c r="BY18" s="97"/>
+      <c r="BZ18" s="97"/>
+      <c r="CA18" s="97"/>
+      <c r="CB18" s="97"/>
+      <c r="CC18" s="97"/>
+      <c r="CD18" s="97"/>
+      <c r="CE18" s="97"/>
+      <c r="CF18" s="97"/>
+      <c r="CG18" s="97"/>
+      <c r="CH18" s="97"/>
+      <c r="CI18" s="97"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="91"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="82"/>
-      <c r="AQ19" s="82"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="81"/>
-      <c r="AV19" s="82"/>
-      <c r="AW19" s="82"/>
-      <c r="AX19" s="82"/>
-      <c r="AY19" s="82"/>
-      <c r="AZ19" s="82"/>
-      <c r="BA19" s="82"/>
-      <c r="BB19" s="82"/>
-      <c r="BC19" s="82"/>
-      <c r="BD19" s="83"/>
-      <c r="BE19" s="81"/>
-      <c r="BF19" s="82"/>
-      <c r="BG19" s="82"/>
-      <c r="BH19" s="82"/>
-      <c r="BI19" s="82"/>
-      <c r="BJ19" s="82"/>
-      <c r="BK19" s="82"/>
-      <c r="BL19" s="82"/>
-      <c r="BM19" s="82"/>
-      <c r="BN19" s="82"/>
-      <c r="BO19" s="82"/>
-      <c r="BP19" s="83"/>
-      <c r="BQ19" s="84"/>
-      <c r="BR19" s="85"/>
-      <c r="BS19" s="85"/>
-      <c r="BT19" s="85"/>
-      <c r="BU19" s="85"/>
-      <c r="BV19" s="85"/>
-      <c r="BW19" s="85"/>
-      <c r="BX19" s="85"/>
-      <c r="BY19" s="85"/>
-      <c r="BZ19" s="85"/>
-      <c r="CA19" s="85"/>
-      <c r="CB19" s="85"/>
-      <c r="CC19" s="85"/>
-      <c r="CD19" s="85"/>
-      <c r="CE19" s="85"/>
-      <c r="CF19" s="85"/>
-      <c r="CG19" s="85"/>
-      <c r="CH19" s="85"/>
-      <c r="CI19" s="86"/>
+      <c r="B19" s="46">
+        <f>ROW(B19)-7</f>
+        <v>12</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="106"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="99"/>
+      <c r="BB19" s="99"/>
+      <c r="BC19" s="99"/>
+      <c r="BD19" s="100"/>
+      <c r="BE19" s="98"/>
+      <c r="BF19" s="99"/>
+      <c r="BG19" s="99"/>
+      <c r="BH19" s="99"/>
+      <c r="BI19" s="99"/>
+      <c r="BJ19" s="99"/>
+      <c r="BK19" s="99"/>
+      <c r="BL19" s="99"/>
+      <c r="BM19" s="99"/>
+      <c r="BN19" s="99"/>
+      <c r="BO19" s="99"/>
+      <c r="BP19" s="100"/>
+      <c r="BQ19" s="101"/>
+      <c r="BR19" s="102"/>
+      <c r="BS19" s="102"/>
+      <c r="BT19" s="102"/>
+      <c r="BU19" s="102"/>
+      <c r="BV19" s="102"/>
+      <c r="BW19" s="102"/>
+      <c r="BX19" s="102"/>
+      <c r="BY19" s="102"/>
+      <c r="BZ19" s="102"/>
+      <c r="CA19" s="102"/>
+      <c r="CB19" s="102"/>
+      <c r="CC19" s="102"/>
+      <c r="CD19" s="102"/>
+      <c r="CE19" s="102"/>
+      <c r="CF19" s="102"/>
+      <c r="CG19" s="102"/>
+      <c r="CH19" s="102"/>
+      <c r="CI19" s="103"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="54"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="53"/>
-      <c r="BJ20" s="53"/>
-      <c r="BK20" s="53"/>
-      <c r="BL20" s="53"/>
-      <c r="BM20" s="53"/>
-      <c r="BN20" s="53"/>
-      <c r="BO20" s="53"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="55"/>
-      <c r="BR20" s="56"/>
-      <c r="BS20" s="56"/>
-      <c r="BT20" s="56"/>
-      <c r="BU20" s="56"/>
-      <c r="BV20" s="56"/>
-      <c r="BW20" s="56"/>
-      <c r="BX20" s="56"/>
-      <c r="BY20" s="56"/>
-      <c r="BZ20" s="56"/>
-      <c r="CA20" s="56"/>
-      <c r="CB20" s="56"/>
-      <c r="CC20" s="56"/>
-      <c r="CD20" s="56"/>
-      <c r="CE20" s="56"/>
-      <c r="CF20" s="56"/>
-      <c r="CG20" s="56"/>
-      <c r="CH20" s="56"/>
-      <c r="CI20" s="57"/>
+      <c r="B20" s="46">
+        <f t="shared" ref="B20:B23" si="2">ROW(B20)-7</f>
+        <v>13</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="107"/>
+      <c r="AL20" s="108"/>
+      <c r="AM20" s="108"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="108"/>
+      <c r="AP20" s="108"/>
+      <c r="AQ20" s="108"/>
+      <c r="AR20" s="82"/>
+      <c r="AS20" s="82"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="108"/>
+      <c r="AX20" s="108"/>
+      <c r="AY20" s="108"/>
+      <c r="AZ20" s="108"/>
+      <c r="BA20" s="108"/>
+      <c r="BB20" s="108"/>
+      <c r="BC20" s="108"/>
+      <c r="BD20" s="109"/>
+      <c r="BE20" s="107"/>
+      <c r="BF20" s="108"/>
+      <c r="BG20" s="108"/>
+      <c r="BH20" s="108"/>
+      <c r="BI20" s="108"/>
+      <c r="BJ20" s="108"/>
+      <c r="BK20" s="108"/>
+      <c r="BL20" s="108"/>
+      <c r="BM20" s="108"/>
+      <c r="BN20" s="108"/>
+      <c r="BO20" s="108"/>
+      <c r="BP20" s="109"/>
+      <c r="BQ20" s="110"/>
+      <c r="BR20" s="111"/>
+      <c r="BS20" s="111"/>
+      <c r="BT20" s="111"/>
+      <c r="BU20" s="111"/>
+      <c r="BV20" s="111"/>
+      <c r="BW20" s="111"/>
+      <c r="BX20" s="111"/>
+      <c r="BY20" s="111"/>
+      <c r="BZ20" s="111"/>
+      <c r="CA20" s="111"/>
+      <c r="CB20" s="111"/>
+      <c r="CC20" s="111"/>
+      <c r="CD20" s="111"/>
+      <c r="CE20" s="111"/>
+      <c r="CF20" s="111"/>
+      <c r="CG20" s="111"/>
+      <c r="CH20" s="111"/>
+      <c r="CI20" s="112"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="64"/>
-      <c r="AS21" s="64"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="53"/>
-      <c r="BI21" s="53"/>
-      <c r="BJ21" s="53"/>
-      <c r="BK21" s="53"/>
-      <c r="BL21" s="53"/>
-      <c r="BM21" s="53"/>
-      <c r="BN21" s="53"/>
-      <c r="BO21" s="53"/>
-      <c r="BP21" s="54"/>
-      <c r="BQ21" s="78"/>
-      <c r="BR21" s="79"/>
-      <c r="BS21" s="79"/>
-      <c r="BT21" s="79"/>
-      <c r="BU21" s="79"/>
-      <c r="BV21" s="79"/>
-      <c r="BW21" s="79"/>
-      <c r="BX21" s="79"/>
-      <c r="BY21" s="79"/>
-      <c r="BZ21" s="79"/>
-      <c r="CA21" s="79"/>
-      <c r="CB21" s="79"/>
-      <c r="CC21" s="79"/>
-      <c r="CD21" s="79"/>
-      <c r="CE21" s="79"/>
-      <c r="CF21" s="79"/>
-      <c r="CG21" s="79"/>
-      <c r="CH21" s="79"/>
-      <c r="CI21" s="80"/>
+    <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="46">
+        <v>14</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="125"/>
+      <c r="AI21" s="126"/>
+      <c r="AJ21" s="127"/>
+      <c r="AK21" s="116"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="117"/>
+      <c r="AO21" s="117"/>
+      <c r="AP21" s="117"/>
+      <c r="AQ21" s="117"/>
+      <c r="AR21" s="128"/>
+      <c r="AS21" s="128"/>
+      <c r="AT21" s="129"/>
+      <c r="AU21" s="116"/>
+      <c r="AV21" s="117"/>
+      <c r="AW21" s="117"/>
+      <c r="AX21" s="117"/>
+      <c r="AY21" s="117"/>
+      <c r="AZ21" s="117"/>
+      <c r="BA21" s="117"/>
+      <c r="BB21" s="117"/>
+      <c r="BC21" s="117"/>
+      <c r="BD21" s="118"/>
+      <c r="BE21" s="116"/>
+      <c r="BF21" s="117"/>
+      <c r="BG21" s="117"/>
+      <c r="BH21" s="117"/>
+      <c r="BI21" s="117"/>
+      <c r="BJ21" s="117"/>
+      <c r="BK21" s="117"/>
+      <c r="BL21" s="117"/>
+      <c r="BM21" s="117"/>
+      <c r="BN21" s="117"/>
+      <c r="BO21" s="117"/>
+      <c r="BP21" s="118"/>
+      <c r="BQ21" s="119"/>
+      <c r="BR21" s="120"/>
+      <c r="BS21" s="120"/>
+      <c r="BT21" s="120"/>
+      <c r="BU21" s="120"/>
+      <c r="BV21" s="120"/>
+      <c r="BW21" s="120"/>
+      <c r="BX21" s="120"/>
+      <c r="BY21" s="120"/>
+      <c r="BZ21" s="120"/>
+      <c r="CA21" s="120"/>
+      <c r="CB21" s="120"/>
+      <c r="CC21" s="120"/>
+      <c r="CD21" s="120"/>
+      <c r="CE21" s="120"/>
+      <c r="CF21" s="120"/>
+      <c r="CG21" s="120"/>
+      <c r="CH21" s="120"/>
+      <c r="CI21" s="121"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="54"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
-      <c r="BI22" s="53"/>
-      <c r="BJ22" s="53"/>
-      <c r="BK22" s="53"/>
-      <c r="BL22" s="53"/>
-      <c r="BM22" s="53"/>
-      <c r="BN22" s="53"/>
-      <c r="BO22" s="53"/>
-      <c r="BP22" s="54"/>
-      <c r="BQ22" s="75"/>
-      <c r="BR22" s="76"/>
-      <c r="BS22" s="76"/>
-      <c r="BT22" s="76"/>
-      <c r="BU22" s="76"/>
-      <c r="BV22" s="76"/>
-      <c r="BW22" s="76"/>
-      <c r="BX22" s="76"/>
-      <c r="BY22" s="76"/>
-      <c r="BZ22" s="76"/>
-      <c r="CA22" s="76"/>
-      <c r="CB22" s="76"/>
-      <c r="CC22" s="76"/>
-      <c r="CD22" s="76"/>
-      <c r="CE22" s="76"/>
-      <c r="CF22" s="76"/>
-      <c r="CG22" s="76"/>
-      <c r="CH22" s="76"/>
-      <c r="CI22" s="77"/>
+      <c r="B22" s="46">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="105"/>
+      <c r="AJ22" s="106"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="83"/>
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="99"/>
+      <c r="BB22" s="99"/>
+      <c r="BC22" s="99"/>
+      <c r="BD22" s="100"/>
+      <c r="BE22" s="98"/>
+      <c r="BF22" s="99"/>
+      <c r="BG22" s="99"/>
+      <c r="BH22" s="99"/>
+      <c r="BI22" s="99"/>
+      <c r="BJ22" s="99"/>
+      <c r="BK22" s="99"/>
+      <c r="BL22" s="99"/>
+      <c r="BM22" s="99"/>
+      <c r="BN22" s="99"/>
+      <c r="BO22" s="99"/>
+      <c r="BP22" s="100"/>
+      <c r="BQ22" s="101"/>
+      <c r="BR22" s="102"/>
+      <c r="BS22" s="102"/>
+      <c r="BT22" s="102"/>
+      <c r="BU22" s="102"/>
+      <c r="BV22" s="102"/>
+      <c r="BW22" s="102"/>
+      <c r="BX22" s="102"/>
+      <c r="BY22" s="102"/>
+      <c r="BZ22" s="102"/>
+      <c r="CA22" s="102"/>
+      <c r="CB22" s="102"/>
+      <c r="CC22" s="102"/>
+      <c r="CD22" s="102"/>
+      <c r="CE22" s="102"/>
+      <c r="CF22" s="102"/>
+      <c r="CG22" s="102"/>
+      <c r="CH22" s="102"/>
+      <c r="CI22" s="103"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="74"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="67"/>
-      <c r="AN23" s="67"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="67"/>
-      <c r="AQ23" s="67"/>
-      <c r="AR23" s="64"/>
-      <c r="AS23" s="64"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="67"/>
-      <c r="AW23" s="67"/>
-      <c r="AX23" s="67"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="67"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="66"/>
-      <c r="BF23" s="67"/>
-      <c r="BG23" s="67"/>
-      <c r="BH23" s="67"/>
-      <c r="BI23" s="67"/>
-      <c r="BJ23" s="67"/>
-      <c r="BK23" s="67"/>
-      <c r="BL23" s="67"/>
-      <c r="BM23" s="67"/>
-      <c r="BN23" s="67"/>
-      <c r="BO23" s="67"/>
-      <c r="BP23" s="68"/>
-      <c r="BQ23" s="69"/>
-      <c r="BR23" s="70"/>
-      <c r="BS23" s="70"/>
-      <c r="BT23" s="70"/>
-      <c r="BU23" s="70"/>
-      <c r="BV23" s="70"/>
-      <c r="BW23" s="70"/>
-      <c r="BX23" s="70"/>
-      <c r="BY23" s="70"/>
-      <c r="BZ23" s="70"/>
-      <c r="CA23" s="70"/>
-      <c r="CB23" s="70"/>
-      <c r="CC23" s="70"/>
-      <c r="CD23" s="70"/>
-      <c r="CE23" s="70"/>
-      <c r="CF23" s="70"/>
-      <c r="CG23" s="70"/>
-      <c r="CH23" s="70"/>
-      <c r="CI23" s="71"/>
+      <c r="B23" s="46">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="115"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="109"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="108"/>
+      <c r="AJ23" s="109"/>
+      <c r="AK23" s="107"/>
+      <c r="AL23" s="108"/>
+      <c r="AM23" s="108"/>
+      <c r="AN23" s="108"/>
+      <c r="AO23" s="108"/>
+      <c r="AP23" s="108"/>
+      <c r="AQ23" s="108"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="108"/>
+      <c r="AW23" s="108"/>
+      <c r="AX23" s="108"/>
+      <c r="AY23" s="108"/>
+      <c r="AZ23" s="108"/>
+      <c r="BA23" s="108"/>
+      <c r="BB23" s="108"/>
+      <c r="BC23" s="108"/>
+      <c r="BD23" s="109"/>
+      <c r="BE23" s="107"/>
+      <c r="BF23" s="108"/>
+      <c r="BG23" s="108"/>
+      <c r="BH23" s="108"/>
+      <c r="BI23" s="108"/>
+      <c r="BJ23" s="108"/>
+      <c r="BK23" s="108"/>
+      <c r="BL23" s="108"/>
+      <c r="BM23" s="108"/>
+      <c r="BN23" s="108"/>
+      <c r="BO23" s="108"/>
+      <c r="BP23" s="109"/>
+      <c r="BQ23" s="110"/>
+      <c r="BR23" s="111"/>
+      <c r="BS23" s="111"/>
+      <c r="BT23" s="111"/>
+      <c r="BU23" s="111"/>
+      <c r="BV23" s="111"/>
+      <c r="BW23" s="111"/>
+      <c r="BX23" s="111"/>
+      <c r="BY23" s="111"/>
+      <c r="BZ23" s="111"/>
+      <c r="CA23" s="111"/>
+      <c r="CB23" s="111"/>
+      <c r="CC23" s="111"/>
+      <c r="CD23" s="111"/>
+      <c r="CE23" s="111"/>
+      <c r="CF23" s="111"/>
+      <c r="CG23" s="111"/>
+      <c r="CH23" s="111"/>
+      <c r="CI23" s="112"/>
     </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="54"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="64"/>
-      <c r="AS24" s="64"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="54"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="53"/>
-      <c r="BH24" s="53"/>
-      <c r="BI24" s="53"/>
-      <c r="BJ24" s="53"/>
-      <c r="BK24" s="53"/>
-      <c r="BL24" s="53"/>
-      <c r="BM24" s="53"/>
-      <c r="BN24" s="53"/>
-      <c r="BO24" s="53"/>
-      <c r="BP24" s="54"/>
-      <c r="BQ24" s="55"/>
-      <c r="BR24" s="56"/>
-      <c r="BS24" s="56"/>
-      <c r="BT24" s="56"/>
-      <c r="BU24" s="56"/>
-      <c r="BV24" s="56"/>
-      <c r="BW24" s="56"/>
-      <c r="BX24" s="56"/>
-      <c r="BY24" s="56"/>
-      <c r="BZ24" s="56"/>
-      <c r="CA24" s="56"/>
-      <c r="CB24" s="56"/>
-      <c r="CC24" s="56"/>
-      <c r="CD24" s="56"/>
-      <c r="CE24" s="56"/>
-      <c r="CF24" s="56"/>
-      <c r="CG24" s="56"/>
-      <c r="CH24" s="56"/>
-      <c r="CI24" s="57"/>
-    </row>
-    <row r="25" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="36"/>
-      <c r="BC25" s="36"/>
-      <c r="BD25" s="37"/>
-      <c r="BE25" s="35"/>
-      <c r="BF25" s="36"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="36"/>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="36"/>
-      <c r="BM25" s="36"/>
-      <c r="BN25" s="36"/>
-      <c r="BO25" s="36"/>
-      <c r="BP25" s="37"/>
-      <c r="BQ25" s="38"/>
-      <c r="BR25" s="39"/>
-      <c r="BS25" s="39"/>
-      <c r="BT25" s="39"/>
-      <c r="BU25" s="39"/>
-      <c r="BV25" s="39"/>
-      <c r="BW25" s="39"/>
-      <c r="BX25" s="39"/>
-      <c r="BY25" s="39"/>
-      <c r="BZ25" s="39"/>
-      <c r="CA25" s="39"/>
-      <c r="CB25" s="39"/>
-      <c r="CC25" s="39"/>
-      <c r="CD25" s="39"/>
-      <c r="CE25" s="39"/>
-      <c r="CF25" s="39"/>
-      <c r="CG25" s="39"/>
-      <c r="CH25" s="39"/>
-      <c r="CI25" s="40"/>
+    <row r="24" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="46">
+        <v>14</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="126"/>
+      <c r="AJ24" s="127"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="128"/>
+      <c r="AS24" s="128"/>
+      <c r="AT24" s="129"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="117"/>
+      <c r="AW24" s="117"/>
+      <c r="AX24" s="117"/>
+      <c r="AY24" s="117"/>
+      <c r="AZ24" s="117"/>
+      <c r="BA24" s="117"/>
+      <c r="BB24" s="117"/>
+      <c r="BC24" s="117"/>
+      <c r="BD24" s="118"/>
+      <c r="BE24" s="116"/>
+      <c r="BF24" s="117"/>
+      <c r="BG24" s="117"/>
+      <c r="BH24" s="117"/>
+      <c r="BI24" s="117"/>
+      <c r="BJ24" s="117"/>
+      <c r="BK24" s="117"/>
+      <c r="BL24" s="117"/>
+      <c r="BM24" s="117"/>
+      <c r="BN24" s="117"/>
+      <c r="BO24" s="117"/>
+      <c r="BP24" s="118"/>
+      <c r="BQ24" s="119"/>
+      <c r="BR24" s="120"/>
+      <c r="BS24" s="120"/>
+      <c r="BT24" s="120"/>
+      <c r="BU24" s="120"/>
+      <c r="BV24" s="120"/>
+      <c r="BW24" s="120"/>
+      <c r="BX24" s="120"/>
+      <c r="BY24" s="120"/>
+      <c r="BZ24" s="120"/>
+      <c r="CA24" s="120"/>
+      <c r="CB24" s="120"/>
+      <c r="CC24" s="120"/>
+      <c r="CD24" s="120"/>
+      <c r="CE24" s="120"/>
+      <c r="CF24" s="120"/>
+      <c r="CG24" s="120"/>
+      <c r="CH24" s="120"/>
+      <c r="CI24" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="193">
+  <mergeCells count="184">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -10408,177 +10608,6 @@
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2F0E2-8655-46E1-A21C-A4D4E91FB991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854316AC-E6F7-4724-A286-0ABE0BD67AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>システム名</t>
   </si>
@@ -142,32 +142,11 @@
     <t>備考</t>
   </si>
   <si>
-    <t>ヘッダ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コンテンツ部</t>
-  </si>
-  <si>
     <t>模擬試験Webアプリ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フッタ部</t>
-    <rPh sb="3" eb="4">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チーム名（YSTeam）</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -182,100 +161,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クリックして/indexのget要求</t>
-    <rPh sb="16" eb="18">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ウェルカムページ</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>index</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>一番最初に表示されるページ</t>
-    <rPh sb="0" eb="2">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ユーザー入力欄</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヘッダテキスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input type text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>welcome to quiz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開始ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「開始」と表記　submitボタン</t>
-    <rPh sb="1" eb="3">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フッタ部テキスト</t>
-    <rPh sb="3" eb="4">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>submitボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>textbox</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>©表記や作成者名などを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>user_name</t>
@@ -296,44 +187,170 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>タイマー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題に入っていないので空</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カラ</t>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>前回点数</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テンスウ</t>
+    <t>メソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ欄</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>int</t>
+    <t>フォーム</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>user_score</t>
+    <t>テキストボックス</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザー名</t>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェルカムページへのリンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボディ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submitされてpost要求を飛ばす</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェブサイトの説明など</t>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>段落</t>
+    <rPh sb="0" eb="2">
+      <t>ダンラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力エラー時にメッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力エラー時に赤くする</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フッタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フッタテキスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フッタにつける文章</t>
+    <rPh sb="7" eb="9">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番最初に表示されるページ 他のページにアクセスしてもこちらに飛ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー名を問題画面にpostする</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -396,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,24 +440,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF9DC3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -760,50 +795,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -845,6 +843,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,20 +937,113 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -957,13 +1055,88 @@
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -971,224 +1144,44 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1284,20 +1277,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>144527</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3DBF81-14C1-49A1-81F2-100FAFAB2773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A264B7-DA2D-4F7C-9A3D-461D55C4E3DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,7 +1298,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1313,14 +1306,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="11391" t="992" r="30150"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127000" y="977900"/>
-          <a:ext cx="9702800" cy="7002527"/>
+          <a:off x="127000" y="1117600"/>
+          <a:ext cx="7175500" cy="6237526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5:CI5"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1611,104 +1603,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
-        <v>46</v>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="30" t="s">
+        <v>29</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2649,104 +2641,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>25</v>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>23</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
-        <v>44509</v>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="23">
+        <v>44510</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="25"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3774,196 +3766,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="32">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
-        <v>47</v>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
+        <v>30</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
-        <v>32</v>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36" t="s">
+        <v>27</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
-        <v>47</v>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="37" t="s">
+        <v>30</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37"/>
+      <c r="CI5" s="37"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -6203,120 +6195,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK24"/>
+  <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:X19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0.6640625" style="2"/>
-    <col min="2" max="87" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2" max="55" width="1.6640625" style="2" customWidth="1"/>
+    <col min="56" max="56" width="3" style="2" customWidth="1"/>
+    <col min="57" max="87" width="1.6640625" style="2" customWidth="1"/>
     <col min="88" max="1025" width="9" style="2"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
-        <v>46</v>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="30" t="s">
+        <v>29</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -7255,106 +7249,106 @@
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>25</v>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>23</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="19" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="20">
-        <v>44509</v>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="23">
+        <v>44510</v>
       </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="25"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -8293,7 +8287,7 @@
       <c r="AMI2" s="1"/>
       <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -8381,2058 +8375,3816 @@
       <c r="CH3" s="14"/>
       <c r="CI3" s="14"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31" t="s">
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="32">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37"/>
+      <c r="CI5" s="37"/>
+    </row>
+    <row r="6" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
+      <c r="BQ6" s="38"/>
+      <c r="BR6" s="38"/>
+      <c r="BS6" s="38"/>
+      <c r="BT6" s="38"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="38"/>
+      <c r="BW6" s="38"/>
+      <c r="BX6" s="38"/>
+      <c r="BY6" s="38"/>
+      <c r="BZ6" s="38"/>
+      <c r="CA6" s="38"/>
+      <c r="CB6" s="38"/>
+      <c r="CC6" s="38"/>
+      <c r="CD6" s="38"/>
+      <c r="CE6" s="38"/>
+      <c r="CF6" s="38"/>
+      <c r="CG6" s="38"/>
+      <c r="CH6" s="38"/>
+      <c r="CI6" s="38"/>
+    </row>
+    <row r="7" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR7" s="44"/>
+      <c r="BS7" s="44"/>
+      <c r="BT7" s="44"/>
+      <c r="BU7" s="44"/>
+      <c r="BV7" s="44"/>
+      <c r="BW7" s="44"/>
+      <c r="BX7" s="44"/>
+      <c r="BY7" s="44"/>
+      <c r="BZ7" s="44"/>
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="44"/>
+      <c r="CC7" s="44"/>
+      <c r="CD7" s="44"/>
+      <c r="CE7" s="44"/>
+      <c r="CF7" s="44"/>
+      <c r="CG7" s="44"/>
+      <c r="CH7" s="44"/>
+      <c r="CI7" s="44"/>
+    </row>
+    <row r="8" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="47">
+        <v>1</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="117"/>
+      <c r="AS8" s="117"/>
+      <c r="AT8" s="118"/>
+      <c r="AU8" s="119"/>
+      <c r="AV8" s="119"/>
+      <c r="AW8" s="119"/>
+      <c r="AX8" s="119"/>
+      <c r="AY8" s="119"/>
+      <c r="AZ8" s="119"/>
+      <c r="BA8" s="119"/>
+      <c r="BB8" s="119"/>
+      <c r="BC8" s="119"/>
+      <c r="BD8" s="119"/>
+      <c r="BE8" s="119"/>
+      <c r="BF8" s="119"/>
+      <c r="BG8" s="119"/>
+      <c r="BH8" s="119"/>
+      <c r="BI8" s="119"/>
+      <c r="BJ8" s="119"/>
+      <c r="BK8" s="119"/>
+      <c r="BL8" s="119"/>
+      <c r="BM8" s="119"/>
+      <c r="BN8" s="119"/>
+      <c r="BO8" s="119"/>
+      <c r="BP8" s="119"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="50"/>
+      <c r="BT8" s="50"/>
+      <c r="BU8" s="50"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="50"/>
+      <c r="BX8" s="50"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="50"/>
+      <c r="CA8" s="50"/>
+      <c r="CB8" s="50"/>
+      <c r="CC8" s="50"/>
+      <c r="CD8" s="50"/>
+      <c r="CE8" s="50"/>
+      <c r="CF8" s="50"/>
+      <c r="CG8" s="50"/>
+      <c r="CH8" s="50"/>
+      <c r="CI8" s="50"/>
+    </row>
+    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="66">
+        <v>2</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="58"/>
+      <c r="AW9" s="58"/>
+      <c r="AX9" s="58"/>
+      <c r="AY9" s="58"/>
+      <c r="AZ9" s="58"/>
+      <c r="BA9" s="58"/>
+      <c r="BB9" s="58"/>
+      <c r="BC9" s="58"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="61"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="61"/>
+      <c r="BJ9" s="61"/>
+      <c r="BK9" s="61"/>
+      <c r="BL9" s="61"/>
+      <c r="BM9" s="61"/>
+      <c r="BN9" s="61"/>
+      <c r="BO9" s="61"/>
+      <c r="BP9" s="62"/>
+      <c r="BQ9" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR9" s="64"/>
+      <c r="BS9" s="64"/>
+      <c r="BT9" s="64"/>
+      <c r="BU9" s="64"/>
+      <c r="BV9" s="64"/>
+      <c r="BW9" s="64"/>
+      <c r="BX9" s="64"/>
+      <c r="BY9" s="64"/>
+      <c r="BZ9" s="64"/>
+      <c r="CA9" s="64"/>
+      <c r="CB9" s="64"/>
+      <c r="CC9" s="64"/>
+      <c r="CD9" s="64"/>
+      <c r="CE9" s="64"/>
+      <c r="CF9" s="64"/>
+      <c r="CG9" s="64"/>
+      <c r="CH9" s="64"/>
+      <c r="CI9" s="65"/>
+    </row>
+    <row r="10" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="47">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="79"/>
+      <c r="BJ10" s="79"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="79"/>
+      <c r="BM10" s="79"/>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="79"/>
+      <c r="BP10" s="79"/>
+      <c r="BQ10" s="72"/>
+      <c r="BR10" s="73"/>
+      <c r="BS10" s="73"/>
+      <c r="BT10" s="73"/>
+      <c r="BU10" s="73"/>
+      <c r="BV10" s="73"/>
+      <c r="BW10" s="73"/>
+      <c r="BX10" s="73"/>
+      <c r="BY10" s="73"/>
+      <c r="BZ10" s="73"/>
+      <c r="CA10" s="73"/>
+      <c r="CB10" s="73"/>
+      <c r="CC10" s="73"/>
+      <c r="CD10" s="73"/>
+      <c r="CE10" s="73"/>
+      <c r="CF10" s="73"/>
+      <c r="CG10" s="73"/>
+      <c r="CH10" s="73"/>
+      <c r="CI10" s="80"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="15"/>
+      <c r="CQ10" s="15"/>
+      <c r="CR10" s="15"/>
+      <c r="CS10" s="15"/>
+      <c r="CT10" s="15"/>
+      <c r="CU10" s="15"/>
+      <c r="CV10" s="15"/>
+      <c r="CW10" s="15"/>
+      <c r="CX10" s="15"/>
+      <c r="CY10" s="15"/>
+      <c r="CZ10" s="15"/>
+      <c r="DA10" s="15"/>
+      <c r="DB10" s="15"/>
+      <c r="DC10" s="15"/>
+      <c r="DD10" s="15"/>
+      <c r="DE10" s="15"/>
+      <c r="DF10" s="15"/>
+      <c r="DG10" s="15"/>
+      <c r="DH10" s="15"/>
+      <c r="DI10" s="15"/>
+      <c r="DJ10" s="15"/>
+      <c r="DK10" s="15"/>
+      <c r="DL10" s="15"/>
+      <c r="DM10" s="15"/>
+      <c r="DN10" s="15"/>
+      <c r="DO10" s="15"/>
+      <c r="DP10" s="15"/>
+      <c r="DQ10" s="15"/>
+      <c r="DR10" s="15"/>
+      <c r="DS10" s="15"/>
+      <c r="DT10" s="15"/>
+      <c r="DU10" s="15"/>
+      <c r="DV10" s="15"/>
+      <c r="DW10" s="15"/>
+      <c r="DX10" s="15"/>
+      <c r="DY10" s="15"/>
+      <c r="DZ10" s="15"/>
+      <c r="EA10" s="15"/>
+      <c r="EB10" s="15"/>
+      <c r="EC10" s="15"/>
+      <c r="ED10" s="15"/>
+      <c r="EE10" s="15"/>
+      <c r="EF10" s="15"/>
+      <c r="EG10" s="15"/>
+      <c r="EH10" s="15"/>
+      <c r="EI10" s="15"/>
+      <c r="EJ10" s="15"/>
+      <c r="EK10" s="15"/>
+      <c r="EL10" s="15"/>
+      <c r="EM10" s="15"/>
+      <c r="EN10" s="15"/>
+      <c r="EO10" s="15"/>
+      <c r="EP10" s="15"/>
+      <c r="EQ10" s="15"/>
+      <c r="ER10" s="15"/>
+      <c r="ES10" s="15"/>
+      <c r="ET10" s="15"/>
+      <c r="EU10" s="15"/>
+      <c r="EV10" s="15"/>
+      <c r="EW10" s="15"/>
+      <c r="EX10" s="15"/>
+      <c r="EY10" s="15"/>
+      <c r="EZ10" s="15"/>
+      <c r="FA10" s="15"/>
+      <c r="FB10" s="15"/>
+      <c r="FC10" s="15"/>
+      <c r="FD10" s="15"/>
+      <c r="FE10" s="15"/>
+      <c r="FF10" s="15"/>
+      <c r="FG10" s="15"/>
+      <c r="FH10" s="15"/>
+      <c r="FI10" s="15"/>
+      <c r="FJ10" s="15"/>
+      <c r="FK10" s="15"/>
+      <c r="FL10" s="15"/>
+      <c r="FM10" s="15"/>
+      <c r="FN10" s="15"/>
+      <c r="FO10" s="15"/>
+      <c r="FP10" s="15"/>
+      <c r="FQ10" s="15"/>
+      <c r="FR10" s="15"/>
+      <c r="FS10" s="15"/>
+      <c r="FT10" s="15"/>
+      <c r="FU10" s="15"/>
+      <c r="FV10" s="15"/>
+      <c r="FW10" s="15"/>
+      <c r="FX10" s="15"/>
+      <c r="FY10" s="15"/>
+      <c r="FZ10" s="15"/>
+      <c r="GA10" s="15"/>
+      <c r="GB10" s="15"/>
+      <c r="GC10" s="15"/>
+      <c r="GD10" s="15"/>
+      <c r="GE10" s="15"/>
+      <c r="GF10" s="15"/>
+      <c r="GG10" s="15"/>
+      <c r="GH10" s="15"/>
+      <c r="GI10" s="15"/>
+      <c r="GJ10" s="15"/>
+      <c r="GK10" s="15"/>
+      <c r="GL10" s="15"/>
+      <c r="GM10" s="15"/>
+      <c r="GN10" s="15"/>
+      <c r="GO10" s="15"/>
+      <c r="GP10" s="15"/>
+      <c r="GQ10" s="15"/>
+      <c r="GR10" s="15"/>
+      <c r="GS10" s="15"/>
+      <c r="GT10" s="15"/>
+      <c r="GU10" s="15"/>
+      <c r="GV10" s="15"/>
+      <c r="GW10" s="15"/>
+      <c r="GX10" s="15"/>
+      <c r="GY10" s="15"/>
+      <c r="GZ10" s="15"/>
+      <c r="HA10" s="15"/>
+      <c r="HB10" s="15"/>
+      <c r="HC10" s="15"/>
+      <c r="HD10" s="15"/>
+      <c r="HE10" s="15"/>
+      <c r="HF10" s="15"/>
+      <c r="HG10" s="15"/>
+      <c r="HH10" s="15"/>
+      <c r="HI10" s="15"/>
+      <c r="HJ10" s="15"/>
+      <c r="HK10" s="15"/>
+      <c r="HL10" s="15"/>
+      <c r="HM10" s="15"/>
+      <c r="HN10" s="15"/>
+      <c r="HO10" s="15"/>
+      <c r="HP10" s="15"/>
+      <c r="HQ10" s="15"/>
+      <c r="HR10" s="15"/>
+      <c r="HS10" s="15"/>
+      <c r="HT10" s="15"/>
+      <c r="HU10" s="15"/>
+      <c r="HV10" s="15"/>
+      <c r="HW10" s="15"/>
+      <c r="HX10" s="15"/>
+      <c r="HY10" s="15"/>
+      <c r="HZ10" s="15"/>
+      <c r="IA10" s="15"/>
+      <c r="IB10" s="15"/>
+      <c r="IC10" s="15"/>
+      <c r="ID10" s="15"/>
+      <c r="IE10" s="15"/>
+      <c r="IF10" s="15"/>
+      <c r="IG10" s="15"/>
+      <c r="IH10" s="15"/>
+      <c r="II10" s="15"/>
+      <c r="IJ10" s="15"/>
+      <c r="IK10" s="15"/>
+      <c r="IL10" s="15"/>
+      <c r="IM10" s="15"/>
+      <c r="IN10" s="15"/>
+      <c r="IO10" s="15"/>
+      <c r="IP10" s="15"/>
+      <c r="IQ10" s="15"/>
+      <c r="IR10" s="15"/>
+      <c r="IS10" s="15"/>
+      <c r="IT10" s="15"/>
+      <c r="IU10" s="15"/>
+      <c r="IV10" s="15"/>
+      <c r="IW10" s="15"/>
+      <c r="IX10" s="15"/>
+      <c r="IY10" s="15"/>
+      <c r="IZ10" s="15"/>
+      <c r="JA10" s="15"/>
+      <c r="JB10" s="15"/>
+      <c r="JC10" s="15"/>
+      <c r="JD10" s="15"/>
+      <c r="JE10" s="15"/>
+      <c r="JF10" s="15"/>
+      <c r="JG10" s="15"/>
+      <c r="JH10" s="15"/>
+      <c r="JI10" s="15"/>
+      <c r="JJ10" s="15"/>
+      <c r="JK10" s="15"/>
+      <c r="JL10" s="15"/>
+      <c r="JM10" s="15"/>
+      <c r="JN10" s="15"/>
+      <c r="JO10" s="15"/>
+      <c r="JP10" s="15"/>
+      <c r="JQ10" s="15"/>
+      <c r="JR10" s="15"/>
+      <c r="JS10" s="15"/>
+      <c r="JT10" s="15"/>
+      <c r="JU10" s="15"/>
+      <c r="JV10" s="15"/>
+      <c r="JW10" s="15"/>
+      <c r="JX10" s="15"/>
+      <c r="JY10" s="15"/>
+      <c r="JZ10" s="15"/>
+      <c r="KA10" s="15"/>
+      <c r="KB10" s="15"/>
+      <c r="KC10" s="15"/>
+      <c r="KD10" s="15"/>
+      <c r="KE10" s="15"/>
+      <c r="KF10" s="15"/>
+      <c r="KG10" s="15"/>
+      <c r="KH10" s="15"/>
+      <c r="KI10" s="15"/>
+      <c r="KJ10" s="15"/>
+      <c r="KK10" s="15"/>
+      <c r="KL10" s="15"/>
+      <c r="KM10" s="15"/>
+      <c r="KN10" s="15"/>
+      <c r="KO10" s="15"/>
+      <c r="KP10" s="15"/>
+      <c r="KQ10" s="15"/>
+      <c r="KR10" s="15"/>
+      <c r="KS10" s="15"/>
+      <c r="KT10" s="15"/>
+      <c r="KU10" s="15"/>
+      <c r="KV10" s="15"/>
+      <c r="KW10" s="15"/>
+      <c r="KX10" s="15"/>
+      <c r="KY10" s="15"/>
+      <c r="KZ10" s="15"/>
+      <c r="LA10" s="15"/>
+      <c r="LB10" s="15"/>
+      <c r="LC10" s="15"/>
+      <c r="LD10" s="15"/>
+      <c r="LE10" s="15"/>
+      <c r="LF10" s="15"/>
+      <c r="LG10" s="15"/>
+      <c r="LH10" s="15"/>
+      <c r="LI10" s="15"/>
+      <c r="LJ10" s="15"/>
+      <c r="LK10" s="15"/>
+      <c r="LL10" s="15"/>
+      <c r="LM10" s="15"/>
+      <c r="LN10" s="15"/>
+      <c r="LO10" s="15"/>
+      <c r="LP10" s="15"/>
+      <c r="LQ10" s="15"/>
+      <c r="LR10" s="15"/>
+      <c r="LS10" s="15"/>
+      <c r="LT10" s="15"/>
+      <c r="LU10" s="15"/>
+      <c r="LV10" s="15"/>
+      <c r="LW10" s="15"/>
+      <c r="LX10" s="15"/>
+      <c r="LY10" s="15"/>
+      <c r="LZ10" s="15"/>
+      <c r="MA10" s="15"/>
+      <c r="MB10" s="15"/>
+      <c r="MC10" s="15"/>
+      <c r="MD10" s="15"/>
+      <c r="ME10" s="15"/>
+      <c r="MF10" s="15"/>
+      <c r="MG10" s="15"/>
+      <c r="MH10" s="15"/>
+      <c r="MI10" s="15"/>
+      <c r="MJ10" s="15"/>
+      <c r="MK10" s="15"/>
+      <c r="ML10" s="15"/>
+      <c r="MM10" s="15"/>
+      <c r="MN10" s="15"/>
+      <c r="MO10" s="15"/>
+      <c r="MP10" s="15"/>
+      <c r="MQ10" s="15"/>
+      <c r="MR10" s="15"/>
+      <c r="MS10" s="15"/>
+      <c r="MT10" s="15"/>
+      <c r="MU10" s="15"/>
+      <c r="MV10" s="15"/>
+      <c r="MW10" s="15"/>
+      <c r="MX10" s="15"/>
+      <c r="MY10" s="15"/>
+      <c r="MZ10" s="15"/>
+      <c r="NA10" s="15"/>
+      <c r="NB10" s="15"/>
+      <c r="NC10" s="15"/>
+      <c r="ND10" s="15"/>
+      <c r="NE10" s="15"/>
+      <c r="NF10" s="15"/>
+      <c r="NG10" s="15"/>
+      <c r="NH10" s="15"/>
+      <c r="NI10" s="15"/>
+      <c r="NJ10" s="15"/>
+      <c r="NK10" s="15"/>
+      <c r="NL10" s="15"/>
+      <c r="NM10" s="15"/>
+      <c r="NN10" s="15"/>
+      <c r="NO10" s="15"/>
+      <c r="NP10" s="15"/>
+      <c r="NQ10" s="15"/>
+      <c r="NR10" s="15"/>
+      <c r="NS10" s="15"/>
+      <c r="NT10" s="15"/>
+      <c r="NU10" s="15"/>
+      <c r="NV10" s="15"/>
+      <c r="NW10" s="15"/>
+      <c r="NX10" s="15"/>
+      <c r="NY10" s="15"/>
+      <c r="NZ10" s="15"/>
+      <c r="OA10" s="15"/>
+      <c r="OB10" s="15"/>
+      <c r="OC10" s="15"/>
+      <c r="OD10" s="15"/>
+      <c r="OE10" s="15"/>
+      <c r="OF10" s="15"/>
+      <c r="OG10" s="15"/>
+      <c r="OH10" s="15"/>
+      <c r="OI10" s="15"/>
+      <c r="OJ10" s="15"/>
+      <c r="OK10" s="15"/>
+      <c r="OL10" s="15"/>
+      <c r="OM10" s="15"/>
+      <c r="ON10" s="15"/>
+      <c r="OO10" s="15"/>
+      <c r="OP10" s="15"/>
+      <c r="OQ10" s="15"/>
+      <c r="OR10" s="15"/>
+      <c r="OS10" s="15"/>
+      <c r="OT10" s="15"/>
+      <c r="OU10" s="15"/>
+      <c r="OV10" s="15"/>
+      <c r="OW10" s="15"/>
+      <c r="OX10" s="15"/>
+      <c r="OY10" s="15"/>
+      <c r="OZ10" s="15"/>
+      <c r="PA10" s="15"/>
+      <c r="PB10" s="15"/>
+      <c r="PC10" s="15"/>
+      <c r="PD10" s="15"/>
+      <c r="PE10" s="15"/>
+      <c r="PF10" s="15"/>
+      <c r="PG10" s="15"/>
+      <c r="PH10" s="15"/>
+      <c r="PI10" s="15"/>
+      <c r="PJ10" s="15"/>
+      <c r="PK10" s="15"/>
+      <c r="PL10" s="15"/>
+      <c r="PM10" s="15"/>
+      <c r="PN10" s="15"/>
+      <c r="PO10" s="15"/>
+      <c r="PP10" s="15"/>
+      <c r="PQ10" s="15"/>
+      <c r="PR10" s="15"/>
+      <c r="PS10" s="15"/>
+      <c r="PT10" s="15"/>
+      <c r="PU10" s="15"/>
+      <c r="PV10" s="15"/>
+      <c r="PW10" s="15"/>
+      <c r="PX10" s="15"/>
+      <c r="PY10" s="15"/>
+      <c r="PZ10" s="15"/>
+      <c r="QA10" s="15"/>
+      <c r="QB10" s="15"/>
+      <c r="QC10" s="15"/>
+      <c r="QD10" s="15"/>
+      <c r="QE10" s="15"/>
+      <c r="QF10" s="15"/>
+      <c r="QG10" s="15"/>
+      <c r="QH10" s="15"/>
+      <c r="QI10" s="15"/>
+      <c r="QJ10" s="15"/>
+      <c r="QK10" s="15"/>
+      <c r="QL10" s="15"/>
+      <c r="QM10" s="15"/>
+      <c r="QN10" s="15"/>
+      <c r="QO10" s="15"/>
+      <c r="QP10" s="15"/>
+      <c r="QQ10" s="15"/>
+      <c r="QR10" s="15"/>
+      <c r="QS10" s="15"/>
+      <c r="QT10" s="15"/>
+      <c r="QU10" s="15"/>
+      <c r="QV10" s="15"/>
+      <c r="QW10" s="15"/>
+      <c r="QX10" s="15"/>
+      <c r="QY10" s="15"/>
+      <c r="QZ10" s="15"/>
+      <c r="RA10" s="15"/>
+      <c r="RB10" s="15"/>
+      <c r="RC10" s="15"/>
+      <c r="RD10" s="15"/>
+      <c r="RE10" s="15"/>
+      <c r="RF10" s="15"/>
+      <c r="RG10" s="15"/>
+      <c r="RH10" s="15"/>
+      <c r="RI10" s="15"/>
+      <c r="RJ10" s="15"/>
+      <c r="RK10" s="15"/>
+      <c r="RL10" s="15"/>
+      <c r="RM10" s="15"/>
+      <c r="RN10" s="15"/>
+      <c r="RO10" s="15"/>
+      <c r="RP10" s="15"/>
+      <c r="RQ10" s="15"/>
+      <c r="RR10" s="15"/>
+      <c r="RS10" s="15"/>
+      <c r="RT10" s="15"/>
+      <c r="RU10" s="15"/>
+      <c r="RV10" s="15"/>
+      <c r="RW10" s="15"/>
+      <c r="RX10" s="15"/>
+      <c r="RY10" s="15"/>
+      <c r="RZ10" s="15"/>
+      <c r="SA10" s="15"/>
+      <c r="SB10" s="15"/>
+      <c r="SC10" s="15"/>
+      <c r="SD10" s="15"/>
+      <c r="SE10" s="15"/>
+      <c r="SF10" s="15"/>
+      <c r="SG10" s="15"/>
+      <c r="SH10" s="15"/>
+      <c r="SI10" s="15"/>
+      <c r="SJ10" s="15"/>
+      <c r="SK10" s="15"/>
+      <c r="SL10" s="15"/>
+      <c r="SM10" s="15"/>
+      <c r="SN10" s="15"/>
+      <c r="SO10" s="15"/>
+      <c r="SP10" s="15"/>
+      <c r="SQ10" s="15"/>
+      <c r="SR10" s="15"/>
+      <c r="SS10" s="15"/>
+      <c r="ST10" s="15"/>
+      <c r="SU10" s="15"/>
+      <c r="SV10" s="15"/>
+      <c r="SW10" s="15"/>
+      <c r="SX10" s="15"/>
+      <c r="SY10" s="15"/>
+      <c r="SZ10" s="15"/>
+      <c r="TA10" s="15"/>
+      <c r="TB10" s="15"/>
+      <c r="TC10" s="15"/>
+      <c r="TD10" s="15"/>
+      <c r="TE10" s="15"/>
+      <c r="TF10" s="15"/>
+      <c r="TG10" s="15"/>
+      <c r="TH10" s="15"/>
+      <c r="TI10" s="15"/>
+      <c r="TJ10" s="15"/>
+      <c r="TK10" s="15"/>
+      <c r="TL10" s="15"/>
+      <c r="TM10" s="15"/>
+      <c r="TN10" s="15"/>
+      <c r="TO10" s="15"/>
+      <c r="TP10" s="15"/>
+      <c r="TQ10" s="15"/>
+      <c r="TR10" s="15"/>
+      <c r="TS10" s="15"/>
+      <c r="TT10" s="15"/>
+      <c r="TU10" s="15"/>
+      <c r="TV10" s="15"/>
+      <c r="TW10" s="15"/>
+      <c r="TX10" s="15"/>
+      <c r="TY10" s="15"/>
+      <c r="TZ10" s="15"/>
+      <c r="UA10" s="15"/>
+      <c r="UB10" s="15"/>
+      <c r="UC10" s="15"/>
+      <c r="UD10" s="15"/>
+      <c r="UE10" s="15"/>
+      <c r="UF10" s="15"/>
+      <c r="UG10" s="15"/>
+      <c r="UH10" s="15"/>
+      <c r="UI10" s="15"/>
+      <c r="UJ10" s="15"/>
+      <c r="UK10" s="15"/>
+      <c r="UL10" s="15"/>
+      <c r="UM10" s="15"/>
+      <c r="UN10" s="15"/>
+      <c r="UO10" s="15"/>
+      <c r="UP10" s="15"/>
+      <c r="UQ10" s="15"/>
+      <c r="UR10" s="15"/>
+      <c r="US10" s="15"/>
+      <c r="UT10" s="15"/>
+      <c r="UU10" s="15"/>
+      <c r="UV10" s="15"/>
+      <c r="UW10" s="15"/>
+      <c r="UX10" s="15"/>
+      <c r="UY10" s="15"/>
+      <c r="UZ10" s="15"/>
+      <c r="VA10" s="15"/>
+      <c r="VB10" s="15"/>
+      <c r="VC10" s="15"/>
+      <c r="VD10" s="15"/>
+      <c r="VE10" s="15"/>
+      <c r="VF10" s="15"/>
+      <c r="VG10" s="15"/>
+      <c r="VH10" s="15"/>
+      <c r="VI10" s="15"/>
+      <c r="VJ10" s="15"/>
+      <c r="VK10" s="15"/>
+      <c r="VL10" s="15"/>
+      <c r="VM10" s="15"/>
+      <c r="VN10" s="15"/>
+      <c r="VO10" s="15"/>
+      <c r="VP10" s="15"/>
+      <c r="VQ10" s="15"/>
+      <c r="VR10" s="15"/>
+      <c r="VS10" s="15"/>
+      <c r="VT10" s="15"/>
+      <c r="VU10" s="15"/>
+      <c r="VV10" s="15"/>
+      <c r="VW10" s="15"/>
+      <c r="VX10" s="15"/>
+      <c r="VY10" s="15"/>
+      <c r="VZ10" s="15"/>
+      <c r="WA10" s="15"/>
+      <c r="WB10" s="15"/>
+      <c r="WC10" s="15"/>
+      <c r="WD10" s="15"/>
+      <c r="WE10" s="15"/>
+      <c r="WF10" s="15"/>
+      <c r="WG10" s="15"/>
+      <c r="WH10" s="15"/>
+      <c r="WI10" s="15"/>
+      <c r="WJ10" s="15"/>
+      <c r="WK10" s="15"/>
+      <c r="WL10" s="15"/>
+      <c r="WM10" s="15"/>
+      <c r="WN10" s="15"/>
+      <c r="WO10" s="15"/>
+      <c r="WP10" s="15"/>
+      <c r="WQ10" s="15"/>
+      <c r="WR10" s="15"/>
+      <c r="WS10" s="15"/>
+      <c r="WT10" s="15"/>
+      <c r="WU10" s="15"/>
+      <c r="WV10" s="15"/>
+      <c r="WW10" s="15"/>
+      <c r="WX10" s="15"/>
+      <c r="WY10" s="15"/>
+      <c r="WZ10" s="15"/>
+      <c r="XA10" s="15"/>
+      <c r="XB10" s="15"/>
+      <c r="XC10" s="15"/>
+      <c r="XD10" s="15"/>
+      <c r="XE10" s="15"/>
+      <c r="XF10" s="15"/>
+      <c r="XG10" s="15"/>
+      <c r="XH10" s="15"/>
+      <c r="XI10" s="15"/>
+      <c r="XJ10" s="15"/>
+      <c r="XK10" s="15"/>
+      <c r="XL10" s="15"/>
+      <c r="XM10" s="15"/>
+      <c r="XN10" s="15"/>
+      <c r="XO10" s="15"/>
+      <c r="XP10" s="15"/>
+      <c r="XQ10" s="15"/>
+      <c r="XR10" s="15"/>
+      <c r="XS10" s="15"/>
+      <c r="XT10" s="15"/>
+      <c r="XU10" s="15"/>
+      <c r="XV10" s="15"/>
+      <c r="XW10" s="15"/>
+      <c r="XX10" s="15"/>
+      <c r="XY10" s="15"/>
+      <c r="XZ10" s="15"/>
+      <c r="YA10" s="15"/>
+      <c r="YB10" s="15"/>
+      <c r="YC10" s="15"/>
+      <c r="YD10" s="15"/>
+      <c r="YE10" s="15"/>
+      <c r="YF10" s="15"/>
+      <c r="YG10" s="15"/>
+      <c r="YH10" s="15"/>
+      <c r="YI10" s="15"/>
+      <c r="YJ10" s="15"/>
+      <c r="YK10" s="15"/>
+      <c r="YL10" s="15"/>
+      <c r="YM10" s="15"/>
+      <c r="YN10" s="15"/>
+      <c r="YO10" s="15"/>
+      <c r="YP10" s="15"/>
+      <c r="YQ10" s="15"/>
+      <c r="YR10" s="15"/>
+      <c r="YS10" s="15"/>
+      <c r="YT10" s="15"/>
+      <c r="YU10" s="15"/>
+      <c r="YV10" s="15"/>
+      <c r="YW10" s="15"/>
+      <c r="YX10" s="15"/>
+      <c r="YY10" s="15"/>
+      <c r="YZ10" s="15"/>
+      <c r="ZA10" s="15"/>
+      <c r="ZB10" s="15"/>
+      <c r="ZC10" s="15"/>
+      <c r="ZD10" s="15"/>
+      <c r="ZE10" s="15"/>
+      <c r="ZF10" s="15"/>
+      <c r="ZG10" s="15"/>
+      <c r="ZH10" s="15"/>
+      <c r="ZI10" s="15"/>
+      <c r="ZJ10" s="15"/>
+      <c r="ZK10" s="15"/>
+      <c r="ZL10" s="15"/>
+      <c r="ZM10" s="15"/>
+      <c r="ZN10" s="15"/>
+      <c r="ZO10" s="15"/>
+      <c r="ZP10" s="15"/>
+      <c r="ZQ10" s="15"/>
+      <c r="ZR10" s="15"/>
+      <c r="ZS10" s="15"/>
+      <c r="ZT10" s="15"/>
+      <c r="ZU10" s="15"/>
+      <c r="ZV10" s="15"/>
+      <c r="ZW10" s="15"/>
+      <c r="ZX10" s="15"/>
+      <c r="ZY10" s="15"/>
+      <c r="ZZ10" s="15"/>
+      <c r="AAA10" s="15"/>
+      <c r="AAB10" s="15"/>
+      <c r="AAC10" s="15"/>
+      <c r="AAD10" s="15"/>
+      <c r="AAE10" s="15"/>
+      <c r="AAF10" s="15"/>
+      <c r="AAG10" s="15"/>
+      <c r="AAH10" s="15"/>
+      <c r="AAI10" s="15"/>
+      <c r="AAJ10" s="15"/>
+      <c r="AAK10" s="15"/>
+      <c r="AAL10" s="15"/>
+      <c r="AAM10" s="15"/>
+      <c r="AAN10" s="15"/>
+      <c r="AAO10" s="15"/>
+      <c r="AAP10" s="15"/>
+      <c r="AAQ10" s="15"/>
+      <c r="AAR10" s="15"/>
+      <c r="AAS10" s="15"/>
+      <c r="AAT10" s="15"/>
+      <c r="AAU10" s="15"/>
+      <c r="AAV10" s="15"/>
+      <c r="AAW10" s="15"/>
+      <c r="AAX10" s="15"/>
+      <c r="AAY10" s="15"/>
+      <c r="AAZ10" s="15"/>
+      <c r="ABA10" s="15"/>
+      <c r="ABB10" s="15"/>
+      <c r="ABC10" s="15"/>
+      <c r="ABD10" s="15"/>
+      <c r="ABE10" s="15"/>
+      <c r="ABF10" s="15"/>
+      <c r="ABG10" s="15"/>
+      <c r="ABH10" s="15"/>
+      <c r="ABI10" s="15"/>
+      <c r="ABJ10" s="15"/>
+      <c r="ABK10" s="15"/>
+      <c r="ABL10" s="15"/>
+      <c r="ABM10" s="15"/>
+      <c r="ABN10" s="15"/>
+      <c r="ABO10" s="15"/>
+      <c r="ABP10" s="15"/>
+      <c r="ABQ10" s="15"/>
+      <c r="ABR10" s="15"/>
+      <c r="ABS10" s="15"/>
+      <c r="ABT10" s="15"/>
+      <c r="ABU10" s="15"/>
+      <c r="ABV10" s="15"/>
+      <c r="ABW10" s="15"/>
+      <c r="ABX10" s="15"/>
+      <c r="ABY10" s="15"/>
+      <c r="ABZ10" s="15"/>
+      <c r="ACA10" s="15"/>
+      <c r="ACB10" s="15"/>
+      <c r="ACC10" s="15"/>
+      <c r="ACD10" s="15"/>
+      <c r="ACE10" s="15"/>
+      <c r="ACF10" s="15"/>
+      <c r="ACG10" s="15"/>
+      <c r="ACH10" s="15"/>
+      <c r="ACI10" s="15"/>
+      <c r="ACJ10" s="15"/>
+      <c r="ACK10" s="15"/>
+      <c r="ACL10" s="15"/>
+      <c r="ACM10" s="15"/>
+      <c r="ACN10" s="15"/>
+      <c r="ACO10" s="15"/>
+      <c r="ACP10" s="15"/>
+      <c r="ACQ10" s="15"/>
+      <c r="ACR10" s="15"/>
+      <c r="ACS10" s="15"/>
+      <c r="ACT10" s="15"/>
+      <c r="ACU10" s="15"/>
+      <c r="ACV10" s="15"/>
+      <c r="ACW10" s="15"/>
+      <c r="ACX10" s="15"/>
+      <c r="ACY10" s="15"/>
+      <c r="ACZ10" s="15"/>
+      <c r="ADA10" s="15"/>
+      <c r="ADB10" s="15"/>
+      <c r="ADC10" s="15"/>
+      <c r="ADD10" s="15"/>
+      <c r="ADE10" s="15"/>
+      <c r="ADF10" s="15"/>
+      <c r="ADG10" s="15"/>
+      <c r="ADH10" s="15"/>
+      <c r="ADI10" s="15"/>
+      <c r="ADJ10" s="15"/>
+      <c r="ADK10" s="15"/>
+      <c r="ADL10" s="15"/>
+      <c r="ADM10" s="15"/>
+      <c r="ADN10" s="15"/>
+      <c r="ADO10" s="15"/>
+      <c r="ADP10" s="15"/>
+      <c r="ADQ10" s="15"/>
+      <c r="ADR10" s="15"/>
+      <c r="ADS10" s="15"/>
+      <c r="ADT10" s="15"/>
+      <c r="ADU10" s="15"/>
+      <c r="ADV10" s="15"/>
+      <c r="ADW10" s="15"/>
+      <c r="ADX10" s="15"/>
+      <c r="ADY10" s="15"/>
+      <c r="ADZ10" s="15"/>
+      <c r="AEA10" s="15"/>
+      <c r="AEB10" s="15"/>
+      <c r="AEC10" s="15"/>
+      <c r="AED10" s="15"/>
+      <c r="AEE10" s="15"/>
+      <c r="AEF10" s="15"/>
+      <c r="AEG10" s="15"/>
+      <c r="AEH10" s="15"/>
+      <c r="AEI10" s="15"/>
+      <c r="AEJ10" s="15"/>
+      <c r="AEK10" s="15"/>
+      <c r="AEL10" s="15"/>
+      <c r="AEM10" s="15"/>
+      <c r="AEN10" s="15"/>
+      <c r="AEO10" s="15"/>
+      <c r="AEP10" s="15"/>
+      <c r="AEQ10" s="15"/>
+      <c r="AER10" s="15"/>
+      <c r="AES10" s="15"/>
+      <c r="AET10" s="15"/>
+      <c r="AEU10" s="15"/>
+      <c r="AEV10" s="15"/>
+      <c r="AEW10" s="15"/>
+      <c r="AEX10" s="15"/>
+      <c r="AEY10" s="15"/>
+      <c r="AEZ10" s="15"/>
+      <c r="AFA10" s="15"/>
+      <c r="AFB10" s="15"/>
+      <c r="AFC10" s="15"/>
+      <c r="AFD10" s="15"/>
+      <c r="AFE10" s="15"/>
+      <c r="AFF10" s="15"/>
+      <c r="AFG10" s="15"/>
+      <c r="AFH10" s="15"/>
+      <c r="AFI10" s="15"/>
+      <c r="AFJ10" s="15"/>
+      <c r="AFK10" s="15"/>
+      <c r="AFL10" s="15"/>
+      <c r="AFM10" s="15"/>
+      <c r="AFN10" s="15"/>
+      <c r="AFO10" s="15"/>
+      <c r="AFP10" s="15"/>
+      <c r="AFQ10" s="15"/>
+      <c r="AFR10" s="15"/>
+      <c r="AFS10" s="15"/>
+      <c r="AFT10" s="15"/>
+      <c r="AFU10" s="15"/>
+      <c r="AFV10" s="15"/>
+      <c r="AFW10" s="15"/>
+      <c r="AFX10" s="15"/>
+      <c r="AFY10" s="15"/>
+      <c r="AFZ10" s="15"/>
+      <c r="AGA10" s="15"/>
+      <c r="AGB10" s="15"/>
+      <c r="AGC10" s="15"/>
+      <c r="AGD10" s="15"/>
+      <c r="AGE10" s="15"/>
+      <c r="AGF10" s="15"/>
+      <c r="AGG10" s="15"/>
+      <c r="AGH10" s="15"/>
+      <c r="AGI10" s="15"/>
+      <c r="AGJ10" s="15"/>
+      <c r="AGK10" s="15"/>
+      <c r="AGL10" s="15"/>
+      <c r="AGM10" s="15"/>
+      <c r="AGN10" s="15"/>
+      <c r="AGO10" s="15"/>
+      <c r="AGP10" s="15"/>
+      <c r="AGQ10" s="15"/>
+      <c r="AGR10" s="15"/>
+      <c r="AGS10" s="15"/>
+      <c r="AGT10" s="15"/>
+      <c r="AGU10" s="15"/>
+      <c r="AGV10" s="15"/>
+      <c r="AGW10" s="15"/>
+      <c r="AGX10" s="15"/>
+      <c r="AGY10" s="15"/>
+      <c r="AGZ10" s="15"/>
+      <c r="AHA10" s="15"/>
+      <c r="AHB10" s="15"/>
+      <c r="AHC10" s="15"/>
+      <c r="AHD10" s="15"/>
+      <c r="AHE10" s="15"/>
+      <c r="AHF10" s="15"/>
+      <c r="AHG10" s="15"/>
+      <c r="AHH10" s="15"/>
+      <c r="AHI10" s="15"/>
+      <c r="AHJ10" s="15"/>
+      <c r="AHK10" s="15"/>
+      <c r="AHL10" s="15"/>
+      <c r="AHM10" s="15"/>
+      <c r="AHN10" s="15"/>
+      <c r="AHO10" s="15"/>
+      <c r="AHP10" s="15"/>
+      <c r="AHQ10" s="15"/>
+      <c r="AHR10" s="15"/>
+      <c r="AHS10" s="15"/>
+      <c r="AHT10" s="15"/>
+      <c r="AHU10" s="15"/>
+      <c r="AHV10" s="15"/>
+      <c r="AHW10" s="15"/>
+      <c r="AHX10" s="15"/>
+      <c r="AHY10" s="15"/>
+      <c r="AHZ10" s="15"/>
+      <c r="AIA10" s="15"/>
+      <c r="AIB10" s="15"/>
+      <c r="AIC10" s="15"/>
+      <c r="AID10" s="15"/>
+      <c r="AIE10" s="15"/>
+      <c r="AIF10" s="15"/>
+      <c r="AIG10" s="15"/>
+      <c r="AIH10" s="15"/>
+      <c r="AII10" s="15"/>
+      <c r="AIJ10" s="15"/>
+      <c r="AIK10" s="15"/>
+      <c r="AIL10" s="15"/>
+      <c r="AIM10" s="15"/>
+      <c r="AIN10" s="15"/>
+      <c r="AIO10" s="15"/>
+      <c r="AIP10" s="15"/>
+      <c r="AIQ10" s="15"/>
+      <c r="AIR10" s="15"/>
+      <c r="AIS10" s="15"/>
+      <c r="AIT10" s="15"/>
+      <c r="AIU10" s="15"/>
+      <c r="AIV10" s="15"/>
+      <c r="AIW10" s="15"/>
+      <c r="AIX10" s="15"/>
+      <c r="AIY10" s="15"/>
+      <c r="AIZ10" s="15"/>
+      <c r="AJA10" s="15"/>
+      <c r="AJB10" s="15"/>
+      <c r="AJC10" s="15"/>
+      <c r="AJD10" s="15"/>
+      <c r="AJE10" s="15"/>
+      <c r="AJF10" s="15"/>
+      <c r="AJG10" s="15"/>
+      <c r="AJH10" s="15"/>
+      <c r="AJI10" s="15"/>
+      <c r="AJJ10" s="15"/>
+      <c r="AJK10" s="15"/>
+      <c r="AJL10" s="15"/>
+      <c r="AJM10" s="15"/>
+      <c r="AJN10" s="15"/>
+      <c r="AJO10" s="15"/>
+      <c r="AJP10" s="15"/>
+      <c r="AJQ10" s="15"/>
+      <c r="AJR10" s="15"/>
+      <c r="AJS10" s="15"/>
+      <c r="AJT10" s="15"/>
+      <c r="AJU10" s="15"/>
+      <c r="AJV10" s="15"/>
+      <c r="AJW10" s="15"/>
+      <c r="AJX10" s="15"/>
+      <c r="AJY10" s="15"/>
+      <c r="AJZ10" s="15"/>
+      <c r="AKA10" s="15"/>
+      <c r="AKB10" s="15"/>
+      <c r="AKC10" s="15"/>
+      <c r="AKD10" s="15"/>
+      <c r="AKE10" s="15"/>
+      <c r="AKF10" s="15"/>
+      <c r="AKG10" s="15"/>
+      <c r="AKH10" s="15"/>
+      <c r="AKI10" s="15"/>
+      <c r="AKJ10" s="15"/>
+      <c r="AKK10" s="15"/>
+      <c r="AKL10" s="15"/>
+      <c r="AKM10" s="15"/>
+      <c r="AKN10" s="15"/>
+      <c r="AKO10" s="15"/>
+      <c r="AKP10" s="15"/>
+      <c r="AKQ10" s="15"/>
+      <c r="AKR10" s="15"/>
+      <c r="AKS10" s="15"/>
+      <c r="AKT10" s="15"/>
+      <c r="AKU10" s="15"/>
+      <c r="AKV10" s="15"/>
+      <c r="AKW10" s="15"/>
+      <c r="AKX10" s="15"/>
+      <c r="AKY10" s="15"/>
+      <c r="AKZ10" s="15"/>
+      <c r="ALA10" s="15"/>
+      <c r="ALB10" s="15"/>
+      <c r="ALC10" s="15"/>
+      <c r="ALD10" s="15"/>
+      <c r="ALE10" s="15"/>
+      <c r="ALF10" s="15"/>
+      <c r="ALG10" s="15"/>
+      <c r="ALH10" s="15"/>
+      <c r="ALI10" s="15"/>
+      <c r="ALJ10" s="15"/>
+      <c r="ALK10" s="15"/>
+      <c r="ALL10" s="15"/>
+      <c r="ALM10" s="15"/>
+      <c r="ALN10" s="15"/>
+      <c r="ALO10" s="15"/>
+      <c r="ALP10" s="15"/>
+      <c r="ALQ10" s="15"/>
+      <c r="ALR10" s="15"/>
+      <c r="ALS10" s="15"/>
+      <c r="ALT10" s="15"/>
+      <c r="ALU10" s="15"/>
+      <c r="ALV10" s="15"/>
+      <c r="ALW10" s="15"/>
+      <c r="ALX10" s="15"/>
+      <c r="ALY10" s="15"/>
+      <c r="ALZ10" s="15"/>
+      <c r="AMA10" s="15"/>
+      <c r="AMB10" s="15"/>
+      <c r="AMC10" s="15"/>
+      <c r="AMD10" s="15"/>
+      <c r="AME10" s="15"/>
+      <c r="AMF10" s="15"/>
+      <c r="AMG10" s="15"/>
+      <c r="AMH10" s="15"/>
+      <c r="AMI10" s="15"/>
+      <c r="AMJ10" s="15"/>
+      <c r="AMK10" s="15"/>
+    </row>
+    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="66">
+        <v>4</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF11" s="89"/>
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="89"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="89"/>
+      <c r="BL11" s="89"/>
+      <c r="BM11" s="89"/>
+      <c r="BN11" s="89"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="88"/>
+      <c r="BT11" s="88"/>
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="88"/>
+      <c r="CA11" s="88"/>
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="88"/>
+      <c r="CH11" s="88"/>
+      <c r="CI11" s="90"/>
+    </row>
+    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="66">
+        <v>5</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="92"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF12" s="92"/>
+      <c r="BG12" s="92"/>
+      <c r="BH12" s="92"/>
+      <c r="BI12" s="92"/>
+      <c r="BJ12" s="92"/>
+      <c r="BK12" s="92"/>
+      <c r="BL12" s="92"/>
+      <c r="BM12" s="92"/>
+      <c r="BN12" s="92"/>
+      <c r="BO12" s="92"/>
+      <c r="BP12" s="93"/>
+      <c r="BQ12" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="BY12" s="95"/>
+      <c r="BZ12" s="95"/>
+      <c r="CA12" s="95"/>
+      <c r="CB12" s="95"/>
+      <c r="CC12" s="95"/>
+      <c r="CD12" s="95"/>
+      <c r="CE12" s="95"/>
+      <c r="CF12" s="95"/>
+      <c r="CG12" s="95"/>
+      <c r="CH12" s="95"/>
+      <c r="CI12" s="96"/>
+    </row>
+    <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="66">
+        <v>6</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="124"/>
+      <c r="AT13" s="125"/>
+      <c r="AU13" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF13" s="81"/>
+      <c r="BG13" s="81"/>
+      <c r="BH13" s="81"/>
+      <c r="BI13" s="81"/>
+      <c r="BJ13" s="81"/>
+      <c r="BK13" s="81"/>
+      <c r="BL13" s="81"/>
+      <c r="BM13" s="81"/>
+      <c r="BN13" s="81"/>
+      <c r="BO13" s="81"/>
+      <c r="BP13" s="81"/>
+      <c r="BQ13" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR13" s="82"/>
+      <c r="BS13" s="82"/>
+      <c r="BT13" s="82"/>
+      <c r="BU13" s="82"/>
+      <c r="BV13" s="82"/>
+      <c r="BW13" s="82"/>
+      <c r="BX13" s="82"/>
+      <c r="BY13" s="82"/>
+      <c r="BZ13" s="82"/>
+      <c r="CA13" s="82"/>
+      <c r="CB13" s="82"/>
+      <c r="CC13" s="82"/>
+      <c r="CD13" s="82"/>
+      <c r="CE13" s="82"/>
+      <c r="CF13" s="82"/>
+      <c r="CG13" s="82"/>
+      <c r="CH13" s="82"/>
+      <c r="CI13" s="82"/>
+    </row>
+    <row r="14" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="66">
+        <v>7</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
-        <v>32</v>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="57" t="s">
+        <v>37</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="s">
-        <v>33</v>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="57" t="s">
+        <v>24</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34"/>
-      <c r="CI5" s="34"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="57">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
+      <c r="BC14" s="58"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF14" s="58"/>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="58"/>
+      <c r="BM14" s="58"/>
+      <c r="BN14" s="58"/>
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="59"/>
+      <c r="BQ14" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR14" s="101"/>
+      <c r="BS14" s="101"/>
+      <c r="BT14" s="101"/>
+      <c r="BU14" s="101"/>
+      <c r="BV14" s="101"/>
+      <c r="BW14" s="101"/>
+      <c r="BX14" s="101"/>
+      <c r="BY14" s="101"/>
+      <c r="BZ14" s="101"/>
+      <c r="CA14" s="101"/>
+      <c r="CB14" s="101"/>
+      <c r="CC14" s="101"/>
+      <c r="CD14" s="101"/>
+      <c r="CE14" s="101"/>
+      <c r="CF14" s="101"/>
+      <c r="CG14" s="101"/>
+      <c r="CH14" s="101"/>
+      <c r="CI14" s="102"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="35" t="s">
-        <v>14</v>
+    <row r="15" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="66">
+        <v>8</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="35"/>
-      <c r="CF6" s="35"/>
-      <c r="CG6" s="35"/>
-      <c r="CH6" s="35"/>
-      <c r="CI6" s="35"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL15" s="127"/>
+      <c r="AM15" s="127"/>
+      <c r="AN15" s="127"/>
+      <c r="AO15" s="127"/>
+      <c r="AP15" s="127"/>
+      <c r="AQ15" s="127"/>
+      <c r="AR15" s="127"/>
+      <c r="AS15" s="127"/>
+      <c r="AT15" s="128"/>
+      <c r="AU15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV15" s="58"/>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="58"/>
+      <c r="BA15" s="58"/>
+      <c r="BB15" s="58"/>
+      <c r="BC15" s="58"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF15" s="58"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="58"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="58"/>
+      <c r="BL15" s="58"/>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="58"/>
+      <c r="BO15" s="58"/>
+      <c r="BP15" s="59"/>
+      <c r="BQ15" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR15" s="101"/>
+      <c r="BS15" s="101"/>
+      <c r="BT15" s="101"/>
+      <c r="BU15" s="101"/>
+      <c r="BV15" s="101"/>
+      <c r="BW15" s="101"/>
+      <c r="BX15" s="101"/>
+      <c r="BY15" s="101"/>
+      <c r="BZ15" s="101"/>
+      <c r="CA15" s="101"/>
+      <c r="CB15" s="101"/>
+      <c r="CC15" s="101"/>
+      <c r="CD15" s="101"/>
+      <c r="CE15" s="101"/>
+      <c r="CF15" s="101"/>
+      <c r="CG15" s="101"/>
+      <c r="CH15" s="101"/>
+      <c r="CI15" s="102"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="36" t="s">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="47">
         <v>9</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
-        <v>15</v>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="105" t="s">
+        <v>50</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="37" t="s">
-        <v>16</v>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="76"/>
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="76"/>
+      <c r="BB16" s="76"/>
+      <c r="BC16" s="76"/>
+      <c r="BD16" s="77"/>
+      <c r="BE16" s="75"/>
+      <c r="BF16" s="76"/>
+      <c r="BG16" s="76"/>
+      <c r="BH16" s="76"/>
+      <c r="BI16" s="76"/>
+      <c r="BJ16" s="76"/>
+      <c r="BK16" s="76"/>
+      <c r="BL16" s="76"/>
+      <c r="BM16" s="76"/>
+      <c r="BN16" s="76"/>
+      <c r="BO16" s="76"/>
+      <c r="BP16" s="77"/>
+      <c r="BQ16" s="108"/>
+      <c r="BR16" s="109"/>
+      <c r="BS16" s="109"/>
+      <c r="BT16" s="109"/>
+      <c r="BU16" s="109"/>
+      <c r="BV16" s="109"/>
+      <c r="BW16" s="109"/>
+      <c r="BX16" s="109"/>
+      <c r="BY16" s="109"/>
+      <c r="BZ16" s="109"/>
+      <c r="CA16" s="109"/>
+      <c r="CB16" s="109"/>
+      <c r="CC16" s="109"/>
+      <c r="CD16" s="109"/>
+      <c r="CE16" s="109"/>
+      <c r="CF16" s="109"/>
+      <c r="CG16" s="109"/>
+      <c r="CH16" s="109"/>
+      <c r="CI16" s="110"/>
+    </row>
+    <row r="17" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="66">
+        <v>10</v>
       </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="37" t="s">
-        <v>17</v>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="86" t="s">
+        <v>51</v>
       </c>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="40"/>
-      <c r="BM7" s="40"/>
-      <c r="BN7" s="40"/>
-      <c r="BO7" s="40"/>
-      <c r="BP7" s="40"/>
-      <c r="BQ7" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41"/>
-      <c r="BZ7" s="41"/>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="41"/>
-      <c r="CC7" s="41"/>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="41"/>
-      <c r="CF7" s="41"/>
-      <c r="CG7" s="41"/>
-      <c r="CH7" s="41"/>
-      <c r="CI7" s="41"/>
-    </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="46">
-        <f>ROW(B8)-7</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="44"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="45"/>
-      <c r="BS8" s="45"/>
-      <c r="BT8" s="45"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="45"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="45"/>
-      <c r="BY8" s="45"/>
-      <c r="BZ8" s="45"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="45"/>
-      <c r="CC8" s="45"/>
-      <c r="CD8" s="45"/>
-      <c r="CE8" s="45"/>
-      <c r="CF8" s="45"/>
-      <c r="CG8" s="45"/>
-      <c r="CH8" s="45"/>
-      <c r="CI8" s="45"/>
-    </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46">
-        <v>2</v>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="57" t="s">
+        <v>24</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="65" t="s">
-        <v>53</v>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="57" t="s">
+        <v>22</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="65" t="s">
-        <v>28</v>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="57" t="s">
+        <v>47</v>
       </c>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="68" t="s">
-        <v>23</v>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="57" t="s">
+        <v>22</v>
       </c>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="71" t="s">
-        <v>23</v>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="57" t="s">
+        <v>22</v>
       </c>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF9" s="63"/>
-      <c r="BG9" s="63"/>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="63"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="63"/>
-      <c r="BM9" s="63"/>
-      <c r="BN9" s="63"/>
-      <c r="BO9" s="63"/>
-      <c r="BP9" s="63"/>
-      <c r="BQ9" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR9" s="57"/>
-      <c r="BS9" s="57"/>
-      <c r="BT9" s="57"/>
-      <c r="BU9" s="57"/>
-      <c r="BV9" s="57"/>
-      <c r="BW9" s="57"/>
-      <c r="BX9" s="57"/>
-      <c r="BY9" s="57"/>
-      <c r="BZ9" s="57"/>
-      <c r="CA9" s="57"/>
-      <c r="CB9" s="57"/>
-      <c r="CC9" s="57"/>
-      <c r="CD9" s="57"/>
-      <c r="CE9" s="57"/>
-      <c r="CF9" s="57"/>
-      <c r="CG9" s="57"/>
-      <c r="CH9" s="57"/>
-      <c r="CI9" s="64"/>
-    </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="46">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="57"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="57"/>
-      <c r="BE10" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF10" s="58"/>
-      <c r="BG10" s="58"/>
-      <c r="BH10" s="58"/>
-      <c r="BI10" s="58"/>
-      <c r="BJ10" s="58"/>
-      <c r="BK10" s="58"/>
-      <c r="BL10" s="58"/>
-      <c r="BM10" s="58"/>
-      <c r="BN10" s="58"/>
-      <c r="BO10" s="58"/>
-      <c r="BP10" s="58"/>
-      <c r="BQ10" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR10" s="60"/>
-      <c r="BS10" s="60"/>
-      <c r="BT10" s="60"/>
-      <c r="BU10" s="60"/>
-      <c r="BV10" s="60"/>
-      <c r="BW10" s="60"/>
-      <c r="BX10" s="60"/>
-      <c r="BY10" s="60"/>
-      <c r="BZ10" s="60"/>
-      <c r="CA10" s="60"/>
-      <c r="CB10" s="60"/>
-      <c r="CC10" s="60"/>
-      <c r="CD10" s="60"/>
-      <c r="CE10" s="60"/>
-      <c r="CF10" s="60"/>
-      <c r="CG10" s="60"/>
-      <c r="CH10" s="60"/>
-      <c r="CI10" s="61"/>
-    </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="46">
-        <f>ROW(B11)-7</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="76">
-        <v>10</v>
-      </c>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="57" t="s">
+      <c r="BF17" s="58"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
+      <c r="BP17" s="59"/>
+      <c r="BQ17" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="57"/>
-      <c r="AY11" s="57"/>
-      <c r="AZ11" s="57"/>
-      <c r="BA11" s="57"/>
-      <c r="BB11" s="57"/>
-      <c r="BC11" s="57"/>
-      <c r="BD11" s="57"/>
-      <c r="BE11" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="58"/>
-      <c r="BH11" s="58"/>
-      <c r="BI11" s="58"/>
-      <c r="BJ11" s="58"/>
-      <c r="BK11" s="58"/>
-      <c r="BL11" s="58"/>
-      <c r="BM11" s="58"/>
-      <c r="BN11" s="58"/>
-      <c r="BO11" s="58"/>
-      <c r="BP11" s="58"/>
-      <c r="BQ11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR11" s="57"/>
-      <c r="BS11" s="57"/>
-      <c r="BT11" s="57"/>
-      <c r="BU11" s="57"/>
-      <c r="BV11" s="57"/>
-      <c r="BW11" s="57"/>
-      <c r="BX11" s="57"/>
-      <c r="BY11" s="57"/>
-      <c r="BZ11" s="57"/>
-      <c r="CA11" s="57"/>
-      <c r="CB11" s="57"/>
-      <c r="CC11" s="57"/>
-      <c r="CD11" s="57"/>
-      <c r="CE11" s="57"/>
-      <c r="CF11" s="57"/>
-      <c r="CG11" s="57"/>
-      <c r="CH11" s="57"/>
-      <c r="CI11" s="64"/>
+      <c r="BR17" s="87"/>
+      <c r="BS17" s="87"/>
+      <c r="BT17" s="87"/>
+      <c r="BU17" s="87"/>
+      <c r="BV17" s="87"/>
+      <c r="BW17" s="87"/>
+      <c r="BX17" s="87"/>
+      <c r="BY17" s="87"/>
+      <c r="BZ17" s="87"/>
+      <c r="CA17" s="87"/>
+      <c r="CB17" s="87"/>
+      <c r="CC17" s="87"/>
+      <c r="CD17" s="87"/>
+      <c r="CE17" s="87"/>
+      <c r="CF17" s="87"/>
+      <c r="CG17" s="87"/>
+      <c r="CH17" s="87"/>
+      <c r="CI17" s="104"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="46">
-        <f t="shared" ref="B12" si="0">ROW(B12)-7</f>
-        <v>5</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="56"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
-      <c r="BP12" s="44"/>
-      <c r="BQ12" s="84"/>
-      <c r="BR12" s="84"/>
-      <c r="BS12" s="84"/>
-      <c r="BT12" s="84"/>
-      <c r="BU12" s="84"/>
-      <c r="BV12" s="84"/>
-      <c r="BW12" s="84"/>
-      <c r="BX12" s="84"/>
-      <c r="BY12" s="84"/>
-      <c r="BZ12" s="84"/>
-      <c r="CA12" s="84"/>
-      <c r="CB12" s="84"/>
-      <c r="CC12" s="84"/>
-      <c r="CD12" s="84"/>
-      <c r="CE12" s="84"/>
-      <c r="CF12" s="84"/>
-      <c r="CG12" s="84"/>
-      <c r="CH12" s="84"/>
-      <c r="CI12" s="84"/>
+    <row r="18" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="84"/>
+      <c r="BA18" s="84"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="85"/>
+      <c r="BE18" s="83"/>
+      <c r="BF18" s="84"/>
+      <c r="BG18" s="84"/>
+      <c r="BH18" s="84"/>
+      <c r="BI18" s="84"/>
+      <c r="BJ18" s="84"/>
+      <c r="BK18" s="84"/>
+      <c r="BL18" s="84"/>
+      <c r="BM18" s="84"/>
+      <c r="BN18" s="84"/>
+      <c r="BO18" s="84"/>
+      <c r="BP18" s="85"/>
+      <c r="BQ18" s="100"/>
+      <c r="BR18" s="101"/>
+      <c r="BS18" s="101"/>
+      <c r="BT18" s="101"/>
+      <c r="BU18" s="101"/>
+      <c r="BV18" s="101"/>
+      <c r="BW18" s="101"/>
+      <c r="BX18" s="101"/>
+      <c r="BY18" s="101"/>
+      <c r="BZ18" s="101"/>
+      <c r="CA18" s="101"/>
+      <c r="CB18" s="101"/>
+      <c r="CC18" s="101"/>
+      <c r="CD18" s="101"/>
+      <c r="CE18" s="101"/>
+      <c r="CF18" s="101"/>
+      <c r="CG18" s="101"/>
+      <c r="CH18" s="101"/>
+      <c r="CI18" s="102"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="46">
-        <v>6</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="80"/>
-      <c r="AO13" s="80"/>
-      <c r="AP13" s="80"/>
-      <c r="AQ13" s="80"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="77"/>
-      <c r="BD13" s="77"/>
-      <c r="BE13" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="77"/>
-      <c r="BH13" s="77"/>
-      <c r="BI13" s="77"/>
-      <c r="BJ13" s="77"/>
-      <c r="BK13" s="77"/>
-      <c r="BL13" s="77"/>
-      <c r="BM13" s="77"/>
-      <c r="BN13" s="77"/>
-      <c r="BO13" s="77"/>
-      <c r="BP13" s="77"/>
-      <c r="BQ13" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="BR13" s="78"/>
-      <c r="BS13" s="78"/>
-      <c r="BT13" s="78"/>
-      <c r="BU13" s="78"/>
-      <c r="BV13" s="78"/>
-      <c r="BW13" s="78"/>
-      <c r="BX13" s="78"/>
-      <c r="BY13" s="78"/>
-      <c r="BZ13" s="78"/>
-      <c r="CA13" s="78"/>
-      <c r="CB13" s="78"/>
-      <c r="CC13" s="78"/>
-      <c r="CD13" s="78"/>
-      <c r="CE13" s="78"/>
-      <c r="CF13" s="78"/>
-      <c r="CG13" s="78"/>
-      <c r="CH13" s="78"/>
-      <c r="CI13" s="78"/>
+    <row r="19" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="84"/>
+      <c r="AO19" s="84"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
+      <c r="AS19" s="84"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="57"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58"/>
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="58"/>
+      <c r="BP19" s="59"/>
+      <c r="BQ19" s="111"/>
+      <c r="BR19" s="112"/>
+      <c r="BS19" s="112"/>
+      <c r="BT19" s="112"/>
+      <c r="BU19" s="112"/>
+      <c r="BV19" s="112"/>
+      <c r="BW19" s="112"/>
+      <c r="BX19" s="112"/>
+      <c r="BY19" s="112"/>
+      <c r="BZ19" s="112"/>
+      <c r="CA19" s="112"/>
+      <c r="CB19" s="112"/>
+      <c r="CC19" s="112"/>
+      <c r="CD19" s="112"/>
+      <c r="CE19" s="112"/>
+      <c r="CF19" s="112"/>
+      <c r="CG19" s="112"/>
+      <c r="CH19" s="112"/>
+      <c r="CI19" s="113"/>
     </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="46">
-        <v>7</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="68">
-        <v>10</v>
-      </c>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
-      <c r="AO14" s="80"/>
-      <c r="AP14" s="80"/>
-      <c r="AQ14" s="80"/>
-      <c r="AR14" s="80"/>
-      <c r="AS14" s="80"/>
-      <c r="AT14" s="81"/>
-      <c r="AU14" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV14" s="80"/>
-      <c r="AW14" s="80"/>
-      <c r="AX14" s="80"/>
-      <c r="AY14" s="80"/>
-      <c r="AZ14" s="80"/>
-      <c r="BA14" s="80"/>
-      <c r="BB14" s="80"/>
-      <c r="BC14" s="80"/>
-      <c r="BD14" s="81"/>
-      <c r="BE14" s="79"/>
-      <c r="BF14" s="80"/>
-      <c r="BG14" s="80"/>
-      <c r="BH14" s="80"/>
-      <c r="BI14" s="80"/>
-      <c r="BJ14" s="80"/>
-      <c r="BK14" s="80"/>
-      <c r="BL14" s="80"/>
-      <c r="BM14" s="80"/>
-      <c r="BN14" s="80"/>
-      <c r="BO14" s="80"/>
-      <c r="BP14" s="81"/>
-      <c r="BQ14" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="BR14" s="86"/>
-      <c r="BS14" s="86"/>
-      <c r="BT14" s="86"/>
-      <c r="BU14" s="86"/>
-      <c r="BV14" s="86"/>
-      <c r="BW14" s="86"/>
-      <c r="BX14" s="86"/>
-      <c r="BY14" s="86"/>
-      <c r="BZ14" s="86"/>
-      <c r="CA14" s="86"/>
-      <c r="CB14" s="86"/>
-      <c r="CC14" s="86"/>
-      <c r="CD14" s="86"/>
-      <c r="CE14" s="86"/>
-      <c r="CF14" s="86"/>
-      <c r="CG14" s="86"/>
-      <c r="CH14" s="86"/>
-      <c r="CI14" s="87"/>
+    <row r="20" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
+      <c r="AS20" s="84"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="59"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="58"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
+      <c r="BP20" s="59"/>
+      <c r="BQ20" s="100"/>
+      <c r="BR20" s="101"/>
+      <c r="BS20" s="101"/>
+      <c r="BT20" s="101"/>
+      <c r="BU20" s="101"/>
+      <c r="BV20" s="101"/>
+      <c r="BW20" s="101"/>
+      <c r="BX20" s="101"/>
+      <c r="BY20" s="101"/>
+      <c r="BZ20" s="101"/>
+      <c r="CA20" s="101"/>
+      <c r="CB20" s="101"/>
+      <c r="CC20" s="101"/>
+      <c r="CD20" s="101"/>
+      <c r="CE20" s="101"/>
+      <c r="CF20" s="101"/>
+      <c r="CG20" s="101"/>
+      <c r="CH20" s="101"/>
+      <c r="CI20" s="102"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46">
-        <f t="shared" ref="B15:B16" si="1">ROW(B15)-7</f>
-        <v>8</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="80"/>
-      <c r="AN15" s="80"/>
-      <c r="AO15" s="80"/>
-      <c r="AP15" s="80"/>
-      <c r="AQ15" s="80"/>
-      <c r="AR15" s="80"/>
-      <c r="AS15" s="80"/>
-      <c r="AT15" s="81"/>
-      <c r="AU15" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="70"/>
-      <c r="BE15" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="69"/>
-      <c r="BH15" s="69"/>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="69"/>
-      <c r="BK15" s="69"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="69"/>
-      <c r="BN15" s="69"/>
-      <c r="BO15" s="69"/>
-      <c r="BP15" s="70"/>
-      <c r="BQ15" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="BR15" s="86"/>
-      <c r="BS15" s="86"/>
-      <c r="BT15" s="86"/>
-      <c r="BU15" s="86"/>
-      <c r="BV15" s="86"/>
-      <c r="BW15" s="86"/>
-      <c r="BX15" s="86"/>
-      <c r="BY15" s="86"/>
-      <c r="BZ15" s="86"/>
-      <c r="CA15" s="86"/>
-      <c r="CB15" s="86"/>
-      <c r="CC15" s="86"/>
-      <c r="CD15" s="86"/>
-      <c r="CE15" s="86"/>
-      <c r="CF15" s="86"/>
-      <c r="CG15" s="86"/>
-      <c r="CH15" s="86"/>
-      <c r="CI15" s="87"/>
+    <row r="21" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="15"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="AZ21" s="84"/>
+      <c r="BA21" s="84"/>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="84"/>
+      <c r="BD21" s="85"/>
+      <c r="BE21" s="83"/>
+      <c r="BF21" s="84"/>
+      <c r="BG21" s="84"/>
+      <c r="BH21" s="84"/>
+      <c r="BI21" s="84"/>
+      <c r="BJ21" s="84"/>
+      <c r="BK21" s="84"/>
+      <c r="BL21" s="84"/>
+      <c r="BM21" s="84"/>
+      <c r="BN21" s="84"/>
+      <c r="BO21" s="84"/>
+      <c r="BP21" s="85"/>
+      <c r="BQ21" s="100"/>
+      <c r="BR21" s="101"/>
+      <c r="BS21" s="101"/>
+      <c r="BT21" s="101"/>
+      <c r="BU21" s="101"/>
+      <c r="BV21" s="101"/>
+      <c r="BW21" s="101"/>
+      <c r="BX21" s="101"/>
+      <c r="BY21" s="101"/>
+      <c r="BZ21" s="101"/>
+      <c r="CA21" s="101"/>
+      <c r="CB21" s="101"/>
+      <c r="CC21" s="101"/>
+      <c r="CD21" s="101"/>
+      <c r="CE21" s="101"/>
+      <c r="CF21" s="101"/>
+      <c r="CG21" s="101"/>
+      <c r="CH21" s="101"/>
+      <c r="CI21" s="102"/>
+      <c r="CJ21" s="15"/>
+      <c r="CK21" s="15"/>
+      <c r="CL21" s="15"/>
+      <c r="CM21" s="15"/>
+      <c r="CN21" s="15"/>
+      <c r="CO21" s="15"/>
+      <c r="CP21" s="15"/>
+      <c r="CQ21" s="15"/>
+      <c r="CR21" s="15"/>
+      <c r="CS21" s="15"/>
+      <c r="CT21" s="15"/>
+      <c r="CU21" s="15"/>
+      <c r="CV21" s="15"/>
+      <c r="CW21" s="15"/>
+      <c r="CX21" s="15"/>
+      <c r="CY21" s="15"/>
+      <c r="CZ21" s="15"/>
+      <c r="DA21" s="15"/>
+      <c r="DB21" s="15"/>
+      <c r="DC21" s="15"/>
+      <c r="DD21" s="15"/>
+      <c r="DE21" s="15"/>
+      <c r="DF21" s="15"/>
+      <c r="DG21" s="15"/>
+      <c r="DH21" s="15"/>
+      <c r="DI21" s="15"/>
+      <c r="DJ21" s="15"/>
+      <c r="DK21" s="15"/>
+      <c r="DL21" s="15"/>
+      <c r="DM21" s="15"/>
+      <c r="DN21" s="15"/>
+      <c r="DO21" s="15"/>
+      <c r="DP21" s="15"/>
+      <c r="DQ21" s="15"/>
+      <c r="DR21" s="15"/>
+      <c r="DS21" s="15"/>
+      <c r="DT21" s="15"/>
+      <c r="DU21" s="15"/>
+      <c r="DV21" s="15"/>
+      <c r="DW21" s="15"/>
+      <c r="DX21" s="15"/>
+      <c r="DY21" s="15"/>
+      <c r="DZ21" s="15"/>
+      <c r="EA21" s="15"/>
+      <c r="EB21" s="15"/>
+      <c r="EC21" s="15"/>
+      <c r="ED21" s="15"/>
+      <c r="EE21" s="15"/>
+      <c r="EF21" s="15"/>
+      <c r="EG21" s="15"/>
+      <c r="EH21" s="15"/>
+      <c r="EI21" s="15"/>
+      <c r="EJ21" s="15"/>
+      <c r="EK21" s="15"/>
+      <c r="EL21" s="15"/>
+      <c r="EM21" s="15"/>
+      <c r="EN21" s="15"/>
+      <c r="EO21" s="15"/>
+      <c r="EP21" s="15"/>
+      <c r="EQ21" s="15"/>
+      <c r="ER21" s="15"/>
+      <c r="ES21" s="15"/>
+      <c r="ET21" s="15"/>
+      <c r="EU21" s="15"/>
+      <c r="EV21" s="15"/>
+      <c r="EW21" s="15"/>
+      <c r="EX21" s="15"/>
+      <c r="EY21" s="15"/>
+      <c r="EZ21" s="15"/>
+      <c r="FA21" s="15"/>
+      <c r="FB21" s="15"/>
+      <c r="FC21" s="15"/>
+      <c r="FD21" s="15"/>
+      <c r="FE21" s="15"/>
+      <c r="FF21" s="15"/>
+      <c r="FG21" s="15"/>
+      <c r="FH21" s="15"/>
+      <c r="FI21" s="15"/>
+      <c r="FJ21" s="15"/>
+      <c r="FK21" s="15"/>
+      <c r="FL21" s="15"/>
+      <c r="FM21" s="15"/>
+      <c r="FN21" s="15"/>
+      <c r="FO21" s="15"/>
+      <c r="FP21" s="15"/>
+      <c r="FQ21" s="15"/>
+      <c r="FR21" s="15"/>
+      <c r="FS21" s="15"/>
+      <c r="FT21" s="15"/>
+      <c r="FU21" s="15"/>
+      <c r="FV21" s="15"/>
+      <c r="FW21" s="15"/>
+      <c r="FX21" s="15"/>
+      <c r="FY21" s="15"/>
+      <c r="FZ21" s="15"/>
+      <c r="GA21" s="15"/>
+      <c r="GB21" s="15"/>
+      <c r="GC21" s="15"/>
+      <c r="GD21" s="15"/>
+      <c r="GE21" s="15"/>
+      <c r="GF21" s="15"/>
+      <c r="GG21" s="15"/>
+      <c r="GH21" s="15"/>
+      <c r="GI21" s="15"/>
+      <c r="GJ21" s="15"/>
+      <c r="GK21" s="15"/>
+      <c r="GL21" s="15"/>
+      <c r="GM21" s="15"/>
+      <c r="GN21" s="15"/>
+      <c r="GO21" s="15"/>
+      <c r="GP21" s="15"/>
+      <c r="GQ21" s="15"/>
+      <c r="GR21" s="15"/>
+      <c r="GS21" s="15"/>
+      <c r="GT21" s="15"/>
+      <c r="GU21" s="15"/>
+      <c r="GV21" s="15"/>
+      <c r="GW21" s="15"/>
+      <c r="GX21" s="15"/>
+      <c r="GY21" s="15"/>
+      <c r="GZ21" s="15"/>
+      <c r="HA21" s="15"/>
+      <c r="HB21" s="15"/>
+      <c r="HC21" s="15"/>
+      <c r="HD21" s="15"/>
+      <c r="HE21" s="15"/>
+      <c r="HF21" s="15"/>
+      <c r="HG21" s="15"/>
+      <c r="HH21" s="15"/>
+      <c r="HI21" s="15"/>
+      <c r="HJ21" s="15"/>
+      <c r="HK21" s="15"/>
+      <c r="HL21" s="15"/>
+      <c r="HM21" s="15"/>
+      <c r="HN21" s="15"/>
+      <c r="HO21" s="15"/>
+      <c r="HP21" s="15"/>
+      <c r="HQ21" s="15"/>
+      <c r="HR21" s="15"/>
+      <c r="HS21" s="15"/>
+      <c r="HT21" s="15"/>
+      <c r="HU21" s="15"/>
+      <c r="HV21" s="15"/>
+      <c r="HW21" s="15"/>
+      <c r="HX21" s="15"/>
+      <c r="HY21" s="15"/>
+      <c r="HZ21" s="15"/>
+      <c r="IA21" s="15"/>
+      <c r="IB21" s="15"/>
+      <c r="IC21" s="15"/>
+      <c r="ID21" s="15"/>
+      <c r="IE21" s="15"/>
+      <c r="IF21" s="15"/>
+      <c r="IG21" s="15"/>
+      <c r="IH21" s="15"/>
+      <c r="II21" s="15"/>
+      <c r="IJ21" s="15"/>
+      <c r="IK21" s="15"/>
+      <c r="IL21" s="15"/>
+      <c r="IM21" s="15"/>
+      <c r="IN21" s="15"/>
+      <c r="IO21" s="15"/>
+      <c r="IP21" s="15"/>
+      <c r="IQ21" s="15"/>
+      <c r="IR21" s="15"/>
+      <c r="IS21" s="15"/>
+      <c r="IT21" s="15"/>
+      <c r="IU21" s="15"/>
+      <c r="IV21" s="15"/>
+      <c r="IW21" s="15"/>
+      <c r="IX21" s="15"/>
+      <c r="IY21" s="15"/>
+      <c r="IZ21" s="15"/>
+      <c r="JA21" s="15"/>
+      <c r="JB21" s="15"/>
+      <c r="JC21" s="15"/>
+      <c r="JD21" s="15"/>
+      <c r="JE21" s="15"/>
+      <c r="JF21" s="15"/>
+      <c r="JG21" s="15"/>
+      <c r="JH21" s="15"/>
+      <c r="JI21" s="15"/>
+      <c r="JJ21" s="15"/>
+      <c r="JK21" s="15"/>
+      <c r="JL21" s="15"/>
+      <c r="JM21" s="15"/>
+      <c r="JN21" s="15"/>
+      <c r="JO21" s="15"/>
+      <c r="JP21" s="15"/>
+      <c r="JQ21" s="15"/>
+      <c r="JR21" s="15"/>
+      <c r="JS21" s="15"/>
+      <c r="JT21" s="15"/>
+      <c r="JU21" s="15"/>
+      <c r="JV21" s="15"/>
+      <c r="JW21" s="15"/>
+      <c r="JX21" s="15"/>
+      <c r="JY21" s="15"/>
+      <c r="JZ21" s="15"/>
+      <c r="KA21" s="15"/>
+      <c r="KB21" s="15"/>
+      <c r="KC21" s="15"/>
+      <c r="KD21" s="15"/>
+      <c r="KE21" s="15"/>
+      <c r="KF21" s="15"/>
+      <c r="KG21" s="15"/>
+      <c r="KH21" s="15"/>
+      <c r="KI21" s="15"/>
+      <c r="KJ21" s="15"/>
+      <c r="KK21" s="15"/>
+      <c r="KL21" s="15"/>
+      <c r="KM21" s="15"/>
+      <c r="KN21" s="15"/>
+      <c r="KO21" s="15"/>
+      <c r="KP21" s="15"/>
+      <c r="KQ21" s="15"/>
+      <c r="KR21" s="15"/>
+      <c r="KS21" s="15"/>
+      <c r="KT21" s="15"/>
+      <c r="KU21" s="15"/>
+      <c r="KV21" s="15"/>
+      <c r="KW21" s="15"/>
+      <c r="KX21" s="15"/>
+      <c r="KY21" s="15"/>
+      <c r="KZ21" s="15"/>
+      <c r="LA21" s="15"/>
+      <c r="LB21" s="15"/>
+      <c r="LC21" s="15"/>
+      <c r="LD21" s="15"/>
+      <c r="LE21" s="15"/>
+      <c r="LF21" s="15"/>
+      <c r="LG21" s="15"/>
+      <c r="LH21" s="15"/>
+      <c r="LI21" s="15"/>
+      <c r="LJ21" s="15"/>
+      <c r="LK21" s="15"/>
+      <c r="LL21" s="15"/>
+      <c r="LM21" s="15"/>
+      <c r="LN21" s="15"/>
+      <c r="LO21" s="15"/>
+      <c r="LP21" s="15"/>
+      <c r="LQ21" s="15"/>
+      <c r="LR21" s="15"/>
+      <c r="LS21" s="15"/>
+      <c r="LT21" s="15"/>
+      <c r="LU21" s="15"/>
+      <c r="LV21" s="15"/>
+      <c r="LW21" s="15"/>
+      <c r="LX21" s="15"/>
+      <c r="LY21" s="15"/>
+      <c r="LZ21" s="15"/>
+      <c r="MA21" s="15"/>
+      <c r="MB21" s="15"/>
+      <c r="MC21" s="15"/>
+      <c r="MD21" s="15"/>
+      <c r="ME21" s="15"/>
+      <c r="MF21" s="15"/>
+      <c r="MG21" s="15"/>
+      <c r="MH21" s="15"/>
+      <c r="MI21" s="15"/>
+      <c r="MJ21" s="15"/>
+      <c r="MK21" s="15"/>
+      <c r="ML21" s="15"/>
+      <c r="MM21" s="15"/>
+      <c r="MN21" s="15"/>
+      <c r="MO21" s="15"/>
+      <c r="MP21" s="15"/>
+      <c r="MQ21" s="15"/>
+      <c r="MR21" s="15"/>
+      <c r="MS21" s="15"/>
+      <c r="MT21" s="15"/>
+      <c r="MU21" s="15"/>
+      <c r="MV21" s="15"/>
+      <c r="MW21" s="15"/>
+      <c r="MX21" s="15"/>
+      <c r="MY21" s="15"/>
+      <c r="MZ21" s="15"/>
+      <c r="NA21" s="15"/>
+      <c r="NB21" s="15"/>
+      <c r="NC21" s="15"/>
+      <c r="ND21" s="15"/>
+      <c r="NE21" s="15"/>
+      <c r="NF21" s="15"/>
+      <c r="NG21" s="15"/>
+      <c r="NH21" s="15"/>
+      <c r="NI21" s="15"/>
+      <c r="NJ21" s="15"/>
+      <c r="NK21" s="15"/>
+      <c r="NL21" s="15"/>
+      <c r="NM21" s="15"/>
+      <c r="NN21" s="15"/>
+      <c r="NO21" s="15"/>
+      <c r="NP21" s="15"/>
+      <c r="NQ21" s="15"/>
+      <c r="NR21" s="15"/>
+      <c r="NS21" s="15"/>
+      <c r="NT21" s="15"/>
+      <c r="NU21" s="15"/>
+      <c r="NV21" s="15"/>
+      <c r="NW21" s="15"/>
+      <c r="NX21" s="15"/>
+      <c r="NY21" s="15"/>
+      <c r="NZ21" s="15"/>
+      <c r="OA21" s="15"/>
+      <c r="OB21" s="15"/>
+      <c r="OC21" s="15"/>
+      <c r="OD21" s="15"/>
+      <c r="OE21" s="15"/>
+      <c r="OF21" s="15"/>
+      <c r="OG21" s="15"/>
+      <c r="OH21" s="15"/>
+      <c r="OI21" s="15"/>
+      <c r="OJ21" s="15"/>
+      <c r="OK21" s="15"/>
+      <c r="OL21" s="15"/>
+      <c r="OM21" s="15"/>
+      <c r="ON21" s="15"/>
+      <c r="OO21" s="15"/>
+      <c r="OP21" s="15"/>
+      <c r="OQ21" s="15"/>
+      <c r="OR21" s="15"/>
+      <c r="OS21" s="15"/>
+      <c r="OT21" s="15"/>
+      <c r="OU21" s="15"/>
+      <c r="OV21" s="15"/>
+      <c r="OW21" s="15"/>
+      <c r="OX21" s="15"/>
+      <c r="OY21" s="15"/>
+      <c r="OZ21" s="15"/>
+      <c r="PA21" s="15"/>
+      <c r="PB21" s="15"/>
+      <c r="PC21" s="15"/>
+      <c r="PD21" s="15"/>
+      <c r="PE21" s="15"/>
+      <c r="PF21" s="15"/>
+      <c r="PG21" s="15"/>
+      <c r="PH21" s="15"/>
+      <c r="PI21" s="15"/>
+      <c r="PJ21" s="15"/>
+      <c r="PK21" s="15"/>
+      <c r="PL21" s="15"/>
+      <c r="PM21" s="15"/>
+      <c r="PN21" s="15"/>
+      <c r="PO21" s="15"/>
+      <c r="PP21" s="15"/>
+      <c r="PQ21" s="15"/>
+      <c r="PR21" s="15"/>
+      <c r="PS21" s="15"/>
+      <c r="PT21" s="15"/>
+      <c r="PU21" s="15"/>
+      <c r="PV21" s="15"/>
+      <c r="PW21" s="15"/>
+      <c r="PX21" s="15"/>
+      <c r="PY21" s="15"/>
+      <c r="PZ21" s="15"/>
+      <c r="QA21" s="15"/>
+      <c r="QB21" s="15"/>
+      <c r="QC21" s="15"/>
+      <c r="QD21" s="15"/>
+      <c r="QE21" s="15"/>
+      <c r="QF21" s="15"/>
+      <c r="QG21" s="15"/>
+      <c r="QH21" s="15"/>
+      <c r="QI21" s="15"/>
+      <c r="QJ21" s="15"/>
+      <c r="QK21" s="15"/>
+      <c r="QL21" s="15"/>
+      <c r="QM21" s="15"/>
+      <c r="QN21" s="15"/>
+      <c r="QO21" s="15"/>
+      <c r="QP21" s="15"/>
+      <c r="QQ21" s="15"/>
+      <c r="QR21" s="15"/>
+      <c r="QS21" s="15"/>
+      <c r="QT21" s="15"/>
+      <c r="QU21" s="15"/>
+      <c r="QV21" s="15"/>
+      <c r="QW21" s="15"/>
+      <c r="QX21" s="15"/>
+      <c r="QY21" s="15"/>
+      <c r="QZ21" s="15"/>
+      <c r="RA21" s="15"/>
+      <c r="RB21" s="15"/>
+      <c r="RC21" s="15"/>
+      <c r="RD21" s="15"/>
+      <c r="RE21" s="15"/>
+      <c r="RF21" s="15"/>
+      <c r="RG21" s="15"/>
+      <c r="RH21" s="15"/>
+      <c r="RI21" s="15"/>
+      <c r="RJ21" s="15"/>
+      <c r="RK21" s="15"/>
+      <c r="RL21" s="15"/>
+      <c r="RM21" s="15"/>
+      <c r="RN21" s="15"/>
+      <c r="RO21" s="15"/>
+      <c r="RP21" s="15"/>
+      <c r="RQ21" s="15"/>
+      <c r="RR21" s="15"/>
+      <c r="RS21" s="15"/>
+      <c r="RT21" s="15"/>
+      <c r="RU21" s="15"/>
+      <c r="RV21" s="15"/>
+      <c r="RW21" s="15"/>
+      <c r="RX21" s="15"/>
+      <c r="RY21" s="15"/>
+      <c r="RZ21" s="15"/>
+      <c r="SA21" s="15"/>
+      <c r="SB21" s="15"/>
+      <c r="SC21" s="15"/>
+      <c r="SD21" s="15"/>
+      <c r="SE21" s="15"/>
+      <c r="SF21" s="15"/>
+      <c r="SG21" s="15"/>
+      <c r="SH21" s="15"/>
+      <c r="SI21" s="15"/>
+      <c r="SJ21" s="15"/>
+      <c r="SK21" s="15"/>
+      <c r="SL21" s="15"/>
+      <c r="SM21" s="15"/>
+      <c r="SN21" s="15"/>
+      <c r="SO21" s="15"/>
+      <c r="SP21" s="15"/>
+      <c r="SQ21" s="15"/>
+      <c r="SR21" s="15"/>
+      <c r="SS21" s="15"/>
+      <c r="ST21" s="15"/>
+      <c r="SU21" s="15"/>
+      <c r="SV21" s="15"/>
+      <c r="SW21" s="15"/>
+      <c r="SX21" s="15"/>
+      <c r="SY21" s="15"/>
+      <c r="SZ21" s="15"/>
+      <c r="TA21" s="15"/>
+      <c r="TB21" s="15"/>
+      <c r="TC21" s="15"/>
+      <c r="TD21" s="15"/>
+      <c r="TE21" s="15"/>
+      <c r="TF21" s="15"/>
+      <c r="TG21" s="15"/>
+      <c r="TH21" s="15"/>
+      <c r="TI21" s="15"/>
+      <c r="TJ21" s="15"/>
+      <c r="TK21" s="15"/>
+      <c r="TL21" s="15"/>
+      <c r="TM21" s="15"/>
+      <c r="TN21" s="15"/>
+      <c r="TO21" s="15"/>
+      <c r="TP21" s="15"/>
+      <c r="TQ21" s="15"/>
+      <c r="TR21" s="15"/>
+      <c r="TS21" s="15"/>
+      <c r="TT21" s="15"/>
+      <c r="TU21" s="15"/>
+      <c r="TV21" s="15"/>
+      <c r="TW21" s="15"/>
+      <c r="TX21" s="15"/>
+      <c r="TY21" s="15"/>
+      <c r="TZ21" s="15"/>
+      <c r="UA21" s="15"/>
+      <c r="UB21" s="15"/>
+      <c r="UC21" s="15"/>
+      <c r="UD21" s="15"/>
+      <c r="UE21" s="15"/>
+      <c r="UF21" s="15"/>
+      <c r="UG21" s="15"/>
+      <c r="UH21" s="15"/>
+      <c r="UI21" s="15"/>
+      <c r="UJ21" s="15"/>
+      <c r="UK21" s="15"/>
+      <c r="UL21" s="15"/>
+      <c r="UM21" s="15"/>
+      <c r="UN21" s="15"/>
+      <c r="UO21" s="15"/>
+      <c r="UP21" s="15"/>
+      <c r="UQ21" s="15"/>
+      <c r="UR21" s="15"/>
+      <c r="US21" s="15"/>
+      <c r="UT21" s="15"/>
+      <c r="UU21" s="15"/>
+      <c r="UV21" s="15"/>
+      <c r="UW21" s="15"/>
+      <c r="UX21" s="15"/>
+      <c r="UY21" s="15"/>
+      <c r="UZ21" s="15"/>
+      <c r="VA21" s="15"/>
+      <c r="VB21" s="15"/>
+      <c r="VC21" s="15"/>
+      <c r="VD21" s="15"/>
+      <c r="VE21" s="15"/>
+      <c r="VF21" s="15"/>
+      <c r="VG21" s="15"/>
+      <c r="VH21" s="15"/>
+      <c r="VI21" s="15"/>
+      <c r="VJ21" s="15"/>
+      <c r="VK21" s="15"/>
+      <c r="VL21" s="15"/>
+      <c r="VM21" s="15"/>
+      <c r="VN21" s="15"/>
+      <c r="VO21" s="15"/>
+      <c r="VP21" s="15"/>
+      <c r="VQ21" s="15"/>
+      <c r="VR21" s="15"/>
+      <c r="VS21" s="15"/>
+      <c r="VT21" s="15"/>
+      <c r="VU21" s="15"/>
+      <c r="VV21" s="15"/>
+      <c r="VW21" s="15"/>
+      <c r="VX21" s="15"/>
+      <c r="VY21" s="15"/>
+      <c r="VZ21" s="15"/>
+      <c r="WA21" s="15"/>
+      <c r="WB21" s="15"/>
+      <c r="WC21" s="15"/>
+      <c r="WD21" s="15"/>
+      <c r="WE21" s="15"/>
+      <c r="WF21" s="15"/>
+      <c r="WG21" s="15"/>
+      <c r="WH21" s="15"/>
+      <c r="WI21" s="15"/>
+      <c r="WJ21" s="15"/>
+      <c r="WK21" s="15"/>
+      <c r="WL21" s="15"/>
+      <c r="WM21" s="15"/>
+      <c r="WN21" s="15"/>
+      <c r="WO21" s="15"/>
+      <c r="WP21" s="15"/>
+      <c r="WQ21" s="15"/>
+      <c r="WR21" s="15"/>
+      <c r="WS21" s="15"/>
+      <c r="WT21" s="15"/>
+      <c r="WU21" s="15"/>
+      <c r="WV21" s="15"/>
+      <c r="WW21" s="15"/>
+      <c r="WX21" s="15"/>
+      <c r="WY21" s="15"/>
+      <c r="WZ21" s="15"/>
+      <c r="XA21" s="15"/>
+      <c r="XB21" s="15"/>
+      <c r="XC21" s="15"/>
+      <c r="XD21" s="15"/>
+      <c r="XE21" s="15"/>
+      <c r="XF21" s="15"/>
+      <c r="XG21" s="15"/>
+      <c r="XH21" s="15"/>
+      <c r="XI21" s="15"/>
+      <c r="XJ21" s="15"/>
+      <c r="XK21" s="15"/>
+      <c r="XL21" s="15"/>
+      <c r="XM21" s="15"/>
+      <c r="XN21" s="15"/>
+      <c r="XO21" s="15"/>
+      <c r="XP21" s="15"/>
+      <c r="XQ21" s="15"/>
+      <c r="XR21" s="15"/>
+      <c r="XS21" s="15"/>
+      <c r="XT21" s="15"/>
+      <c r="XU21" s="15"/>
+      <c r="XV21" s="15"/>
+      <c r="XW21" s="15"/>
+      <c r="XX21" s="15"/>
+      <c r="XY21" s="15"/>
+      <c r="XZ21" s="15"/>
+      <c r="YA21" s="15"/>
+      <c r="YB21" s="15"/>
+      <c r="YC21" s="15"/>
+      <c r="YD21" s="15"/>
+      <c r="YE21" s="15"/>
+      <c r="YF21" s="15"/>
+      <c r="YG21" s="15"/>
+      <c r="YH21" s="15"/>
+      <c r="YI21" s="15"/>
+      <c r="YJ21" s="15"/>
+      <c r="YK21" s="15"/>
+      <c r="YL21" s="15"/>
+      <c r="YM21" s="15"/>
+      <c r="YN21" s="15"/>
+      <c r="YO21" s="15"/>
+      <c r="YP21" s="15"/>
+      <c r="YQ21" s="15"/>
+      <c r="YR21" s="15"/>
+      <c r="YS21" s="15"/>
+      <c r="YT21" s="15"/>
+      <c r="YU21" s="15"/>
+      <c r="YV21" s="15"/>
+      <c r="YW21" s="15"/>
+      <c r="YX21" s="15"/>
+      <c r="YY21" s="15"/>
+      <c r="YZ21" s="15"/>
+      <c r="ZA21" s="15"/>
+      <c r="ZB21" s="15"/>
+      <c r="ZC21" s="15"/>
+      <c r="ZD21" s="15"/>
+      <c r="ZE21" s="15"/>
+      <c r="ZF21" s="15"/>
+      <c r="ZG21" s="15"/>
+      <c r="ZH21" s="15"/>
+      <c r="ZI21" s="15"/>
+      <c r="ZJ21" s="15"/>
+      <c r="ZK21" s="15"/>
+      <c r="ZL21" s="15"/>
+      <c r="ZM21" s="15"/>
+      <c r="ZN21" s="15"/>
+      <c r="ZO21" s="15"/>
+      <c r="ZP21" s="15"/>
+      <c r="ZQ21" s="15"/>
+      <c r="ZR21" s="15"/>
+      <c r="ZS21" s="15"/>
+      <c r="ZT21" s="15"/>
+      <c r="ZU21" s="15"/>
+      <c r="ZV21" s="15"/>
+      <c r="ZW21" s="15"/>
+      <c r="ZX21" s="15"/>
+      <c r="ZY21" s="15"/>
+      <c r="ZZ21" s="15"/>
+      <c r="AAA21" s="15"/>
+      <c r="AAB21" s="15"/>
+      <c r="AAC21" s="15"/>
+      <c r="AAD21" s="15"/>
+      <c r="AAE21" s="15"/>
+      <c r="AAF21" s="15"/>
+      <c r="AAG21" s="15"/>
+      <c r="AAH21" s="15"/>
+      <c r="AAI21" s="15"/>
+      <c r="AAJ21" s="15"/>
+      <c r="AAK21" s="15"/>
+      <c r="AAL21" s="15"/>
+      <c r="AAM21" s="15"/>
+      <c r="AAN21" s="15"/>
+      <c r="AAO21" s="15"/>
+      <c r="AAP21" s="15"/>
+      <c r="AAQ21" s="15"/>
+      <c r="AAR21" s="15"/>
+      <c r="AAS21" s="15"/>
+      <c r="AAT21" s="15"/>
+      <c r="AAU21" s="15"/>
+      <c r="AAV21" s="15"/>
+      <c r="AAW21" s="15"/>
+      <c r="AAX21" s="15"/>
+      <c r="AAY21" s="15"/>
+      <c r="AAZ21" s="15"/>
+      <c r="ABA21" s="15"/>
+      <c r="ABB21" s="15"/>
+      <c r="ABC21" s="15"/>
+      <c r="ABD21" s="15"/>
+      <c r="ABE21" s="15"/>
+      <c r="ABF21" s="15"/>
+      <c r="ABG21" s="15"/>
+      <c r="ABH21" s="15"/>
+      <c r="ABI21" s="15"/>
+      <c r="ABJ21" s="15"/>
+      <c r="ABK21" s="15"/>
+      <c r="ABL21" s="15"/>
+      <c r="ABM21" s="15"/>
+      <c r="ABN21" s="15"/>
+      <c r="ABO21" s="15"/>
+      <c r="ABP21" s="15"/>
+      <c r="ABQ21" s="15"/>
+      <c r="ABR21" s="15"/>
+      <c r="ABS21" s="15"/>
+      <c r="ABT21" s="15"/>
+      <c r="ABU21" s="15"/>
+      <c r="ABV21" s="15"/>
+      <c r="ABW21" s="15"/>
+      <c r="ABX21" s="15"/>
+      <c r="ABY21" s="15"/>
+      <c r="ABZ21" s="15"/>
+      <c r="ACA21" s="15"/>
+      <c r="ACB21" s="15"/>
+      <c r="ACC21" s="15"/>
+      <c r="ACD21" s="15"/>
+      <c r="ACE21" s="15"/>
+      <c r="ACF21" s="15"/>
+      <c r="ACG21" s="15"/>
+      <c r="ACH21" s="15"/>
+      <c r="ACI21" s="15"/>
+      <c r="ACJ21" s="15"/>
+      <c r="ACK21" s="15"/>
+      <c r="ACL21" s="15"/>
+      <c r="ACM21" s="15"/>
+      <c r="ACN21" s="15"/>
+      <c r="ACO21" s="15"/>
+      <c r="ACP21" s="15"/>
+      <c r="ACQ21" s="15"/>
+      <c r="ACR21" s="15"/>
+      <c r="ACS21" s="15"/>
+      <c r="ACT21" s="15"/>
+      <c r="ACU21" s="15"/>
+      <c r="ACV21" s="15"/>
+      <c r="ACW21" s="15"/>
+      <c r="ACX21" s="15"/>
+      <c r="ACY21" s="15"/>
+      <c r="ACZ21" s="15"/>
+      <c r="ADA21" s="15"/>
+      <c r="ADB21" s="15"/>
+      <c r="ADC21" s="15"/>
+      <c r="ADD21" s="15"/>
+      <c r="ADE21" s="15"/>
+      <c r="ADF21" s="15"/>
+      <c r="ADG21" s="15"/>
+      <c r="ADH21" s="15"/>
+      <c r="ADI21" s="15"/>
+      <c r="ADJ21" s="15"/>
+      <c r="ADK21" s="15"/>
+      <c r="ADL21" s="15"/>
+      <c r="ADM21" s="15"/>
+      <c r="ADN21" s="15"/>
+      <c r="ADO21" s="15"/>
+      <c r="ADP21" s="15"/>
+      <c r="ADQ21" s="15"/>
+      <c r="ADR21" s="15"/>
+      <c r="ADS21" s="15"/>
+      <c r="ADT21" s="15"/>
+      <c r="ADU21" s="15"/>
+      <c r="ADV21" s="15"/>
+      <c r="ADW21" s="15"/>
+      <c r="ADX21" s="15"/>
+      <c r="ADY21" s="15"/>
+      <c r="ADZ21" s="15"/>
+      <c r="AEA21" s="15"/>
+      <c r="AEB21" s="15"/>
+      <c r="AEC21" s="15"/>
+      <c r="AED21" s="15"/>
+      <c r="AEE21" s="15"/>
+      <c r="AEF21" s="15"/>
+      <c r="AEG21" s="15"/>
+      <c r="AEH21" s="15"/>
+      <c r="AEI21" s="15"/>
+      <c r="AEJ21" s="15"/>
+      <c r="AEK21" s="15"/>
+      <c r="AEL21" s="15"/>
+      <c r="AEM21" s="15"/>
+      <c r="AEN21" s="15"/>
+      <c r="AEO21" s="15"/>
+      <c r="AEP21" s="15"/>
+      <c r="AEQ21" s="15"/>
+      <c r="AER21" s="15"/>
+      <c r="AES21" s="15"/>
+      <c r="AET21" s="15"/>
+      <c r="AEU21" s="15"/>
+      <c r="AEV21" s="15"/>
+      <c r="AEW21" s="15"/>
+      <c r="AEX21" s="15"/>
+      <c r="AEY21" s="15"/>
+      <c r="AEZ21" s="15"/>
+      <c r="AFA21" s="15"/>
+      <c r="AFB21" s="15"/>
+      <c r="AFC21" s="15"/>
+      <c r="AFD21" s="15"/>
+      <c r="AFE21" s="15"/>
+      <c r="AFF21" s="15"/>
+      <c r="AFG21" s="15"/>
+      <c r="AFH21" s="15"/>
+      <c r="AFI21" s="15"/>
+      <c r="AFJ21" s="15"/>
+      <c r="AFK21" s="15"/>
+      <c r="AFL21" s="15"/>
+      <c r="AFM21" s="15"/>
+      <c r="AFN21" s="15"/>
+      <c r="AFO21" s="15"/>
+      <c r="AFP21" s="15"/>
+      <c r="AFQ21" s="15"/>
+      <c r="AFR21" s="15"/>
+      <c r="AFS21" s="15"/>
+      <c r="AFT21" s="15"/>
+      <c r="AFU21" s="15"/>
+      <c r="AFV21" s="15"/>
+      <c r="AFW21" s="15"/>
+      <c r="AFX21" s="15"/>
+      <c r="AFY21" s="15"/>
+      <c r="AFZ21" s="15"/>
+      <c r="AGA21" s="15"/>
+      <c r="AGB21" s="15"/>
+      <c r="AGC21" s="15"/>
+      <c r="AGD21" s="15"/>
+      <c r="AGE21" s="15"/>
+      <c r="AGF21" s="15"/>
+      <c r="AGG21" s="15"/>
+      <c r="AGH21" s="15"/>
+      <c r="AGI21" s="15"/>
+      <c r="AGJ21" s="15"/>
+      <c r="AGK21" s="15"/>
+      <c r="AGL21" s="15"/>
+      <c r="AGM21" s="15"/>
+      <c r="AGN21" s="15"/>
+      <c r="AGO21" s="15"/>
+      <c r="AGP21" s="15"/>
+      <c r="AGQ21" s="15"/>
+      <c r="AGR21" s="15"/>
+      <c r="AGS21" s="15"/>
+      <c r="AGT21" s="15"/>
+      <c r="AGU21" s="15"/>
+      <c r="AGV21" s="15"/>
+      <c r="AGW21" s="15"/>
+      <c r="AGX21" s="15"/>
+      <c r="AGY21" s="15"/>
+      <c r="AGZ21" s="15"/>
+      <c r="AHA21" s="15"/>
+      <c r="AHB21" s="15"/>
+      <c r="AHC21" s="15"/>
+      <c r="AHD21" s="15"/>
+      <c r="AHE21" s="15"/>
+      <c r="AHF21" s="15"/>
+      <c r="AHG21" s="15"/>
+      <c r="AHH21" s="15"/>
+      <c r="AHI21" s="15"/>
+      <c r="AHJ21" s="15"/>
+      <c r="AHK21" s="15"/>
+      <c r="AHL21" s="15"/>
+      <c r="AHM21" s="15"/>
+      <c r="AHN21" s="15"/>
+      <c r="AHO21" s="15"/>
+      <c r="AHP21" s="15"/>
+      <c r="AHQ21" s="15"/>
+      <c r="AHR21" s="15"/>
+      <c r="AHS21" s="15"/>
+      <c r="AHT21" s="15"/>
+      <c r="AHU21" s="15"/>
+      <c r="AHV21" s="15"/>
+      <c r="AHW21" s="15"/>
+      <c r="AHX21" s="15"/>
+      <c r="AHY21" s="15"/>
+      <c r="AHZ21" s="15"/>
+      <c r="AIA21" s="15"/>
+      <c r="AIB21" s="15"/>
+      <c r="AIC21" s="15"/>
+      <c r="AID21" s="15"/>
+      <c r="AIE21" s="15"/>
+      <c r="AIF21" s="15"/>
+      <c r="AIG21" s="15"/>
+      <c r="AIH21" s="15"/>
+      <c r="AII21" s="15"/>
+      <c r="AIJ21" s="15"/>
+      <c r="AIK21" s="15"/>
+      <c r="AIL21" s="15"/>
+      <c r="AIM21" s="15"/>
+      <c r="AIN21" s="15"/>
+      <c r="AIO21" s="15"/>
+      <c r="AIP21" s="15"/>
+      <c r="AIQ21" s="15"/>
+      <c r="AIR21" s="15"/>
+      <c r="AIS21" s="15"/>
+      <c r="AIT21" s="15"/>
+      <c r="AIU21" s="15"/>
+      <c r="AIV21" s="15"/>
+      <c r="AIW21" s="15"/>
+      <c r="AIX21" s="15"/>
+      <c r="AIY21" s="15"/>
+      <c r="AIZ21" s="15"/>
+      <c r="AJA21" s="15"/>
+      <c r="AJB21" s="15"/>
+      <c r="AJC21" s="15"/>
+      <c r="AJD21" s="15"/>
+      <c r="AJE21" s="15"/>
+      <c r="AJF21" s="15"/>
+      <c r="AJG21" s="15"/>
+      <c r="AJH21" s="15"/>
+      <c r="AJI21" s="15"/>
+      <c r="AJJ21" s="15"/>
+      <c r="AJK21" s="15"/>
+      <c r="AJL21" s="15"/>
+      <c r="AJM21" s="15"/>
+      <c r="AJN21" s="15"/>
+      <c r="AJO21" s="15"/>
+      <c r="AJP21" s="15"/>
+      <c r="AJQ21" s="15"/>
+      <c r="AJR21" s="15"/>
+      <c r="AJS21" s="15"/>
+      <c r="AJT21" s="15"/>
+      <c r="AJU21" s="15"/>
+      <c r="AJV21" s="15"/>
+      <c r="AJW21" s="15"/>
+      <c r="AJX21" s="15"/>
+      <c r="AJY21" s="15"/>
+      <c r="AJZ21" s="15"/>
+      <c r="AKA21" s="15"/>
+      <c r="AKB21" s="15"/>
+      <c r="AKC21" s="15"/>
+      <c r="AKD21" s="15"/>
+      <c r="AKE21" s="15"/>
+      <c r="AKF21" s="15"/>
+      <c r="AKG21" s="15"/>
+      <c r="AKH21" s="15"/>
+      <c r="AKI21" s="15"/>
+      <c r="AKJ21" s="15"/>
+      <c r="AKK21" s="15"/>
+      <c r="AKL21" s="15"/>
+      <c r="AKM21" s="15"/>
+      <c r="AKN21" s="15"/>
+      <c r="AKO21" s="15"/>
+      <c r="AKP21" s="15"/>
+      <c r="AKQ21" s="15"/>
+      <c r="AKR21" s="15"/>
+      <c r="AKS21" s="15"/>
+      <c r="AKT21" s="15"/>
+      <c r="AKU21" s="15"/>
+      <c r="AKV21" s="15"/>
+      <c r="AKW21" s="15"/>
+      <c r="AKX21" s="15"/>
+      <c r="AKY21" s="15"/>
+      <c r="AKZ21" s="15"/>
+      <c r="ALA21" s="15"/>
+      <c r="ALB21" s="15"/>
+      <c r="ALC21" s="15"/>
+      <c r="ALD21" s="15"/>
+      <c r="ALE21" s="15"/>
+      <c r="ALF21" s="15"/>
+      <c r="ALG21" s="15"/>
+      <c r="ALH21" s="15"/>
+      <c r="ALI21" s="15"/>
+      <c r="ALJ21" s="15"/>
+      <c r="ALK21" s="15"/>
+      <c r="ALL21" s="15"/>
+      <c r="ALM21" s="15"/>
+      <c r="ALN21" s="15"/>
+      <c r="ALO21" s="15"/>
+      <c r="ALP21" s="15"/>
+      <c r="ALQ21" s="15"/>
+      <c r="ALR21" s="15"/>
+      <c r="ALS21" s="15"/>
+      <c r="ALT21" s="15"/>
+      <c r="ALU21" s="15"/>
+      <c r="ALV21" s="15"/>
+      <c r="ALW21" s="15"/>
+      <c r="ALX21" s="15"/>
+      <c r="ALY21" s="15"/>
+      <c r="ALZ21" s="15"/>
+      <c r="AMA21" s="15"/>
+      <c r="AMB21" s="15"/>
+      <c r="AMC21" s="15"/>
+      <c r="AMD21" s="15"/>
+      <c r="AME21" s="15"/>
+      <c r="AMF21" s="15"/>
+      <c r="AMG21" s="15"/>
+      <c r="AMH21" s="15"/>
+      <c r="AMI21" s="15"/>
+      <c r="AMJ21" s="15"/>
+      <c r="AMK21" s="15"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="46">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="89"/>
-      <c r="AO16" s="89"/>
-      <c r="AP16" s="89"/>
-      <c r="AQ16" s="89"/>
-      <c r="AR16" s="89"/>
-      <c r="AS16" s="89"/>
-      <c r="AT16" s="90"/>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="89"/>
-      <c r="AW16" s="89"/>
-      <c r="AX16" s="89"/>
-      <c r="AY16" s="89"/>
-      <c r="AZ16" s="89"/>
-      <c r="BA16" s="89"/>
-      <c r="BB16" s="89"/>
-      <c r="BC16" s="89"/>
-      <c r="BD16" s="90"/>
-      <c r="BE16" s="88"/>
-      <c r="BF16" s="89"/>
-      <c r="BG16" s="89"/>
-      <c r="BH16" s="89"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="89"/>
-      <c r="BK16" s="89"/>
-      <c r="BL16" s="89"/>
-      <c r="BM16" s="89"/>
-      <c r="BN16" s="89"/>
-      <c r="BO16" s="89"/>
-      <c r="BP16" s="90"/>
-      <c r="BQ16" s="91"/>
-      <c r="BR16" s="92"/>
-      <c r="BS16" s="92"/>
-      <c r="BT16" s="92"/>
-      <c r="BU16" s="92"/>
-      <c r="BV16" s="92"/>
-      <c r="BW16" s="92"/>
-      <c r="BX16" s="92"/>
-      <c r="BY16" s="92"/>
-      <c r="BZ16" s="92"/>
-      <c r="CA16" s="92"/>
-      <c r="CB16" s="92"/>
-      <c r="CC16" s="92"/>
-      <c r="CD16" s="92"/>
-      <c r="CE16" s="92"/>
-      <c r="CF16" s="92"/>
-      <c r="CG16" s="92"/>
-      <c r="CH16" s="92"/>
-      <c r="CI16" s="93"/>
+    <row r="22" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="84"/>
+      <c r="AM22" s="84"/>
+      <c r="AN22" s="84"/>
+      <c r="AO22" s="84"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="115"/>
+      <c r="AU22" s="81"/>
+      <c r="AV22" s="81"/>
+      <c r="AW22" s="81"/>
+      <c r="AX22" s="81"/>
+      <c r="AY22" s="81"/>
+      <c r="AZ22" s="81"/>
+      <c r="BA22" s="81"/>
+      <c r="BB22" s="81"/>
+      <c r="BC22" s="81"/>
+      <c r="BD22" s="81"/>
+      <c r="BE22" s="81"/>
+      <c r="BF22" s="81"/>
+      <c r="BG22" s="81"/>
+      <c r="BH22" s="81"/>
+      <c r="BI22" s="81"/>
+      <c r="BJ22" s="81"/>
+      <c r="BK22" s="81"/>
+      <c r="BL22" s="81"/>
+      <c r="BM22" s="81"/>
+      <c r="BN22" s="81"/>
+      <c r="BO22" s="81"/>
+      <c r="BP22" s="81"/>
+      <c r="BQ22" s="116"/>
+      <c r="BR22" s="116"/>
+      <c r="BS22" s="116"/>
+      <c r="BT22" s="116"/>
+      <c r="BU22" s="116"/>
+      <c r="BV22" s="116"/>
+      <c r="BW22" s="116"/>
+      <c r="BX22" s="116"/>
+      <c r="BY22" s="116"/>
+      <c r="BZ22" s="116"/>
+      <c r="CA22" s="116"/>
+      <c r="CB22" s="116"/>
+      <c r="CC22" s="116"/>
+      <c r="CD22" s="116"/>
+      <c r="CE22" s="116"/>
+      <c r="CF22" s="116"/>
+      <c r="CG22" s="116"/>
+      <c r="CH22" s="116"/>
+      <c r="CI22" s="116"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="46">
-        <v>10</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="80"/>
-      <c r="AN17" s="80"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="80"/>
-      <c r="AQ17" s="80"/>
-      <c r="AR17" s="80"/>
-      <c r="AS17" s="80"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="70"/>
-      <c r="BE17" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="69"/>
-      <c r="BH17" s="69"/>
-      <c r="BI17" s="69"/>
-      <c r="BJ17" s="69"/>
-      <c r="BK17" s="69"/>
-      <c r="BL17" s="69"/>
-      <c r="BM17" s="69"/>
-      <c r="BN17" s="69"/>
-      <c r="BO17" s="69"/>
-      <c r="BP17" s="70"/>
-      <c r="BQ17" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR17" s="86"/>
-      <c r="BS17" s="86"/>
-      <c r="BT17" s="86"/>
-      <c r="BU17" s="86"/>
-      <c r="BV17" s="86"/>
-      <c r="BW17" s="86"/>
-      <c r="BX17" s="86"/>
-      <c r="BY17" s="86"/>
-      <c r="BZ17" s="86"/>
-      <c r="CA17" s="86"/>
-      <c r="CB17" s="86"/>
-      <c r="CC17" s="86"/>
-      <c r="CD17" s="86"/>
-      <c r="CE17" s="86"/>
-      <c r="CF17" s="86"/>
-      <c r="CG17" s="86"/>
-      <c r="CH17" s="86"/>
-      <c r="CI17" s="87"/>
-    </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46">
-        <v>11</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="80"/>
-      <c r="AN18" s="80"/>
-      <c r="AO18" s="80"/>
-      <c r="AP18" s="80"/>
-      <c r="AQ18" s="80"/>
-      <c r="AR18" s="82"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="77"/>
-      <c r="AY18" s="77"/>
-      <c r="AZ18" s="77"/>
-      <c r="BA18" s="77"/>
-      <c r="BB18" s="77"/>
-      <c r="BC18" s="77"/>
-      <c r="BD18" s="77"/>
-      <c r="BE18" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF18" s="77"/>
-      <c r="BG18" s="77"/>
-      <c r="BH18" s="77"/>
-      <c r="BI18" s="77"/>
-      <c r="BJ18" s="77"/>
-      <c r="BK18" s="77"/>
-      <c r="BL18" s="77"/>
-      <c r="BM18" s="77"/>
-      <c r="BN18" s="77"/>
-      <c r="BO18" s="77"/>
-      <c r="BP18" s="77"/>
-      <c r="BQ18" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="BR18" s="97"/>
-      <c r="BS18" s="97"/>
-      <c r="BT18" s="97"/>
-      <c r="BU18" s="97"/>
-      <c r="BV18" s="97"/>
-      <c r="BW18" s="97"/>
-      <c r="BX18" s="97"/>
-      <c r="BY18" s="97"/>
-      <c r="BZ18" s="97"/>
-      <c r="CA18" s="97"/>
-      <c r="CB18" s="97"/>
-      <c r="CC18" s="97"/>
-      <c r="CD18" s="97"/>
-      <c r="CE18" s="97"/>
-      <c r="CF18" s="97"/>
-      <c r="CG18" s="97"/>
-      <c r="CH18" s="97"/>
-      <c r="CI18" s="97"/>
-    </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="46">
-        <f>ROW(B19)-7</f>
-        <v>12</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="105"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="82"/>
-      <c r="AS19" s="82"/>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="99"/>
-      <c r="AY19" s="99"/>
-      <c r="AZ19" s="99"/>
-      <c r="BA19" s="99"/>
-      <c r="BB19" s="99"/>
-      <c r="BC19" s="99"/>
-      <c r="BD19" s="100"/>
-      <c r="BE19" s="98"/>
-      <c r="BF19" s="99"/>
-      <c r="BG19" s="99"/>
-      <c r="BH19" s="99"/>
-      <c r="BI19" s="99"/>
-      <c r="BJ19" s="99"/>
-      <c r="BK19" s="99"/>
-      <c r="BL19" s="99"/>
-      <c r="BM19" s="99"/>
-      <c r="BN19" s="99"/>
-      <c r="BO19" s="99"/>
-      <c r="BP19" s="100"/>
-      <c r="BQ19" s="101"/>
-      <c r="BR19" s="102"/>
-      <c r="BS19" s="102"/>
-      <c r="BT19" s="102"/>
-      <c r="BU19" s="102"/>
-      <c r="BV19" s="102"/>
-      <c r="BW19" s="102"/>
-      <c r="BX19" s="102"/>
-      <c r="BY19" s="102"/>
-      <c r="BZ19" s="102"/>
-      <c r="CA19" s="102"/>
-      <c r="CB19" s="102"/>
-      <c r="CC19" s="102"/>
-      <c r="CD19" s="102"/>
-      <c r="CE19" s="102"/>
-      <c r="CF19" s="102"/>
-      <c r="CG19" s="102"/>
-      <c r="CH19" s="102"/>
-      <c r="CI19" s="103"/>
-    </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="46">
-        <f t="shared" ref="B20:B23" si="2">ROW(B20)-7</f>
-        <v>13</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="108"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="107"/>
-      <c r="AL20" s="108"/>
-      <c r="AM20" s="108"/>
-      <c r="AN20" s="108"/>
-      <c r="AO20" s="108"/>
-      <c r="AP20" s="108"/>
-      <c r="AQ20" s="108"/>
-      <c r="AR20" s="82"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="108"/>
-      <c r="AW20" s="108"/>
-      <c r="AX20" s="108"/>
-      <c r="AY20" s="108"/>
-      <c r="AZ20" s="108"/>
-      <c r="BA20" s="108"/>
-      <c r="BB20" s="108"/>
-      <c r="BC20" s="108"/>
-      <c r="BD20" s="109"/>
-      <c r="BE20" s="107"/>
-      <c r="BF20" s="108"/>
-      <c r="BG20" s="108"/>
-      <c r="BH20" s="108"/>
-      <c r="BI20" s="108"/>
-      <c r="BJ20" s="108"/>
-      <c r="BK20" s="108"/>
-      <c r="BL20" s="108"/>
-      <c r="BM20" s="108"/>
-      <c r="BN20" s="108"/>
-      <c r="BO20" s="108"/>
-      <c r="BP20" s="109"/>
-      <c r="BQ20" s="110"/>
-      <c r="BR20" s="111"/>
-      <c r="BS20" s="111"/>
-      <c r="BT20" s="111"/>
-      <c r="BU20" s="111"/>
-      <c r="BV20" s="111"/>
-      <c r="BW20" s="111"/>
-      <c r="BX20" s="111"/>
-      <c r="BY20" s="111"/>
-      <c r="BZ20" s="111"/>
-      <c r="CA20" s="111"/>
-      <c r="CB20" s="111"/>
-      <c r="CC20" s="111"/>
-      <c r="CD20" s="111"/>
-      <c r="CE20" s="111"/>
-      <c r="CF20" s="111"/>
-      <c r="CG20" s="111"/>
-      <c r="CH20" s="111"/>
-      <c r="CI20" s="112"/>
-    </row>
-    <row r="21" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="46">
-        <v>14</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="118"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
-      <c r="AJ21" s="127"/>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="117"/>
-      <c r="AP21" s="117"/>
-      <c r="AQ21" s="117"/>
-      <c r="AR21" s="128"/>
-      <c r="AS21" s="128"/>
-      <c r="AT21" s="129"/>
-      <c r="AU21" s="116"/>
-      <c r="AV21" s="117"/>
-      <c r="AW21" s="117"/>
-      <c r="AX21" s="117"/>
-      <c r="AY21" s="117"/>
-      <c r="AZ21" s="117"/>
-      <c r="BA21" s="117"/>
-      <c r="BB21" s="117"/>
-      <c r="BC21" s="117"/>
-      <c r="BD21" s="118"/>
-      <c r="BE21" s="116"/>
-      <c r="BF21" s="117"/>
-      <c r="BG21" s="117"/>
-      <c r="BH21" s="117"/>
-      <c r="BI21" s="117"/>
-      <c r="BJ21" s="117"/>
-      <c r="BK21" s="117"/>
-      <c r="BL21" s="117"/>
-      <c r="BM21" s="117"/>
-      <c r="BN21" s="117"/>
-      <c r="BO21" s="117"/>
-      <c r="BP21" s="118"/>
-      <c r="BQ21" s="119"/>
-      <c r="BR21" s="120"/>
-      <c r="BS21" s="120"/>
-      <c r="BT21" s="120"/>
-      <c r="BU21" s="120"/>
-      <c r="BV21" s="120"/>
-      <c r="BW21" s="120"/>
-      <c r="BX21" s="120"/>
-      <c r="BY21" s="120"/>
-      <c r="BZ21" s="120"/>
-      <c r="CA21" s="120"/>
-      <c r="CB21" s="120"/>
-      <c r="CC21" s="120"/>
-      <c r="CD21" s="120"/>
-      <c r="CE21" s="120"/>
-      <c r="CF21" s="120"/>
-      <c r="CG21" s="120"/>
-      <c r="CH21" s="120"/>
-      <c r="CI21" s="121"/>
-    </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="46">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="105"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="99"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="83"/>
-      <c r="AU22" s="98"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="99"/>
-      <c r="AX22" s="99"/>
-      <c r="AY22" s="99"/>
-      <c r="AZ22" s="99"/>
-      <c r="BA22" s="99"/>
-      <c r="BB22" s="99"/>
-      <c r="BC22" s="99"/>
-      <c r="BD22" s="100"/>
-      <c r="BE22" s="98"/>
-      <c r="BF22" s="99"/>
-      <c r="BG22" s="99"/>
-      <c r="BH22" s="99"/>
-      <c r="BI22" s="99"/>
-      <c r="BJ22" s="99"/>
-      <c r="BK22" s="99"/>
-      <c r="BL22" s="99"/>
-      <c r="BM22" s="99"/>
-      <c r="BN22" s="99"/>
-      <c r="BO22" s="99"/>
-      <c r="BP22" s="100"/>
-      <c r="BQ22" s="101"/>
-      <c r="BR22" s="102"/>
-      <c r="BS22" s="102"/>
-      <c r="BT22" s="102"/>
-      <c r="BU22" s="102"/>
-      <c r="BV22" s="102"/>
-      <c r="BW22" s="102"/>
-      <c r="BX22" s="102"/>
-      <c r="BY22" s="102"/>
-      <c r="BZ22" s="102"/>
-      <c r="CA22" s="102"/>
-      <c r="CB22" s="102"/>
-      <c r="CC22" s="102"/>
-      <c r="CD22" s="102"/>
-      <c r="CE22" s="102"/>
-      <c r="CF22" s="102"/>
-      <c r="CG22" s="102"/>
-      <c r="CH22" s="102"/>
-      <c r="CI22" s="103"/>
-    </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="46">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="115"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="109"/>
-      <c r="AH23" s="107"/>
-      <c r="AI23" s="108"/>
-      <c r="AJ23" s="109"/>
-      <c r="AK23" s="107"/>
-      <c r="AL23" s="108"/>
-      <c r="AM23" s="108"/>
-      <c r="AN23" s="108"/>
-      <c r="AO23" s="108"/>
-      <c r="AP23" s="108"/>
-      <c r="AQ23" s="108"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="107"/>
-      <c r="AV23" s="108"/>
-      <c r="AW23" s="108"/>
-      <c r="AX23" s="108"/>
-      <c r="AY23" s="108"/>
-      <c r="AZ23" s="108"/>
-      <c r="BA23" s="108"/>
-      <c r="BB23" s="108"/>
-      <c r="BC23" s="108"/>
-      <c r="BD23" s="109"/>
-      <c r="BE23" s="107"/>
-      <c r="BF23" s="108"/>
-      <c r="BG23" s="108"/>
-      <c r="BH23" s="108"/>
-      <c r="BI23" s="108"/>
-      <c r="BJ23" s="108"/>
-      <c r="BK23" s="108"/>
-      <c r="BL23" s="108"/>
-      <c r="BM23" s="108"/>
-      <c r="BN23" s="108"/>
-      <c r="BO23" s="108"/>
-      <c r="BP23" s="109"/>
-      <c r="BQ23" s="110"/>
-      <c r="BR23" s="111"/>
-      <c r="BS23" s="111"/>
-      <c r="BT23" s="111"/>
-      <c r="BU23" s="111"/>
-      <c r="BV23" s="111"/>
-      <c r="BW23" s="111"/>
-      <c r="BX23" s="111"/>
-      <c r="BY23" s="111"/>
-      <c r="BZ23" s="111"/>
-      <c r="CA23" s="111"/>
-      <c r="CB23" s="111"/>
-      <c r="CC23" s="111"/>
-      <c r="CD23" s="111"/>
-      <c r="CE23" s="111"/>
-      <c r="CF23" s="111"/>
-      <c r="CG23" s="111"/>
-      <c r="CH23" s="111"/>
-      <c r="CI23" s="112"/>
-    </row>
-    <row r="24" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="46">
-        <v>14</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="123"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="118"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
-      <c r="AJ24" s="127"/>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="117"/>
-      <c r="AO24" s="117"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="128"/>
-      <c r="AS24" s="128"/>
-      <c r="AT24" s="129"/>
-      <c r="AU24" s="116"/>
-      <c r="AV24" s="117"/>
-      <c r="AW24" s="117"/>
-      <c r="AX24" s="117"/>
-      <c r="AY24" s="117"/>
-      <c r="AZ24" s="117"/>
-      <c r="BA24" s="117"/>
-      <c r="BB24" s="117"/>
-      <c r="BC24" s="117"/>
-      <c r="BD24" s="118"/>
-      <c r="BE24" s="116"/>
-      <c r="BF24" s="117"/>
-      <c r="BG24" s="117"/>
-      <c r="BH24" s="117"/>
-      <c r="BI24" s="117"/>
-      <c r="BJ24" s="117"/>
-      <c r="BK24" s="117"/>
-      <c r="BL24" s="117"/>
-      <c r="BM24" s="117"/>
-      <c r="BN24" s="117"/>
-      <c r="BO24" s="117"/>
-      <c r="BP24" s="118"/>
-      <c r="BQ24" s="119"/>
-      <c r="BR24" s="120"/>
-      <c r="BS24" s="120"/>
-      <c r="BT24" s="120"/>
-      <c r="BU24" s="120"/>
-      <c r="BV24" s="120"/>
-      <c r="BW24" s="120"/>
-      <c r="BX24" s="120"/>
-      <c r="BY24" s="120"/>
-      <c r="BZ24" s="120"/>
-      <c r="CA24" s="120"/>
-      <c r="CB24" s="120"/>
-      <c r="CC24" s="120"/>
-      <c r="CD24" s="120"/>
-      <c r="CE24" s="120"/>
-      <c r="CF24" s="120"/>
-      <c r="CG24" s="120"/>
-      <c r="CH24" s="120"/>
-      <c r="CI24" s="121"/>
+    <row r="23" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="85"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="58"/>
+      <c r="AW23" s="58"/>
+      <c r="AX23" s="58"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="58"/>
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="58"/>
+      <c r="BC23" s="58"/>
+      <c r="BD23" s="59"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="58"/>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="58"/>
+      <c r="BI23" s="58"/>
+      <c r="BJ23" s="58"/>
+      <c r="BK23" s="58"/>
+      <c r="BL23" s="58"/>
+      <c r="BM23" s="58"/>
+      <c r="BN23" s="58"/>
+      <c r="BO23" s="58"/>
+      <c r="BP23" s="59"/>
+      <c r="BQ23" s="100"/>
+      <c r="BR23" s="101"/>
+      <c r="BS23" s="101"/>
+      <c r="BT23" s="101"/>
+      <c r="BU23" s="101"/>
+      <c r="BV23" s="101"/>
+      <c r="BW23" s="101"/>
+      <c r="BX23" s="101"/>
+      <c r="BY23" s="101"/>
+      <c r="BZ23" s="101"/>
+      <c r="CA23" s="101"/>
+      <c r="CB23" s="101"/>
+      <c r="CC23" s="101"/>
+      <c r="CD23" s="101"/>
+      <c r="CE23" s="101"/>
+      <c r="CF23" s="101"/>
+      <c r="CG23" s="101"/>
+      <c r="CH23" s="101"/>
+      <c r="CI23" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
+  <mergeCells count="175">
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:X23"/>
     <mergeCell ref="Y23:AA23"/>
@@ -10451,15 +12203,15 @@
     <mergeCell ref="AU22:BD22"/>
     <mergeCell ref="BE22:BP22"/>
     <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:X21"/>
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="AB21:AG21"/>
     <mergeCell ref="AH21:AJ21"/>
     <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
     <mergeCell ref="AU20:BD20"/>
     <mergeCell ref="BE20:BP20"/>
     <mergeCell ref="BQ20:CI20"/>
@@ -10558,15 +12310,6 @@
     <mergeCell ref="AU10:BD10"/>
     <mergeCell ref="BE10:BP10"/>
     <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="AU8:BD8"/>
     <mergeCell ref="BE8:BP8"/>
@@ -10577,6 +12320,15 @@
     <mergeCell ref="AB8:AG8"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
     <mergeCell ref="B6:CI6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:X7"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854316AC-E6F7-4724-A286-0ABE0BD67AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85038C50-EDFC-429E-B191-84F3694089CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>システム名</t>
   </si>
@@ -850,6 +850,24 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,23 +910,251 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,252 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1603,104 +1603,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="29" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="30" t="s">
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="30"/>
-      <c r="BV1" s="30"/>
-      <c r="BW1" s="30"/>
-      <c r="BX1" s="31" t="s">
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="31"/>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2641,104 +2641,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="22" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="23">
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="29">
         <v>44510</v>
       </c>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="23"/>
-      <c r="BS2" s="23"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="23"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="24" t="s">
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="29"/>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="25"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="30"/>
+      <c r="CA2" s="30"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3766,196 +3766,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="34" t="s">
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="34"/>
-      <c r="CG4" s="34"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="34"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="20"/>
+      <c r="BW4" s="20"/>
+      <c r="BX4" s="20"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="20"/>
+      <c r="CB4" s="20"/>
+      <c r="CC4" s="20"/>
+      <c r="CD4" s="20"/>
+      <c r="CE4" s="20"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="35">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="37" t="s">
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37"/>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37"/>
-      <c r="CI5" s="37"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="23"/>
+      <c r="BO5" s="23"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="23"/>
+      <c r="BS5" s="23"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="23"/>
+      <c r="BV5" s="23"/>
+      <c r="BW5" s="23"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="23"/>
+      <c r="BZ5" s="23"/>
+      <c r="CA5" s="23"/>
+      <c r="CB5" s="23"/>
+      <c r="CC5" s="23"/>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="23"/>
+      <c r="CF5" s="23"/>
+      <c r="CG5" s="23"/>
+      <c r="CH5" s="23"/>
+      <c r="CI5" s="23"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -6159,14 +6159,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -6181,6 +6173,14 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6198,7 +6198,7 @@
   <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17:AG17"/>
+      <selection activeCell="BQ15" sqref="BQ15:CI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6213,104 +6213,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="29" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="30" t="s">
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="30"/>
-      <c r="BV1" s="30"/>
-      <c r="BW1" s="30"/>
-      <c r="BX1" s="31" t="s">
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="31"/>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -7251,104 +7251,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="22" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="23">
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="29">
         <v>44510</v>
       </c>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="23"/>
-      <c r="BS2" s="23"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="23"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="24" t="s">
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="29"/>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="25"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="30"/>
+      <c r="CA2" s="30"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -8376,681 +8376,681 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="34" t="s">
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="34"/>
-      <c r="CG4" s="34"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="34"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="20"/>
+      <c r="BW4" s="20"/>
+      <c r="BX4" s="20"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="20"/>
+      <c r="CB4" s="20"/>
+      <c r="CC4" s="20"/>
+      <c r="CD4" s="20"/>
+      <c r="CE4" s="20"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="35">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="37" t="s">
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37"/>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37"/>
-      <c r="CI5" s="37"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="23"/>
+      <c r="BO5" s="23"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="23"/>
+      <c r="BS5" s="23"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="23"/>
+      <c r="BV5" s="23"/>
+      <c r="BW5" s="23"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="23"/>
+      <c r="BZ5" s="23"/>
+      <c r="CA5" s="23"/>
+      <c r="CB5" s="23"/>
+      <c r="CC5" s="23"/>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="23"/>
+      <c r="CF5" s="23"/>
+      <c r="CG5" s="23"/>
+      <c r="CH5" s="23"/>
+      <c r="CI5" s="23"/>
     </row>
     <row r="6" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
-      <c r="BQ6" s="38"/>
-      <c r="BR6" s="38"/>
-      <c r="BS6" s="38"/>
-      <c r="BT6" s="38"/>
-      <c r="BU6" s="38"/>
-      <c r="BV6" s="38"/>
-      <c r="BW6" s="38"/>
-      <c r="BX6" s="38"/>
-      <c r="BY6" s="38"/>
-      <c r="BZ6" s="38"/>
-      <c r="CA6" s="38"/>
-      <c r="CB6" s="38"/>
-      <c r="CC6" s="38"/>
-      <c r="CD6" s="38"/>
-      <c r="CE6" s="38"/>
-      <c r="CF6" s="38"/>
-      <c r="CG6" s="38"/>
-      <c r="CH6" s="38"/>
-      <c r="CI6" s="38"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="120"/>
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120"/>
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="120"/>
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="120"/>
+      <c r="BB6" s="120"/>
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="120"/>
+      <c r="BF6" s="120"/>
+      <c r="BG6" s="120"/>
+      <c r="BH6" s="120"/>
+      <c r="BI6" s="120"/>
+      <c r="BJ6" s="120"/>
+      <c r="BK6" s="120"/>
+      <c r="BL6" s="120"/>
+      <c r="BM6" s="120"/>
+      <c r="BN6" s="120"/>
+      <c r="BO6" s="120"/>
+      <c r="BP6" s="120"/>
+      <c r="BQ6" s="120"/>
+      <c r="BR6" s="120"/>
+      <c r="BS6" s="120"/>
+      <c r="BT6" s="120"/>
+      <c r="BU6" s="120"/>
+      <c r="BV6" s="120"/>
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="120"/>
+      <c r="BY6" s="120"/>
+      <c r="BZ6" s="120"/>
+      <c r="CA6" s="120"/>
+      <c r="CB6" s="120"/>
+      <c r="CC6" s="120"/>
+      <c r="CD6" s="120"/>
+      <c r="CE6" s="120"/>
+      <c r="CF6" s="120"/>
+      <c r="CG6" s="120"/>
+      <c r="CH6" s="120"/>
+      <c r="CI6" s="120"/>
     </row>
     <row r="7" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="40" t="s">
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="40" t="s">
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="40" t="s">
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="40" t="s">
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="43" t="s">
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="123"/>
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="123"/>
+      <c r="AR7" s="127"/>
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="128"/>
+      <c r="AU7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="43"/>
-      <c r="BQ7" s="44" t="s">
+      <c r="AV7" s="125"/>
+      <c r="AW7" s="125"/>
+      <c r="AX7" s="125"/>
+      <c r="AY7" s="125"/>
+      <c r="AZ7" s="125"/>
+      <c r="BA7" s="125"/>
+      <c r="BB7" s="125"/>
+      <c r="BC7" s="125"/>
+      <c r="BD7" s="125"/>
+      <c r="BE7" s="125"/>
+      <c r="BF7" s="125"/>
+      <c r="BG7" s="125"/>
+      <c r="BH7" s="125"/>
+      <c r="BI7" s="125"/>
+      <c r="BJ7" s="125"/>
+      <c r="BK7" s="125"/>
+      <c r="BL7" s="125"/>
+      <c r="BM7" s="125"/>
+      <c r="BN7" s="125"/>
+      <c r="BO7" s="125"/>
+      <c r="BP7" s="125"/>
+      <c r="BQ7" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="44"/>
-      <c r="BS7" s="44"/>
-      <c r="BT7" s="44"/>
-      <c r="BU7" s="44"/>
-      <c r="BV7" s="44"/>
-      <c r="BW7" s="44"/>
-      <c r="BX7" s="44"/>
-      <c r="BY7" s="44"/>
-      <c r="BZ7" s="44"/>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="44"/>
-      <c r="CC7" s="44"/>
-      <c r="CD7" s="44"/>
-      <c r="CE7" s="44"/>
-      <c r="CF7" s="44"/>
-      <c r="CG7" s="44"/>
-      <c r="CH7" s="44"/>
-      <c r="CI7" s="44"/>
+      <c r="BR7" s="126"/>
+      <c r="BS7" s="126"/>
+      <c r="BT7" s="126"/>
+      <c r="BU7" s="126"/>
+      <c r="BV7" s="126"/>
+      <c r="BW7" s="126"/>
+      <c r="BX7" s="126"/>
+      <c r="BY7" s="126"/>
+      <c r="BZ7" s="126"/>
+      <c r="CA7" s="126"/>
+      <c r="CB7" s="126"/>
+      <c r="CC7" s="126"/>
+      <c r="CD7" s="126"/>
+      <c r="CE7" s="126"/>
+      <c r="CF7" s="126"/>
+      <c r="CG7" s="126"/>
+      <c r="CH7" s="126"/>
+      <c r="CI7" s="126"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="47">
+      <c r="B8" s="60">
         <v>1</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="51" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="117"/>
-      <c r="AS8" s="117"/>
-      <c r="AT8" s="118"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="119"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="119"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="119"/>
-      <c r="BB8" s="119"/>
-      <c r="BC8" s="119"/>
-      <c r="BD8" s="119"/>
-      <c r="BE8" s="119"/>
-      <c r="BF8" s="119"/>
-      <c r="BG8" s="119"/>
-      <c r="BH8" s="119"/>
-      <c r="BI8" s="119"/>
-      <c r="BJ8" s="119"/>
-      <c r="BK8" s="119"/>
-      <c r="BL8" s="119"/>
-      <c r="BM8" s="119"/>
-      <c r="BN8" s="119"/>
-      <c r="BO8" s="119"/>
-      <c r="BP8" s="119"/>
-      <c r="BQ8" s="50"/>
-      <c r="BR8" s="50"/>
-      <c r="BS8" s="50"/>
-      <c r="BT8" s="50"/>
-      <c r="BU8" s="50"/>
-      <c r="BV8" s="50"/>
-      <c r="BW8" s="50"/>
-      <c r="BX8" s="50"/>
-      <c r="BY8" s="50"/>
-      <c r="BZ8" s="50"/>
-      <c r="CA8" s="50"/>
-      <c r="CB8" s="50"/>
-      <c r="CC8" s="50"/>
-      <c r="CD8" s="50"/>
-      <c r="CE8" s="50"/>
-      <c r="CF8" s="50"/>
-      <c r="CG8" s="50"/>
-      <c r="CH8" s="50"/>
-      <c r="CI8" s="50"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="109"/>
+      <c r="AS8" s="109"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="101"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="101"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="101"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="101"/>
+      <c r="BC8" s="101"/>
+      <c r="BD8" s="101"/>
+      <c r="BE8" s="101"/>
+      <c r="BF8" s="101"/>
+      <c r="BG8" s="101"/>
+      <c r="BH8" s="101"/>
+      <c r="BI8" s="101"/>
+      <c r="BJ8" s="101"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="101"/>
+      <c r="BM8" s="101"/>
+      <c r="BN8" s="101"/>
+      <c r="BO8" s="101"/>
+      <c r="BP8" s="101"/>
+      <c r="BQ8" s="102"/>
+      <c r="BR8" s="102"/>
+      <c r="BS8" s="102"/>
+      <c r="BT8" s="102"/>
+      <c r="BU8" s="102"/>
+      <c r="BV8" s="102"/>
+      <c r="BW8" s="102"/>
+      <c r="BX8" s="102"/>
+      <c r="BY8" s="102"/>
+      <c r="BZ8" s="102"/>
+      <c r="CA8" s="102"/>
+      <c r="CB8" s="102"/>
+      <c r="CC8" s="102"/>
+      <c r="CD8" s="102"/>
+      <c r="CE8" s="102"/>
+      <c r="CF8" s="102"/>
+      <c r="CG8" s="102"/>
+      <c r="CH8" s="102"/>
+      <c r="CI8" s="102"/>
     </row>
     <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="66">
+      <c r="B9" s="38">
         <v>2</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="57" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="120" t="s">
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="57" t="s">
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60" t="s">
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="57" t="s">
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="112"/>
+      <c r="AN9" s="112"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="112"/>
+      <c r="AQ9" s="112"/>
+      <c r="AR9" s="112"/>
+      <c r="AS9" s="112"/>
+      <c r="AT9" s="113"/>
+      <c r="AU9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="58"/>
-      <c r="AX9" s="58"/>
-      <c r="AY9" s="58"/>
-      <c r="AZ9" s="58"/>
-      <c r="BA9" s="58"/>
-      <c r="BB9" s="58"/>
-      <c r="BC9" s="58"/>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="60" t="s">
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="61"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="61"/>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="61"/>
-      <c r="BO9" s="61"/>
-      <c r="BP9" s="62"/>
-      <c r="BQ9" s="63" t="s">
+      <c r="BF9" s="112"/>
+      <c r="BG9" s="112"/>
+      <c r="BH9" s="112"/>
+      <c r="BI9" s="112"/>
+      <c r="BJ9" s="112"/>
+      <c r="BK9" s="112"/>
+      <c r="BL9" s="112"/>
+      <c r="BM9" s="112"/>
+      <c r="BN9" s="112"/>
+      <c r="BO9" s="112"/>
+      <c r="BP9" s="113"/>
+      <c r="BQ9" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="BR9" s="64"/>
-      <c r="BS9" s="64"/>
-      <c r="BT9" s="64"/>
-      <c r="BU9" s="64"/>
-      <c r="BV9" s="64"/>
-      <c r="BW9" s="64"/>
-      <c r="BX9" s="64"/>
-      <c r="BY9" s="64"/>
-      <c r="BZ9" s="64"/>
-      <c r="CA9" s="64"/>
-      <c r="CB9" s="64"/>
-      <c r="CC9" s="64"/>
-      <c r="CD9" s="64"/>
-      <c r="CE9" s="64"/>
-      <c r="CF9" s="64"/>
-      <c r="CG9" s="64"/>
-      <c r="CH9" s="64"/>
-      <c r="CI9" s="65"/>
+      <c r="BR9" s="115"/>
+      <c r="BS9" s="115"/>
+      <c r="BT9" s="115"/>
+      <c r="BU9" s="115"/>
+      <c r="BV9" s="115"/>
+      <c r="BW9" s="115"/>
+      <c r="BX9" s="115"/>
+      <c r="BY9" s="115"/>
+      <c r="BZ9" s="115"/>
+      <c r="CA9" s="115"/>
+      <c r="CB9" s="115"/>
+      <c r="CC9" s="115"/>
+      <c r="CD9" s="115"/>
+      <c r="CE9" s="115"/>
+      <c r="CF9" s="115"/>
+      <c r="CG9" s="115"/>
+      <c r="CH9" s="115"/>
+      <c r="CI9" s="116"/>
     </row>
     <row r="10" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
-      <c r="B10" s="47">
+      <c r="B10" s="60">
         <v>3</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="72" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="78"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="79"/>
-      <c r="BJ10" s="79"/>
-      <c r="BK10" s="79"/>
-      <c r="BL10" s="79"/>
-      <c r="BM10" s="79"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="79"/>
-      <c r="BP10" s="79"/>
-      <c r="BQ10" s="72"/>
-      <c r="BR10" s="73"/>
-      <c r="BS10" s="73"/>
-      <c r="BT10" s="73"/>
-      <c r="BU10" s="73"/>
-      <c r="BV10" s="73"/>
-      <c r="BW10" s="73"/>
-      <c r="BX10" s="73"/>
-      <c r="BY10" s="73"/>
-      <c r="BZ10" s="73"/>
-      <c r="CA10" s="73"/>
-      <c r="CB10" s="73"/>
-      <c r="CC10" s="73"/>
-      <c r="CD10" s="73"/>
-      <c r="CE10" s="73"/>
-      <c r="CF10" s="73"/>
-      <c r="CG10" s="73"/>
-      <c r="CH10" s="73"/>
-      <c r="CI10" s="80"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="98"/>
+      <c r="AX10" s="98"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="98"/>
+      <c r="BA10" s="98"/>
+      <c r="BB10" s="98"/>
+      <c r="BC10" s="98"/>
+      <c r="BD10" s="98"/>
+      <c r="BE10" s="99"/>
+      <c r="BF10" s="99"/>
+      <c r="BG10" s="99"/>
+      <c r="BH10" s="99"/>
+      <c r="BI10" s="99"/>
+      <c r="BJ10" s="99"/>
+      <c r="BK10" s="99"/>
+      <c r="BL10" s="99"/>
+      <c r="BM10" s="99"/>
+      <c r="BN10" s="99"/>
+      <c r="BO10" s="99"/>
+      <c r="BP10" s="99"/>
+      <c r="BQ10" s="95"/>
+      <c r="BR10" s="96"/>
+      <c r="BS10" s="96"/>
+      <c r="BT10" s="96"/>
+      <c r="BU10" s="96"/>
+      <c r="BV10" s="96"/>
+      <c r="BW10" s="96"/>
+      <c r="BX10" s="96"/>
+      <c r="BY10" s="96"/>
+      <c r="BZ10" s="96"/>
+      <c r="CA10" s="96"/>
+      <c r="CB10" s="96"/>
+      <c r="CC10" s="96"/>
+      <c r="CD10" s="96"/>
+      <c r="CE10" s="96"/>
+      <c r="CF10" s="96"/>
+      <c r="CG10" s="96"/>
+      <c r="CH10" s="96"/>
+      <c r="CI10" s="100"/>
       <c r="CJ10" s="15"/>
       <c r="CK10" s="15"/>
       <c r="CL10" s="15"/>
@@ -9991,1083 +9991,1085 @@
       <c r="AMK10" s="15"/>
     </row>
     <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="66">
+      <c r="B11" s="38">
         <v>4</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="57" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="123" t="s">
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="57" t="s">
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="57" t="s">
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="89" t="s">
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="45"/>
+      <c r="BB11" s="45"/>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="BF11" s="89"/>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="89"/>
-      <c r="BN11" s="89"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="88" t="s">
+      <c r="BF11" s="84"/>
+      <c r="BG11" s="84"/>
+      <c r="BH11" s="84"/>
+      <c r="BI11" s="84"/>
+      <c r="BJ11" s="84"/>
+      <c r="BK11" s="84"/>
+      <c r="BL11" s="84"/>
+      <c r="BM11" s="84"/>
+      <c r="BN11" s="84"/>
+      <c r="BO11" s="84"/>
+      <c r="BP11" s="84"/>
+      <c r="BQ11" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="BR11" s="88"/>
-      <c r="BS11" s="88"/>
-      <c r="BT11" s="88"/>
-      <c r="BU11" s="88"/>
-      <c r="BV11" s="88"/>
-      <c r="BW11" s="88"/>
-      <c r="BX11" s="88"/>
-      <c r="BY11" s="88"/>
-      <c r="BZ11" s="88"/>
-      <c r="CA11" s="88"/>
-      <c r="CB11" s="88"/>
-      <c r="CC11" s="88"/>
-      <c r="CD11" s="88"/>
-      <c r="CE11" s="88"/>
-      <c r="CF11" s="88"/>
-      <c r="CG11" s="88"/>
-      <c r="CH11" s="88"/>
-      <c r="CI11" s="90"/>
+      <c r="BR11" s="82"/>
+      <c r="BS11" s="82"/>
+      <c r="BT11" s="82"/>
+      <c r="BU11" s="82"/>
+      <c r="BV11" s="82"/>
+      <c r="BW11" s="82"/>
+      <c r="BX11" s="82"/>
+      <c r="BY11" s="82"/>
+      <c r="BZ11" s="82"/>
+      <c r="CA11" s="82"/>
+      <c r="CB11" s="82"/>
+      <c r="CC11" s="82"/>
+      <c r="CD11" s="82"/>
+      <c r="CE11" s="82"/>
+      <c r="CF11" s="82"/>
+      <c r="CG11" s="82"/>
+      <c r="CH11" s="82"/>
+      <c r="CI11" s="85"/>
     </row>
     <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="66">
+      <c r="B12" s="38">
         <v>5</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="97" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="57" t="s">
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="91" t="s">
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="57" t="s">
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="91" t="s">
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="57" t="s">
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="91" t="s">
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="BF12" s="92"/>
-      <c r="BG12" s="92"/>
-      <c r="BH12" s="92"/>
-      <c r="BI12" s="92"/>
-      <c r="BJ12" s="92"/>
-      <c r="BK12" s="92"/>
-      <c r="BL12" s="92"/>
-      <c r="BM12" s="92"/>
-      <c r="BN12" s="92"/>
-      <c r="BO12" s="92"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="94" t="s">
+      <c r="BF12" s="87"/>
+      <c r="BG12" s="87"/>
+      <c r="BH12" s="87"/>
+      <c r="BI12" s="87"/>
+      <c r="BJ12" s="87"/>
+      <c r="BK12" s="87"/>
+      <c r="BL12" s="87"/>
+      <c r="BM12" s="87"/>
+      <c r="BN12" s="87"/>
+      <c r="BO12" s="87"/>
+      <c r="BP12" s="88"/>
+      <c r="BQ12" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="95"/>
-      <c r="CC12" s="95"/>
-      <c r="CD12" s="95"/>
-      <c r="CE12" s="95"/>
-      <c r="CF12" s="95"/>
-      <c r="CG12" s="95"/>
-      <c r="CH12" s="95"/>
-      <c r="CI12" s="96"/>
+      <c r="BR12" s="90"/>
+      <c r="BS12" s="90"/>
+      <c r="BT12" s="90"/>
+      <c r="BU12" s="90"/>
+      <c r="BV12" s="90"/>
+      <c r="BW12" s="90"/>
+      <c r="BX12" s="90"/>
+      <c r="BY12" s="90"/>
+      <c r="BZ12" s="90"/>
+      <c r="CA12" s="90"/>
+      <c r="CB12" s="90"/>
+      <c r="CC12" s="90"/>
+      <c r="CD12" s="90"/>
+      <c r="CE12" s="90"/>
+      <c r="CF12" s="90"/>
+      <c r="CG12" s="90"/>
+      <c r="CH12" s="90"/>
+      <c r="CI12" s="91"/>
     </row>
     <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="66">
+      <c r="B13" s="38">
         <v>6</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="83" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="57" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="57" t="s">
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="57" t="s">
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="57" t="s">
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="124"/>
-      <c r="AS13" s="124"/>
-      <c r="AT13" s="125"/>
-      <c r="AU13" s="57" t="s">
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="80"/>
+      <c r="AS13" s="80"/>
+      <c r="AT13" s="81"/>
+      <c r="AU13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="81" t="s">
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="BF13" s="81"/>
-      <c r="BG13" s="81"/>
-      <c r="BH13" s="81"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="81"/>
-      <c r="BK13" s="81"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="81"/>
-      <c r="BN13" s="81"/>
-      <c r="BO13" s="81"/>
-      <c r="BP13" s="81"/>
-      <c r="BQ13" s="82" t="s">
+      <c r="BF13" s="55"/>
+      <c r="BG13" s="55"/>
+      <c r="BH13" s="55"/>
+      <c r="BI13" s="55"/>
+      <c r="BJ13" s="55"/>
+      <c r="BK13" s="55"/>
+      <c r="BL13" s="55"/>
+      <c r="BM13" s="55"/>
+      <c r="BN13" s="55"/>
+      <c r="BO13" s="55"/>
+      <c r="BP13" s="55"/>
+      <c r="BQ13" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="BR13" s="82"/>
-      <c r="BS13" s="82"/>
-      <c r="BT13" s="82"/>
-      <c r="BU13" s="82"/>
-      <c r="BV13" s="82"/>
-      <c r="BW13" s="82"/>
-      <c r="BX13" s="82"/>
-      <c r="BY13" s="82"/>
-      <c r="BZ13" s="82"/>
-      <c r="CA13" s="82"/>
-      <c r="CB13" s="82"/>
-      <c r="CC13" s="82"/>
-      <c r="CD13" s="82"/>
-      <c r="CE13" s="82"/>
-      <c r="CF13" s="82"/>
-      <c r="CG13" s="82"/>
-      <c r="CH13" s="82"/>
-      <c r="CI13" s="82"/>
+      <c r="BR13" s="79"/>
+      <c r="BS13" s="79"/>
+      <c r="BT13" s="79"/>
+      <c r="BU13" s="79"/>
+      <c r="BV13" s="79"/>
+      <c r="BW13" s="79"/>
+      <c r="BX13" s="79"/>
+      <c r="BY13" s="79"/>
+      <c r="BZ13" s="79"/>
+      <c r="CA13" s="79"/>
+      <c r="CB13" s="79"/>
+      <c r="CC13" s="79"/>
+      <c r="CD13" s="79"/>
+      <c r="CE13" s="79"/>
+      <c r="CF13" s="79"/>
+      <c r="CG13" s="79"/>
+      <c r="CH13" s="79"/>
+      <c r="CI13" s="79"/>
     </row>
     <row r="14" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="66">
+      <c r="B14" s="38">
         <v>7</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="83" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="57" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="57" t="s">
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="57">
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="44">
         <v>10</v>
       </c>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="57" t="s">
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="57" t="s">
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="57" t="s">
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="58"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="59"/>
-      <c r="BQ14" s="100" t="s">
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="45"/>
+      <c r="BK14" s="45"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="45"/>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="46"/>
+      <c r="BQ14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="BR14" s="101"/>
-      <c r="BS14" s="101"/>
-      <c r="BT14" s="101"/>
-      <c r="BU14" s="101"/>
-      <c r="BV14" s="101"/>
-      <c r="BW14" s="101"/>
-      <c r="BX14" s="101"/>
-      <c r="BY14" s="101"/>
-      <c r="BZ14" s="101"/>
-      <c r="CA14" s="101"/>
-      <c r="CB14" s="101"/>
-      <c r="CC14" s="101"/>
-      <c r="CD14" s="101"/>
-      <c r="CE14" s="101"/>
-      <c r="CF14" s="101"/>
-      <c r="CG14" s="101"/>
-      <c r="CH14" s="101"/>
-      <c r="CI14" s="102"/>
+      <c r="BR14" s="48"/>
+      <c r="BS14" s="48"/>
+      <c r="BT14" s="48"/>
+      <c r="BU14" s="48"/>
+      <c r="BV14" s="48"/>
+      <c r="BW14" s="48"/>
+      <c r="BX14" s="48"/>
+      <c r="BY14" s="48"/>
+      <c r="BZ14" s="48"/>
+      <c r="CA14" s="48"/>
+      <c r="CB14" s="48"/>
+      <c r="CC14" s="48"/>
+      <c r="CD14" s="48"/>
+      <c r="CE14" s="48"/>
+      <c r="CF14" s="48"/>
+      <c r="CG14" s="48"/>
+      <c r="CH14" s="48"/>
+      <c r="CI14" s="49"/>
     </row>
     <row r="15" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="66">
+      <c r="B15" s="38">
         <v>8</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="83" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="57" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="57" t="s">
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="57" t="s">
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="126" t="s">
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="AL15" s="127"/>
-      <c r="AM15" s="127"/>
-      <c r="AN15" s="127"/>
-      <c r="AO15" s="127"/>
-      <c r="AP15" s="127"/>
-      <c r="AQ15" s="127"/>
-      <c r="AR15" s="127"/>
-      <c r="AS15" s="127"/>
-      <c r="AT15" s="128"/>
-      <c r="AU15" s="57" t="s">
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="58"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="AZ15" s="58"/>
-      <c r="BA15" s="58"/>
-      <c r="BB15" s="58"/>
-      <c r="BC15" s="58"/>
-      <c r="BD15" s="59"/>
-      <c r="BE15" s="57" t="s">
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="45"/>
+      <c r="BB15" s="45"/>
+      <c r="BC15" s="45"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="BF15" s="58"/>
-      <c r="BG15" s="58"/>
-      <c r="BH15" s="58"/>
-      <c r="BI15" s="58"/>
-      <c r="BJ15" s="58"/>
-      <c r="BK15" s="58"/>
-      <c r="BL15" s="58"/>
-      <c r="BM15" s="58"/>
-      <c r="BN15" s="58"/>
-      <c r="BO15" s="58"/>
-      <c r="BP15" s="59"/>
-      <c r="BQ15" s="100" t="s">
+      <c r="BF15" s="45"/>
+      <c r="BG15" s="45"/>
+      <c r="BH15" s="45"/>
+      <c r="BI15" s="45"/>
+      <c r="BJ15" s="45"/>
+      <c r="BK15" s="45"/>
+      <c r="BL15" s="45"/>
+      <c r="BM15" s="45"/>
+      <c r="BN15" s="45"/>
+      <c r="BO15" s="45"/>
+      <c r="BP15" s="46"/>
+      <c r="BQ15" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="BR15" s="101"/>
-      <c r="BS15" s="101"/>
-      <c r="BT15" s="101"/>
-      <c r="BU15" s="101"/>
-      <c r="BV15" s="101"/>
-      <c r="BW15" s="101"/>
-      <c r="BX15" s="101"/>
-      <c r="BY15" s="101"/>
-      <c r="BZ15" s="101"/>
-      <c r="CA15" s="101"/>
-      <c r="CB15" s="101"/>
-      <c r="CC15" s="101"/>
-      <c r="CD15" s="101"/>
-      <c r="CE15" s="101"/>
-      <c r="CF15" s="101"/>
-      <c r="CG15" s="101"/>
-      <c r="CH15" s="101"/>
-      <c r="CI15" s="102"/>
+      <c r="BR15" s="48"/>
+      <c r="BS15" s="48"/>
+      <c r="BT15" s="48"/>
+      <c r="BU15" s="48"/>
+      <c r="BV15" s="48"/>
+      <c r="BW15" s="48"/>
+      <c r="BX15" s="48"/>
+      <c r="BY15" s="48"/>
+      <c r="BZ15" s="48"/>
+      <c r="CA15" s="48"/>
+      <c r="CB15" s="48"/>
+      <c r="CC15" s="48"/>
+      <c r="CD15" s="48"/>
+      <c r="CE15" s="48"/>
+      <c r="CF15" s="48"/>
+      <c r="CG15" s="48"/>
+      <c r="CH15" s="48"/>
+      <c r="CI15" s="49"/>
     </row>
     <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47">
+      <c r="B16" s="60">
         <v>9</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="105" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="75"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
-      <c r="AX16" s="76"/>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="76"/>
-      <c r="BB16" s="76"/>
-      <c r="BC16" s="76"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="75"/>
-      <c r="BF16" s="76"/>
-      <c r="BG16" s="76"/>
-      <c r="BH16" s="76"/>
-      <c r="BI16" s="76"/>
-      <c r="BJ16" s="76"/>
-      <c r="BK16" s="76"/>
-      <c r="BL16" s="76"/>
-      <c r="BM16" s="76"/>
-      <c r="BN16" s="76"/>
-      <c r="BO16" s="76"/>
-      <c r="BP16" s="77"/>
-      <c r="BQ16" s="108"/>
-      <c r="BR16" s="109"/>
-      <c r="BS16" s="109"/>
-      <c r="BT16" s="109"/>
-      <c r="BU16" s="109"/>
-      <c r="BV16" s="109"/>
-      <c r="BW16" s="109"/>
-      <c r="BX16" s="109"/>
-      <c r="BY16" s="109"/>
-      <c r="BZ16" s="109"/>
-      <c r="CA16" s="109"/>
-      <c r="CB16" s="109"/>
-      <c r="CC16" s="109"/>
-      <c r="CD16" s="109"/>
-      <c r="CE16" s="109"/>
-      <c r="CF16" s="109"/>
-      <c r="CG16" s="109"/>
-      <c r="CH16" s="109"/>
-      <c r="CI16" s="110"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="69"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="68"/>
+      <c r="BJ16" s="68"/>
+      <c r="BK16" s="68"/>
+      <c r="BL16" s="68"/>
+      <c r="BM16" s="68"/>
+      <c r="BN16" s="68"/>
+      <c r="BO16" s="68"/>
+      <c r="BP16" s="69"/>
+      <c r="BQ16" s="70"/>
+      <c r="BR16" s="71"/>
+      <c r="BS16" s="71"/>
+      <c r="BT16" s="71"/>
+      <c r="BU16" s="71"/>
+      <c r="BV16" s="71"/>
+      <c r="BW16" s="71"/>
+      <c r="BX16" s="71"/>
+      <c r="BY16" s="71"/>
+      <c r="BZ16" s="71"/>
+      <c r="CA16" s="71"/>
+      <c r="CB16" s="71"/>
+      <c r="CC16" s="71"/>
+      <c r="CD16" s="71"/>
+      <c r="CE16" s="71"/>
+      <c r="CF16" s="71"/>
+      <c r="CG16" s="71"/>
+      <c r="CH16" s="71"/>
+      <c r="CI16" s="72"/>
     </row>
     <row r="17" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="66">
+      <c r="B17" s="38">
         <v>10</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="86" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="57" t="s">
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="57" t="s">
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="57" t="s">
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="57" t="s">
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="59"/>
-      <c r="AU17" s="57" t="s">
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="58"/>
-      <c r="BB17" s="58"/>
-      <c r="BC17" s="58"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="57" t="s">
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="AZ17" s="45"/>
+      <c r="BA17" s="45"/>
+      <c r="BB17" s="45"/>
+      <c r="BC17" s="45"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BF17" s="58"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="58"/>
-      <c r="BM17" s="58"/>
-      <c r="BN17" s="58"/>
-      <c r="BO17" s="58"/>
-      <c r="BP17" s="59"/>
-      <c r="BQ17" s="86" t="s">
+      <c r="BF17" s="45"/>
+      <c r="BG17" s="45"/>
+      <c r="BH17" s="45"/>
+      <c r="BI17" s="45"/>
+      <c r="BJ17" s="45"/>
+      <c r="BK17" s="45"/>
+      <c r="BL17" s="45"/>
+      <c r="BM17" s="45"/>
+      <c r="BN17" s="45"/>
+      <c r="BO17" s="45"/>
+      <c r="BP17" s="46"/>
+      <c r="BQ17" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="BR17" s="87"/>
-      <c r="BS17" s="87"/>
-      <c r="BT17" s="87"/>
-      <c r="BU17" s="87"/>
-      <c r="BV17" s="87"/>
-      <c r="BW17" s="87"/>
-      <c r="BX17" s="87"/>
-      <c r="BY17" s="87"/>
-      <c r="BZ17" s="87"/>
-      <c r="CA17" s="87"/>
-      <c r="CB17" s="87"/>
-      <c r="CC17" s="87"/>
-      <c r="CD17" s="87"/>
-      <c r="CE17" s="87"/>
-      <c r="CF17" s="87"/>
-      <c r="CG17" s="87"/>
-      <c r="CH17" s="87"/>
-      <c r="CI17" s="104"/>
+      <c r="BR17" s="64"/>
+      <c r="BS17" s="64"/>
+      <c r="BT17" s="64"/>
+      <c r="BU17" s="64"/>
+      <c r="BV17" s="64"/>
+      <c r="BW17" s="64"/>
+      <c r="BX17" s="64"/>
+      <c r="BY17" s="64"/>
+      <c r="BZ17" s="64"/>
+      <c r="CA17" s="64"/>
+      <c r="CB17" s="64"/>
+      <c r="CC17" s="64"/>
+      <c r="CD17" s="64"/>
+      <c r="CE17" s="64"/>
+      <c r="CF17" s="64"/>
+      <c r="CG17" s="64"/>
+      <c r="CH17" s="64"/>
+      <c r="CI17" s="65"/>
     </row>
     <row r="18" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="85"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="84"/>
-      <c r="BB18" s="84"/>
-      <c r="BC18" s="84"/>
-      <c r="BD18" s="85"/>
-      <c r="BE18" s="83"/>
-      <c r="BF18" s="84"/>
-      <c r="BG18" s="84"/>
-      <c r="BH18" s="84"/>
-      <c r="BI18" s="84"/>
-      <c r="BJ18" s="84"/>
-      <c r="BK18" s="84"/>
-      <c r="BL18" s="84"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="84"/>
-      <c r="BO18" s="84"/>
-      <c r="BP18" s="85"/>
-      <c r="BQ18" s="100"/>
-      <c r="BR18" s="101"/>
-      <c r="BS18" s="101"/>
-      <c r="BT18" s="101"/>
-      <c r="BU18" s="101"/>
-      <c r="BV18" s="101"/>
-      <c r="BW18" s="101"/>
-      <c r="BX18" s="101"/>
-      <c r="BY18" s="101"/>
-      <c r="BZ18" s="101"/>
-      <c r="CA18" s="101"/>
-      <c r="CB18" s="101"/>
-      <c r="CC18" s="101"/>
-      <c r="CD18" s="101"/>
-      <c r="CE18" s="101"/>
-      <c r="CF18" s="101"/>
-      <c r="CG18" s="101"/>
-      <c r="CH18" s="101"/>
-      <c r="CI18" s="102"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="43"/>
+      <c r="BE18" s="41"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="42"/>
+      <c r="BN18" s="42"/>
+      <c r="BO18" s="42"/>
+      <c r="BP18" s="43"/>
+      <c r="BQ18" s="47"/>
+      <c r="BR18" s="48"/>
+      <c r="BS18" s="48"/>
+      <c r="BT18" s="48"/>
+      <c r="BU18" s="48"/>
+      <c r="BV18" s="48"/>
+      <c r="BW18" s="48"/>
+      <c r="BX18" s="48"/>
+      <c r="BY18" s="48"/>
+      <c r="BZ18" s="48"/>
+      <c r="CA18" s="48"/>
+      <c r="CB18" s="48"/>
+      <c r="CC18" s="48"/>
+      <c r="CD18" s="48"/>
+      <c r="CE18" s="48"/>
+      <c r="CF18" s="48"/>
+      <c r="CG18" s="48"/>
+      <c r="CH18" s="48"/>
+      <c r="CI18" s="49"/>
     </row>
     <row r="19" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="83"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="84"/>
-      <c r="AS19" s="84"/>
-      <c r="AT19" s="85"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="58"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="58"/>
-      <c r="BB19" s="58"/>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="57"/>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="58"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="58"/>
-      <c r="BL19" s="58"/>
-      <c r="BM19" s="58"/>
-      <c r="BN19" s="58"/>
-      <c r="BO19" s="58"/>
-      <c r="BP19" s="59"/>
-      <c r="BQ19" s="111"/>
-      <c r="BR19" s="112"/>
-      <c r="BS19" s="112"/>
-      <c r="BT19" s="112"/>
-      <c r="BU19" s="112"/>
-      <c r="BV19" s="112"/>
-      <c r="BW19" s="112"/>
-      <c r="BX19" s="112"/>
-      <c r="BY19" s="112"/>
-      <c r="BZ19" s="112"/>
-      <c r="CA19" s="112"/>
-      <c r="CB19" s="112"/>
-      <c r="CC19" s="112"/>
-      <c r="CD19" s="112"/>
-      <c r="CE19" s="112"/>
-      <c r="CF19" s="112"/>
-      <c r="CG19" s="112"/>
-      <c r="CH19" s="112"/>
-      <c r="CI19" s="113"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="44"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="45"/>
+      <c r="BL19" s="45"/>
+      <c r="BM19" s="45"/>
+      <c r="BN19" s="45"/>
+      <c r="BO19" s="45"/>
+      <c r="BP19" s="46"/>
+      <c r="BQ19" s="57"/>
+      <c r="BR19" s="58"/>
+      <c r="BS19" s="58"/>
+      <c r="BT19" s="58"/>
+      <c r="BU19" s="58"/>
+      <c r="BV19" s="58"/>
+      <c r="BW19" s="58"/>
+      <c r="BX19" s="58"/>
+      <c r="BY19" s="58"/>
+      <c r="BZ19" s="58"/>
+      <c r="CA19" s="58"/>
+      <c r="CB19" s="58"/>
+      <c r="CC19" s="58"/>
+      <c r="CD19" s="58"/>
+      <c r="CE19" s="58"/>
+      <c r="CF19" s="58"/>
+      <c r="CG19" s="58"/>
+      <c r="CH19" s="58"/>
+      <c r="CI19" s="59"/>
     </row>
     <row r="20" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="85"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="83"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="84"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="85"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="58"/>
-      <c r="BO20" s="58"/>
-      <c r="BP20" s="59"/>
-      <c r="BQ20" s="100"/>
-      <c r="BR20" s="101"/>
-      <c r="BS20" s="101"/>
-      <c r="BT20" s="101"/>
-      <c r="BU20" s="101"/>
-      <c r="BV20" s="101"/>
-      <c r="BW20" s="101"/>
-      <c r="BX20" s="101"/>
-      <c r="BY20" s="101"/>
-      <c r="BZ20" s="101"/>
-      <c r="CA20" s="101"/>
-      <c r="CB20" s="101"/>
-      <c r="CC20" s="101"/>
-      <c r="CD20" s="101"/>
-      <c r="CE20" s="101"/>
-      <c r="CF20" s="101"/>
-      <c r="CG20" s="101"/>
-      <c r="CH20" s="101"/>
-      <c r="CI20" s="102"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="45"/>
+      <c r="BB20" s="45"/>
+      <c r="BC20" s="45"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="44"/>
+      <c r="BF20" s="45"/>
+      <c r="BG20" s="45"/>
+      <c r="BH20" s="45"/>
+      <c r="BI20" s="45"/>
+      <c r="BJ20" s="45"/>
+      <c r="BK20" s="45"/>
+      <c r="BL20" s="45"/>
+      <c r="BM20" s="45"/>
+      <c r="BN20" s="45"/>
+      <c r="BO20" s="45"/>
+      <c r="BP20" s="46"/>
+      <c r="BQ20" s="47"/>
+      <c r="BR20" s="48"/>
+      <c r="BS20" s="48"/>
+      <c r="BT20" s="48"/>
+      <c r="BU20" s="48"/>
+      <c r="BV20" s="48"/>
+      <c r="BW20" s="48"/>
+      <c r="BX20" s="48"/>
+      <c r="BY20" s="48"/>
+      <c r="BZ20" s="48"/>
+      <c r="CA20" s="48"/>
+      <c r="CB20" s="48"/>
+      <c r="CC20" s="48"/>
+      <c r="CD20" s="48"/>
+      <c r="CE20" s="48"/>
+      <c r="CF20" s="48"/>
+      <c r="CG20" s="48"/>
+      <c r="CH20" s="48"/>
+      <c r="CI20" s="49"/>
     </row>
     <row r="21" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="85"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="84"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="84"/>
-      <c r="AZ21" s="84"/>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="84"/>
-      <c r="BC21" s="84"/>
-      <c r="BD21" s="85"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="84"/>
-      <c r="BG21" s="84"/>
-      <c r="BH21" s="84"/>
-      <c r="BI21" s="84"/>
-      <c r="BJ21" s="84"/>
-      <c r="BK21" s="84"/>
-      <c r="BL21" s="84"/>
-      <c r="BM21" s="84"/>
-      <c r="BN21" s="84"/>
-      <c r="BO21" s="84"/>
-      <c r="BP21" s="85"/>
-      <c r="BQ21" s="100"/>
-      <c r="BR21" s="101"/>
-      <c r="BS21" s="101"/>
-      <c r="BT21" s="101"/>
-      <c r="BU21" s="101"/>
-      <c r="BV21" s="101"/>
-      <c r="BW21" s="101"/>
-      <c r="BX21" s="101"/>
-      <c r="BY21" s="101"/>
-      <c r="BZ21" s="101"/>
-      <c r="CA21" s="101"/>
-      <c r="CB21" s="101"/>
-      <c r="CC21" s="101"/>
-      <c r="CD21" s="101"/>
-      <c r="CE21" s="101"/>
-      <c r="CF21" s="101"/>
-      <c r="CG21" s="101"/>
-      <c r="CH21" s="101"/>
-      <c r="CI21" s="102"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="43"/>
+      <c r="BE21" s="41"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="42"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="42"/>
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="42"/>
+      <c r="BP21" s="43"/>
+      <c r="BQ21" s="47"/>
+      <c r="BR21" s="48"/>
+      <c r="BS21" s="48"/>
+      <c r="BT21" s="48"/>
+      <c r="BU21" s="48"/>
+      <c r="BV21" s="48"/>
+      <c r="BW21" s="48"/>
+      <c r="BX21" s="48"/>
+      <c r="BY21" s="48"/>
+      <c r="BZ21" s="48"/>
+      <c r="CA21" s="48"/>
+      <c r="CB21" s="48"/>
+      <c r="CC21" s="48"/>
+      <c r="CD21" s="48"/>
+      <c r="CE21" s="48"/>
+      <c r="CF21" s="48"/>
+      <c r="CG21" s="48"/>
+      <c r="CH21" s="48"/>
+      <c r="CI21" s="49"/>
       <c r="CJ21" s="15"/>
       <c r="CK21" s="15"/>
       <c r="CL21" s="15"/>
@@ -12008,237 +12010,280 @@
       <c r="AMK21" s="15"/>
     </row>
     <row r="22" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="83"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="114"/>
-      <c r="AS22" s="114"/>
-      <c r="AT22" s="115"/>
-      <c r="AU22" s="81"/>
-      <c r="AV22" s="81"/>
-      <c r="AW22" s="81"/>
-      <c r="AX22" s="81"/>
-      <c r="AY22" s="81"/>
-      <c r="AZ22" s="81"/>
-      <c r="BA22" s="81"/>
-      <c r="BB22" s="81"/>
-      <c r="BC22" s="81"/>
-      <c r="BD22" s="81"/>
-      <c r="BE22" s="81"/>
-      <c r="BF22" s="81"/>
-      <c r="BG22" s="81"/>
-      <c r="BH22" s="81"/>
-      <c r="BI22" s="81"/>
-      <c r="BJ22" s="81"/>
-      <c r="BK22" s="81"/>
-      <c r="BL22" s="81"/>
-      <c r="BM22" s="81"/>
-      <c r="BN22" s="81"/>
-      <c r="BO22" s="81"/>
-      <c r="BP22" s="81"/>
-      <c r="BQ22" s="116"/>
-      <c r="BR22" s="116"/>
-      <c r="BS22" s="116"/>
-      <c r="BT22" s="116"/>
-      <c r="BU22" s="116"/>
-      <c r="BV22" s="116"/>
-      <c r="BW22" s="116"/>
-      <c r="BX22" s="116"/>
-      <c r="BY22" s="116"/>
-      <c r="BZ22" s="116"/>
-      <c r="CA22" s="116"/>
-      <c r="CB22" s="116"/>
-      <c r="CC22" s="116"/>
-      <c r="CD22" s="116"/>
-      <c r="CE22" s="116"/>
-      <c r="CF22" s="116"/>
-      <c r="CG22" s="116"/>
-      <c r="CH22" s="116"/>
-      <c r="CI22" s="116"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="54"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="55"/>
+      <c r="AX22" s="55"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="55"/>
+      <c r="BF22" s="55"/>
+      <c r="BG22" s="55"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="55"/>
+      <c r="BJ22" s="55"/>
+      <c r="BK22" s="55"/>
+      <c r="BL22" s="55"/>
+      <c r="BM22" s="55"/>
+      <c r="BN22" s="55"/>
+      <c r="BO22" s="55"/>
+      <c r="BP22" s="55"/>
+      <c r="BQ22" s="56"/>
+      <c r="BR22" s="56"/>
+      <c r="BS22" s="56"/>
+      <c r="BT22" s="56"/>
+      <c r="BU22" s="56"/>
+      <c r="BV22" s="56"/>
+      <c r="BW22" s="56"/>
+      <c r="BX22" s="56"/>
+      <c r="BY22" s="56"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="56"/>
+      <c r="CC22" s="56"/>
+      <c r="CD22" s="56"/>
+      <c r="CE22" s="56"/>
+      <c r="CF22" s="56"/>
+      <c r="CG22" s="56"/>
+      <c r="CH22" s="56"/>
+      <c r="CI22" s="56"/>
     </row>
     <row r="23" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="84"/>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="84"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="84"/>
-      <c r="AS23" s="84"/>
-      <c r="AT23" s="85"/>
-      <c r="AU23" s="57"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="58"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="58"/>
-      <c r="BB23" s="58"/>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="57"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="58"/>
-      <c r="BI23" s="58"/>
-      <c r="BJ23" s="58"/>
-      <c r="BK23" s="58"/>
-      <c r="BL23" s="58"/>
-      <c r="BM23" s="58"/>
-      <c r="BN23" s="58"/>
-      <c r="BO23" s="58"/>
-      <c r="BP23" s="59"/>
-      <c r="BQ23" s="100"/>
-      <c r="BR23" s="101"/>
-      <c r="BS23" s="101"/>
-      <c r="BT23" s="101"/>
-      <c r="BU23" s="101"/>
-      <c r="BV23" s="101"/>
-      <c r="BW23" s="101"/>
-      <c r="BX23" s="101"/>
-      <c r="BY23" s="101"/>
-      <c r="BZ23" s="101"/>
-      <c r="CA23" s="101"/>
-      <c r="CB23" s="101"/>
-      <c r="CC23" s="101"/>
-      <c r="CD23" s="101"/>
-      <c r="CE23" s="101"/>
-      <c r="CF23" s="101"/>
-      <c r="CG23" s="101"/>
-      <c r="CH23" s="101"/>
-      <c r="CI23" s="102"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="46"/>
+      <c r="BE23" s="44"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="45"/>
+      <c r="BL23" s="45"/>
+      <c r="BM23" s="45"/>
+      <c r="BN23" s="45"/>
+      <c r="BO23" s="45"/>
+      <c r="BP23" s="46"/>
+      <c r="BQ23" s="47"/>
+      <c r="BR23" s="48"/>
+      <c r="BS23" s="48"/>
+      <c r="BT23" s="48"/>
+      <c r="BU23" s="48"/>
+      <c r="BV23" s="48"/>
+      <c r="BW23" s="48"/>
+      <c r="BX23" s="48"/>
+      <c r="BY23" s="48"/>
+      <c r="BZ23" s="48"/>
+      <c r="CA23" s="48"/>
+      <c r="CB23" s="48"/>
+      <c r="CC23" s="48"/>
+      <c r="CD23" s="48"/>
+      <c r="CE23" s="48"/>
+      <c r="CF23" s="48"/>
+      <c r="CG23" s="48"/>
+      <c r="CH23" s="48"/>
+      <c r="CI23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B15:D15"/>
@@ -12263,103 +12308,60 @@
     <mergeCell ref="AK16:AT16"/>
     <mergeCell ref="AU15:BD15"/>
     <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85038C50-EDFC-429E-B191-84F3694089CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290B96B-DBA6-43B9-8F75-11B1161BE100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>システム名</t>
   </si>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メソッド</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラベル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -206,10 +202,6 @@
     <rPh sb="5" eb="6">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フォーム</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -235,25 +227,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ウェルカムページへのリンク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ボディ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>submitされてpost要求を飛ばす</t>
-    <rPh sb="13" eb="15">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -309,13 +287,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フッタにつける文章</t>
-    <rPh sb="7" eb="9">
-      <t>ブンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一番最初に表示されるページ 他のページにアクセスしてもこちらに飛ぶ</t>
     <rPh sb="0" eb="2">
       <t>イチバン</t>
@@ -352,6 +323,21 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_user</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>©などを記載</t>
+    <rPh sb="4" eb="6">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェルカムページへ　YSTeamと記載</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -801,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1041,18 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -6195,10 +6169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK23"/>
+  <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ15" sqref="BQ15:CI15"/>
+      <selection activeCell="BQ17" sqref="BQ17:CI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8522,7 +8496,7 @@
       <c r="AQ5" s="22"/>
       <c r="AR5" s="22"/>
       <c r="AS5" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
@@ -8568,198 +8542,198 @@
       <c r="CI5" s="23"/>
     </row>
     <row r="6" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="120"/>
-      <c r="AM6" s="120"/>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="120"/>
-      <c r="AR6" s="120"/>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="120"/>
-      <c r="AW6" s="120"/>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="120"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="120"/>
-      <c r="BB6" s="120"/>
-      <c r="BC6" s="120"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="120"/>
-      <c r="BF6" s="120"/>
-      <c r="BG6" s="120"/>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="120"/>
-      <c r="BJ6" s="120"/>
-      <c r="BK6" s="120"/>
-      <c r="BL6" s="120"/>
-      <c r="BM6" s="120"/>
-      <c r="BN6" s="120"/>
-      <c r="BO6" s="120"/>
-      <c r="BP6" s="120"/>
-      <c r="BQ6" s="120"/>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="120"/>
-      <c r="BV6" s="120"/>
-      <c r="BW6" s="120"/>
-      <c r="BX6" s="120"/>
-      <c r="BY6" s="120"/>
-      <c r="BZ6" s="120"/>
-      <c r="CA6" s="120"/>
-      <c r="CB6" s="120"/>
-      <c r="CC6" s="120"/>
-      <c r="CD6" s="120"/>
-      <c r="CE6" s="120"/>
-      <c r="CF6" s="120"/>
-      <c r="CG6" s="120"/>
-      <c r="CH6" s="120"/>
-      <c r="CI6" s="120"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116"/>
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="116"/>
+      <c r="BJ6" s="116"/>
+      <c r="BK6" s="116"/>
+      <c r="BL6" s="116"/>
+      <c r="BM6" s="116"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="116"/>
+      <c r="BP6" s="116"/>
+      <c r="BQ6" s="116"/>
+      <c r="BR6" s="116"/>
+      <c r="BS6" s="116"/>
+      <c r="BT6" s="116"/>
+      <c r="BU6" s="116"/>
+      <c r="BV6" s="116"/>
+      <c r="BW6" s="116"/>
+      <c r="BX6" s="116"/>
+      <c r="BY6" s="116"/>
+      <c r="BZ6" s="116"/>
+      <c r="CA6" s="116"/>
+      <c r="CB6" s="116"/>
+      <c r="CC6" s="116"/>
+      <c r="CD6" s="116"/>
+      <c r="CE6" s="116"/>
+      <c r="CF6" s="116"/>
+      <c r="CG6" s="116"/>
+      <c r="CH6" s="116"/>
+      <c r="CI6" s="116"/>
     </row>
     <row r="7" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122" t="s">
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="122" t="s">
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="122" t="s">
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="122" t="s">
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="122" t="s">
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="123"/>
-      <c r="AO7" s="123"/>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="127"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="128"/>
-      <c r="AU7" s="125" t="s">
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="125"/>
-      <c r="AW7" s="125"/>
-      <c r="AX7" s="125"/>
-      <c r="AY7" s="125"/>
-      <c r="AZ7" s="125"/>
-      <c r="BA7" s="125"/>
-      <c r="BB7" s="125"/>
-      <c r="BC7" s="125"/>
-      <c r="BD7" s="125"/>
-      <c r="BE7" s="125"/>
-      <c r="BF7" s="125"/>
-      <c r="BG7" s="125"/>
-      <c r="BH7" s="125"/>
-      <c r="BI7" s="125"/>
-      <c r="BJ7" s="125"/>
-      <c r="BK7" s="125"/>
-      <c r="BL7" s="125"/>
-      <c r="BM7" s="125"/>
-      <c r="BN7" s="125"/>
-      <c r="BO7" s="125"/>
-      <c r="BP7" s="125"/>
-      <c r="BQ7" s="126" t="s">
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
+      <c r="AX7" s="121"/>
+      <c r="AY7" s="121"/>
+      <c r="AZ7" s="121"/>
+      <c r="BA7" s="121"/>
+      <c r="BB7" s="121"/>
+      <c r="BC7" s="121"/>
+      <c r="BD7" s="121"/>
+      <c r="BE7" s="121"/>
+      <c r="BF7" s="121"/>
+      <c r="BG7" s="121"/>
+      <c r="BH7" s="121"/>
+      <c r="BI7" s="121"/>
+      <c r="BJ7" s="121"/>
+      <c r="BK7" s="121"/>
+      <c r="BL7" s="121"/>
+      <c r="BM7" s="121"/>
+      <c r="BN7" s="121"/>
+      <c r="BO7" s="121"/>
+      <c r="BP7" s="121"/>
+      <c r="BQ7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="126"/>
-      <c r="BS7" s="126"/>
-      <c r="BT7" s="126"/>
-      <c r="BU7" s="126"/>
-      <c r="BV7" s="126"/>
-      <c r="BW7" s="126"/>
-      <c r="BX7" s="126"/>
-      <c r="BY7" s="126"/>
-      <c r="BZ7" s="126"/>
-      <c r="CA7" s="126"/>
-      <c r="CB7" s="126"/>
-      <c r="CC7" s="126"/>
-      <c r="CD7" s="126"/>
-      <c r="CE7" s="126"/>
-      <c r="CF7" s="126"/>
-      <c r="CG7" s="126"/>
-      <c r="CH7" s="126"/>
-      <c r="CI7" s="126"/>
+      <c r="BR7" s="122"/>
+      <c r="BS7" s="122"/>
+      <c r="BT7" s="122"/>
+      <c r="BU7" s="122"/>
+      <c r="BV7" s="122"/>
+      <c r="BW7" s="122"/>
+      <c r="BX7" s="122"/>
+      <c r="BY7" s="122"/>
+      <c r="BZ7" s="122"/>
+      <c r="CA7" s="122"/>
+      <c r="CB7" s="122"/>
+      <c r="CC7" s="122"/>
+      <c r="CD7" s="122"/>
+      <c r="CE7" s="122"/>
+      <c r="CF7" s="122"/>
+      <c r="CG7" s="122"/>
+      <c r="CH7" s="122"/>
+      <c r="CI7" s="122"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="60">
@@ -8767,91 +8741,91 @@
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
-      <c r="E8" s="103" t="s">
-        <v>39</v>
+      <c r="E8" s="99" t="s">
+        <v>37</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="107"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="109"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="101"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="101"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="101"/>
-      <c r="BC8" s="101"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="102"/>
-      <c r="BR8" s="102"/>
-      <c r="BS8" s="102"/>
-      <c r="BT8" s="102"/>
-      <c r="BU8" s="102"/>
-      <c r="BV8" s="102"/>
-      <c r="BW8" s="102"/>
-      <c r="BX8" s="102"/>
-      <c r="BY8" s="102"/>
-      <c r="BZ8" s="102"/>
-      <c r="CA8" s="102"/>
-      <c r="CB8" s="102"/>
-      <c r="CC8" s="102"/>
-      <c r="CD8" s="102"/>
-      <c r="CE8" s="102"/>
-      <c r="CF8" s="102"/>
-      <c r="CG8" s="102"/>
-      <c r="CH8" s="102"/>
-      <c r="CI8" s="102"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
+      <c r="BJ8" s="97"/>
+      <c r="BK8" s="97"/>
+      <c r="BL8" s="97"/>
+      <c r="BM8" s="97"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="97"/>
+      <c r="BP8" s="97"/>
+      <c r="BQ8" s="98"/>
+      <c r="BR8" s="98"/>
+      <c r="BS8" s="98"/>
+      <c r="BT8" s="98"/>
+      <c r="BU8" s="98"/>
+      <c r="BV8" s="98"/>
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="98"/>
+      <c r="CA8" s="98"/>
+      <c r="CB8" s="98"/>
+      <c r="CC8" s="98"/>
+      <c r="CD8" s="98"/>
+      <c r="CE8" s="98"/>
+      <c r="CF8" s="98"/>
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
     </row>
     <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="38">
@@ -8860,7 +8834,7 @@
       <c r="C9" s="39"/>
       <c r="D9" s="40"/>
       <c r="E9" s="50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -8886,31 +8860,31 @@
       </c>
       <c r="Z9" s="45"/>
       <c r="AA9" s="46"/>
-      <c r="AB9" s="117" t="s">
+      <c r="AB9" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="119"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="115"/>
       <c r="AH9" s="44" t="s">
         <v>22</v>
       </c>
       <c r="AI9" s="45"/>
       <c r="AJ9" s="46"/>
-      <c r="AK9" s="111" t="s">
+      <c r="AK9" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="112"/>
-      <c r="AM9" s="112"/>
-      <c r="AN9" s="112"/>
-      <c r="AO9" s="112"/>
-      <c r="AP9" s="112"/>
-      <c r="AQ9" s="112"/>
-      <c r="AR9" s="112"/>
-      <c r="AS9" s="112"/>
-      <c r="AT9" s="113"/>
+      <c r="AL9" s="108"/>
+      <c r="AM9" s="108"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="109"/>
       <c r="AU9" s="44" t="s">
         <v>22</v>
       </c>
@@ -8923,41 +8897,41 @@
       <c r="BB9" s="45"/>
       <c r="BC9" s="45"/>
       <c r="BD9" s="46"/>
-      <c r="BE9" s="111" t="s">
-        <v>38</v>
+      <c r="BE9" s="107" t="s">
+        <v>36</v>
       </c>
-      <c r="BF9" s="112"/>
-      <c r="BG9" s="112"/>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="112"/>
-      <c r="BJ9" s="112"/>
-      <c r="BK9" s="112"/>
-      <c r="BL9" s="112"/>
-      <c r="BM9" s="112"/>
-      <c r="BN9" s="112"/>
-      <c r="BO9" s="112"/>
-      <c r="BP9" s="113"/>
-      <c r="BQ9" s="114" t="s">
-        <v>41</v>
+      <c r="BF9" s="108"/>
+      <c r="BG9" s="108"/>
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="108"/>
+      <c r="BL9" s="108"/>
+      <c r="BM9" s="108"/>
+      <c r="BN9" s="108"/>
+      <c r="BO9" s="108"/>
+      <c r="BP9" s="109"/>
+      <c r="BQ9" s="110" t="s">
+        <v>53</v>
       </c>
-      <c r="BR9" s="115"/>
-      <c r="BS9" s="115"/>
-      <c r="BT9" s="115"/>
-      <c r="BU9" s="115"/>
-      <c r="BV9" s="115"/>
-      <c r="BW9" s="115"/>
-      <c r="BX9" s="115"/>
-      <c r="BY9" s="115"/>
-      <c r="BZ9" s="115"/>
-      <c r="CA9" s="115"/>
-      <c r="CB9" s="115"/>
-      <c r="CC9" s="115"/>
-      <c r="CD9" s="115"/>
-      <c r="CE9" s="115"/>
-      <c r="CF9" s="115"/>
-      <c r="CG9" s="115"/>
-      <c r="CH9" s="115"/>
-      <c r="CI9" s="116"/>
+      <c r="BR9" s="111"/>
+      <c r="BS9" s="111"/>
+      <c r="BT9" s="111"/>
+      <c r="BU9" s="111"/>
+      <c r="BV9" s="111"/>
+      <c r="BW9" s="111"/>
+      <c r="BX9" s="111"/>
+      <c r="BY9" s="111"/>
+      <c r="BZ9" s="111"/>
+      <c r="CA9" s="111"/>
+      <c r="CB9" s="111"/>
+      <c r="CC9" s="111"/>
+      <c r="CD9" s="111"/>
+      <c r="CE9" s="111"/>
+      <c r="CF9" s="111"/>
+      <c r="CG9" s="111"/>
+      <c r="CH9" s="111"/>
+      <c r="CI9" s="112"/>
     </row>
     <row r="10" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
@@ -8966,91 +8940,91 @@
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="95" t="s">
-        <v>42</v>
+      <c r="E10" s="91" t="s">
+        <v>39</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="97"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="93"/>
       <c r="Y10" s="67"/>
       <c r="Z10" s="68"/>
       <c r="AA10" s="69"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="98"/>
-      <c r="AV10" s="98"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="98"/>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="98"/>
-      <c r="BA10" s="98"/>
-      <c r="BB10" s="98"/>
-      <c r="BC10" s="98"/>
-      <c r="BD10" s="98"/>
-      <c r="BE10" s="99"/>
-      <c r="BF10" s="99"/>
-      <c r="BG10" s="99"/>
-      <c r="BH10" s="99"/>
-      <c r="BI10" s="99"/>
-      <c r="BJ10" s="99"/>
-      <c r="BK10" s="99"/>
-      <c r="BL10" s="99"/>
-      <c r="BM10" s="99"/>
-      <c r="BN10" s="99"/>
-      <c r="BO10" s="99"/>
-      <c r="BP10" s="99"/>
-      <c r="BQ10" s="95"/>
-      <c r="BR10" s="96"/>
-      <c r="BS10" s="96"/>
-      <c r="BT10" s="96"/>
-      <c r="BU10" s="96"/>
-      <c r="BV10" s="96"/>
-      <c r="BW10" s="96"/>
-      <c r="BX10" s="96"/>
-      <c r="BY10" s="96"/>
-      <c r="BZ10" s="96"/>
-      <c r="CA10" s="96"/>
-      <c r="CB10" s="96"/>
-      <c r="CC10" s="96"/>
-      <c r="CD10" s="96"/>
-      <c r="CE10" s="96"/>
-      <c r="CF10" s="96"/>
-      <c r="CG10" s="96"/>
-      <c r="CH10" s="96"/>
-      <c r="CI10" s="100"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="95"/>
+      <c r="BF10" s="95"/>
+      <c r="BG10" s="95"/>
+      <c r="BH10" s="95"/>
+      <c r="BI10" s="95"/>
+      <c r="BJ10" s="95"/>
+      <c r="BK10" s="95"/>
+      <c r="BL10" s="95"/>
+      <c r="BM10" s="95"/>
+      <c r="BN10" s="95"/>
+      <c r="BO10" s="95"/>
+      <c r="BP10" s="95"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="92"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="92"/>
+      <c r="BU10" s="92"/>
+      <c r="BV10" s="92"/>
+      <c r="BW10" s="92"/>
+      <c r="BX10" s="92"/>
+      <c r="BY10" s="92"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="92"/>
+      <c r="CB10" s="92"/>
+      <c r="CC10" s="92"/>
+      <c r="CD10" s="92"/>
+      <c r="CE10" s="92"/>
+      <c r="CF10" s="92"/>
+      <c r="CG10" s="92"/>
+      <c r="CH10" s="92"/>
+      <c r="CI10" s="96"/>
       <c r="CJ10" s="15"/>
       <c r="CK10" s="15"/>
       <c r="CL10" s="15"/>
@@ -9992,61 +9966,61 @@
     </row>
     <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="82" t="s">
-        <v>35</v>
+      <c r="E11" s="88" t="s">
+        <v>41</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="90"/>
       <c r="Y11" s="44" t="s">
         <v>22</v>
       </c>
       <c r="Z11" s="45"/>
       <c r="AA11" s="46"/>
-      <c r="AB11" s="83" t="s">
-        <v>32</v>
+      <c r="AB11" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="AC11" s="83"/>
       <c r="AD11" s="83"/>
       <c r="AE11" s="83"/>
       <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
+      <c r="AG11" s="84"/>
       <c r="AH11" s="44" t="s">
         <v>22</v>
       </c>
       <c r="AI11" s="45"/>
       <c r="AJ11" s="46"/>
-      <c r="AK11" s="84" t="s">
-        <v>22</v>
+      <c r="AK11" s="82" t="s">
+        <v>43</v>
       </c>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
       <c r="AT11" s="84"/>
       <c r="AU11" s="44" t="s">
         <v>22</v>
@@ -10060,100 +10034,100 @@
       <c r="BB11" s="45"/>
       <c r="BC11" s="45"/>
       <c r="BD11" s="46"/>
-      <c r="BE11" s="84" t="s">
-        <v>38</v>
+      <c r="BE11" s="82" t="s">
+        <v>36</v>
       </c>
-      <c r="BF11" s="84"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="84"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="84"/>
-      <c r="BK11" s="84"/>
-      <c r="BL11" s="84"/>
-      <c r="BM11" s="84"/>
-      <c r="BN11" s="84"/>
-      <c r="BO11" s="84"/>
+      <c r="BF11" s="83"/>
+      <c r="BG11" s="83"/>
+      <c r="BH11" s="83"/>
+      <c r="BI11" s="83"/>
+      <c r="BJ11" s="83"/>
+      <c r="BK11" s="83"/>
+      <c r="BL11" s="83"/>
+      <c r="BM11" s="83"/>
+      <c r="BN11" s="83"/>
+      <c r="BO11" s="83"/>
       <c r="BP11" s="84"/>
-      <c r="BQ11" s="82" t="s">
-        <v>44</v>
+      <c r="BQ11" s="85" t="s">
+        <v>42</v>
       </c>
-      <c r="BR11" s="82"/>
-      <c r="BS11" s="82"/>
-      <c r="BT11" s="82"/>
-      <c r="BU11" s="82"/>
-      <c r="BV11" s="82"/>
-      <c r="BW11" s="82"/>
-      <c r="BX11" s="82"/>
-      <c r="BY11" s="82"/>
-      <c r="BZ11" s="82"/>
-      <c r="CA11" s="82"/>
-      <c r="CB11" s="82"/>
-      <c r="CC11" s="82"/>
-      <c r="CD11" s="82"/>
-      <c r="CE11" s="82"/>
-      <c r="CF11" s="82"/>
-      <c r="CG11" s="82"/>
-      <c r="CH11" s="82"/>
-      <c r="CI11" s="85"/>
+      <c r="BR11" s="86"/>
+      <c r="BS11" s="86"/>
+      <c r="BT11" s="86"/>
+      <c r="BU11" s="86"/>
+      <c r="BV11" s="86"/>
+      <c r="BW11" s="86"/>
+      <c r="BX11" s="86"/>
+      <c r="BY11" s="86"/>
+      <c r="BZ11" s="86"/>
+      <c r="CA11" s="86"/>
+      <c r="CB11" s="86"/>
+      <c r="CC11" s="86"/>
+      <c r="CD11" s="86"/>
+      <c r="CE11" s="86"/>
+      <c r="CF11" s="86"/>
+      <c r="CG11" s="86"/>
+      <c r="CH11" s="86"/>
+      <c r="CI11" s="87"/>
     </row>
     <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="92" t="s">
-        <v>45</v>
+      <c r="E12" s="41" t="s">
+        <v>33</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="94"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="43"/>
       <c r="Y12" s="44" t="s">
         <v>22</v>
       </c>
       <c r="Z12" s="45"/>
       <c r="AA12" s="46"/>
-      <c r="AB12" s="86" t="s">
+      <c r="AB12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="88"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="46"/>
       <c r="AH12" s="44" t="s">
         <v>22</v>
       </c>
       <c r="AI12" s="45"/>
       <c r="AJ12" s="46"/>
-      <c r="AK12" s="86" t="s">
-        <v>47</v>
+      <c r="AK12" s="44" t="s">
+        <v>32</v>
       </c>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="87"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="88"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="80"/>
+      <c r="AS12" s="80"/>
+      <c r="AT12" s="81"/>
       <c r="AU12" s="44" t="s">
         <v>22</v>
       </c>
@@ -10166,50 +10140,50 @@
       <c r="BB12" s="45"/>
       <c r="BC12" s="45"/>
       <c r="BD12" s="46"/>
-      <c r="BE12" s="86" t="s">
-        <v>38</v>
+      <c r="BE12" s="55" t="s">
+        <v>36</v>
       </c>
-      <c r="BF12" s="87"/>
-      <c r="BG12" s="87"/>
-      <c r="BH12" s="87"/>
-      <c r="BI12" s="87"/>
-      <c r="BJ12" s="87"/>
-      <c r="BK12" s="87"/>
-      <c r="BL12" s="87"/>
-      <c r="BM12" s="87"/>
-      <c r="BN12" s="87"/>
-      <c r="BO12" s="87"/>
-      <c r="BP12" s="88"/>
-      <c r="BQ12" s="89" t="s">
-        <v>46</v>
+      <c r="BF12" s="55"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="55"/>
+      <c r="BI12" s="55"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="55"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="55"/>
+      <c r="BN12" s="55"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
+      <c r="BQ12" s="79" t="s">
+        <v>44</v>
       </c>
-      <c r="BR12" s="90"/>
-      <c r="BS12" s="90"/>
-      <c r="BT12" s="90"/>
-      <c r="BU12" s="90"/>
-      <c r="BV12" s="90"/>
-      <c r="BW12" s="90"/>
-      <c r="BX12" s="90"/>
-      <c r="BY12" s="90"/>
-      <c r="BZ12" s="90"/>
-      <c r="CA12" s="90"/>
-      <c r="CB12" s="90"/>
-      <c r="CC12" s="90"/>
-      <c r="CD12" s="90"/>
-      <c r="CE12" s="90"/>
-      <c r="CF12" s="90"/>
-      <c r="CG12" s="90"/>
-      <c r="CH12" s="90"/>
-      <c r="CI12" s="91"/>
+      <c r="BR12" s="79"/>
+      <c r="BS12" s="79"/>
+      <c r="BT12" s="79"/>
+      <c r="BU12" s="79"/>
+      <c r="BV12" s="79"/>
+      <c r="BW12" s="79"/>
+      <c r="BX12" s="79"/>
+      <c r="BY12" s="79"/>
+      <c r="BZ12" s="79"/>
+      <c r="CA12" s="79"/>
+      <c r="CB12" s="79"/>
+      <c r="CC12" s="79"/>
+      <c r="CD12" s="79"/>
+      <c r="CE12" s="79"/>
+      <c r="CF12" s="79"/>
+      <c r="CG12" s="79"/>
+      <c r="CH12" s="79"/>
+      <c r="CI12" s="79"/>
     </row>
     <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -10231,7 +10205,7 @@
       <c r="W13" s="42"/>
       <c r="X13" s="43"/>
       <c r="Y13" s="44" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Z13" s="45"/>
       <c r="AA13" s="46"/>
@@ -10243,13 +10217,13 @@
       <c r="AE13" s="45"/>
       <c r="AF13" s="45"/>
       <c r="AG13" s="46"/>
-      <c r="AH13" s="44" t="s">
-        <v>22</v>
+      <c r="AH13" s="44">
+        <v>10</v>
       </c>
       <c r="AI13" s="45"/>
       <c r="AJ13" s="46"/>
       <c r="AK13" s="44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL13" s="45"/>
       <c r="AM13" s="45"/>
@@ -10257,11 +10231,11 @@
       <c r="AO13" s="45"/>
       <c r="AP13" s="45"/>
       <c r="AQ13" s="45"/>
-      <c r="AR13" s="80"/>
-      <c r="AS13" s="80"/>
-      <c r="AT13" s="81"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="46"/>
       <c r="AU13" s="44" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AV13" s="45"/>
       <c r="AW13" s="45"/>
@@ -10272,50 +10246,50 @@
       <c r="BB13" s="45"/>
       <c r="BC13" s="45"/>
       <c r="BD13" s="46"/>
-      <c r="BE13" s="55" t="s">
-        <v>38</v>
+      <c r="BE13" s="44" t="s">
+        <v>28</v>
       </c>
-      <c r="BF13" s="55"/>
-      <c r="BG13" s="55"/>
-      <c r="BH13" s="55"/>
-      <c r="BI13" s="55"/>
-      <c r="BJ13" s="55"/>
-      <c r="BK13" s="55"/>
-      <c r="BL13" s="55"/>
-      <c r="BM13" s="55"/>
-      <c r="BN13" s="55"/>
-      <c r="BO13" s="55"/>
-      <c r="BP13" s="55"/>
-      <c r="BQ13" s="79" t="s">
-        <v>48</v>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="45"/>
+      <c r="BL13" s="45"/>
+      <c r="BM13" s="45"/>
+      <c r="BN13" s="45"/>
+      <c r="BO13" s="45"/>
+      <c r="BP13" s="46"/>
+      <c r="BQ13" s="47" t="s">
+        <v>45</v>
       </c>
-      <c r="BR13" s="79"/>
-      <c r="BS13" s="79"/>
-      <c r="BT13" s="79"/>
-      <c r="BU13" s="79"/>
-      <c r="BV13" s="79"/>
-      <c r="BW13" s="79"/>
-      <c r="BX13" s="79"/>
-      <c r="BY13" s="79"/>
-      <c r="BZ13" s="79"/>
-      <c r="CA13" s="79"/>
-      <c r="CB13" s="79"/>
-      <c r="CC13" s="79"/>
-      <c r="CD13" s="79"/>
-      <c r="CE13" s="79"/>
-      <c r="CF13" s="79"/>
-      <c r="CG13" s="79"/>
-      <c r="CH13" s="79"/>
-      <c r="CI13" s="79"/>
+      <c r="BR13" s="48"/>
+      <c r="BS13" s="48"/>
+      <c r="BT13" s="48"/>
+      <c r="BU13" s="48"/>
+      <c r="BV13" s="48"/>
+      <c r="BW13" s="48"/>
+      <c r="BX13" s="48"/>
+      <c r="BY13" s="48"/>
+      <c r="BZ13" s="48"/>
+      <c r="CA13" s="48"/>
+      <c r="CB13" s="48"/>
+      <c r="CC13" s="48"/>
+      <c r="CD13" s="48"/>
+      <c r="CE13" s="48"/>
+      <c r="CF13" s="48"/>
+      <c r="CG13" s="48"/>
+      <c r="CH13" s="48"/>
+      <c r="CI13" s="49"/>
     </row>
     <row r="14" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
       <c r="E14" s="41" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
@@ -10337,37 +10311,37 @@
       <c r="W14" s="42"/>
       <c r="X14" s="43"/>
       <c r="Y14" s="44" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="Z14" s="45"/>
       <c r="AA14" s="46"/>
       <c r="AB14" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC14" s="45"/>
       <c r="AD14" s="45"/>
       <c r="AE14" s="45"/>
       <c r="AF14" s="45"/>
       <c r="AG14" s="46"/>
-      <c r="AH14" s="44">
-        <v>10</v>
+      <c r="AH14" s="44" t="s">
+        <v>22</v>
       </c>
       <c r="AI14" s="45"/>
       <c r="AJ14" s="46"/>
-      <c r="AK14" s="44" t="s">
-        <v>36</v>
+      <c r="AK14" s="76" t="s">
+        <v>40</v>
       </c>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="46"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="78"/>
       <c r="AU14" s="44" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AV14" s="45"/>
       <c r="AW14" s="45"/>
@@ -10379,7 +10353,7 @@
       <c r="BC14" s="45"/>
       <c r="BD14" s="46"/>
       <c r="BE14" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BF14" s="45"/>
       <c r="BG14" s="45"/>
@@ -10393,7 +10367,7 @@
       <c r="BO14" s="45"/>
       <c r="BP14" s="46"/>
       <c r="BQ14" s="47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BR14" s="48"/>
       <c r="BS14" s="48"/>
@@ -10415,342 +10389,324 @@
       <c r="CI14" s="49"/>
     </row>
     <row r="15" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="38">
-        <v>8</v>
+      <c r="B15" s="60">
+        <v>9</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41" t="s">
-        <v>54</v>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="73" t="s">
+        <v>46</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="44" t="s">
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="69"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
+      <c r="BP15" s="69"/>
+      <c r="BQ15" s="70"/>
+      <c r="BR15" s="71"/>
+      <c r="BS15" s="71"/>
+      <c r="BT15" s="71"/>
+      <c r="BU15" s="71"/>
+      <c r="BV15" s="71"/>
+      <c r="BW15" s="71"/>
+      <c r="BX15" s="71"/>
+      <c r="BY15" s="71"/>
+      <c r="BZ15" s="71"/>
+      <c r="CA15" s="71"/>
+      <c r="CB15" s="71"/>
+      <c r="CC15" s="71"/>
+      <c r="CD15" s="71"/>
+      <c r="CE15" s="71"/>
+      <c r="CF15" s="71"/>
+      <c r="CG15" s="71"/>
+      <c r="CH15" s="71"/>
+      <c r="CI15" s="72"/>
+    </row>
+    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="38">
+        <v>10</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="44" t="s">
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="44" t="s">
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="44" t="s">
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="45"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
-      <c r="AZ15" s="45"/>
-      <c r="BA15" s="45"/>
-      <c r="BB15" s="45"/>
-      <c r="BC15" s="45"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="44" t="s">
-        <v>38</v>
+      <c r="BF16" s="45"/>
+      <c r="BG16" s="45"/>
+      <c r="BH16" s="45"/>
+      <c r="BI16" s="45"/>
+      <c r="BJ16" s="45"/>
+      <c r="BK16" s="45"/>
+      <c r="BL16" s="45"/>
+      <c r="BM16" s="45"/>
+      <c r="BN16" s="45"/>
+      <c r="BO16" s="45"/>
+      <c r="BP16" s="46"/>
+      <c r="BQ16" s="63" t="s">
+        <v>52</v>
       </c>
-      <c r="BF15" s="45"/>
-      <c r="BG15" s="45"/>
-      <c r="BH15" s="45"/>
-      <c r="BI15" s="45"/>
-      <c r="BJ15" s="45"/>
-      <c r="BK15" s="45"/>
-      <c r="BL15" s="45"/>
-      <c r="BM15" s="45"/>
-      <c r="BN15" s="45"/>
-      <c r="BO15" s="45"/>
-      <c r="BP15" s="46"/>
-      <c r="BQ15" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="BR15" s="48"/>
-      <c r="BS15" s="48"/>
-      <c r="BT15" s="48"/>
-      <c r="BU15" s="48"/>
-      <c r="BV15" s="48"/>
-      <c r="BW15" s="48"/>
-      <c r="BX15" s="48"/>
-      <c r="BY15" s="48"/>
-      <c r="BZ15" s="48"/>
-      <c r="CA15" s="48"/>
-      <c r="CB15" s="48"/>
-      <c r="CC15" s="48"/>
-      <c r="CD15" s="48"/>
-      <c r="CE15" s="48"/>
-      <c r="CF15" s="48"/>
-      <c r="CG15" s="48"/>
-      <c r="CH15" s="48"/>
-      <c r="CI15" s="49"/>
-    </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="60">
-        <v>9</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="68"/>
-      <c r="BM16" s="68"/>
-      <c r="BN16" s="68"/>
-      <c r="BO16" s="68"/>
-      <c r="BP16" s="69"/>
-      <c r="BQ16" s="70"/>
-      <c r="BR16" s="71"/>
-      <c r="BS16" s="71"/>
-      <c r="BT16" s="71"/>
-      <c r="BU16" s="71"/>
-      <c r="BV16" s="71"/>
-      <c r="BW16" s="71"/>
-      <c r="BX16" s="71"/>
-      <c r="BY16" s="71"/>
-      <c r="BZ16" s="71"/>
-      <c r="CA16" s="71"/>
-      <c r="CB16" s="71"/>
-      <c r="CC16" s="71"/>
-      <c r="CD16" s="71"/>
-      <c r="CE16" s="71"/>
-      <c r="CF16" s="71"/>
-      <c r="CG16" s="71"/>
-      <c r="CH16" s="71"/>
-      <c r="CI16" s="72"/>
+      <c r="BR16" s="64"/>
+      <c r="BS16" s="64"/>
+      <c r="BT16" s="64"/>
+      <c r="BU16" s="64"/>
+      <c r="BV16" s="64"/>
+      <c r="BW16" s="64"/>
+      <c r="BX16" s="64"/>
+      <c r="BY16" s="64"/>
+      <c r="BZ16" s="64"/>
+      <c r="CA16" s="64"/>
+      <c r="CB16" s="64"/>
+      <c r="CC16" s="64"/>
+      <c r="CD16" s="64"/>
+      <c r="CE16" s="64"/>
+      <c r="CF16" s="64"/>
+      <c r="CG16" s="64"/>
+      <c r="CH16" s="64"/>
+      <c r="CI16" s="65"/>
     </row>
     <row r="17" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="38">
-        <v>10</v>
-      </c>
+      <c r="B17" s="38"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
       <c r="Z17" s="45"/>
       <c r="AA17" s="46"/>
-      <c r="AB17" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="44"/>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="46"/>
-      <c r="AK17" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF17" s="45"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="45"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="45"/>
-      <c r="BK17" s="45"/>
-      <c r="BL17" s="45"/>
-      <c r="BM17" s="45"/>
-      <c r="BN17" s="45"/>
-      <c r="BO17" s="45"/>
-      <c r="BP17" s="46"/>
-      <c r="BQ17" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR17" s="64"/>
-      <c r="BS17" s="64"/>
-      <c r="BT17" s="64"/>
-      <c r="BU17" s="64"/>
-      <c r="BV17" s="64"/>
-      <c r="BW17" s="64"/>
-      <c r="BX17" s="64"/>
-      <c r="BY17" s="64"/>
-      <c r="BZ17" s="64"/>
-      <c r="CA17" s="64"/>
-      <c r="CB17" s="64"/>
-      <c r="CC17" s="64"/>
-      <c r="CD17" s="64"/>
-      <c r="CE17" s="64"/>
-      <c r="CF17" s="64"/>
-      <c r="CG17" s="64"/>
-      <c r="CH17" s="64"/>
-      <c r="CI17" s="65"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="43"/>
+      <c r="BE17" s="41"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="42"/>
+      <c r="BM17" s="42"/>
+      <c r="BN17" s="42"/>
+      <c r="BO17" s="42"/>
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="47"/>
+      <c r="BR17" s="48"/>
+      <c r="BS17" s="48"/>
+      <c r="BT17" s="48"/>
+      <c r="BU17" s="48"/>
+      <c r="BV17" s="48"/>
+      <c r="BW17" s="48"/>
+      <c r="BX17" s="48"/>
+      <c r="BY17" s="48"/>
+      <c r="BZ17" s="48"/>
+      <c r="CA17" s="48"/>
+      <c r="CB17" s="48"/>
+      <c r="CC17" s="48"/>
+      <c r="CD17" s="48"/>
+      <c r="CE17" s="48"/>
+      <c r="CF17" s="48"/>
+      <c r="CG17" s="48"/>
+      <c r="CH17" s="48"/>
+      <c r="CI17" s="49"/>
     </row>
     <row r="18" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="43"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="52"/>
       <c r="Y18" s="44"/>
       <c r="Z18" s="45"/>
       <c r="AA18" s="46"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="43"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="52"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="46"/>
@@ -10764,81 +10720,81 @@
       <c r="AR18" s="42"/>
       <c r="AS18" s="42"/>
       <c r="AT18" s="43"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="43"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="42"/>
-      <c r="BG18" s="42"/>
-      <c r="BH18" s="42"/>
-      <c r="BI18" s="42"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="42"/>
-      <c r="BM18" s="42"/>
-      <c r="BN18" s="42"/>
-      <c r="BO18" s="42"/>
-      <c r="BP18" s="43"/>
-      <c r="BQ18" s="47"/>
-      <c r="BR18" s="48"/>
-      <c r="BS18" s="48"/>
-      <c r="BT18" s="48"/>
-      <c r="BU18" s="48"/>
-      <c r="BV18" s="48"/>
-      <c r="BW18" s="48"/>
-      <c r="BX18" s="48"/>
-      <c r="BY18" s="48"/>
-      <c r="BZ18" s="48"/>
-      <c r="CA18" s="48"/>
-      <c r="CB18" s="48"/>
-      <c r="CC18" s="48"/>
-      <c r="CD18" s="48"/>
-      <c r="CE18" s="48"/>
-      <c r="CF18" s="48"/>
-      <c r="CG18" s="48"/>
-      <c r="CH18" s="48"/>
-      <c r="CI18" s="49"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45"/>
+      <c r="BC18" s="45"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="44"/>
+      <c r="BF18" s="45"/>
+      <c r="BG18" s="45"/>
+      <c r="BH18" s="45"/>
+      <c r="BI18" s="45"/>
+      <c r="BJ18" s="45"/>
+      <c r="BK18" s="45"/>
+      <c r="BL18" s="45"/>
+      <c r="BM18" s="45"/>
+      <c r="BN18" s="45"/>
+      <c r="BO18" s="45"/>
+      <c r="BP18" s="46"/>
+      <c r="BQ18" s="57"/>
+      <c r="BR18" s="58"/>
+      <c r="BS18" s="58"/>
+      <c r="BT18" s="58"/>
+      <c r="BU18" s="58"/>
+      <c r="BV18" s="58"/>
+      <c r="BW18" s="58"/>
+      <c r="BX18" s="58"/>
+      <c r="BY18" s="58"/>
+      <c r="BZ18" s="58"/>
+      <c r="CA18" s="58"/>
+      <c r="CB18" s="58"/>
+      <c r="CC18" s="58"/>
+      <c r="CD18" s="58"/>
+      <c r="CE18" s="58"/>
+      <c r="CF18" s="58"/>
+      <c r="CG18" s="58"/>
+      <c r="CH18" s="58"/>
+      <c r="CI18" s="59"/>
     </row>
     <row r="19" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="52"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="43"/>
       <c r="Y19" s="44"/>
       <c r="Z19" s="45"/>
       <c r="AA19" s="46"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="52"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="43"/>
       <c r="AH19" s="44"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="46"/>
@@ -10874,27 +10830,28 @@
       <c r="BN19" s="45"/>
       <c r="BO19" s="45"/>
       <c r="BP19" s="46"/>
-      <c r="BQ19" s="57"/>
-      <c r="BR19" s="58"/>
-      <c r="BS19" s="58"/>
-      <c r="BT19" s="58"/>
-      <c r="BU19" s="58"/>
-      <c r="BV19" s="58"/>
-      <c r="BW19" s="58"/>
-      <c r="BX19" s="58"/>
-      <c r="BY19" s="58"/>
-      <c r="BZ19" s="58"/>
-      <c r="CA19" s="58"/>
-      <c r="CB19" s="58"/>
-      <c r="CC19" s="58"/>
-      <c r="CD19" s="58"/>
-      <c r="CE19" s="58"/>
-      <c r="CF19" s="58"/>
-      <c r="CG19" s="58"/>
-      <c r="CH19" s="58"/>
-      <c r="CI19" s="59"/>
+      <c r="BQ19" s="47"/>
+      <c r="BR19" s="48"/>
+      <c r="BS19" s="48"/>
+      <c r="BT19" s="48"/>
+      <c r="BU19" s="48"/>
+      <c r="BV19" s="48"/>
+      <c r="BW19" s="48"/>
+      <c r="BX19" s="48"/>
+      <c r="BY19" s="48"/>
+      <c r="BZ19" s="48"/>
+      <c r="CA19" s="48"/>
+      <c r="CB19" s="48"/>
+      <c r="CC19" s="48"/>
+      <c r="CD19" s="48"/>
+      <c r="CE19" s="48"/>
+      <c r="CF19" s="48"/>
+      <c r="CG19" s="48"/>
+      <c r="CH19" s="48"/>
+      <c r="CI19" s="49"/>
     </row>
-    <row r="20" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="15"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
       <c r="D20" s="40"/>
@@ -10940,28 +10897,28 @@
       <c r="AR20" s="42"/>
       <c r="AS20" s="42"/>
       <c r="AT20" s="43"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="46"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="45"/>
-      <c r="BG20" s="45"/>
-      <c r="BH20" s="45"/>
-      <c r="BI20" s="45"/>
-      <c r="BJ20" s="45"/>
-      <c r="BK20" s="45"/>
-      <c r="BL20" s="45"/>
-      <c r="BM20" s="45"/>
-      <c r="BN20" s="45"/>
-      <c r="BO20" s="45"/>
-      <c r="BP20" s="46"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
+      <c r="BD20" s="43"/>
+      <c r="BE20" s="41"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="42"/>
+      <c r="BM20" s="42"/>
+      <c r="BN20" s="42"/>
+      <c r="BO20" s="42"/>
+      <c r="BP20" s="43"/>
       <c r="BQ20" s="47"/>
       <c r="BR20" s="48"/>
       <c r="BS20" s="48"/>
@@ -10981,41 +10938,978 @@
       <c r="CG20" s="48"/>
       <c r="CH20" s="48"/>
       <c r="CI20" s="49"/>
+      <c r="CJ20" s="15"/>
+      <c r="CK20" s="15"/>
+      <c r="CL20" s="15"/>
+      <c r="CM20" s="15"/>
+      <c r="CN20" s="15"/>
+      <c r="CO20" s="15"/>
+      <c r="CP20" s="15"/>
+      <c r="CQ20" s="15"/>
+      <c r="CR20" s="15"/>
+      <c r="CS20" s="15"/>
+      <c r="CT20" s="15"/>
+      <c r="CU20" s="15"/>
+      <c r="CV20" s="15"/>
+      <c r="CW20" s="15"/>
+      <c r="CX20" s="15"/>
+      <c r="CY20" s="15"/>
+      <c r="CZ20" s="15"/>
+      <c r="DA20" s="15"/>
+      <c r="DB20" s="15"/>
+      <c r="DC20" s="15"/>
+      <c r="DD20" s="15"/>
+      <c r="DE20" s="15"/>
+      <c r="DF20" s="15"/>
+      <c r="DG20" s="15"/>
+      <c r="DH20" s="15"/>
+      <c r="DI20" s="15"/>
+      <c r="DJ20" s="15"/>
+      <c r="DK20" s="15"/>
+      <c r="DL20" s="15"/>
+      <c r="DM20" s="15"/>
+      <c r="DN20" s="15"/>
+      <c r="DO20" s="15"/>
+      <c r="DP20" s="15"/>
+      <c r="DQ20" s="15"/>
+      <c r="DR20" s="15"/>
+      <c r="DS20" s="15"/>
+      <c r="DT20" s="15"/>
+      <c r="DU20" s="15"/>
+      <c r="DV20" s="15"/>
+      <c r="DW20" s="15"/>
+      <c r="DX20" s="15"/>
+      <c r="DY20" s="15"/>
+      <c r="DZ20" s="15"/>
+      <c r="EA20" s="15"/>
+      <c r="EB20" s="15"/>
+      <c r="EC20" s="15"/>
+      <c r="ED20" s="15"/>
+      <c r="EE20" s="15"/>
+      <c r="EF20" s="15"/>
+      <c r="EG20" s="15"/>
+      <c r="EH20" s="15"/>
+      <c r="EI20" s="15"/>
+      <c r="EJ20" s="15"/>
+      <c r="EK20" s="15"/>
+      <c r="EL20" s="15"/>
+      <c r="EM20" s="15"/>
+      <c r="EN20" s="15"/>
+      <c r="EO20" s="15"/>
+      <c r="EP20" s="15"/>
+      <c r="EQ20" s="15"/>
+      <c r="ER20" s="15"/>
+      <c r="ES20" s="15"/>
+      <c r="ET20" s="15"/>
+      <c r="EU20" s="15"/>
+      <c r="EV20" s="15"/>
+      <c r="EW20" s="15"/>
+      <c r="EX20" s="15"/>
+      <c r="EY20" s="15"/>
+      <c r="EZ20" s="15"/>
+      <c r="FA20" s="15"/>
+      <c r="FB20" s="15"/>
+      <c r="FC20" s="15"/>
+      <c r="FD20" s="15"/>
+      <c r="FE20" s="15"/>
+      <c r="FF20" s="15"/>
+      <c r="FG20" s="15"/>
+      <c r="FH20" s="15"/>
+      <c r="FI20" s="15"/>
+      <c r="FJ20" s="15"/>
+      <c r="FK20" s="15"/>
+      <c r="FL20" s="15"/>
+      <c r="FM20" s="15"/>
+      <c r="FN20" s="15"/>
+      <c r="FO20" s="15"/>
+      <c r="FP20" s="15"/>
+      <c r="FQ20" s="15"/>
+      <c r="FR20" s="15"/>
+      <c r="FS20" s="15"/>
+      <c r="FT20" s="15"/>
+      <c r="FU20" s="15"/>
+      <c r="FV20" s="15"/>
+      <c r="FW20" s="15"/>
+      <c r="FX20" s="15"/>
+      <c r="FY20" s="15"/>
+      <c r="FZ20" s="15"/>
+      <c r="GA20" s="15"/>
+      <c r="GB20" s="15"/>
+      <c r="GC20" s="15"/>
+      <c r="GD20" s="15"/>
+      <c r="GE20" s="15"/>
+      <c r="GF20" s="15"/>
+      <c r="GG20" s="15"/>
+      <c r="GH20" s="15"/>
+      <c r="GI20" s="15"/>
+      <c r="GJ20" s="15"/>
+      <c r="GK20" s="15"/>
+      <c r="GL20" s="15"/>
+      <c r="GM20" s="15"/>
+      <c r="GN20" s="15"/>
+      <c r="GO20" s="15"/>
+      <c r="GP20" s="15"/>
+      <c r="GQ20" s="15"/>
+      <c r="GR20" s="15"/>
+      <c r="GS20" s="15"/>
+      <c r="GT20" s="15"/>
+      <c r="GU20" s="15"/>
+      <c r="GV20" s="15"/>
+      <c r="GW20" s="15"/>
+      <c r="GX20" s="15"/>
+      <c r="GY20" s="15"/>
+      <c r="GZ20" s="15"/>
+      <c r="HA20" s="15"/>
+      <c r="HB20" s="15"/>
+      <c r="HC20" s="15"/>
+      <c r="HD20" s="15"/>
+      <c r="HE20" s="15"/>
+      <c r="HF20" s="15"/>
+      <c r="HG20" s="15"/>
+      <c r="HH20" s="15"/>
+      <c r="HI20" s="15"/>
+      <c r="HJ20" s="15"/>
+      <c r="HK20" s="15"/>
+      <c r="HL20" s="15"/>
+      <c r="HM20" s="15"/>
+      <c r="HN20" s="15"/>
+      <c r="HO20" s="15"/>
+      <c r="HP20" s="15"/>
+      <c r="HQ20" s="15"/>
+      <c r="HR20" s="15"/>
+      <c r="HS20" s="15"/>
+      <c r="HT20" s="15"/>
+      <c r="HU20" s="15"/>
+      <c r="HV20" s="15"/>
+      <c r="HW20" s="15"/>
+      <c r="HX20" s="15"/>
+      <c r="HY20" s="15"/>
+      <c r="HZ20" s="15"/>
+      <c r="IA20" s="15"/>
+      <c r="IB20" s="15"/>
+      <c r="IC20" s="15"/>
+      <c r="ID20" s="15"/>
+      <c r="IE20" s="15"/>
+      <c r="IF20" s="15"/>
+      <c r="IG20" s="15"/>
+      <c r="IH20" s="15"/>
+      <c r="II20" s="15"/>
+      <c r="IJ20" s="15"/>
+      <c r="IK20" s="15"/>
+      <c r="IL20" s="15"/>
+      <c r="IM20" s="15"/>
+      <c r="IN20" s="15"/>
+      <c r="IO20" s="15"/>
+      <c r="IP20" s="15"/>
+      <c r="IQ20" s="15"/>
+      <c r="IR20" s="15"/>
+      <c r="IS20" s="15"/>
+      <c r="IT20" s="15"/>
+      <c r="IU20" s="15"/>
+      <c r="IV20" s="15"/>
+      <c r="IW20" s="15"/>
+      <c r="IX20" s="15"/>
+      <c r="IY20" s="15"/>
+      <c r="IZ20" s="15"/>
+      <c r="JA20" s="15"/>
+      <c r="JB20" s="15"/>
+      <c r="JC20" s="15"/>
+      <c r="JD20" s="15"/>
+      <c r="JE20" s="15"/>
+      <c r="JF20" s="15"/>
+      <c r="JG20" s="15"/>
+      <c r="JH20" s="15"/>
+      <c r="JI20" s="15"/>
+      <c r="JJ20" s="15"/>
+      <c r="JK20" s="15"/>
+      <c r="JL20" s="15"/>
+      <c r="JM20" s="15"/>
+      <c r="JN20" s="15"/>
+      <c r="JO20" s="15"/>
+      <c r="JP20" s="15"/>
+      <c r="JQ20" s="15"/>
+      <c r="JR20" s="15"/>
+      <c r="JS20" s="15"/>
+      <c r="JT20" s="15"/>
+      <c r="JU20" s="15"/>
+      <c r="JV20" s="15"/>
+      <c r="JW20" s="15"/>
+      <c r="JX20" s="15"/>
+      <c r="JY20" s="15"/>
+      <c r="JZ20" s="15"/>
+      <c r="KA20" s="15"/>
+      <c r="KB20" s="15"/>
+      <c r="KC20" s="15"/>
+      <c r="KD20" s="15"/>
+      <c r="KE20" s="15"/>
+      <c r="KF20" s="15"/>
+      <c r="KG20" s="15"/>
+      <c r="KH20" s="15"/>
+      <c r="KI20" s="15"/>
+      <c r="KJ20" s="15"/>
+      <c r="KK20" s="15"/>
+      <c r="KL20" s="15"/>
+      <c r="KM20" s="15"/>
+      <c r="KN20" s="15"/>
+      <c r="KO20" s="15"/>
+      <c r="KP20" s="15"/>
+      <c r="KQ20" s="15"/>
+      <c r="KR20" s="15"/>
+      <c r="KS20" s="15"/>
+      <c r="KT20" s="15"/>
+      <c r="KU20" s="15"/>
+      <c r="KV20" s="15"/>
+      <c r="KW20" s="15"/>
+      <c r="KX20" s="15"/>
+      <c r="KY20" s="15"/>
+      <c r="KZ20" s="15"/>
+      <c r="LA20" s="15"/>
+      <c r="LB20" s="15"/>
+      <c r="LC20" s="15"/>
+      <c r="LD20" s="15"/>
+      <c r="LE20" s="15"/>
+      <c r="LF20" s="15"/>
+      <c r="LG20" s="15"/>
+      <c r="LH20" s="15"/>
+      <c r="LI20" s="15"/>
+      <c r="LJ20" s="15"/>
+      <c r="LK20" s="15"/>
+      <c r="LL20" s="15"/>
+      <c r="LM20" s="15"/>
+      <c r="LN20" s="15"/>
+      <c r="LO20" s="15"/>
+      <c r="LP20" s="15"/>
+      <c r="LQ20" s="15"/>
+      <c r="LR20" s="15"/>
+      <c r="LS20" s="15"/>
+      <c r="LT20" s="15"/>
+      <c r="LU20" s="15"/>
+      <c r="LV20" s="15"/>
+      <c r="LW20" s="15"/>
+      <c r="LX20" s="15"/>
+      <c r="LY20" s="15"/>
+      <c r="LZ20" s="15"/>
+      <c r="MA20" s="15"/>
+      <c r="MB20" s="15"/>
+      <c r="MC20" s="15"/>
+      <c r="MD20" s="15"/>
+      <c r="ME20" s="15"/>
+      <c r="MF20" s="15"/>
+      <c r="MG20" s="15"/>
+      <c r="MH20" s="15"/>
+      <c r="MI20" s="15"/>
+      <c r="MJ20" s="15"/>
+      <c r="MK20" s="15"/>
+      <c r="ML20" s="15"/>
+      <c r="MM20" s="15"/>
+      <c r="MN20" s="15"/>
+      <c r="MO20" s="15"/>
+      <c r="MP20" s="15"/>
+      <c r="MQ20" s="15"/>
+      <c r="MR20" s="15"/>
+      <c r="MS20" s="15"/>
+      <c r="MT20" s="15"/>
+      <c r="MU20" s="15"/>
+      <c r="MV20" s="15"/>
+      <c r="MW20" s="15"/>
+      <c r="MX20" s="15"/>
+      <c r="MY20" s="15"/>
+      <c r="MZ20" s="15"/>
+      <c r="NA20" s="15"/>
+      <c r="NB20" s="15"/>
+      <c r="NC20" s="15"/>
+      <c r="ND20" s="15"/>
+      <c r="NE20" s="15"/>
+      <c r="NF20" s="15"/>
+      <c r="NG20" s="15"/>
+      <c r="NH20" s="15"/>
+      <c r="NI20" s="15"/>
+      <c r="NJ20" s="15"/>
+      <c r="NK20" s="15"/>
+      <c r="NL20" s="15"/>
+      <c r="NM20" s="15"/>
+      <c r="NN20" s="15"/>
+      <c r="NO20" s="15"/>
+      <c r="NP20" s="15"/>
+      <c r="NQ20" s="15"/>
+      <c r="NR20" s="15"/>
+      <c r="NS20" s="15"/>
+      <c r="NT20" s="15"/>
+      <c r="NU20" s="15"/>
+      <c r="NV20" s="15"/>
+      <c r="NW20" s="15"/>
+      <c r="NX20" s="15"/>
+      <c r="NY20" s="15"/>
+      <c r="NZ20" s="15"/>
+      <c r="OA20" s="15"/>
+      <c r="OB20" s="15"/>
+      <c r="OC20" s="15"/>
+      <c r="OD20" s="15"/>
+      <c r="OE20" s="15"/>
+      <c r="OF20" s="15"/>
+      <c r="OG20" s="15"/>
+      <c r="OH20" s="15"/>
+      <c r="OI20" s="15"/>
+      <c r="OJ20" s="15"/>
+      <c r="OK20" s="15"/>
+      <c r="OL20" s="15"/>
+      <c r="OM20" s="15"/>
+      <c r="ON20" s="15"/>
+      <c r="OO20" s="15"/>
+      <c r="OP20" s="15"/>
+      <c r="OQ20" s="15"/>
+      <c r="OR20" s="15"/>
+      <c r="OS20" s="15"/>
+      <c r="OT20" s="15"/>
+      <c r="OU20" s="15"/>
+      <c r="OV20" s="15"/>
+      <c r="OW20" s="15"/>
+      <c r="OX20" s="15"/>
+      <c r="OY20" s="15"/>
+      <c r="OZ20" s="15"/>
+      <c r="PA20" s="15"/>
+      <c r="PB20" s="15"/>
+      <c r="PC20" s="15"/>
+      <c r="PD20" s="15"/>
+      <c r="PE20" s="15"/>
+      <c r="PF20" s="15"/>
+      <c r="PG20" s="15"/>
+      <c r="PH20" s="15"/>
+      <c r="PI20" s="15"/>
+      <c r="PJ20" s="15"/>
+      <c r="PK20" s="15"/>
+      <c r="PL20" s="15"/>
+      <c r="PM20" s="15"/>
+      <c r="PN20" s="15"/>
+      <c r="PO20" s="15"/>
+      <c r="PP20" s="15"/>
+      <c r="PQ20" s="15"/>
+      <c r="PR20" s="15"/>
+      <c r="PS20" s="15"/>
+      <c r="PT20" s="15"/>
+      <c r="PU20" s="15"/>
+      <c r="PV20" s="15"/>
+      <c r="PW20" s="15"/>
+      <c r="PX20" s="15"/>
+      <c r="PY20" s="15"/>
+      <c r="PZ20" s="15"/>
+      <c r="QA20" s="15"/>
+      <c r="QB20" s="15"/>
+      <c r="QC20" s="15"/>
+      <c r="QD20" s="15"/>
+      <c r="QE20" s="15"/>
+      <c r="QF20" s="15"/>
+      <c r="QG20" s="15"/>
+      <c r="QH20" s="15"/>
+      <c r="QI20" s="15"/>
+      <c r="QJ20" s="15"/>
+      <c r="QK20" s="15"/>
+      <c r="QL20" s="15"/>
+      <c r="QM20" s="15"/>
+      <c r="QN20" s="15"/>
+      <c r="QO20" s="15"/>
+      <c r="QP20" s="15"/>
+      <c r="QQ20" s="15"/>
+      <c r="QR20" s="15"/>
+      <c r="QS20" s="15"/>
+      <c r="QT20" s="15"/>
+      <c r="QU20" s="15"/>
+      <c r="QV20" s="15"/>
+      <c r="QW20" s="15"/>
+      <c r="QX20" s="15"/>
+      <c r="QY20" s="15"/>
+      <c r="QZ20" s="15"/>
+      <c r="RA20" s="15"/>
+      <c r="RB20" s="15"/>
+      <c r="RC20" s="15"/>
+      <c r="RD20" s="15"/>
+      <c r="RE20" s="15"/>
+      <c r="RF20" s="15"/>
+      <c r="RG20" s="15"/>
+      <c r="RH20" s="15"/>
+      <c r="RI20" s="15"/>
+      <c r="RJ20" s="15"/>
+      <c r="RK20" s="15"/>
+      <c r="RL20" s="15"/>
+      <c r="RM20" s="15"/>
+      <c r="RN20" s="15"/>
+      <c r="RO20" s="15"/>
+      <c r="RP20" s="15"/>
+      <c r="RQ20" s="15"/>
+      <c r="RR20" s="15"/>
+      <c r="RS20" s="15"/>
+      <c r="RT20" s="15"/>
+      <c r="RU20" s="15"/>
+      <c r="RV20" s="15"/>
+      <c r="RW20" s="15"/>
+      <c r="RX20" s="15"/>
+      <c r="RY20" s="15"/>
+      <c r="RZ20" s="15"/>
+      <c r="SA20" s="15"/>
+      <c r="SB20" s="15"/>
+      <c r="SC20" s="15"/>
+      <c r="SD20" s="15"/>
+      <c r="SE20" s="15"/>
+      <c r="SF20" s="15"/>
+      <c r="SG20" s="15"/>
+      <c r="SH20" s="15"/>
+      <c r="SI20" s="15"/>
+      <c r="SJ20" s="15"/>
+      <c r="SK20" s="15"/>
+      <c r="SL20" s="15"/>
+      <c r="SM20" s="15"/>
+      <c r="SN20" s="15"/>
+      <c r="SO20" s="15"/>
+      <c r="SP20" s="15"/>
+      <c r="SQ20" s="15"/>
+      <c r="SR20" s="15"/>
+      <c r="SS20" s="15"/>
+      <c r="ST20" s="15"/>
+      <c r="SU20" s="15"/>
+      <c r="SV20" s="15"/>
+      <c r="SW20" s="15"/>
+      <c r="SX20" s="15"/>
+      <c r="SY20" s="15"/>
+      <c r="SZ20" s="15"/>
+      <c r="TA20" s="15"/>
+      <c r="TB20" s="15"/>
+      <c r="TC20" s="15"/>
+      <c r="TD20" s="15"/>
+      <c r="TE20" s="15"/>
+      <c r="TF20" s="15"/>
+      <c r="TG20" s="15"/>
+      <c r="TH20" s="15"/>
+      <c r="TI20" s="15"/>
+      <c r="TJ20" s="15"/>
+      <c r="TK20" s="15"/>
+      <c r="TL20" s="15"/>
+      <c r="TM20" s="15"/>
+      <c r="TN20" s="15"/>
+      <c r="TO20" s="15"/>
+      <c r="TP20" s="15"/>
+      <c r="TQ20" s="15"/>
+      <c r="TR20" s="15"/>
+      <c r="TS20" s="15"/>
+      <c r="TT20" s="15"/>
+      <c r="TU20" s="15"/>
+      <c r="TV20" s="15"/>
+      <c r="TW20" s="15"/>
+      <c r="TX20" s="15"/>
+      <c r="TY20" s="15"/>
+      <c r="TZ20" s="15"/>
+      <c r="UA20" s="15"/>
+      <c r="UB20" s="15"/>
+      <c r="UC20" s="15"/>
+      <c r="UD20" s="15"/>
+      <c r="UE20" s="15"/>
+      <c r="UF20" s="15"/>
+      <c r="UG20" s="15"/>
+      <c r="UH20" s="15"/>
+      <c r="UI20" s="15"/>
+      <c r="UJ20" s="15"/>
+      <c r="UK20" s="15"/>
+      <c r="UL20" s="15"/>
+      <c r="UM20" s="15"/>
+      <c r="UN20" s="15"/>
+      <c r="UO20" s="15"/>
+      <c r="UP20" s="15"/>
+      <c r="UQ20" s="15"/>
+      <c r="UR20" s="15"/>
+      <c r="US20" s="15"/>
+      <c r="UT20" s="15"/>
+      <c r="UU20" s="15"/>
+      <c r="UV20" s="15"/>
+      <c r="UW20" s="15"/>
+      <c r="UX20" s="15"/>
+      <c r="UY20" s="15"/>
+      <c r="UZ20" s="15"/>
+      <c r="VA20" s="15"/>
+      <c r="VB20" s="15"/>
+      <c r="VC20" s="15"/>
+      <c r="VD20" s="15"/>
+      <c r="VE20" s="15"/>
+      <c r="VF20" s="15"/>
+      <c r="VG20" s="15"/>
+      <c r="VH20" s="15"/>
+      <c r="VI20" s="15"/>
+      <c r="VJ20" s="15"/>
+      <c r="VK20" s="15"/>
+      <c r="VL20" s="15"/>
+      <c r="VM20" s="15"/>
+      <c r="VN20" s="15"/>
+      <c r="VO20" s="15"/>
+      <c r="VP20" s="15"/>
+      <c r="VQ20" s="15"/>
+      <c r="VR20" s="15"/>
+      <c r="VS20" s="15"/>
+      <c r="VT20" s="15"/>
+      <c r="VU20" s="15"/>
+      <c r="VV20" s="15"/>
+      <c r="VW20" s="15"/>
+      <c r="VX20" s="15"/>
+      <c r="VY20" s="15"/>
+      <c r="VZ20" s="15"/>
+      <c r="WA20" s="15"/>
+      <c r="WB20" s="15"/>
+      <c r="WC20" s="15"/>
+      <c r="WD20" s="15"/>
+      <c r="WE20" s="15"/>
+      <c r="WF20" s="15"/>
+      <c r="WG20" s="15"/>
+      <c r="WH20" s="15"/>
+      <c r="WI20" s="15"/>
+      <c r="WJ20" s="15"/>
+      <c r="WK20" s="15"/>
+      <c r="WL20" s="15"/>
+      <c r="WM20" s="15"/>
+      <c r="WN20" s="15"/>
+      <c r="WO20" s="15"/>
+      <c r="WP20" s="15"/>
+      <c r="WQ20" s="15"/>
+      <c r="WR20" s="15"/>
+      <c r="WS20" s="15"/>
+      <c r="WT20" s="15"/>
+      <c r="WU20" s="15"/>
+      <c r="WV20" s="15"/>
+      <c r="WW20" s="15"/>
+      <c r="WX20" s="15"/>
+      <c r="WY20" s="15"/>
+      <c r="WZ20" s="15"/>
+      <c r="XA20" s="15"/>
+      <c r="XB20" s="15"/>
+      <c r="XC20" s="15"/>
+      <c r="XD20" s="15"/>
+      <c r="XE20" s="15"/>
+      <c r="XF20" s="15"/>
+      <c r="XG20" s="15"/>
+      <c r="XH20" s="15"/>
+      <c r="XI20" s="15"/>
+      <c r="XJ20" s="15"/>
+      <c r="XK20" s="15"/>
+      <c r="XL20" s="15"/>
+      <c r="XM20" s="15"/>
+      <c r="XN20" s="15"/>
+      <c r="XO20" s="15"/>
+      <c r="XP20" s="15"/>
+      <c r="XQ20" s="15"/>
+      <c r="XR20" s="15"/>
+      <c r="XS20" s="15"/>
+      <c r="XT20" s="15"/>
+      <c r="XU20" s="15"/>
+      <c r="XV20" s="15"/>
+      <c r="XW20" s="15"/>
+      <c r="XX20" s="15"/>
+      <c r="XY20" s="15"/>
+      <c r="XZ20" s="15"/>
+      <c r="YA20" s="15"/>
+      <c r="YB20" s="15"/>
+      <c r="YC20" s="15"/>
+      <c r="YD20" s="15"/>
+      <c r="YE20" s="15"/>
+      <c r="YF20" s="15"/>
+      <c r="YG20" s="15"/>
+      <c r="YH20" s="15"/>
+      <c r="YI20" s="15"/>
+      <c r="YJ20" s="15"/>
+      <c r="YK20" s="15"/>
+      <c r="YL20" s="15"/>
+      <c r="YM20" s="15"/>
+      <c r="YN20" s="15"/>
+      <c r="YO20" s="15"/>
+      <c r="YP20" s="15"/>
+      <c r="YQ20" s="15"/>
+      <c r="YR20" s="15"/>
+      <c r="YS20" s="15"/>
+      <c r="YT20" s="15"/>
+      <c r="YU20" s="15"/>
+      <c r="YV20" s="15"/>
+      <c r="YW20" s="15"/>
+      <c r="YX20" s="15"/>
+      <c r="YY20" s="15"/>
+      <c r="YZ20" s="15"/>
+      <c r="ZA20" s="15"/>
+      <c r="ZB20" s="15"/>
+      <c r="ZC20" s="15"/>
+      <c r="ZD20" s="15"/>
+      <c r="ZE20" s="15"/>
+      <c r="ZF20" s="15"/>
+      <c r="ZG20" s="15"/>
+      <c r="ZH20" s="15"/>
+      <c r="ZI20" s="15"/>
+      <c r="ZJ20" s="15"/>
+      <c r="ZK20" s="15"/>
+      <c r="ZL20" s="15"/>
+      <c r="ZM20" s="15"/>
+      <c r="ZN20" s="15"/>
+      <c r="ZO20" s="15"/>
+      <c r="ZP20" s="15"/>
+      <c r="ZQ20" s="15"/>
+      <c r="ZR20" s="15"/>
+      <c r="ZS20" s="15"/>
+      <c r="ZT20" s="15"/>
+      <c r="ZU20" s="15"/>
+      <c r="ZV20" s="15"/>
+      <c r="ZW20" s="15"/>
+      <c r="ZX20" s="15"/>
+      <c r="ZY20" s="15"/>
+      <c r="ZZ20" s="15"/>
+      <c r="AAA20" s="15"/>
+      <c r="AAB20" s="15"/>
+      <c r="AAC20" s="15"/>
+      <c r="AAD20" s="15"/>
+      <c r="AAE20" s="15"/>
+      <c r="AAF20" s="15"/>
+      <c r="AAG20" s="15"/>
+      <c r="AAH20" s="15"/>
+      <c r="AAI20" s="15"/>
+      <c r="AAJ20" s="15"/>
+      <c r="AAK20" s="15"/>
+      <c r="AAL20" s="15"/>
+      <c r="AAM20" s="15"/>
+      <c r="AAN20" s="15"/>
+      <c r="AAO20" s="15"/>
+      <c r="AAP20" s="15"/>
+      <c r="AAQ20" s="15"/>
+      <c r="AAR20" s="15"/>
+      <c r="AAS20" s="15"/>
+      <c r="AAT20" s="15"/>
+      <c r="AAU20" s="15"/>
+      <c r="AAV20" s="15"/>
+      <c r="AAW20" s="15"/>
+      <c r="AAX20" s="15"/>
+      <c r="AAY20" s="15"/>
+      <c r="AAZ20" s="15"/>
+      <c r="ABA20" s="15"/>
+      <c r="ABB20" s="15"/>
+      <c r="ABC20" s="15"/>
+      <c r="ABD20" s="15"/>
+      <c r="ABE20" s="15"/>
+      <c r="ABF20" s="15"/>
+      <c r="ABG20" s="15"/>
+      <c r="ABH20" s="15"/>
+      <c r="ABI20" s="15"/>
+      <c r="ABJ20" s="15"/>
+      <c r="ABK20" s="15"/>
+      <c r="ABL20" s="15"/>
+      <c r="ABM20" s="15"/>
+      <c r="ABN20" s="15"/>
+      <c r="ABO20" s="15"/>
+      <c r="ABP20" s="15"/>
+      <c r="ABQ20" s="15"/>
+      <c r="ABR20" s="15"/>
+      <c r="ABS20" s="15"/>
+      <c r="ABT20" s="15"/>
+      <c r="ABU20" s="15"/>
+      <c r="ABV20" s="15"/>
+      <c r="ABW20" s="15"/>
+      <c r="ABX20" s="15"/>
+      <c r="ABY20" s="15"/>
+      <c r="ABZ20" s="15"/>
+      <c r="ACA20" s="15"/>
+      <c r="ACB20" s="15"/>
+      <c r="ACC20" s="15"/>
+      <c r="ACD20" s="15"/>
+      <c r="ACE20" s="15"/>
+      <c r="ACF20" s="15"/>
+      <c r="ACG20" s="15"/>
+      <c r="ACH20" s="15"/>
+      <c r="ACI20" s="15"/>
+      <c r="ACJ20" s="15"/>
+      <c r="ACK20" s="15"/>
+      <c r="ACL20" s="15"/>
+      <c r="ACM20" s="15"/>
+      <c r="ACN20" s="15"/>
+      <c r="ACO20" s="15"/>
+      <c r="ACP20" s="15"/>
+      <c r="ACQ20" s="15"/>
+      <c r="ACR20" s="15"/>
+      <c r="ACS20" s="15"/>
+      <c r="ACT20" s="15"/>
+      <c r="ACU20" s="15"/>
+      <c r="ACV20" s="15"/>
+      <c r="ACW20" s="15"/>
+      <c r="ACX20" s="15"/>
+      <c r="ACY20" s="15"/>
+      <c r="ACZ20" s="15"/>
+      <c r="ADA20" s="15"/>
+      <c r="ADB20" s="15"/>
+      <c r="ADC20" s="15"/>
+      <c r="ADD20" s="15"/>
+      <c r="ADE20" s="15"/>
+      <c r="ADF20" s="15"/>
+      <c r="ADG20" s="15"/>
+      <c r="ADH20" s="15"/>
+      <c r="ADI20" s="15"/>
+      <c r="ADJ20" s="15"/>
+      <c r="ADK20" s="15"/>
+      <c r="ADL20" s="15"/>
+      <c r="ADM20" s="15"/>
+      <c r="ADN20" s="15"/>
+      <c r="ADO20" s="15"/>
+      <c r="ADP20" s="15"/>
+      <c r="ADQ20" s="15"/>
+      <c r="ADR20" s="15"/>
+      <c r="ADS20" s="15"/>
+      <c r="ADT20" s="15"/>
+      <c r="ADU20" s="15"/>
+      <c r="ADV20" s="15"/>
+      <c r="ADW20" s="15"/>
+      <c r="ADX20" s="15"/>
+      <c r="ADY20" s="15"/>
+      <c r="ADZ20" s="15"/>
+      <c r="AEA20" s="15"/>
+      <c r="AEB20" s="15"/>
+      <c r="AEC20" s="15"/>
+      <c r="AED20" s="15"/>
+      <c r="AEE20" s="15"/>
+      <c r="AEF20" s="15"/>
+      <c r="AEG20" s="15"/>
+      <c r="AEH20" s="15"/>
+      <c r="AEI20" s="15"/>
+      <c r="AEJ20" s="15"/>
+      <c r="AEK20" s="15"/>
+      <c r="AEL20" s="15"/>
+      <c r="AEM20" s="15"/>
+      <c r="AEN20" s="15"/>
+      <c r="AEO20" s="15"/>
+      <c r="AEP20" s="15"/>
+      <c r="AEQ20" s="15"/>
+      <c r="AER20" s="15"/>
+      <c r="AES20" s="15"/>
+      <c r="AET20" s="15"/>
+      <c r="AEU20" s="15"/>
+      <c r="AEV20" s="15"/>
+      <c r="AEW20" s="15"/>
+      <c r="AEX20" s="15"/>
+      <c r="AEY20" s="15"/>
+      <c r="AEZ20" s="15"/>
+      <c r="AFA20" s="15"/>
+      <c r="AFB20" s="15"/>
+      <c r="AFC20" s="15"/>
+      <c r="AFD20" s="15"/>
+      <c r="AFE20" s="15"/>
+      <c r="AFF20" s="15"/>
+      <c r="AFG20" s="15"/>
+      <c r="AFH20" s="15"/>
+      <c r="AFI20" s="15"/>
+      <c r="AFJ20" s="15"/>
+      <c r="AFK20" s="15"/>
+      <c r="AFL20" s="15"/>
+      <c r="AFM20" s="15"/>
+      <c r="AFN20" s="15"/>
+      <c r="AFO20" s="15"/>
+      <c r="AFP20" s="15"/>
+      <c r="AFQ20" s="15"/>
+      <c r="AFR20" s="15"/>
+      <c r="AFS20" s="15"/>
+      <c r="AFT20" s="15"/>
+      <c r="AFU20" s="15"/>
+      <c r="AFV20" s="15"/>
+      <c r="AFW20" s="15"/>
+      <c r="AFX20" s="15"/>
+      <c r="AFY20" s="15"/>
+      <c r="AFZ20" s="15"/>
+      <c r="AGA20" s="15"/>
+      <c r="AGB20" s="15"/>
+      <c r="AGC20" s="15"/>
+      <c r="AGD20" s="15"/>
+      <c r="AGE20" s="15"/>
+      <c r="AGF20" s="15"/>
+      <c r="AGG20" s="15"/>
+      <c r="AGH20" s="15"/>
+      <c r="AGI20" s="15"/>
+      <c r="AGJ20" s="15"/>
+      <c r="AGK20" s="15"/>
+      <c r="AGL20" s="15"/>
+      <c r="AGM20" s="15"/>
+      <c r="AGN20" s="15"/>
+      <c r="AGO20" s="15"/>
+      <c r="AGP20" s="15"/>
+      <c r="AGQ20" s="15"/>
+      <c r="AGR20" s="15"/>
+      <c r="AGS20" s="15"/>
+      <c r="AGT20" s="15"/>
+      <c r="AGU20" s="15"/>
+      <c r="AGV20" s="15"/>
+      <c r="AGW20" s="15"/>
+      <c r="AGX20" s="15"/>
+      <c r="AGY20" s="15"/>
+      <c r="AGZ20" s="15"/>
+      <c r="AHA20" s="15"/>
+      <c r="AHB20" s="15"/>
+      <c r="AHC20" s="15"/>
+      <c r="AHD20" s="15"/>
+      <c r="AHE20" s="15"/>
+      <c r="AHF20" s="15"/>
+      <c r="AHG20" s="15"/>
+      <c r="AHH20" s="15"/>
+      <c r="AHI20" s="15"/>
+      <c r="AHJ20" s="15"/>
+      <c r="AHK20" s="15"/>
+      <c r="AHL20" s="15"/>
+      <c r="AHM20" s="15"/>
+      <c r="AHN20" s="15"/>
+      <c r="AHO20" s="15"/>
+      <c r="AHP20" s="15"/>
+      <c r="AHQ20" s="15"/>
+      <c r="AHR20" s="15"/>
+      <c r="AHS20" s="15"/>
+      <c r="AHT20" s="15"/>
+      <c r="AHU20" s="15"/>
+      <c r="AHV20" s="15"/>
+      <c r="AHW20" s="15"/>
+      <c r="AHX20" s="15"/>
+      <c r="AHY20" s="15"/>
+      <c r="AHZ20" s="15"/>
+      <c r="AIA20" s="15"/>
+      <c r="AIB20" s="15"/>
+      <c r="AIC20" s="15"/>
+      <c r="AID20" s="15"/>
+      <c r="AIE20" s="15"/>
+      <c r="AIF20" s="15"/>
+      <c r="AIG20" s="15"/>
+      <c r="AIH20" s="15"/>
+      <c r="AII20" s="15"/>
+      <c r="AIJ20" s="15"/>
+      <c r="AIK20" s="15"/>
+      <c r="AIL20" s="15"/>
+      <c r="AIM20" s="15"/>
+      <c r="AIN20" s="15"/>
+      <c r="AIO20" s="15"/>
+      <c r="AIP20" s="15"/>
+      <c r="AIQ20" s="15"/>
+      <c r="AIR20" s="15"/>
+      <c r="AIS20" s="15"/>
+      <c r="AIT20" s="15"/>
+      <c r="AIU20" s="15"/>
+      <c r="AIV20" s="15"/>
+      <c r="AIW20" s="15"/>
+      <c r="AIX20" s="15"/>
+      <c r="AIY20" s="15"/>
+      <c r="AIZ20" s="15"/>
+      <c r="AJA20" s="15"/>
+      <c r="AJB20" s="15"/>
+      <c r="AJC20" s="15"/>
+      <c r="AJD20" s="15"/>
+      <c r="AJE20" s="15"/>
+      <c r="AJF20" s="15"/>
+      <c r="AJG20" s="15"/>
+      <c r="AJH20" s="15"/>
+      <c r="AJI20" s="15"/>
+      <c r="AJJ20" s="15"/>
+      <c r="AJK20" s="15"/>
+      <c r="AJL20" s="15"/>
+      <c r="AJM20" s="15"/>
+      <c r="AJN20" s="15"/>
+      <c r="AJO20" s="15"/>
+      <c r="AJP20" s="15"/>
+      <c r="AJQ20" s="15"/>
+      <c r="AJR20" s="15"/>
+      <c r="AJS20" s="15"/>
+      <c r="AJT20" s="15"/>
+      <c r="AJU20" s="15"/>
+      <c r="AJV20" s="15"/>
+      <c r="AJW20" s="15"/>
+      <c r="AJX20" s="15"/>
+      <c r="AJY20" s="15"/>
+      <c r="AJZ20" s="15"/>
+      <c r="AKA20" s="15"/>
+      <c r="AKB20" s="15"/>
+      <c r="AKC20" s="15"/>
+      <c r="AKD20" s="15"/>
+      <c r="AKE20" s="15"/>
+      <c r="AKF20" s="15"/>
+      <c r="AKG20" s="15"/>
+      <c r="AKH20" s="15"/>
+      <c r="AKI20" s="15"/>
+      <c r="AKJ20" s="15"/>
+      <c r="AKK20" s="15"/>
+      <c r="AKL20" s="15"/>
+      <c r="AKM20" s="15"/>
+      <c r="AKN20" s="15"/>
+      <c r="AKO20" s="15"/>
+      <c r="AKP20" s="15"/>
+      <c r="AKQ20" s="15"/>
+      <c r="AKR20" s="15"/>
+      <c r="AKS20" s="15"/>
+      <c r="AKT20" s="15"/>
+      <c r="AKU20" s="15"/>
+      <c r="AKV20" s="15"/>
+      <c r="AKW20" s="15"/>
+      <c r="AKX20" s="15"/>
+      <c r="AKY20" s="15"/>
+      <c r="AKZ20" s="15"/>
+      <c r="ALA20" s="15"/>
+      <c r="ALB20" s="15"/>
+      <c r="ALC20" s="15"/>
+      <c r="ALD20" s="15"/>
+      <c r="ALE20" s="15"/>
+      <c r="ALF20" s="15"/>
+      <c r="ALG20" s="15"/>
+      <c r="ALH20" s="15"/>
+      <c r="ALI20" s="15"/>
+      <c r="ALJ20" s="15"/>
+      <c r="ALK20" s="15"/>
+      <c r="ALL20" s="15"/>
+      <c r="ALM20" s="15"/>
+      <c r="ALN20" s="15"/>
+      <c r="ALO20" s="15"/>
+      <c r="ALP20" s="15"/>
+      <c r="ALQ20" s="15"/>
+      <c r="ALR20" s="15"/>
+      <c r="ALS20" s="15"/>
+      <c r="ALT20" s="15"/>
+      <c r="ALU20" s="15"/>
+      <c r="ALV20" s="15"/>
+      <c r="ALW20" s="15"/>
+      <c r="ALX20" s="15"/>
+      <c r="ALY20" s="15"/>
+      <c r="ALZ20" s="15"/>
+      <c r="AMA20" s="15"/>
+      <c r="AMB20" s="15"/>
+      <c r="AMC20" s="15"/>
+      <c r="AMD20" s="15"/>
+      <c r="AME20" s="15"/>
+      <c r="AMF20" s="15"/>
+      <c r="AMG20" s="15"/>
+      <c r="AMH20" s="15"/>
+      <c r="AMI20" s="15"/>
+      <c r="AMJ20" s="15"/>
+      <c r="AMK20" s="15"/>
     </row>
-    <row r="21" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="43"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="46"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="43"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="52"/>
       <c r="AH21" s="44"/>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="46"/>
@@ -11026,1022 +11920,84 @@
       <c r="AO21" s="42"/>
       <c r="AP21" s="42"/>
       <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="43"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="42"/>
-      <c r="BA21" s="42"/>
-      <c r="BB21" s="42"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="43"/>
-      <c r="BE21" s="41"/>
-      <c r="BF21" s="42"/>
-      <c r="BG21" s="42"/>
-      <c r="BH21" s="42"/>
-      <c r="BI21" s="42"/>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="42"/>
-      <c r="BL21" s="42"/>
-      <c r="BM21" s="42"/>
-      <c r="BN21" s="42"/>
-      <c r="BO21" s="42"/>
-      <c r="BP21" s="43"/>
-      <c r="BQ21" s="47"/>
-      <c r="BR21" s="48"/>
-      <c r="BS21" s="48"/>
-      <c r="BT21" s="48"/>
-      <c r="BU21" s="48"/>
-      <c r="BV21" s="48"/>
-      <c r="BW21" s="48"/>
-      <c r="BX21" s="48"/>
-      <c r="BY21" s="48"/>
-      <c r="BZ21" s="48"/>
-      <c r="CA21" s="48"/>
-      <c r="CB21" s="48"/>
-      <c r="CC21" s="48"/>
-      <c r="CD21" s="48"/>
-      <c r="CE21" s="48"/>
-      <c r="CF21" s="48"/>
-      <c r="CG21" s="48"/>
-      <c r="CH21" s="48"/>
-      <c r="CI21" s="49"/>
-      <c r="CJ21" s="15"/>
-      <c r="CK21" s="15"/>
-      <c r="CL21" s="15"/>
-      <c r="CM21" s="15"/>
-      <c r="CN21" s="15"/>
-      <c r="CO21" s="15"/>
-      <c r="CP21" s="15"/>
-      <c r="CQ21" s="15"/>
-      <c r="CR21" s="15"/>
-      <c r="CS21" s="15"/>
-      <c r="CT21" s="15"/>
-      <c r="CU21" s="15"/>
-      <c r="CV21" s="15"/>
-      <c r="CW21" s="15"/>
-      <c r="CX21" s="15"/>
-      <c r="CY21" s="15"/>
-      <c r="CZ21" s="15"/>
-      <c r="DA21" s="15"/>
-      <c r="DB21" s="15"/>
-      <c r="DC21" s="15"/>
-      <c r="DD21" s="15"/>
-      <c r="DE21" s="15"/>
-      <c r="DF21" s="15"/>
-      <c r="DG21" s="15"/>
-      <c r="DH21" s="15"/>
-      <c r="DI21" s="15"/>
-      <c r="DJ21" s="15"/>
-      <c r="DK21" s="15"/>
-      <c r="DL21" s="15"/>
-      <c r="DM21" s="15"/>
-      <c r="DN21" s="15"/>
-      <c r="DO21" s="15"/>
-      <c r="DP21" s="15"/>
-      <c r="DQ21" s="15"/>
-      <c r="DR21" s="15"/>
-      <c r="DS21" s="15"/>
-      <c r="DT21" s="15"/>
-      <c r="DU21" s="15"/>
-      <c r="DV21" s="15"/>
-      <c r="DW21" s="15"/>
-      <c r="DX21" s="15"/>
-      <c r="DY21" s="15"/>
-      <c r="DZ21" s="15"/>
-      <c r="EA21" s="15"/>
-      <c r="EB21" s="15"/>
-      <c r="EC21" s="15"/>
-      <c r="ED21" s="15"/>
-      <c r="EE21" s="15"/>
-      <c r="EF21" s="15"/>
-      <c r="EG21" s="15"/>
-      <c r="EH21" s="15"/>
-      <c r="EI21" s="15"/>
-      <c r="EJ21" s="15"/>
-      <c r="EK21" s="15"/>
-      <c r="EL21" s="15"/>
-      <c r="EM21" s="15"/>
-      <c r="EN21" s="15"/>
-      <c r="EO21" s="15"/>
-      <c r="EP21" s="15"/>
-      <c r="EQ21" s="15"/>
-      <c r="ER21" s="15"/>
-      <c r="ES21" s="15"/>
-      <c r="ET21" s="15"/>
-      <c r="EU21" s="15"/>
-      <c r="EV21" s="15"/>
-      <c r="EW21" s="15"/>
-      <c r="EX21" s="15"/>
-      <c r="EY21" s="15"/>
-      <c r="EZ21" s="15"/>
-      <c r="FA21" s="15"/>
-      <c r="FB21" s="15"/>
-      <c r="FC21" s="15"/>
-      <c r="FD21" s="15"/>
-      <c r="FE21" s="15"/>
-      <c r="FF21" s="15"/>
-      <c r="FG21" s="15"/>
-      <c r="FH21" s="15"/>
-      <c r="FI21" s="15"/>
-      <c r="FJ21" s="15"/>
-      <c r="FK21" s="15"/>
-      <c r="FL21" s="15"/>
-      <c r="FM21" s="15"/>
-      <c r="FN21" s="15"/>
-      <c r="FO21" s="15"/>
-      <c r="FP21" s="15"/>
-      <c r="FQ21" s="15"/>
-      <c r="FR21" s="15"/>
-      <c r="FS21" s="15"/>
-      <c r="FT21" s="15"/>
-      <c r="FU21" s="15"/>
-      <c r="FV21" s="15"/>
-      <c r="FW21" s="15"/>
-      <c r="FX21" s="15"/>
-      <c r="FY21" s="15"/>
-      <c r="FZ21" s="15"/>
-      <c r="GA21" s="15"/>
-      <c r="GB21" s="15"/>
-      <c r="GC21" s="15"/>
-      <c r="GD21" s="15"/>
-      <c r="GE21" s="15"/>
-      <c r="GF21" s="15"/>
-      <c r="GG21" s="15"/>
-      <c r="GH21" s="15"/>
-      <c r="GI21" s="15"/>
-      <c r="GJ21" s="15"/>
-      <c r="GK21" s="15"/>
-      <c r="GL21" s="15"/>
-      <c r="GM21" s="15"/>
-      <c r="GN21" s="15"/>
-      <c r="GO21" s="15"/>
-      <c r="GP21" s="15"/>
-      <c r="GQ21" s="15"/>
-      <c r="GR21" s="15"/>
-      <c r="GS21" s="15"/>
-      <c r="GT21" s="15"/>
-      <c r="GU21" s="15"/>
-      <c r="GV21" s="15"/>
-      <c r="GW21" s="15"/>
-      <c r="GX21" s="15"/>
-      <c r="GY21" s="15"/>
-      <c r="GZ21" s="15"/>
-      <c r="HA21" s="15"/>
-      <c r="HB21" s="15"/>
-      <c r="HC21" s="15"/>
-      <c r="HD21" s="15"/>
-      <c r="HE21" s="15"/>
-      <c r="HF21" s="15"/>
-      <c r="HG21" s="15"/>
-      <c r="HH21" s="15"/>
-      <c r="HI21" s="15"/>
-      <c r="HJ21" s="15"/>
-      <c r="HK21" s="15"/>
-      <c r="HL21" s="15"/>
-      <c r="HM21" s="15"/>
-      <c r="HN21" s="15"/>
-      <c r="HO21" s="15"/>
-      <c r="HP21" s="15"/>
-      <c r="HQ21" s="15"/>
-      <c r="HR21" s="15"/>
-      <c r="HS21" s="15"/>
-      <c r="HT21" s="15"/>
-      <c r="HU21" s="15"/>
-      <c r="HV21" s="15"/>
-      <c r="HW21" s="15"/>
-      <c r="HX21" s="15"/>
-      <c r="HY21" s="15"/>
-      <c r="HZ21" s="15"/>
-      <c r="IA21" s="15"/>
-      <c r="IB21" s="15"/>
-      <c r="IC21" s="15"/>
-      <c r="ID21" s="15"/>
-      <c r="IE21" s="15"/>
-      <c r="IF21" s="15"/>
-      <c r="IG21" s="15"/>
-      <c r="IH21" s="15"/>
-      <c r="II21" s="15"/>
-      <c r="IJ21" s="15"/>
-      <c r="IK21" s="15"/>
-      <c r="IL21" s="15"/>
-      <c r="IM21" s="15"/>
-      <c r="IN21" s="15"/>
-      <c r="IO21" s="15"/>
-      <c r="IP21" s="15"/>
-      <c r="IQ21" s="15"/>
-      <c r="IR21" s="15"/>
-      <c r="IS21" s="15"/>
-      <c r="IT21" s="15"/>
-      <c r="IU21" s="15"/>
-      <c r="IV21" s="15"/>
-      <c r="IW21" s="15"/>
-      <c r="IX21" s="15"/>
-      <c r="IY21" s="15"/>
-      <c r="IZ21" s="15"/>
-      <c r="JA21" s="15"/>
-      <c r="JB21" s="15"/>
-      <c r="JC21" s="15"/>
-      <c r="JD21" s="15"/>
-      <c r="JE21" s="15"/>
-      <c r="JF21" s="15"/>
-      <c r="JG21" s="15"/>
-      <c r="JH21" s="15"/>
-      <c r="JI21" s="15"/>
-      <c r="JJ21" s="15"/>
-      <c r="JK21" s="15"/>
-      <c r="JL21" s="15"/>
-      <c r="JM21" s="15"/>
-      <c r="JN21" s="15"/>
-      <c r="JO21" s="15"/>
-      <c r="JP21" s="15"/>
-      <c r="JQ21" s="15"/>
-      <c r="JR21" s="15"/>
-      <c r="JS21" s="15"/>
-      <c r="JT21" s="15"/>
-      <c r="JU21" s="15"/>
-      <c r="JV21" s="15"/>
-      <c r="JW21" s="15"/>
-      <c r="JX21" s="15"/>
-      <c r="JY21" s="15"/>
-      <c r="JZ21" s="15"/>
-      <c r="KA21" s="15"/>
-      <c r="KB21" s="15"/>
-      <c r="KC21" s="15"/>
-      <c r="KD21" s="15"/>
-      <c r="KE21" s="15"/>
-      <c r="KF21" s="15"/>
-      <c r="KG21" s="15"/>
-      <c r="KH21" s="15"/>
-      <c r="KI21" s="15"/>
-      <c r="KJ21" s="15"/>
-      <c r="KK21" s="15"/>
-      <c r="KL21" s="15"/>
-      <c r="KM21" s="15"/>
-      <c r="KN21" s="15"/>
-      <c r="KO21" s="15"/>
-      <c r="KP21" s="15"/>
-      <c r="KQ21" s="15"/>
-      <c r="KR21" s="15"/>
-      <c r="KS21" s="15"/>
-      <c r="KT21" s="15"/>
-      <c r="KU21" s="15"/>
-      <c r="KV21" s="15"/>
-      <c r="KW21" s="15"/>
-      <c r="KX21" s="15"/>
-      <c r="KY21" s="15"/>
-      <c r="KZ21" s="15"/>
-      <c r="LA21" s="15"/>
-      <c r="LB21" s="15"/>
-      <c r="LC21" s="15"/>
-      <c r="LD21" s="15"/>
-      <c r="LE21" s="15"/>
-      <c r="LF21" s="15"/>
-      <c r="LG21" s="15"/>
-      <c r="LH21" s="15"/>
-      <c r="LI21" s="15"/>
-      <c r="LJ21" s="15"/>
-      <c r="LK21" s="15"/>
-      <c r="LL21" s="15"/>
-      <c r="LM21" s="15"/>
-      <c r="LN21" s="15"/>
-      <c r="LO21" s="15"/>
-      <c r="LP21" s="15"/>
-      <c r="LQ21" s="15"/>
-      <c r="LR21" s="15"/>
-      <c r="LS21" s="15"/>
-      <c r="LT21" s="15"/>
-      <c r="LU21" s="15"/>
-      <c r="LV21" s="15"/>
-      <c r="LW21" s="15"/>
-      <c r="LX21" s="15"/>
-      <c r="LY21" s="15"/>
-      <c r="LZ21" s="15"/>
-      <c r="MA21" s="15"/>
-      <c r="MB21" s="15"/>
-      <c r="MC21" s="15"/>
-      <c r="MD21" s="15"/>
-      <c r="ME21" s="15"/>
-      <c r="MF21" s="15"/>
-      <c r="MG21" s="15"/>
-      <c r="MH21" s="15"/>
-      <c r="MI21" s="15"/>
-      <c r="MJ21" s="15"/>
-      <c r="MK21" s="15"/>
-      <c r="ML21" s="15"/>
-      <c r="MM21" s="15"/>
-      <c r="MN21" s="15"/>
-      <c r="MO21" s="15"/>
-      <c r="MP21" s="15"/>
-      <c r="MQ21" s="15"/>
-      <c r="MR21" s="15"/>
-      <c r="MS21" s="15"/>
-      <c r="MT21" s="15"/>
-      <c r="MU21" s="15"/>
-      <c r="MV21" s="15"/>
-      <c r="MW21" s="15"/>
-      <c r="MX21" s="15"/>
-      <c r="MY21" s="15"/>
-      <c r="MZ21" s="15"/>
-      <c r="NA21" s="15"/>
-      <c r="NB21" s="15"/>
-      <c r="NC21" s="15"/>
-      <c r="ND21" s="15"/>
-      <c r="NE21" s="15"/>
-      <c r="NF21" s="15"/>
-      <c r="NG21" s="15"/>
-      <c r="NH21" s="15"/>
-      <c r="NI21" s="15"/>
-      <c r="NJ21" s="15"/>
-      <c r="NK21" s="15"/>
-      <c r="NL21" s="15"/>
-      <c r="NM21" s="15"/>
-      <c r="NN21" s="15"/>
-      <c r="NO21" s="15"/>
-      <c r="NP21" s="15"/>
-      <c r="NQ21" s="15"/>
-      <c r="NR21" s="15"/>
-      <c r="NS21" s="15"/>
-      <c r="NT21" s="15"/>
-      <c r="NU21" s="15"/>
-      <c r="NV21" s="15"/>
-      <c r="NW21" s="15"/>
-      <c r="NX21" s="15"/>
-      <c r="NY21" s="15"/>
-      <c r="NZ21" s="15"/>
-      <c r="OA21" s="15"/>
-      <c r="OB21" s="15"/>
-      <c r="OC21" s="15"/>
-      <c r="OD21" s="15"/>
-      <c r="OE21" s="15"/>
-      <c r="OF21" s="15"/>
-      <c r="OG21" s="15"/>
-      <c r="OH21" s="15"/>
-      <c r="OI21" s="15"/>
-      <c r="OJ21" s="15"/>
-      <c r="OK21" s="15"/>
-      <c r="OL21" s="15"/>
-      <c r="OM21" s="15"/>
-      <c r="ON21" s="15"/>
-      <c r="OO21" s="15"/>
-      <c r="OP21" s="15"/>
-      <c r="OQ21" s="15"/>
-      <c r="OR21" s="15"/>
-      <c r="OS21" s="15"/>
-      <c r="OT21" s="15"/>
-      <c r="OU21" s="15"/>
-      <c r="OV21" s="15"/>
-      <c r="OW21" s="15"/>
-      <c r="OX21" s="15"/>
-      <c r="OY21" s="15"/>
-      <c r="OZ21" s="15"/>
-      <c r="PA21" s="15"/>
-      <c r="PB21" s="15"/>
-      <c r="PC21" s="15"/>
-      <c r="PD21" s="15"/>
-      <c r="PE21" s="15"/>
-      <c r="PF21" s="15"/>
-      <c r="PG21" s="15"/>
-      <c r="PH21" s="15"/>
-      <c r="PI21" s="15"/>
-      <c r="PJ21" s="15"/>
-      <c r="PK21" s="15"/>
-      <c r="PL21" s="15"/>
-      <c r="PM21" s="15"/>
-      <c r="PN21" s="15"/>
-      <c r="PO21" s="15"/>
-      <c r="PP21" s="15"/>
-      <c r="PQ21" s="15"/>
-      <c r="PR21" s="15"/>
-      <c r="PS21" s="15"/>
-      <c r="PT21" s="15"/>
-      <c r="PU21" s="15"/>
-      <c r="PV21" s="15"/>
-      <c r="PW21" s="15"/>
-      <c r="PX21" s="15"/>
-      <c r="PY21" s="15"/>
-      <c r="PZ21" s="15"/>
-      <c r="QA21" s="15"/>
-      <c r="QB21" s="15"/>
-      <c r="QC21" s="15"/>
-      <c r="QD21" s="15"/>
-      <c r="QE21" s="15"/>
-      <c r="QF21" s="15"/>
-      <c r="QG21" s="15"/>
-      <c r="QH21" s="15"/>
-      <c r="QI21" s="15"/>
-      <c r="QJ21" s="15"/>
-      <c r="QK21" s="15"/>
-      <c r="QL21" s="15"/>
-      <c r="QM21" s="15"/>
-      <c r="QN21" s="15"/>
-      <c r="QO21" s="15"/>
-      <c r="QP21" s="15"/>
-      <c r="QQ21" s="15"/>
-      <c r="QR21" s="15"/>
-      <c r="QS21" s="15"/>
-      <c r="QT21" s="15"/>
-      <c r="QU21" s="15"/>
-      <c r="QV21" s="15"/>
-      <c r="QW21" s="15"/>
-      <c r="QX21" s="15"/>
-      <c r="QY21" s="15"/>
-      <c r="QZ21" s="15"/>
-      <c r="RA21" s="15"/>
-      <c r="RB21" s="15"/>
-      <c r="RC21" s="15"/>
-      <c r="RD21" s="15"/>
-      <c r="RE21" s="15"/>
-      <c r="RF21" s="15"/>
-      <c r="RG21" s="15"/>
-      <c r="RH21" s="15"/>
-      <c r="RI21" s="15"/>
-      <c r="RJ21" s="15"/>
-      <c r="RK21" s="15"/>
-      <c r="RL21" s="15"/>
-      <c r="RM21" s="15"/>
-      <c r="RN21" s="15"/>
-      <c r="RO21" s="15"/>
-      <c r="RP21" s="15"/>
-      <c r="RQ21" s="15"/>
-      <c r="RR21" s="15"/>
-      <c r="RS21" s="15"/>
-      <c r="RT21" s="15"/>
-      <c r="RU21" s="15"/>
-      <c r="RV21" s="15"/>
-      <c r="RW21" s="15"/>
-      <c r="RX21" s="15"/>
-      <c r="RY21" s="15"/>
-      <c r="RZ21" s="15"/>
-      <c r="SA21" s="15"/>
-      <c r="SB21" s="15"/>
-      <c r="SC21" s="15"/>
-      <c r="SD21" s="15"/>
-      <c r="SE21" s="15"/>
-      <c r="SF21" s="15"/>
-      <c r="SG21" s="15"/>
-      <c r="SH21" s="15"/>
-      <c r="SI21" s="15"/>
-      <c r="SJ21" s="15"/>
-      <c r="SK21" s="15"/>
-      <c r="SL21" s="15"/>
-      <c r="SM21" s="15"/>
-      <c r="SN21" s="15"/>
-      <c r="SO21" s="15"/>
-      <c r="SP21" s="15"/>
-      <c r="SQ21" s="15"/>
-      <c r="SR21" s="15"/>
-      <c r="SS21" s="15"/>
-      <c r="ST21" s="15"/>
-      <c r="SU21" s="15"/>
-      <c r="SV21" s="15"/>
-      <c r="SW21" s="15"/>
-      <c r="SX21" s="15"/>
-      <c r="SY21" s="15"/>
-      <c r="SZ21" s="15"/>
-      <c r="TA21" s="15"/>
-      <c r="TB21" s="15"/>
-      <c r="TC21" s="15"/>
-      <c r="TD21" s="15"/>
-      <c r="TE21" s="15"/>
-      <c r="TF21" s="15"/>
-      <c r="TG21" s="15"/>
-      <c r="TH21" s="15"/>
-      <c r="TI21" s="15"/>
-      <c r="TJ21" s="15"/>
-      <c r="TK21" s="15"/>
-      <c r="TL21" s="15"/>
-      <c r="TM21" s="15"/>
-      <c r="TN21" s="15"/>
-      <c r="TO21" s="15"/>
-      <c r="TP21" s="15"/>
-      <c r="TQ21" s="15"/>
-      <c r="TR21" s="15"/>
-      <c r="TS21" s="15"/>
-      <c r="TT21" s="15"/>
-      <c r="TU21" s="15"/>
-      <c r="TV21" s="15"/>
-      <c r="TW21" s="15"/>
-      <c r="TX21" s="15"/>
-      <c r="TY21" s="15"/>
-      <c r="TZ21" s="15"/>
-      <c r="UA21" s="15"/>
-      <c r="UB21" s="15"/>
-      <c r="UC21" s="15"/>
-      <c r="UD21" s="15"/>
-      <c r="UE21" s="15"/>
-      <c r="UF21" s="15"/>
-      <c r="UG21" s="15"/>
-      <c r="UH21" s="15"/>
-      <c r="UI21" s="15"/>
-      <c r="UJ21" s="15"/>
-      <c r="UK21" s="15"/>
-      <c r="UL21" s="15"/>
-      <c r="UM21" s="15"/>
-      <c r="UN21" s="15"/>
-      <c r="UO21" s="15"/>
-      <c r="UP21" s="15"/>
-      <c r="UQ21" s="15"/>
-      <c r="UR21" s="15"/>
-      <c r="US21" s="15"/>
-      <c r="UT21" s="15"/>
-      <c r="UU21" s="15"/>
-      <c r="UV21" s="15"/>
-      <c r="UW21" s="15"/>
-      <c r="UX21" s="15"/>
-      <c r="UY21" s="15"/>
-      <c r="UZ21" s="15"/>
-      <c r="VA21" s="15"/>
-      <c r="VB21" s="15"/>
-      <c r="VC21" s="15"/>
-      <c r="VD21" s="15"/>
-      <c r="VE21" s="15"/>
-      <c r="VF21" s="15"/>
-      <c r="VG21" s="15"/>
-      <c r="VH21" s="15"/>
-      <c r="VI21" s="15"/>
-      <c r="VJ21" s="15"/>
-      <c r="VK21" s="15"/>
-      <c r="VL21" s="15"/>
-      <c r="VM21" s="15"/>
-      <c r="VN21" s="15"/>
-      <c r="VO21" s="15"/>
-      <c r="VP21" s="15"/>
-      <c r="VQ21" s="15"/>
-      <c r="VR21" s="15"/>
-      <c r="VS21" s="15"/>
-      <c r="VT21" s="15"/>
-      <c r="VU21" s="15"/>
-      <c r="VV21" s="15"/>
-      <c r="VW21" s="15"/>
-      <c r="VX21" s="15"/>
-      <c r="VY21" s="15"/>
-      <c r="VZ21" s="15"/>
-      <c r="WA21" s="15"/>
-      <c r="WB21" s="15"/>
-      <c r="WC21" s="15"/>
-      <c r="WD21" s="15"/>
-      <c r="WE21" s="15"/>
-      <c r="WF21" s="15"/>
-      <c r="WG21" s="15"/>
-      <c r="WH21" s="15"/>
-      <c r="WI21" s="15"/>
-      <c r="WJ21" s="15"/>
-      <c r="WK21" s="15"/>
-      <c r="WL21" s="15"/>
-      <c r="WM21" s="15"/>
-      <c r="WN21" s="15"/>
-      <c r="WO21" s="15"/>
-      <c r="WP21" s="15"/>
-      <c r="WQ21" s="15"/>
-      <c r="WR21" s="15"/>
-      <c r="WS21" s="15"/>
-      <c r="WT21" s="15"/>
-      <c r="WU21" s="15"/>
-      <c r="WV21" s="15"/>
-      <c r="WW21" s="15"/>
-      <c r="WX21" s="15"/>
-      <c r="WY21" s="15"/>
-      <c r="WZ21" s="15"/>
-      <c r="XA21" s="15"/>
-      <c r="XB21" s="15"/>
-      <c r="XC21" s="15"/>
-      <c r="XD21" s="15"/>
-      <c r="XE21" s="15"/>
-      <c r="XF21" s="15"/>
-      <c r="XG21" s="15"/>
-      <c r="XH21" s="15"/>
-      <c r="XI21" s="15"/>
-      <c r="XJ21" s="15"/>
-      <c r="XK21" s="15"/>
-      <c r="XL21" s="15"/>
-      <c r="XM21" s="15"/>
-      <c r="XN21" s="15"/>
-      <c r="XO21" s="15"/>
-      <c r="XP21" s="15"/>
-      <c r="XQ21" s="15"/>
-      <c r="XR21" s="15"/>
-      <c r="XS21" s="15"/>
-      <c r="XT21" s="15"/>
-      <c r="XU21" s="15"/>
-      <c r="XV21" s="15"/>
-      <c r="XW21" s="15"/>
-      <c r="XX21" s="15"/>
-      <c r="XY21" s="15"/>
-      <c r="XZ21" s="15"/>
-      <c r="YA21" s="15"/>
-      <c r="YB21" s="15"/>
-      <c r="YC21" s="15"/>
-      <c r="YD21" s="15"/>
-      <c r="YE21" s="15"/>
-      <c r="YF21" s="15"/>
-      <c r="YG21" s="15"/>
-      <c r="YH21" s="15"/>
-      <c r="YI21" s="15"/>
-      <c r="YJ21" s="15"/>
-      <c r="YK21" s="15"/>
-      <c r="YL21" s="15"/>
-      <c r="YM21" s="15"/>
-      <c r="YN21" s="15"/>
-      <c r="YO21" s="15"/>
-      <c r="YP21" s="15"/>
-      <c r="YQ21" s="15"/>
-      <c r="YR21" s="15"/>
-      <c r="YS21" s="15"/>
-      <c r="YT21" s="15"/>
-      <c r="YU21" s="15"/>
-      <c r="YV21" s="15"/>
-      <c r="YW21" s="15"/>
-      <c r="YX21" s="15"/>
-      <c r="YY21" s="15"/>
-      <c r="YZ21" s="15"/>
-      <c r="ZA21" s="15"/>
-      <c r="ZB21" s="15"/>
-      <c r="ZC21" s="15"/>
-      <c r="ZD21" s="15"/>
-      <c r="ZE21" s="15"/>
-      <c r="ZF21" s="15"/>
-      <c r="ZG21" s="15"/>
-      <c r="ZH21" s="15"/>
-      <c r="ZI21" s="15"/>
-      <c r="ZJ21" s="15"/>
-      <c r="ZK21" s="15"/>
-      <c r="ZL21" s="15"/>
-      <c r="ZM21" s="15"/>
-      <c r="ZN21" s="15"/>
-      <c r="ZO21" s="15"/>
-      <c r="ZP21" s="15"/>
-      <c r="ZQ21" s="15"/>
-      <c r="ZR21" s="15"/>
-      <c r="ZS21" s="15"/>
-      <c r="ZT21" s="15"/>
-      <c r="ZU21" s="15"/>
-      <c r="ZV21" s="15"/>
-      <c r="ZW21" s="15"/>
-      <c r="ZX21" s="15"/>
-      <c r="ZY21" s="15"/>
-      <c r="ZZ21" s="15"/>
-      <c r="AAA21" s="15"/>
-      <c r="AAB21" s="15"/>
-      <c r="AAC21" s="15"/>
-      <c r="AAD21" s="15"/>
-      <c r="AAE21" s="15"/>
-      <c r="AAF21" s="15"/>
-      <c r="AAG21" s="15"/>
-      <c r="AAH21" s="15"/>
-      <c r="AAI21" s="15"/>
-      <c r="AAJ21" s="15"/>
-      <c r="AAK21" s="15"/>
-      <c r="AAL21" s="15"/>
-      <c r="AAM21" s="15"/>
-      <c r="AAN21" s="15"/>
-      <c r="AAO21" s="15"/>
-      <c r="AAP21" s="15"/>
-      <c r="AAQ21" s="15"/>
-      <c r="AAR21" s="15"/>
-      <c r="AAS21" s="15"/>
-      <c r="AAT21" s="15"/>
-      <c r="AAU21" s="15"/>
-      <c r="AAV21" s="15"/>
-      <c r="AAW21" s="15"/>
-      <c r="AAX21" s="15"/>
-      <c r="AAY21" s="15"/>
-      <c r="AAZ21" s="15"/>
-      <c r="ABA21" s="15"/>
-      <c r="ABB21" s="15"/>
-      <c r="ABC21" s="15"/>
-      <c r="ABD21" s="15"/>
-      <c r="ABE21" s="15"/>
-      <c r="ABF21" s="15"/>
-      <c r="ABG21" s="15"/>
-      <c r="ABH21" s="15"/>
-      <c r="ABI21" s="15"/>
-      <c r="ABJ21" s="15"/>
-      <c r="ABK21" s="15"/>
-      <c r="ABL21" s="15"/>
-      <c r="ABM21" s="15"/>
-      <c r="ABN21" s="15"/>
-      <c r="ABO21" s="15"/>
-      <c r="ABP21" s="15"/>
-      <c r="ABQ21" s="15"/>
-      <c r="ABR21" s="15"/>
-      <c r="ABS21" s="15"/>
-      <c r="ABT21" s="15"/>
-      <c r="ABU21" s="15"/>
-      <c r="ABV21" s="15"/>
-      <c r="ABW21" s="15"/>
-      <c r="ABX21" s="15"/>
-      <c r="ABY21" s="15"/>
-      <c r="ABZ21" s="15"/>
-      <c r="ACA21" s="15"/>
-      <c r="ACB21" s="15"/>
-      <c r="ACC21" s="15"/>
-      <c r="ACD21" s="15"/>
-      <c r="ACE21" s="15"/>
-      <c r="ACF21" s="15"/>
-      <c r="ACG21" s="15"/>
-      <c r="ACH21" s="15"/>
-      <c r="ACI21" s="15"/>
-      <c r="ACJ21" s="15"/>
-      <c r="ACK21" s="15"/>
-      <c r="ACL21" s="15"/>
-      <c r="ACM21" s="15"/>
-      <c r="ACN21" s="15"/>
-      <c r="ACO21" s="15"/>
-      <c r="ACP21" s="15"/>
-      <c r="ACQ21" s="15"/>
-      <c r="ACR21" s="15"/>
-      <c r="ACS21" s="15"/>
-      <c r="ACT21" s="15"/>
-      <c r="ACU21" s="15"/>
-      <c r="ACV21" s="15"/>
-      <c r="ACW21" s="15"/>
-      <c r="ACX21" s="15"/>
-      <c r="ACY21" s="15"/>
-      <c r="ACZ21" s="15"/>
-      <c r="ADA21" s="15"/>
-      <c r="ADB21" s="15"/>
-      <c r="ADC21" s="15"/>
-      <c r="ADD21" s="15"/>
-      <c r="ADE21" s="15"/>
-      <c r="ADF21" s="15"/>
-      <c r="ADG21" s="15"/>
-      <c r="ADH21" s="15"/>
-      <c r="ADI21" s="15"/>
-      <c r="ADJ21" s="15"/>
-      <c r="ADK21" s="15"/>
-      <c r="ADL21" s="15"/>
-      <c r="ADM21" s="15"/>
-      <c r="ADN21" s="15"/>
-      <c r="ADO21" s="15"/>
-      <c r="ADP21" s="15"/>
-      <c r="ADQ21" s="15"/>
-      <c r="ADR21" s="15"/>
-      <c r="ADS21" s="15"/>
-      <c r="ADT21" s="15"/>
-      <c r="ADU21" s="15"/>
-      <c r="ADV21" s="15"/>
-      <c r="ADW21" s="15"/>
-      <c r="ADX21" s="15"/>
-      <c r="ADY21" s="15"/>
-      <c r="ADZ21" s="15"/>
-      <c r="AEA21" s="15"/>
-      <c r="AEB21" s="15"/>
-      <c r="AEC21" s="15"/>
-      <c r="AED21" s="15"/>
-      <c r="AEE21" s="15"/>
-      <c r="AEF21" s="15"/>
-      <c r="AEG21" s="15"/>
-      <c r="AEH21" s="15"/>
-      <c r="AEI21" s="15"/>
-      <c r="AEJ21" s="15"/>
-      <c r="AEK21" s="15"/>
-      <c r="AEL21" s="15"/>
-      <c r="AEM21" s="15"/>
-      <c r="AEN21" s="15"/>
-      <c r="AEO21" s="15"/>
-      <c r="AEP21" s="15"/>
-      <c r="AEQ21" s="15"/>
-      <c r="AER21" s="15"/>
-      <c r="AES21" s="15"/>
-      <c r="AET21" s="15"/>
-      <c r="AEU21" s="15"/>
-      <c r="AEV21" s="15"/>
-      <c r="AEW21" s="15"/>
-      <c r="AEX21" s="15"/>
-      <c r="AEY21" s="15"/>
-      <c r="AEZ21" s="15"/>
-      <c r="AFA21" s="15"/>
-      <c r="AFB21" s="15"/>
-      <c r="AFC21" s="15"/>
-      <c r="AFD21" s="15"/>
-      <c r="AFE21" s="15"/>
-      <c r="AFF21" s="15"/>
-      <c r="AFG21" s="15"/>
-      <c r="AFH21" s="15"/>
-      <c r="AFI21" s="15"/>
-      <c r="AFJ21" s="15"/>
-      <c r="AFK21" s="15"/>
-      <c r="AFL21" s="15"/>
-      <c r="AFM21" s="15"/>
-      <c r="AFN21" s="15"/>
-      <c r="AFO21" s="15"/>
-      <c r="AFP21" s="15"/>
-      <c r="AFQ21" s="15"/>
-      <c r="AFR21" s="15"/>
-      <c r="AFS21" s="15"/>
-      <c r="AFT21" s="15"/>
-      <c r="AFU21" s="15"/>
-      <c r="AFV21" s="15"/>
-      <c r="AFW21" s="15"/>
-      <c r="AFX21" s="15"/>
-      <c r="AFY21" s="15"/>
-      <c r="AFZ21" s="15"/>
-      <c r="AGA21" s="15"/>
-      <c r="AGB21" s="15"/>
-      <c r="AGC21" s="15"/>
-      <c r="AGD21" s="15"/>
-      <c r="AGE21" s="15"/>
-      <c r="AGF21" s="15"/>
-      <c r="AGG21" s="15"/>
-      <c r="AGH21" s="15"/>
-      <c r="AGI21" s="15"/>
-      <c r="AGJ21" s="15"/>
-      <c r="AGK21" s="15"/>
-      <c r="AGL21" s="15"/>
-      <c r="AGM21" s="15"/>
-      <c r="AGN21" s="15"/>
-      <c r="AGO21" s="15"/>
-      <c r="AGP21" s="15"/>
-      <c r="AGQ21" s="15"/>
-      <c r="AGR21" s="15"/>
-      <c r="AGS21" s="15"/>
-      <c r="AGT21" s="15"/>
-      <c r="AGU21" s="15"/>
-      <c r="AGV21" s="15"/>
-      <c r="AGW21" s="15"/>
-      <c r="AGX21" s="15"/>
-      <c r="AGY21" s="15"/>
-      <c r="AGZ21" s="15"/>
-      <c r="AHA21" s="15"/>
-      <c r="AHB21" s="15"/>
-      <c r="AHC21" s="15"/>
-      <c r="AHD21" s="15"/>
-      <c r="AHE21" s="15"/>
-      <c r="AHF21" s="15"/>
-      <c r="AHG21" s="15"/>
-      <c r="AHH21" s="15"/>
-      <c r="AHI21" s="15"/>
-      <c r="AHJ21" s="15"/>
-      <c r="AHK21" s="15"/>
-      <c r="AHL21" s="15"/>
-      <c r="AHM21" s="15"/>
-      <c r="AHN21" s="15"/>
-      <c r="AHO21" s="15"/>
-      <c r="AHP21" s="15"/>
-      <c r="AHQ21" s="15"/>
-      <c r="AHR21" s="15"/>
-      <c r="AHS21" s="15"/>
-      <c r="AHT21" s="15"/>
-      <c r="AHU21" s="15"/>
-      <c r="AHV21" s="15"/>
-      <c r="AHW21" s="15"/>
-      <c r="AHX21" s="15"/>
-      <c r="AHY21" s="15"/>
-      <c r="AHZ21" s="15"/>
-      <c r="AIA21" s="15"/>
-      <c r="AIB21" s="15"/>
-      <c r="AIC21" s="15"/>
-      <c r="AID21" s="15"/>
-      <c r="AIE21" s="15"/>
-      <c r="AIF21" s="15"/>
-      <c r="AIG21" s="15"/>
-      <c r="AIH21" s="15"/>
-      <c r="AII21" s="15"/>
-      <c r="AIJ21" s="15"/>
-      <c r="AIK21" s="15"/>
-      <c r="AIL21" s="15"/>
-      <c r="AIM21" s="15"/>
-      <c r="AIN21" s="15"/>
-      <c r="AIO21" s="15"/>
-      <c r="AIP21" s="15"/>
-      <c r="AIQ21" s="15"/>
-      <c r="AIR21" s="15"/>
-      <c r="AIS21" s="15"/>
-      <c r="AIT21" s="15"/>
-      <c r="AIU21" s="15"/>
-      <c r="AIV21" s="15"/>
-      <c r="AIW21" s="15"/>
-      <c r="AIX21" s="15"/>
-      <c r="AIY21" s="15"/>
-      <c r="AIZ21" s="15"/>
-      <c r="AJA21" s="15"/>
-      <c r="AJB21" s="15"/>
-      <c r="AJC21" s="15"/>
-      <c r="AJD21" s="15"/>
-      <c r="AJE21" s="15"/>
-      <c r="AJF21" s="15"/>
-      <c r="AJG21" s="15"/>
-      <c r="AJH21" s="15"/>
-      <c r="AJI21" s="15"/>
-      <c r="AJJ21" s="15"/>
-      <c r="AJK21" s="15"/>
-      <c r="AJL21" s="15"/>
-      <c r="AJM21" s="15"/>
-      <c r="AJN21" s="15"/>
-      <c r="AJO21" s="15"/>
-      <c r="AJP21" s="15"/>
-      <c r="AJQ21" s="15"/>
-      <c r="AJR21" s="15"/>
-      <c r="AJS21" s="15"/>
-      <c r="AJT21" s="15"/>
-      <c r="AJU21" s="15"/>
-      <c r="AJV21" s="15"/>
-      <c r="AJW21" s="15"/>
-      <c r="AJX21" s="15"/>
-      <c r="AJY21" s="15"/>
-      <c r="AJZ21" s="15"/>
-      <c r="AKA21" s="15"/>
-      <c r="AKB21" s="15"/>
-      <c r="AKC21" s="15"/>
-      <c r="AKD21" s="15"/>
-      <c r="AKE21" s="15"/>
-      <c r="AKF21" s="15"/>
-      <c r="AKG21" s="15"/>
-      <c r="AKH21" s="15"/>
-      <c r="AKI21" s="15"/>
-      <c r="AKJ21" s="15"/>
-      <c r="AKK21" s="15"/>
-      <c r="AKL21" s="15"/>
-      <c r="AKM21" s="15"/>
-      <c r="AKN21" s="15"/>
-      <c r="AKO21" s="15"/>
-      <c r="AKP21" s="15"/>
-      <c r="AKQ21" s="15"/>
-      <c r="AKR21" s="15"/>
-      <c r="AKS21" s="15"/>
-      <c r="AKT21" s="15"/>
-      <c r="AKU21" s="15"/>
-      <c r="AKV21" s="15"/>
-      <c r="AKW21" s="15"/>
-      <c r="AKX21" s="15"/>
-      <c r="AKY21" s="15"/>
-      <c r="AKZ21" s="15"/>
-      <c r="ALA21" s="15"/>
-      <c r="ALB21" s="15"/>
-      <c r="ALC21" s="15"/>
-      <c r="ALD21" s="15"/>
-      <c r="ALE21" s="15"/>
-      <c r="ALF21" s="15"/>
-      <c r="ALG21" s="15"/>
-      <c r="ALH21" s="15"/>
-      <c r="ALI21" s="15"/>
-      <c r="ALJ21" s="15"/>
-      <c r="ALK21" s="15"/>
-      <c r="ALL21" s="15"/>
-      <c r="ALM21" s="15"/>
-      <c r="ALN21" s="15"/>
-      <c r="ALO21" s="15"/>
-      <c r="ALP21" s="15"/>
-      <c r="ALQ21" s="15"/>
-      <c r="ALR21" s="15"/>
-      <c r="ALS21" s="15"/>
-      <c r="ALT21" s="15"/>
-      <c r="ALU21" s="15"/>
-      <c r="ALV21" s="15"/>
-      <c r="ALW21" s="15"/>
-      <c r="ALX21" s="15"/>
-      <c r="ALY21" s="15"/>
-      <c r="ALZ21" s="15"/>
-      <c r="AMA21" s="15"/>
-      <c r="AMB21" s="15"/>
-      <c r="AMC21" s="15"/>
-      <c r="AMD21" s="15"/>
-      <c r="AME21" s="15"/>
-      <c r="AMF21" s="15"/>
-      <c r="AMG21" s="15"/>
-      <c r="AMH21" s="15"/>
-      <c r="AMI21" s="15"/>
-      <c r="AMJ21" s="15"/>
-      <c r="AMK21" s="15"/>
+      <c r="AR21" s="53"/>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
+      <c r="BC21" s="55"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="55"/>
+      <c r="BJ21" s="55"/>
+      <c r="BK21" s="55"/>
+      <c r="BL21" s="55"/>
+      <c r="BM21" s="55"/>
+      <c r="BN21" s="55"/>
+      <c r="BO21" s="55"/>
+      <c r="BP21" s="55"/>
+      <c r="BQ21" s="56"/>
+      <c r="BR21" s="56"/>
+      <c r="BS21" s="56"/>
+      <c r="BT21" s="56"/>
+      <c r="BU21" s="56"/>
+      <c r="BV21" s="56"/>
+      <c r="BW21" s="56"/>
+      <c r="BX21" s="56"/>
+      <c r="BY21" s="56"/>
+      <c r="BZ21" s="56"/>
+      <c r="CA21" s="56"/>
+      <c r="CB21" s="56"/>
+      <c r="CC21" s="56"/>
+      <c r="CD21" s="56"/>
+      <c r="CE21" s="56"/>
+      <c r="CF21" s="56"/>
+      <c r="CG21" s="56"/>
+      <c r="CH21" s="56"/>
+      <c r="CI21" s="56"/>
     </row>
     <row r="22" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="52"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="43"/>
       <c r="Y22" s="44"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="46"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="52"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="43"/>
       <c r="AH22" s="44"/>
       <c r="AI22" s="45"/>
       <c r="AJ22" s="46"/>
@@ -12052,141 +12008,53 @@
       <c r="AO22" s="42"/>
       <c r="AP22" s="42"/>
       <c r="AQ22" s="42"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="54"/>
-      <c r="AU22" s="55"/>
-      <c r="AV22" s="55"/>
-      <c r="AW22" s="55"/>
-      <c r="AX22" s="55"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="55"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="55"/>
-      <c r="BE22" s="55"/>
-      <c r="BF22" s="55"/>
-      <c r="BG22" s="55"/>
-      <c r="BH22" s="55"/>
-      <c r="BI22" s="55"/>
-      <c r="BJ22" s="55"/>
-      <c r="BK22" s="55"/>
-      <c r="BL22" s="55"/>
-      <c r="BM22" s="55"/>
-      <c r="BN22" s="55"/>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="55"/>
-      <c r="BQ22" s="56"/>
-      <c r="BR22" s="56"/>
-      <c r="BS22" s="56"/>
-      <c r="BT22" s="56"/>
-      <c r="BU22" s="56"/>
-      <c r="BV22" s="56"/>
-      <c r="BW22" s="56"/>
-      <c r="BX22" s="56"/>
-      <c r="BY22" s="56"/>
-      <c r="BZ22" s="56"/>
-      <c r="CA22" s="56"/>
-      <c r="CB22" s="56"/>
-      <c r="CC22" s="56"/>
-      <c r="CD22" s="56"/>
-      <c r="CE22" s="56"/>
-      <c r="CF22" s="56"/>
-      <c r="CG22" s="56"/>
-      <c r="CH22" s="56"/>
-      <c r="CI22" s="56"/>
-    </row>
-    <row r="23" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="43"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="45"/>
-      <c r="BL23" s="45"/>
-      <c r="BM23" s="45"/>
-      <c r="BN23" s="45"/>
-      <c r="BO23" s="45"/>
-      <c r="BP23" s="46"/>
-      <c r="BQ23" s="47"/>
-      <c r="BR23" s="48"/>
-      <c r="BS23" s="48"/>
-      <c r="BT23" s="48"/>
-      <c r="BU23" s="48"/>
-      <c r="BV23" s="48"/>
-      <c r="BW23" s="48"/>
-      <c r="BX23" s="48"/>
-      <c r="BY23" s="48"/>
-      <c r="BZ23" s="48"/>
-      <c r="CA23" s="48"/>
-      <c r="CB23" s="48"/>
-      <c r="CC23" s="48"/>
-      <c r="CD23" s="48"/>
-      <c r="CE23" s="48"/>
-      <c r="CF23" s="48"/>
-      <c r="CG23" s="48"/>
-      <c r="CH23" s="48"/>
-      <c r="CI23" s="49"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="45"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="45"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="44"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="45"/>
+      <c r="BI22" s="45"/>
+      <c r="BJ22" s="45"/>
+      <c r="BK22" s="45"/>
+      <c r="BL22" s="45"/>
+      <c r="BM22" s="45"/>
+      <c r="BN22" s="45"/>
+      <c r="BO22" s="45"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="47"/>
+      <c r="BR22" s="48"/>
+      <c r="BS22" s="48"/>
+      <c r="BT22" s="48"/>
+      <c r="BU22" s="48"/>
+      <c r="BV22" s="48"/>
+      <c r="BW22" s="48"/>
+      <c r="BX22" s="48"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="48"/>
+      <c r="CA22" s="48"/>
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="48"/>
+      <c r="CD22" s="48"/>
+      <c r="CE22" s="48"/>
+      <c r="CF22" s="48"/>
+      <c r="CG22" s="48"/>
+      <c r="CH22" s="48"/>
+      <c r="CI22" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="166">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -12218,7 +12086,15 @@
     <mergeCell ref="AU7:BP7"/>
     <mergeCell ref="BQ7:CI7"/>
     <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
     <mergeCell ref="AU8:BD8"/>
     <mergeCell ref="BE8:BP8"/>
     <mergeCell ref="BQ8:CI8"/>
@@ -12228,16 +12104,6 @@
     <mergeCell ref="AB8:AG8"/>
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AK12:AT12"/>
     <mergeCell ref="E10:X10"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="AB10:AG10"/>
@@ -12246,23 +12112,7 @@
     <mergeCell ref="AU10:BD10"/>
     <mergeCell ref="BE10:BP10"/>
     <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="AU12:BD12"/>
     <mergeCell ref="BE12:BP12"/>
     <mergeCell ref="BQ12:CI12"/>
@@ -12270,34 +12120,35 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AG12"/>
     <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
     <mergeCell ref="BQ14:CI14"/>
     <mergeCell ref="E14:X14"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AB14:AG14"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="AU16:BD16"/>
     <mergeCell ref="BE16:BP16"/>
     <mergeCell ref="BQ16:CI16"/>
@@ -12308,6 +12159,23 @@
     <mergeCell ref="AK16:AT16"/>
     <mergeCell ref="AU15:BD15"/>
     <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
     <mergeCell ref="AU18:BD18"/>
     <mergeCell ref="BE18:BP18"/>
     <mergeCell ref="BQ18:CI18"/>
@@ -12326,15 +12194,15 @@
     <mergeCell ref="AB19:AG19"/>
     <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:X20"/>
     <mergeCell ref="Y20:AA20"/>
     <mergeCell ref="AB20:AG20"/>
     <mergeCell ref="AH20:AJ20"/>
     <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:X21"/>
     <mergeCell ref="Y21:AA21"/>
@@ -12353,15 +12221,6 @@
     <mergeCell ref="AU22:BD22"/>
     <mergeCell ref="BE22:BP22"/>
     <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290B96B-DBA6-43B9-8F75-11B1161BE100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8520C1-0256-4906-8541-6DDABE66A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -836,24 +836,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,23 +878,50 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -924,13 +933,31 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -941,26 +968,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -971,17 +992,38 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -992,35 +1034,29 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1055,107 +1091,71 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,15 +1249,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>205026</xdr:rowOff>
+      <xdr:rowOff>166926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1285,7 +1285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127000" y="1117600"/>
+          <a:off x="101600" y="1079500"/>
           <a:ext cx="7175500" cy="6237526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1563,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
@@ -1577,104 +1577,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="35" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="36" t="s">
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="37" t="s">
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2615,104 +2615,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="28" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="29">
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="23">
         <v>44510</v>
       </c>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="30" t="s">
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="31"/>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
-      <c r="CE2" s="31"/>
-      <c r="CF2" s="31"/>
-      <c r="CG2" s="31"/>
-      <c r="CH2" s="31"/>
-      <c r="CI2" s="31"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="25"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3740,196 +3740,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="20" t="s">
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BX4" s="20"/>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="21">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="23" t="s">
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="23"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="23"/>
-      <c r="BM5" s="23"/>
-      <c r="BN5" s="23"/>
-      <c r="BO5" s="23"/>
-      <c r="BP5" s="23"/>
-      <c r="BQ5" s="23"/>
-      <c r="BR5" s="23"/>
-      <c r="BS5" s="23"/>
-      <c r="BT5" s="23"/>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="23"/>
-      <c r="BW5" s="23"/>
-      <c r="BX5" s="23"/>
-      <c r="BY5" s="23"/>
-      <c r="BZ5" s="23"/>
-      <c r="CA5" s="23"/>
-      <c r="CB5" s="23"/>
-      <c r="CC5" s="23"/>
-      <c r="CD5" s="23"/>
-      <c r="CE5" s="23"/>
-      <c r="CF5" s="23"/>
-      <c r="CG5" s="23"/>
-      <c r="CH5" s="23"/>
-      <c r="CI5" s="23"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37"/>
+      <c r="CI5" s="37"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -6133,6 +6133,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -6147,14 +6155,6 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6171,7 +6171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BQ17" sqref="BQ17:CI17"/>
     </sheetView>
   </sheetViews>
@@ -6187,104 +6187,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="35" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="36" t="s">
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="37" t="s">
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -7225,104 +7225,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="28" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="29">
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="23">
         <v>44510</v>
       </c>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="30" t="s">
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="31"/>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
-      <c r="CE2" s="31"/>
-      <c r="CF2" s="31"/>
-      <c r="CG2" s="31"/>
-      <c r="CH2" s="31"/>
-      <c r="CI2" s="31"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="25"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -8350,681 +8350,681 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="20" t="s">
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BX4" s="20"/>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="21">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="23" t="s">
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="23"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="23"/>
-      <c r="BM5" s="23"/>
-      <c r="BN5" s="23"/>
-      <c r="BO5" s="23"/>
-      <c r="BP5" s="23"/>
-      <c r="BQ5" s="23"/>
-      <c r="BR5" s="23"/>
-      <c r="BS5" s="23"/>
-      <c r="BT5" s="23"/>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="23"/>
-      <c r="BW5" s="23"/>
-      <c r="BX5" s="23"/>
-      <c r="BY5" s="23"/>
-      <c r="BZ5" s="23"/>
-      <c r="CA5" s="23"/>
-      <c r="CB5" s="23"/>
-      <c r="CC5" s="23"/>
-      <c r="CD5" s="23"/>
-      <c r="CE5" s="23"/>
-      <c r="CF5" s="23"/>
-      <c r="CG5" s="23"/>
-      <c r="CH5" s="23"/>
-      <c r="CI5" s="23"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37"/>
+      <c r="CI5" s="37"/>
     </row>
     <row r="6" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116"/>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116"/>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116"/>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116"/>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="116"/>
-      <c r="BJ6" s="116"/>
-      <c r="BK6" s="116"/>
-      <c r="BL6" s="116"/>
-      <c r="BM6" s="116"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="116"/>
-      <c r="BP6" s="116"/>
-      <c r="BQ6" s="116"/>
-      <c r="BR6" s="116"/>
-      <c r="BS6" s="116"/>
-      <c r="BT6" s="116"/>
-      <c r="BU6" s="116"/>
-      <c r="BV6" s="116"/>
-      <c r="BW6" s="116"/>
-      <c r="BX6" s="116"/>
-      <c r="BY6" s="116"/>
-      <c r="BZ6" s="116"/>
-      <c r="CA6" s="116"/>
-      <c r="CB6" s="116"/>
-      <c r="CC6" s="116"/>
-      <c r="CD6" s="116"/>
-      <c r="CE6" s="116"/>
-      <c r="CF6" s="116"/>
-      <c r="CG6" s="116"/>
-      <c r="CH6" s="116"/>
-      <c r="CI6" s="116"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
+      <c r="BQ6" s="38"/>
+      <c r="BR6" s="38"/>
+      <c r="BS6" s="38"/>
+      <c r="BT6" s="38"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="38"/>
+      <c r="BW6" s="38"/>
+      <c r="BX6" s="38"/>
+      <c r="BY6" s="38"/>
+      <c r="BZ6" s="38"/>
+      <c r="CA6" s="38"/>
+      <c r="CB6" s="38"/>
+      <c r="CC6" s="38"/>
+      <c r="CD6" s="38"/>
+      <c r="CE6" s="38"/>
+      <c r="CF6" s="38"/>
+      <c r="CG6" s="38"/>
+      <c r="CH6" s="38"/>
+      <c r="CI6" s="38"/>
     </row>
     <row r="7" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="118" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="118" t="s">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="118" t="s">
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="118" t="s">
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="123"/>
-      <c r="AS7" s="123"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="121" t="s">
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="121"/>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="121"/>
-      <c r="BD7" s="121"/>
-      <c r="BE7" s="121"/>
-      <c r="BF7" s="121"/>
-      <c r="BG7" s="121"/>
-      <c r="BH7" s="121"/>
-      <c r="BI7" s="121"/>
-      <c r="BJ7" s="121"/>
-      <c r="BK7" s="121"/>
-      <c r="BL7" s="121"/>
-      <c r="BM7" s="121"/>
-      <c r="BN7" s="121"/>
-      <c r="BO7" s="121"/>
-      <c r="BP7" s="121"/>
-      <c r="BQ7" s="122" t="s">
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="122"/>
-      <c r="BS7" s="122"/>
-      <c r="BT7" s="122"/>
-      <c r="BU7" s="122"/>
-      <c r="BV7" s="122"/>
-      <c r="BW7" s="122"/>
-      <c r="BX7" s="122"/>
-      <c r="BY7" s="122"/>
-      <c r="BZ7" s="122"/>
-      <c r="CA7" s="122"/>
-      <c r="CB7" s="122"/>
-      <c r="CC7" s="122"/>
-      <c r="CD7" s="122"/>
-      <c r="CE7" s="122"/>
-      <c r="CF7" s="122"/>
-      <c r="CG7" s="122"/>
-      <c r="CH7" s="122"/>
-      <c r="CI7" s="122"/>
+      <c r="BR7" s="44"/>
+      <c r="BS7" s="44"/>
+      <c r="BT7" s="44"/>
+      <c r="BU7" s="44"/>
+      <c r="BV7" s="44"/>
+      <c r="BW7" s="44"/>
+      <c r="BX7" s="44"/>
+      <c r="BY7" s="44"/>
+      <c r="BZ7" s="44"/>
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="44"/>
+      <c r="CC7" s="44"/>
+      <c r="CD7" s="44"/>
+      <c r="CE7" s="44"/>
+      <c r="CF7" s="44"/>
+      <c r="CG7" s="44"/>
+      <c r="CH7" s="44"/>
+      <c r="CI7" s="44"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="60">
+      <c r="B8" s="67">
         <v>1</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="99" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="97"/>
-      <c r="BB8" s="97"/>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="97"/>
-      <c r="BG8" s="97"/>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="97"/>
-      <c r="BJ8" s="97"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="97"/>
-      <c r="BM8" s="97"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="97"/>
-      <c r="BP8" s="97"/>
-      <c r="BQ8" s="98"/>
-      <c r="BR8" s="98"/>
-      <c r="BS8" s="98"/>
-      <c r="BT8" s="98"/>
-      <c r="BU8" s="98"/>
-      <c r="BV8" s="98"/>
-      <c r="BW8" s="98"/>
-      <c r="BX8" s="98"/>
-      <c r="BY8" s="98"/>
-      <c r="BZ8" s="98"/>
-      <c r="CA8" s="98"/>
-      <c r="CB8" s="98"/>
-      <c r="CC8" s="98"/>
-      <c r="CD8" s="98"/>
-      <c r="CE8" s="98"/>
-      <c r="CF8" s="98"/>
-      <c r="CG8" s="98"/>
-      <c r="CH8" s="98"/>
-      <c r="CI8" s="98"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="65"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="65"/>
+      <c r="BG8" s="65"/>
+      <c r="BH8" s="65"/>
+      <c r="BI8" s="65"/>
+      <c r="BJ8" s="65"/>
+      <c r="BK8" s="65"/>
+      <c r="BL8" s="65"/>
+      <c r="BM8" s="65"/>
+      <c r="BN8" s="65"/>
+      <c r="BO8" s="65"/>
+      <c r="BP8" s="65"/>
+      <c r="BQ8" s="66"/>
+      <c r="BR8" s="66"/>
+      <c r="BS8" s="66"/>
+      <c r="BT8" s="66"/>
+      <c r="BU8" s="66"/>
+      <c r="BV8" s="66"/>
+      <c r="BW8" s="66"/>
+      <c r="BX8" s="66"/>
+      <c r="BY8" s="66"/>
+      <c r="BZ8" s="66"/>
+      <c r="CA8" s="66"/>
+      <c r="CB8" s="66"/>
+      <c r="CC8" s="66"/>
+      <c r="CD8" s="66"/>
+      <c r="CE8" s="66"/>
+      <c r="CF8" s="66"/>
+      <c r="CG8" s="66"/>
+      <c r="CH8" s="66"/>
+      <c r="CI8" s="66"/>
     </row>
     <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="38">
+      <c r="B9" s="56">
         <v>2</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="50" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="44" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="113" t="s">
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="44" t="s">
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="107" t="s">
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="108"/>
-      <c r="AO9" s="108"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="108"/>
-      <c r="AR9" s="108"/>
-      <c r="AS9" s="108"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="44" t="s">
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="107" t="s">
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BF9" s="108"/>
-      <c r="BG9" s="108"/>
-      <c r="BH9" s="108"/>
-      <c r="BI9" s="108"/>
-      <c r="BJ9" s="108"/>
-      <c r="BK9" s="108"/>
-      <c r="BL9" s="108"/>
-      <c r="BM9" s="108"/>
-      <c r="BN9" s="108"/>
-      <c r="BO9" s="108"/>
-      <c r="BP9" s="109"/>
-      <c r="BQ9" s="110" t="s">
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="51"/>
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="51"/>
+      <c r="BJ9" s="51"/>
+      <c r="BK9" s="51"/>
+      <c r="BL9" s="51"/>
+      <c r="BM9" s="51"/>
+      <c r="BN9" s="51"/>
+      <c r="BO9" s="51"/>
+      <c r="BP9" s="52"/>
+      <c r="BQ9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="BR9" s="111"/>
-      <c r="BS9" s="111"/>
-      <c r="BT9" s="111"/>
-      <c r="BU9" s="111"/>
-      <c r="BV9" s="111"/>
-      <c r="BW9" s="111"/>
-      <c r="BX9" s="111"/>
-      <c r="BY9" s="111"/>
-      <c r="BZ9" s="111"/>
-      <c r="CA9" s="111"/>
-      <c r="CB9" s="111"/>
-      <c r="CC9" s="111"/>
-      <c r="CD9" s="111"/>
-      <c r="CE9" s="111"/>
-      <c r="CF9" s="111"/>
-      <c r="CG9" s="111"/>
-      <c r="CH9" s="111"/>
-      <c r="CI9" s="112"/>
+      <c r="BR9" s="54"/>
+      <c r="BS9" s="54"/>
+      <c r="BT9" s="54"/>
+      <c r="BU9" s="54"/>
+      <c r="BV9" s="54"/>
+      <c r="BW9" s="54"/>
+      <c r="BX9" s="54"/>
+      <c r="BY9" s="54"/>
+      <c r="BZ9" s="54"/>
+      <c r="CA9" s="54"/>
+      <c r="CB9" s="54"/>
+      <c r="CC9" s="54"/>
+      <c r="CD9" s="54"/>
+      <c r="CE9" s="54"/>
+      <c r="CF9" s="54"/>
+      <c r="CG9" s="54"/>
+      <c r="CH9" s="54"/>
+      <c r="CI9" s="55"/>
     </row>
     <row r="10" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
-      <c r="B10" s="60">
+      <c r="B10" s="67">
         <v>3</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="91" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="94"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="95"/>
-      <c r="AM10" s="95"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="95"/>
-      <c r="AS10" s="95"/>
-      <c r="AT10" s="95"/>
-      <c r="AU10" s="94"/>
-      <c r="AV10" s="94"/>
-      <c r="AW10" s="94"/>
-      <c r="AX10" s="94"/>
-      <c r="AY10" s="94"/>
-      <c r="AZ10" s="94"/>
-      <c r="BA10" s="94"/>
-      <c r="BB10" s="94"/>
-      <c r="BC10" s="94"/>
-      <c r="BD10" s="94"/>
-      <c r="BE10" s="95"/>
-      <c r="BF10" s="95"/>
-      <c r="BG10" s="95"/>
-      <c r="BH10" s="95"/>
-      <c r="BI10" s="95"/>
-      <c r="BJ10" s="95"/>
-      <c r="BK10" s="95"/>
-      <c r="BL10" s="95"/>
-      <c r="BM10" s="95"/>
-      <c r="BN10" s="95"/>
-      <c r="BO10" s="95"/>
-      <c r="BP10" s="95"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="92"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="92"/>
-      <c r="BU10" s="92"/>
-      <c r="BV10" s="92"/>
-      <c r="BW10" s="92"/>
-      <c r="BX10" s="92"/>
-      <c r="BY10" s="92"/>
-      <c r="BZ10" s="92"/>
-      <c r="CA10" s="92"/>
-      <c r="CB10" s="92"/>
-      <c r="CC10" s="92"/>
-      <c r="CD10" s="92"/>
-      <c r="CE10" s="92"/>
-      <c r="CF10" s="92"/>
-      <c r="CG10" s="92"/>
-      <c r="CH10" s="92"/>
-      <c r="CI10" s="96"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="85"/>
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="85"/>
+      <c r="BI10" s="85"/>
+      <c r="BJ10" s="85"/>
+      <c r="BK10" s="85"/>
+      <c r="BL10" s="85"/>
+      <c r="BM10" s="85"/>
+      <c r="BN10" s="85"/>
+      <c r="BO10" s="85"/>
+      <c r="BP10" s="85"/>
+      <c r="BQ10" s="78"/>
+      <c r="BR10" s="79"/>
+      <c r="BS10" s="79"/>
+      <c r="BT10" s="79"/>
+      <c r="BU10" s="79"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="79"/>
+      <c r="BX10" s="79"/>
+      <c r="BY10" s="79"/>
+      <c r="BZ10" s="79"/>
+      <c r="CA10" s="79"/>
+      <c r="CB10" s="79"/>
+      <c r="CC10" s="79"/>
+      <c r="CD10" s="79"/>
+      <c r="CE10" s="79"/>
+      <c r="CF10" s="79"/>
+      <c r="CG10" s="79"/>
+      <c r="CH10" s="79"/>
+      <c r="CI10" s="86"/>
       <c r="CJ10" s="15"/>
       <c r="CK10" s="15"/>
       <c r="CL10" s="15"/>
@@ -9965,979 +9965,979 @@
       <c r="AMK10" s="15"/>
     </row>
     <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="38">
+      <c r="B11" s="56">
         <v>5</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="44" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="82" t="s">
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="44" t="s">
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="82" t="s">
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="44" t="s">
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="96"/>
+      <c r="AU11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="82" t="s">
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="49"/>
+      <c r="BE11" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="BF11" s="83"/>
-      <c r="BG11" s="83"/>
-      <c r="BH11" s="83"/>
-      <c r="BI11" s="83"/>
-      <c r="BJ11" s="83"/>
-      <c r="BK11" s="83"/>
-      <c r="BL11" s="83"/>
-      <c r="BM11" s="83"/>
-      <c r="BN11" s="83"/>
-      <c r="BO11" s="83"/>
-      <c r="BP11" s="84"/>
-      <c r="BQ11" s="85" t="s">
+      <c r="BF11" s="95"/>
+      <c r="BG11" s="95"/>
+      <c r="BH11" s="95"/>
+      <c r="BI11" s="95"/>
+      <c r="BJ11" s="95"/>
+      <c r="BK11" s="95"/>
+      <c r="BL11" s="95"/>
+      <c r="BM11" s="95"/>
+      <c r="BN11" s="95"/>
+      <c r="BO11" s="95"/>
+      <c r="BP11" s="96"/>
+      <c r="BQ11" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="86"/>
-      <c r="BS11" s="86"/>
-      <c r="BT11" s="86"/>
-      <c r="BU11" s="86"/>
-      <c r="BV11" s="86"/>
-      <c r="BW11" s="86"/>
-      <c r="BX11" s="86"/>
-      <c r="BY11" s="86"/>
-      <c r="BZ11" s="86"/>
-      <c r="CA11" s="86"/>
-      <c r="CB11" s="86"/>
-      <c r="CC11" s="86"/>
-      <c r="CD11" s="86"/>
-      <c r="CE11" s="86"/>
-      <c r="CF11" s="86"/>
-      <c r="CG11" s="86"/>
-      <c r="CH11" s="86"/>
-      <c r="CI11" s="87"/>
+      <c r="BR11" s="98"/>
+      <c r="BS11" s="98"/>
+      <c r="BT11" s="98"/>
+      <c r="BU11" s="98"/>
+      <c r="BV11" s="98"/>
+      <c r="BW11" s="98"/>
+      <c r="BX11" s="98"/>
+      <c r="BY11" s="98"/>
+      <c r="BZ11" s="98"/>
+      <c r="CA11" s="98"/>
+      <c r="CB11" s="98"/>
+      <c r="CC11" s="98"/>
+      <c r="CD11" s="98"/>
+      <c r="CE11" s="98"/>
+      <c r="CF11" s="98"/>
+      <c r="CG11" s="98"/>
+      <c r="CH11" s="98"/>
+      <c r="CI11" s="99"/>
     </row>
     <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="38">
+      <c r="B12" s="56">
         <v>6</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="44" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="44" t="s">
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="44" t="s">
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="44" t="s">
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="80"/>
-      <c r="AS12" s="80"/>
-      <c r="AT12" s="81"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="92"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="55" t="s">
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="BF12" s="55"/>
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="55"/>
-      <c r="BI12" s="55"/>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="55"/>
-      <c r="BL12" s="55"/>
-      <c r="BM12" s="55"/>
-      <c r="BN12" s="55"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
-      <c r="BQ12" s="79" t="s">
+      <c r="BF12" s="87"/>
+      <c r="BG12" s="87"/>
+      <c r="BH12" s="87"/>
+      <c r="BI12" s="87"/>
+      <c r="BJ12" s="87"/>
+      <c r="BK12" s="87"/>
+      <c r="BL12" s="87"/>
+      <c r="BM12" s="87"/>
+      <c r="BN12" s="87"/>
+      <c r="BO12" s="87"/>
+      <c r="BP12" s="87"/>
+      <c r="BQ12" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="BR12" s="79"/>
-      <c r="BS12" s="79"/>
-      <c r="BT12" s="79"/>
-      <c r="BU12" s="79"/>
-      <c r="BV12" s="79"/>
-      <c r="BW12" s="79"/>
-      <c r="BX12" s="79"/>
-      <c r="BY12" s="79"/>
-      <c r="BZ12" s="79"/>
-      <c r="CA12" s="79"/>
-      <c r="CB12" s="79"/>
-      <c r="CC12" s="79"/>
-      <c r="CD12" s="79"/>
-      <c r="CE12" s="79"/>
-      <c r="CF12" s="79"/>
-      <c r="CG12" s="79"/>
-      <c r="CH12" s="79"/>
-      <c r="CI12" s="79"/>
+      <c r="BR12" s="88"/>
+      <c r="BS12" s="88"/>
+      <c r="BT12" s="88"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="88"/>
+      <c r="BW12" s="88"/>
+      <c r="BX12" s="88"/>
+      <c r="BY12" s="88"/>
+      <c r="BZ12" s="88"/>
+      <c r="CA12" s="88"/>
+      <c r="CB12" s="88"/>
+      <c r="CC12" s="88"/>
+      <c r="CD12" s="88"/>
+      <c r="CE12" s="88"/>
+      <c r="CF12" s="88"/>
+      <c r="CG12" s="88"/>
+      <c r="CH12" s="88"/>
+      <c r="CI12" s="88"/>
     </row>
     <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="38">
+      <c r="B13" s="56">
         <v>7</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="44" t="s">
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="44" t="s">
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="44">
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="47">
         <v>10</v>
       </c>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="44" t="s">
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="44" t="s">
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="45"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="44" t="s">
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="45"/>
-      <c r="BI13" s="45"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="45"/>
-      <c r="BL13" s="45"/>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="45"/>
-      <c r="BO13" s="45"/>
-      <c r="BP13" s="46"/>
-      <c r="BQ13" s="47" t="s">
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="48"/>
+      <c r="BK13" s="48"/>
+      <c r="BL13" s="48"/>
+      <c r="BM13" s="48"/>
+      <c r="BN13" s="48"/>
+      <c r="BO13" s="48"/>
+      <c r="BP13" s="49"/>
+      <c r="BQ13" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="BR13" s="48"/>
-      <c r="BS13" s="48"/>
-      <c r="BT13" s="48"/>
-      <c r="BU13" s="48"/>
-      <c r="BV13" s="48"/>
-      <c r="BW13" s="48"/>
-      <c r="BX13" s="48"/>
-      <c r="BY13" s="48"/>
-      <c r="BZ13" s="48"/>
-      <c r="CA13" s="48"/>
-      <c r="CB13" s="48"/>
-      <c r="CC13" s="48"/>
-      <c r="CD13" s="48"/>
-      <c r="CE13" s="48"/>
-      <c r="CF13" s="48"/>
-      <c r="CG13" s="48"/>
-      <c r="CH13" s="48"/>
-      <c r="CI13" s="49"/>
+      <c r="BR13" s="104"/>
+      <c r="BS13" s="104"/>
+      <c r="BT13" s="104"/>
+      <c r="BU13" s="104"/>
+      <c r="BV13" s="104"/>
+      <c r="BW13" s="104"/>
+      <c r="BX13" s="104"/>
+      <c r="BY13" s="104"/>
+      <c r="BZ13" s="104"/>
+      <c r="CA13" s="104"/>
+      <c r="CB13" s="104"/>
+      <c r="CC13" s="104"/>
+      <c r="CD13" s="104"/>
+      <c r="CE13" s="104"/>
+      <c r="CF13" s="104"/>
+      <c r="CG13" s="104"/>
+      <c r="CH13" s="104"/>
+      <c r="CI13" s="105"/>
     </row>
     <row r="14" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="38">
+      <c r="B14" s="56">
         <v>8</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="44" t="s">
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="44" t="s">
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="44" t="s">
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="76" t="s">
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="108"/>
+      <c r="AU14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="44" t="s">
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="BF14" s="45"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="45"/>
-      <c r="BJ14" s="45"/>
-      <c r="BK14" s="45"/>
-      <c r="BL14" s="45"/>
-      <c r="BM14" s="45"/>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="45"/>
-      <c r="BP14" s="46"/>
-      <c r="BQ14" s="47" t="s">
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="48"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="BR14" s="48"/>
-      <c r="BS14" s="48"/>
-      <c r="BT14" s="48"/>
-      <c r="BU14" s="48"/>
-      <c r="BV14" s="48"/>
-      <c r="BW14" s="48"/>
-      <c r="BX14" s="48"/>
-      <c r="BY14" s="48"/>
-      <c r="BZ14" s="48"/>
-      <c r="CA14" s="48"/>
-      <c r="CB14" s="48"/>
-      <c r="CC14" s="48"/>
-      <c r="CD14" s="48"/>
-      <c r="CE14" s="48"/>
-      <c r="CF14" s="48"/>
-      <c r="CG14" s="48"/>
-      <c r="CH14" s="48"/>
-      <c r="CI14" s="49"/>
+      <c r="BR14" s="104"/>
+      <c r="BS14" s="104"/>
+      <c r="BT14" s="104"/>
+      <c r="BU14" s="104"/>
+      <c r="BV14" s="104"/>
+      <c r="BW14" s="104"/>
+      <c r="BX14" s="104"/>
+      <c r="BY14" s="104"/>
+      <c r="BZ14" s="104"/>
+      <c r="CA14" s="104"/>
+      <c r="CB14" s="104"/>
+      <c r="CC14" s="104"/>
+      <c r="CD14" s="104"/>
+      <c r="CE14" s="104"/>
+      <c r="CF14" s="104"/>
+      <c r="CG14" s="104"/>
+      <c r="CH14" s="104"/>
+      <c r="CI14" s="105"/>
     </row>
     <row r="15" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="60">
+      <c r="B15" s="67">
         <v>9</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="73" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="68"/>
-      <c r="BN15" s="68"/>
-      <c r="BO15" s="68"/>
-      <c r="BP15" s="69"/>
-      <c r="BQ15" s="70"/>
-      <c r="BR15" s="71"/>
-      <c r="BS15" s="71"/>
-      <c r="BT15" s="71"/>
-      <c r="BU15" s="71"/>
-      <c r="BV15" s="71"/>
-      <c r="BW15" s="71"/>
-      <c r="BX15" s="71"/>
-      <c r="BY15" s="71"/>
-      <c r="BZ15" s="71"/>
-      <c r="CA15" s="71"/>
-      <c r="CB15" s="71"/>
-      <c r="CC15" s="71"/>
-      <c r="CD15" s="71"/>
-      <c r="CE15" s="71"/>
-      <c r="CF15" s="71"/>
-      <c r="CG15" s="71"/>
-      <c r="CH15" s="71"/>
-      <c r="CI15" s="72"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="83"/>
+      <c r="BE15" s="81"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="83"/>
+      <c r="BQ15" s="113"/>
+      <c r="BR15" s="114"/>
+      <c r="BS15" s="114"/>
+      <c r="BT15" s="114"/>
+      <c r="BU15" s="114"/>
+      <c r="BV15" s="114"/>
+      <c r="BW15" s="114"/>
+      <c r="BX15" s="114"/>
+      <c r="BY15" s="114"/>
+      <c r="BZ15" s="114"/>
+      <c r="CA15" s="114"/>
+      <c r="CB15" s="114"/>
+      <c r="CC15" s="114"/>
+      <c r="CD15" s="114"/>
+      <c r="CE15" s="114"/>
+      <c r="CF15" s="114"/>
+      <c r="CG15" s="114"/>
+      <c r="CH15" s="114"/>
+      <c r="CI15" s="115"/>
     </row>
     <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="38">
+      <c r="B16" s="56">
         <v>10</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="63" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="44" t="s">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="44" t="s">
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="44" t="s">
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="44" t="s">
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="44" t="s">
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="45"/>
-      <c r="BB16" s="45"/>
-      <c r="BC16" s="45"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="44" t="s">
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48"/>
+      <c r="BC16" s="48"/>
+      <c r="BD16" s="49"/>
+      <c r="BE16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="BF16" s="45"/>
-      <c r="BG16" s="45"/>
-      <c r="BH16" s="45"/>
-      <c r="BI16" s="45"/>
-      <c r="BJ16" s="45"/>
-      <c r="BK16" s="45"/>
-      <c r="BL16" s="45"/>
-      <c r="BM16" s="45"/>
-      <c r="BN16" s="45"/>
-      <c r="BO16" s="45"/>
-      <c r="BP16" s="46"/>
-      <c r="BQ16" s="63" t="s">
+      <c r="BF16" s="48"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+      <c r="BJ16" s="48"/>
+      <c r="BK16" s="48"/>
+      <c r="BL16" s="48"/>
+      <c r="BM16" s="48"/>
+      <c r="BN16" s="48"/>
+      <c r="BO16" s="48"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="BR16" s="64"/>
-      <c r="BS16" s="64"/>
-      <c r="BT16" s="64"/>
-      <c r="BU16" s="64"/>
-      <c r="BV16" s="64"/>
-      <c r="BW16" s="64"/>
-      <c r="BX16" s="64"/>
-      <c r="BY16" s="64"/>
-      <c r="BZ16" s="64"/>
-      <c r="CA16" s="64"/>
-      <c r="CB16" s="64"/>
-      <c r="CC16" s="64"/>
-      <c r="CD16" s="64"/>
-      <c r="CE16" s="64"/>
-      <c r="CF16" s="64"/>
-      <c r="CG16" s="64"/>
-      <c r="CH16" s="64"/>
-      <c r="CI16" s="65"/>
+      <c r="BR16" s="110"/>
+      <c r="BS16" s="110"/>
+      <c r="BT16" s="110"/>
+      <c r="BU16" s="110"/>
+      <c r="BV16" s="110"/>
+      <c r="BW16" s="110"/>
+      <c r="BX16" s="110"/>
+      <c r="BY16" s="110"/>
+      <c r="BZ16" s="110"/>
+      <c r="CA16" s="110"/>
+      <c r="CB16" s="110"/>
+      <c r="CC16" s="110"/>
+      <c r="CD16" s="110"/>
+      <c r="CE16" s="110"/>
+      <c r="CF16" s="110"/>
+      <c r="CG16" s="110"/>
+      <c r="CH16" s="110"/>
+      <c r="CI16" s="111"/>
     </row>
     <row r="17" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="43"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="42"/>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="42"/>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="43"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="42"/>
-      <c r="BG17" s="42"/>
-      <c r="BH17" s="42"/>
-      <c r="BI17" s="42"/>
-      <c r="BJ17" s="42"/>
-      <c r="BK17" s="42"/>
-      <c r="BL17" s="42"/>
-      <c r="BM17" s="42"/>
-      <c r="BN17" s="42"/>
-      <c r="BO17" s="42"/>
-      <c r="BP17" s="43"/>
-      <c r="BQ17" s="47"/>
-      <c r="BR17" s="48"/>
-      <c r="BS17" s="48"/>
-      <c r="BT17" s="48"/>
-      <c r="BU17" s="48"/>
-      <c r="BV17" s="48"/>
-      <c r="BW17" s="48"/>
-      <c r="BX17" s="48"/>
-      <c r="BY17" s="48"/>
-      <c r="BZ17" s="48"/>
-      <c r="CA17" s="48"/>
-      <c r="CB17" s="48"/>
-      <c r="CC17" s="48"/>
-      <c r="CD17" s="48"/>
-      <c r="CE17" s="48"/>
-      <c r="CF17" s="48"/>
-      <c r="CG17" s="48"/>
-      <c r="CH17" s="48"/>
-      <c r="CI17" s="49"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="90"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="89"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="90"/>
+      <c r="BA17" s="90"/>
+      <c r="BB17" s="90"/>
+      <c r="BC17" s="90"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="90"/>
+      <c r="BG17" s="90"/>
+      <c r="BH17" s="90"/>
+      <c r="BI17" s="90"/>
+      <c r="BJ17" s="90"/>
+      <c r="BK17" s="90"/>
+      <c r="BL17" s="90"/>
+      <c r="BM17" s="90"/>
+      <c r="BN17" s="90"/>
+      <c r="BO17" s="90"/>
+      <c r="BP17" s="91"/>
+      <c r="BQ17" s="103"/>
+      <c r="BR17" s="104"/>
+      <c r="BS17" s="104"/>
+      <c r="BT17" s="104"/>
+      <c r="BU17" s="104"/>
+      <c r="BV17" s="104"/>
+      <c r="BW17" s="104"/>
+      <c r="BX17" s="104"/>
+      <c r="BY17" s="104"/>
+      <c r="BZ17" s="104"/>
+      <c r="CA17" s="104"/>
+      <c r="CB17" s="104"/>
+      <c r="CC17" s="104"/>
+      <c r="CD17" s="104"/>
+      <c r="CE17" s="104"/>
+      <c r="CF17" s="104"/>
+      <c r="CG17" s="104"/>
+      <c r="CH17" s="104"/>
+      <c r="CI17" s="105"/>
     </row>
     <row r="18" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="43"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="45"/>
-      <c r="BB18" s="45"/>
-      <c r="BC18" s="45"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="44"/>
-      <c r="BF18" s="45"/>
-      <c r="BG18" s="45"/>
-      <c r="BH18" s="45"/>
-      <c r="BI18" s="45"/>
-      <c r="BJ18" s="45"/>
-      <c r="BK18" s="45"/>
-      <c r="BL18" s="45"/>
-      <c r="BM18" s="45"/>
-      <c r="BN18" s="45"/>
-      <c r="BO18" s="45"/>
-      <c r="BP18" s="46"/>
-      <c r="BQ18" s="57"/>
-      <c r="BR18" s="58"/>
-      <c r="BS18" s="58"/>
-      <c r="BT18" s="58"/>
-      <c r="BU18" s="58"/>
-      <c r="BV18" s="58"/>
-      <c r="BW18" s="58"/>
-      <c r="BX18" s="58"/>
-      <c r="BY18" s="58"/>
-      <c r="BZ18" s="58"/>
-      <c r="CA18" s="58"/>
-      <c r="CB18" s="58"/>
-      <c r="CC18" s="58"/>
-      <c r="CD18" s="58"/>
-      <c r="CE18" s="58"/>
-      <c r="CF18" s="58"/>
-      <c r="CG18" s="58"/>
-      <c r="CH18" s="58"/>
-      <c r="CI18" s="59"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+      <c r="AZ18" s="48"/>
+      <c r="BA18" s="48"/>
+      <c r="BB18" s="48"/>
+      <c r="BC18" s="48"/>
+      <c r="BD18" s="49"/>
+      <c r="BE18" s="47"/>
+      <c r="BF18" s="48"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="48"/>
+      <c r="BI18" s="48"/>
+      <c r="BJ18" s="48"/>
+      <c r="BK18" s="48"/>
+      <c r="BL18" s="48"/>
+      <c r="BM18" s="48"/>
+      <c r="BN18" s="48"/>
+      <c r="BO18" s="48"/>
+      <c r="BP18" s="49"/>
+      <c r="BQ18" s="119"/>
+      <c r="BR18" s="120"/>
+      <c r="BS18" s="120"/>
+      <c r="BT18" s="120"/>
+      <c r="BU18" s="120"/>
+      <c r="BV18" s="120"/>
+      <c r="BW18" s="120"/>
+      <c r="BX18" s="120"/>
+      <c r="BY18" s="120"/>
+      <c r="BZ18" s="120"/>
+      <c r="CA18" s="120"/>
+      <c r="CB18" s="120"/>
+      <c r="CC18" s="120"/>
+      <c r="CD18" s="120"/>
+      <c r="CE18" s="120"/>
+      <c r="CF18" s="120"/>
+      <c r="CG18" s="120"/>
+      <c r="CH18" s="120"/>
+      <c r="CI18" s="121"/>
     </row>
     <row r="19" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="43"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="45"/>
-      <c r="BI19" s="45"/>
-      <c r="BJ19" s="45"/>
-      <c r="BK19" s="45"/>
-      <c r="BL19" s="45"/>
-      <c r="BM19" s="45"/>
-      <c r="BN19" s="45"/>
-      <c r="BO19" s="45"/>
-      <c r="BP19" s="46"/>
-      <c r="BQ19" s="47"/>
-      <c r="BR19" s="48"/>
-      <c r="BS19" s="48"/>
-      <c r="BT19" s="48"/>
-      <c r="BU19" s="48"/>
-      <c r="BV19" s="48"/>
-      <c r="BW19" s="48"/>
-      <c r="BX19" s="48"/>
-      <c r="BY19" s="48"/>
-      <c r="BZ19" s="48"/>
-      <c r="CA19" s="48"/>
-      <c r="CB19" s="48"/>
-      <c r="CC19" s="48"/>
-      <c r="CD19" s="48"/>
-      <c r="CE19" s="48"/>
-      <c r="CF19" s="48"/>
-      <c r="CG19" s="48"/>
-      <c r="CH19" s="48"/>
-      <c r="CI19" s="49"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="90"/>
+      <c r="AM19" s="90"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="AZ19" s="48"/>
+      <c r="BA19" s="48"/>
+      <c r="BB19" s="48"/>
+      <c r="BC19" s="48"/>
+      <c r="BD19" s="49"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="48"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="48"/>
+      <c r="BI19" s="48"/>
+      <c r="BJ19" s="48"/>
+      <c r="BK19" s="48"/>
+      <c r="BL19" s="48"/>
+      <c r="BM19" s="48"/>
+      <c r="BN19" s="48"/>
+      <c r="BO19" s="48"/>
+      <c r="BP19" s="49"/>
+      <c r="BQ19" s="103"/>
+      <c r="BR19" s="104"/>
+      <c r="BS19" s="104"/>
+      <c r="BT19" s="104"/>
+      <c r="BU19" s="104"/>
+      <c r="BV19" s="104"/>
+      <c r="BW19" s="104"/>
+      <c r="BX19" s="104"/>
+      <c r="BY19" s="104"/>
+      <c r="BZ19" s="104"/>
+      <c r="CA19" s="104"/>
+      <c r="CB19" s="104"/>
+      <c r="CC19" s="104"/>
+      <c r="CD19" s="104"/>
+      <c r="CE19" s="104"/>
+      <c r="CF19" s="104"/>
+      <c r="CG19" s="104"/>
+      <c r="CH19" s="104"/>
+      <c r="CI19" s="105"/>
     </row>
     <row r="20" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="43"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="41"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="42"/>
-      <c r="BI20" s="42"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="42"/>
-      <c r="BM20" s="42"/>
-      <c r="BN20" s="42"/>
-      <c r="BO20" s="42"/>
-      <c r="BP20" s="43"/>
-      <c r="BQ20" s="47"/>
-      <c r="BR20" s="48"/>
-      <c r="BS20" s="48"/>
-      <c r="BT20" s="48"/>
-      <c r="BU20" s="48"/>
-      <c r="BV20" s="48"/>
-      <c r="BW20" s="48"/>
-      <c r="BX20" s="48"/>
-      <c r="BY20" s="48"/>
-      <c r="BZ20" s="48"/>
-      <c r="CA20" s="48"/>
-      <c r="CB20" s="48"/>
-      <c r="CC20" s="48"/>
-      <c r="CD20" s="48"/>
-      <c r="CE20" s="48"/>
-      <c r="CF20" s="48"/>
-      <c r="CG20" s="48"/>
-      <c r="CH20" s="48"/>
-      <c r="CI20" s="49"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="89"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="89"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="90"/>
+      <c r="BA20" s="90"/>
+      <c r="BB20" s="90"/>
+      <c r="BC20" s="90"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="89"/>
+      <c r="BF20" s="90"/>
+      <c r="BG20" s="90"/>
+      <c r="BH20" s="90"/>
+      <c r="BI20" s="90"/>
+      <c r="BJ20" s="90"/>
+      <c r="BK20" s="90"/>
+      <c r="BL20" s="90"/>
+      <c r="BM20" s="90"/>
+      <c r="BN20" s="90"/>
+      <c r="BO20" s="90"/>
+      <c r="BP20" s="91"/>
+      <c r="BQ20" s="103"/>
+      <c r="BR20" s="104"/>
+      <c r="BS20" s="104"/>
+      <c r="BT20" s="104"/>
+      <c r="BU20" s="104"/>
+      <c r="BV20" s="104"/>
+      <c r="BW20" s="104"/>
+      <c r="BX20" s="104"/>
+      <c r="BY20" s="104"/>
+      <c r="BZ20" s="104"/>
+      <c r="CA20" s="104"/>
+      <c r="CB20" s="104"/>
+      <c r="CC20" s="104"/>
+      <c r="CD20" s="104"/>
+      <c r="CE20" s="104"/>
+      <c r="CF20" s="104"/>
+      <c r="CG20" s="104"/>
+      <c r="CH20" s="104"/>
+      <c r="CI20" s="105"/>
       <c r="CJ20" s="15"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="15"/>
@@ -11878,271 +11878,237 @@
       <c r="AMK20" s="15"/>
     </row>
     <row r="21" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="55"/>
-      <c r="AX21" s="55"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="55"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="55"/>
-      <c r="BC21" s="55"/>
-      <c r="BD21" s="55"/>
-      <c r="BE21" s="55"/>
-      <c r="BF21" s="55"/>
-      <c r="BG21" s="55"/>
-      <c r="BH21" s="55"/>
-      <c r="BI21" s="55"/>
-      <c r="BJ21" s="55"/>
-      <c r="BK21" s="55"/>
-      <c r="BL21" s="55"/>
-      <c r="BM21" s="55"/>
-      <c r="BN21" s="55"/>
-      <c r="BO21" s="55"/>
-      <c r="BP21" s="55"/>
-      <c r="BQ21" s="56"/>
-      <c r="BR21" s="56"/>
-      <c r="BS21" s="56"/>
-      <c r="BT21" s="56"/>
-      <c r="BU21" s="56"/>
-      <c r="BV21" s="56"/>
-      <c r="BW21" s="56"/>
-      <c r="BX21" s="56"/>
-      <c r="BY21" s="56"/>
-      <c r="BZ21" s="56"/>
-      <c r="CA21" s="56"/>
-      <c r="CB21" s="56"/>
-      <c r="CC21" s="56"/>
-      <c r="CD21" s="56"/>
-      <c r="CE21" s="56"/>
-      <c r="CF21" s="56"/>
-      <c r="CG21" s="56"/>
-      <c r="CH21" s="56"/>
-      <c r="CI21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="89"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="122"/>
+      <c r="AS21" s="122"/>
+      <c r="AT21" s="123"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="87"/>
+      <c r="AZ21" s="87"/>
+      <c r="BA21" s="87"/>
+      <c r="BB21" s="87"/>
+      <c r="BC21" s="87"/>
+      <c r="BD21" s="87"/>
+      <c r="BE21" s="87"/>
+      <c r="BF21" s="87"/>
+      <c r="BG21" s="87"/>
+      <c r="BH21" s="87"/>
+      <c r="BI21" s="87"/>
+      <c r="BJ21" s="87"/>
+      <c r="BK21" s="87"/>
+      <c r="BL21" s="87"/>
+      <c r="BM21" s="87"/>
+      <c r="BN21" s="87"/>
+      <c r="BO21" s="87"/>
+      <c r="BP21" s="87"/>
+      <c r="BQ21" s="124"/>
+      <c r="BR21" s="124"/>
+      <c r="BS21" s="124"/>
+      <c r="BT21" s="124"/>
+      <c r="BU21" s="124"/>
+      <c r="BV21" s="124"/>
+      <c r="BW21" s="124"/>
+      <c r="BX21" s="124"/>
+      <c r="BY21" s="124"/>
+      <c r="BZ21" s="124"/>
+      <c r="CA21" s="124"/>
+      <c r="CB21" s="124"/>
+      <c r="CC21" s="124"/>
+      <c r="CD21" s="124"/>
+      <c r="CE21" s="124"/>
+      <c r="CF21" s="124"/>
+      <c r="CG21" s="124"/>
+      <c r="CH21" s="124"/>
+      <c r="CI21" s="124"/>
     </row>
     <row r="22" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="45"/>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="45"/>
-      <c r="BG22" s="45"/>
-      <c r="BH22" s="45"/>
-      <c r="BI22" s="45"/>
-      <c r="BJ22" s="45"/>
-      <c r="BK22" s="45"/>
-      <c r="BL22" s="45"/>
-      <c r="BM22" s="45"/>
-      <c r="BN22" s="45"/>
-      <c r="BO22" s="45"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="47"/>
-      <c r="BR22" s="48"/>
-      <c r="BS22" s="48"/>
-      <c r="BT22" s="48"/>
-      <c r="BU22" s="48"/>
-      <c r="BV22" s="48"/>
-      <c r="BW22" s="48"/>
-      <c r="BX22" s="48"/>
-      <c r="BY22" s="48"/>
-      <c r="BZ22" s="48"/>
-      <c r="CA22" s="48"/>
-      <c r="CB22" s="48"/>
-      <c r="CC22" s="48"/>
-      <c r="CD22" s="48"/>
-      <c r="CE22" s="48"/>
-      <c r="CF22" s="48"/>
-      <c r="CG22" s="48"/>
-      <c r="CH22" s="48"/>
-      <c r="CI22" s="49"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="90"/>
+      <c r="AM22" s="90"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+      <c r="AZ22" s="48"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="48"/>
+      <c r="BC22" s="48"/>
+      <c r="BD22" s="49"/>
+      <c r="BE22" s="47"/>
+      <c r="BF22" s="48"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="48"/>
+      <c r="BI22" s="48"/>
+      <c r="BJ22" s="48"/>
+      <c r="BK22" s="48"/>
+      <c r="BL22" s="48"/>
+      <c r="BM22" s="48"/>
+      <c r="BN22" s="48"/>
+      <c r="BO22" s="48"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="103"/>
+      <c r="BR22" s="104"/>
+      <c r="BS22" s="104"/>
+      <c r="BT22" s="104"/>
+      <c r="BU22" s="104"/>
+      <c r="BV22" s="104"/>
+      <c r="BW22" s="104"/>
+      <c r="BX22" s="104"/>
+      <c r="BY22" s="104"/>
+      <c r="BZ22" s="104"/>
+      <c r="CA22" s="104"/>
+      <c r="CB22" s="104"/>
+      <c r="CC22" s="104"/>
+      <c r="CD22" s="104"/>
+      <c r="CE22" s="104"/>
+      <c r="CF22" s="104"/>
+      <c r="CG22" s="104"/>
+      <c r="CH22" s="104"/>
+      <c r="CI22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B14:D14"/>
@@ -12167,60 +12133,94 @@
     <mergeCell ref="AK15:AT15"/>
     <mergeCell ref="AU14:BD14"/>
     <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_3_1_ウェルカム画面_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8520C1-0256-4906-8541-6DDABE66A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36356D65-DE43-4B4A-903E-0D1AD9E276A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>システム名</t>
   </si>
@@ -187,13 +187,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラベル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -287,32 +280,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一番最初に表示されるページ 他のページにアクセスしてもこちらに飛ぶ</t>
-    <rPh sb="0" eb="2">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>開始</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザー名を問題画面にpostする</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -338,6 +305,23 @@
   </si>
   <si>
     <t>ウェルカムページへ　YSTeamと記載</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー名入力欄</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -836,6 +820,24 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,50 +880,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -933,31 +908,13 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -968,20 +925,26 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -992,38 +955,17 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -1034,29 +976,35 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1091,71 +1039,107 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1248,23 +1232,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>166926</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A264B7-DA2D-4F7C-9A3D-461D55C4E3DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8A6F49-FE78-47AB-A50F-737D8EE5D6BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,13 +1264,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="11391" t="992" r="30150"/>
+        <a:srcRect t="-242" r="20425" b="1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="101600" y="1079500"/>
-          <a:ext cx="7175500" cy="6237526"/>
+          <a:off x="660400" y="1117599"/>
+          <a:ext cx="7391400" cy="6285289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1564,7 +1548,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+      <selection activeCell="CN28" sqref="CN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1577,104 +1561,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="29" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="30" t="s">
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="30"/>
-      <c r="BV1" s="30"/>
-      <c r="BW1" s="30"/>
-      <c r="BX1" s="31" t="s">
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="31"/>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2615,104 +2599,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="22" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="23">
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="29">
         <v>44510</v>
       </c>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="23"/>
-      <c r="BS2" s="23"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="23"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="24" t="s">
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="29"/>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="25"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="30"/>
+      <c r="CA2" s="30"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3740,196 +3724,196 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="34" t="s">
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="34"/>
-      <c r="CG4" s="34"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="34"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="20"/>
+      <c r="BW4" s="20"/>
+      <c r="BX4" s="20"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="20"/>
+      <c r="CB4" s="20"/>
+      <c r="CC4" s="20"/>
+      <c r="CD4" s="20"/>
+      <c r="CE4" s="20"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="35">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="37" t="s">
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37"/>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37"/>
-      <c r="CI5" s="37"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="23"/>
+      <c r="BO5" s="23"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="23"/>
+      <c r="BS5" s="23"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="23"/>
+      <c r="BV5" s="23"/>
+      <c r="BW5" s="23"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="23"/>
+      <c r="BZ5" s="23"/>
+      <c r="CA5" s="23"/>
+      <c r="CB5" s="23"/>
+      <c r="CC5" s="23"/>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="23"/>
+      <c r="CF5" s="23"/>
+      <c r="CG5" s="23"/>
+      <c r="CH5" s="23"/>
+      <c r="CI5" s="23"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
@@ -6133,14 +6117,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -6155,6 +6131,14 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6172,7 +6156,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ17" sqref="BQ17:CI17"/>
+      <selection activeCell="E15" sqref="E15:X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6187,104 +6171,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="29" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="30" t="s">
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="30"/>
-      <c r="BV1" s="30"/>
-      <c r="BW1" s="30"/>
-      <c r="BX1" s="31" t="s">
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="31"/>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -7225,104 +7209,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="22" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="23">
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="29">
         <v>44510</v>
       </c>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="23"/>
-      <c r="BS2" s="23"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="23"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="24" t="s">
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="29"/>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="25"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="30"/>
+      <c r="CA2" s="30"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -8350,681 +8334,681 @@
       <c r="CI3" s="14"/>
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="34" t="s">
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="34"/>
-      <c r="CG4" s="34"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="34"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="20"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="20"/>
+      <c r="BW4" s="20"/>
+      <c r="BX4" s="20"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
+      <c r="CA4" s="20"/>
+      <c r="CB4" s="20"/>
+      <c r="CC4" s="20"/>
+      <c r="CD4" s="20"/>
+      <c r="CE4" s="20"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
+      <c r="CH4" s="20"/>
+      <c r="CI4" s="20"/>
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="35">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="37" t="s">
-        <v>48</v>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="23" t="s">
+        <v>30</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37"/>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37"/>
-      <c r="CI5" s="37"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="23"/>
+      <c r="BO5" s="23"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="23"/>
+      <c r="BS5" s="23"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="23"/>
+      <c r="BV5" s="23"/>
+      <c r="BW5" s="23"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="23"/>
+      <c r="BZ5" s="23"/>
+      <c r="CA5" s="23"/>
+      <c r="CB5" s="23"/>
+      <c r="CC5" s="23"/>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="23"/>
+      <c r="CF5" s="23"/>
+      <c r="CG5" s="23"/>
+      <c r="CH5" s="23"/>
+      <c r="CI5" s="23"/>
     </row>
     <row r="6" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
-      <c r="BQ6" s="38"/>
-      <c r="BR6" s="38"/>
-      <c r="BS6" s="38"/>
-      <c r="BT6" s="38"/>
-      <c r="BU6" s="38"/>
-      <c r="BV6" s="38"/>
-      <c r="BW6" s="38"/>
-      <c r="BX6" s="38"/>
-      <c r="BY6" s="38"/>
-      <c r="BZ6" s="38"/>
-      <c r="CA6" s="38"/>
-      <c r="CB6" s="38"/>
-      <c r="CC6" s="38"/>
-      <c r="CD6" s="38"/>
-      <c r="CE6" s="38"/>
-      <c r="CF6" s="38"/>
-      <c r="CG6" s="38"/>
-      <c r="CH6" s="38"/>
-      <c r="CI6" s="38"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116"/>
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
+      <c r="BI6" s="116"/>
+      <c r="BJ6" s="116"/>
+      <c r="BK6" s="116"/>
+      <c r="BL6" s="116"/>
+      <c r="BM6" s="116"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="116"/>
+      <c r="BP6" s="116"/>
+      <c r="BQ6" s="116"/>
+      <c r="BR6" s="116"/>
+      <c r="BS6" s="116"/>
+      <c r="BT6" s="116"/>
+      <c r="BU6" s="116"/>
+      <c r="BV6" s="116"/>
+      <c r="BW6" s="116"/>
+      <c r="BX6" s="116"/>
+      <c r="BY6" s="116"/>
+      <c r="BZ6" s="116"/>
+      <c r="CA6" s="116"/>
+      <c r="CB6" s="116"/>
+      <c r="CC6" s="116"/>
+      <c r="CD6" s="116"/>
+      <c r="CE6" s="116"/>
+      <c r="CF6" s="116"/>
+      <c r="CG6" s="116"/>
+      <c r="CH6" s="116"/>
+      <c r="CI6" s="116"/>
     </row>
     <row r="7" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="40" t="s">
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="40" t="s">
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="40" t="s">
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="40" t="s">
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="43" t="s">
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="43"/>
-      <c r="BQ7" s="44" t="s">
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
+      <c r="AX7" s="121"/>
+      <c r="AY7" s="121"/>
+      <c r="AZ7" s="121"/>
+      <c r="BA7" s="121"/>
+      <c r="BB7" s="121"/>
+      <c r="BC7" s="121"/>
+      <c r="BD7" s="121"/>
+      <c r="BE7" s="121"/>
+      <c r="BF7" s="121"/>
+      <c r="BG7" s="121"/>
+      <c r="BH7" s="121"/>
+      <c r="BI7" s="121"/>
+      <c r="BJ7" s="121"/>
+      <c r="BK7" s="121"/>
+      <c r="BL7" s="121"/>
+      <c r="BM7" s="121"/>
+      <c r="BN7" s="121"/>
+      <c r="BO7" s="121"/>
+      <c r="BP7" s="121"/>
+      <c r="BQ7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="BR7" s="44"/>
-      <c r="BS7" s="44"/>
-      <c r="BT7" s="44"/>
-      <c r="BU7" s="44"/>
-      <c r="BV7" s="44"/>
-      <c r="BW7" s="44"/>
-      <c r="BX7" s="44"/>
-      <c r="BY7" s="44"/>
-      <c r="BZ7" s="44"/>
-      <c r="CA7" s="44"/>
-      <c r="CB7" s="44"/>
-      <c r="CC7" s="44"/>
-      <c r="CD7" s="44"/>
-      <c r="CE7" s="44"/>
-      <c r="CF7" s="44"/>
-      <c r="CG7" s="44"/>
-      <c r="CH7" s="44"/>
-      <c r="CI7" s="44"/>
+      <c r="BR7" s="122"/>
+      <c r="BS7" s="122"/>
+      <c r="BT7" s="122"/>
+      <c r="BU7" s="122"/>
+      <c r="BV7" s="122"/>
+      <c r="BW7" s="122"/>
+      <c r="BX7" s="122"/>
+      <c r="BY7" s="122"/>
+      <c r="BZ7" s="122"/>
+      <c r="CA7" s="122"/>
+      <c r="CB7" s="122"/>
+      <c r="CC7" s="122"/>
+      <c r="CD7" s="122"/>
+      <c r="CE7" s="122"/>
+      <c r="CF7" s="122"/>
+      <c r="CG7" s="122"/>
+      <c r="CH7" s="122"/>
+      <c r="CI7" s="122"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="67">
+      <c r="B8" s="60">
         <v>1</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
+      <c r="BJ8" s="97"/>
+      <c r="BK8" s="97"/>
+      <c r="BL8" s="97"/>
+      <c r="BM8" s="97"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="97"/>
+      <c r="BP8" s="97"/>
+      <c r="BQ8" s="98"/>
+      <c r="BR8" s="98"/>
+      <c r="BS8" s="98"/>
+      <c r="BT8" s="98"/>
+      <c r="BU8" s="98"/>
+      <c r="BV8" s="98"/>
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="98"/>
+      <c r="CA8" s="98"/>
+      <c r="CB8" s="98"/>
+      <c r="CC8" s="98"/>
+      <c r="CD8" s="98"/>
+      <c r="CE8" s="98"/>
+      <c r="CF8" s="98"/>
+      <c r="CG8" s="98"/>
+      <c r="CH8" s="98"/>
+      <c r="CI8" s="98"/>
+    </row>
+    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="38">
+        <v>2</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="65"/>
-      <c r="BK8" s="65"/>
-      <c r="BL8" s="65"/>
-      <c r="BM8" s="65"/>
-      <c r="BN8" s="65"/>
-      <c r="BO8" s="65"/>
-      <c r="BP8" s="65"/>
-      <c r="BQ8" s="66"/>
-      <c r="BR8" s="66"/>
-      <c r="BS8" s="66"/>
-      <c r="BT8" s="66"/>
-      <c r="BU8" s="66"/>
-      <c r="BV8" s="66"/>
-      <c r="BW8" s="66"/>
-      <c r="BX8" s="66"/>
-      <c r="BY8" s="66"/>
-      <c r="BZ8" s="66"/>
-      <c r="CA8" s="66"/>
-      <c r="CB8" s="66"/>
-      <c r="CC8" s="66"/>
-      <c r="CD8" s="66"/>
-      <c r="CE8" s="66"/>
-      <c r="CF8" s="66"/>
-      <c r="CG8" s="66"/>
-      <c r="CH8" s="66"/>
-      <c r="CI8" s="66"/>
-    </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="56">
-        <v>2</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="47" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="62" t="s">
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="47" t="s">
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="50" t="s">
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="47" t="s">
+      <c r="AL9" s="108"/>
+      <c r="AM9" s="108"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="109"/>
+      <c r="AU9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="49"/>
-      <c r="BE9" s="50" t="s">
-        <v>36</v>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="107" t="s">
+        <v>35</v>
       </c>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="51"/>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="51"/>
-      <c r="BJ9" s="51"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="51"/>
-      <c r="BM9" s="51"/>
-      <c r="BN9" s="51"/>
-      <c r="BO9" s="51"/>
-      <c r="BP9" s="52"/>
-      <c r="BQ9" s="53" t="s">
-        <v>53</v>
+      <c r="BF9" s="108"/>
+      <c r="BG9" s="108"/>
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="108"/>
+      <c r="BL9" s="108"/>
+      <c r="BM9" s="108"/>
+      <c r="BN9" s="108"/>
+      <c r="BO9" s="108"/>
+      <c r="BP9" s="109"/>
+      <c r="BQ9" s="110" t="s">
+        <v>50</v>
       </c>
-      <c r="BR9" s="54"/>
-      <c r="BS9" s="54"/>
-      <c r="BT9" s="54"/>
-      <c r="BU9" s="54"/>
-      <c r="BV9" s="54"/>
-      <c r="BW9" s="54"/>
-      <c r="BX9" s="54"/>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="54"/>
-      <c r="CA9" s="54"/>
-      <c r="CB9" s="54"/>
-      <c r="CC9" s="54"/>
-      <c r="CD9" s="54"/>
-      <c r="CE9" s="54"/>
-      <c r="CF9" s="54"/>
-      <c r="CG9" s="54"/>
-      <c r="CH9" s="54"/>
-      <c r="CI9" s="55"/>
+      <c r="BR9" s="111"/>
+      <c r="BS9" s="111"/>
+      <c r="BT9" s="111"/>
+      <c r="BU9" s="111"/>
+      <c r="BV9" s="111"/>
+      <c r="BW9" s="111"/>
+      <c r="BX9" s="111"/>
+      <c r="BY9" s="111"/>
+      <c r="BZ9" s="111"/>
+      <c r="CA9" s="111"/>
+      <c r="CB9" s="111"/>
+      <c r="CC9" s="111"/>
+      <c r="CD9" s="111"/>
+      <c r="CE9" s="111"/>
+      <c r="CF9" s="111"/>
+      <c r="CG9" s="111"/>
+      <c r="CH9" s="111"/>
+      <c r="CI9" s="112"/>
     </row>
     <row r="10" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
-      <c r="B10" s="67">
+      <c r="B10" s="60">
         <v>3</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="78" t="s">
-        <v>39</v>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="91" t="s">
+        <v>38</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="85"/>
-      <c r="BF10" s="85"/>
-      <c r="BG10" s="85"/>
-      <c r="BH10" s="85"/>
-      <c r="BI10" s="85"/>
-      <c r="BJ10" s="85"/>
-      <c r="BK10" s="85"/>
-      <c r="BL10" s="85"/>
-      <c r="BM10" s="85"/>
-      <c r="BN10" s="85"/>
-      <c r="BO10" s="85"/>
-      <c r="BP10" s="85"/>
-      <c r="BQ10" s="78"/>
-      <c r="BR10" s="79"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="79"/>
-      <c r="BU10" s="79"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="79"/>
-      <c r="BX10" s="79"/>
-      <c r="BY10" s="79"/>
-      <c r="BZ10" s="79"/>
-      <c r="CA10" s="79"/>
-      <c r="CB10" s="79"/>
-      <c r="CC10" s="79"/>
-      <c r="CD10" s="79"/>
-      <c r="CE10" s="79"/>
-      <c r="CF10" s="79"/>
-      <c r="CG10" s="79"/>
-      <c r="CH10" s="79"/>
-      <c r="CI10" s="86"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="95"/>
+      <c r="BF10" s="95"/>
+      <c r="BG10" s="95"/>
+      <c r="BH10" s="95"/>
+      <c r="BI10" s="95"/>
+      <c r="BJ10" s="95"/>
+      <c r="BK10" s="95"/>
+      <c r="BL10" s="95"/>
+      <c r="BM10" s="95"/>
+      <c r="BN10" s="95"/>
+      <c r="BO10" s="95"/>
+      <c r="BP10" s="95"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="92"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="92"/>
+      <c r="BU10" s="92"/>
+      <c r="BV10" s="92"/>
+      <c r="BW10" s="92"/>
+      <c r="BX10" s="92"/>
+      <c r="BY10" s="92"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="92"/>
+      <c r="CB10" s="92"/>
+      <c r="CC10" s="92"/>
+      <c r="CD10" s="92"/>
+      <c r="CE10" s="92"/>
+      <c r="CF10" s="92"/>
+      <c r="CG10" s="92"/>
+      <c r="CH10" s="92"/>
+      <c r="CI10" s="96"/>
       <c r="CJ10" s="15"/>
       <c r="CK10" s="15"/>
       <c r="CL10" s="15"/>
@@ -9965,979 +9949,979 @@
       <c r="AMK10" s="15"/>
     </row>
     <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="56">
+      <c r="B11" s="38">
         <v>5</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="100" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="45"/>
+      <c r="BB11" s="45"/>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF11" s="83"/>
+      <c r="BG11" s="83"/>
+      <c r="BH11" s="83"/>
+      <c r="BI11" s="83"/>
+      <c r="BJ11" s="83"/>
+      <c r="BK11" s="83"/>
+      <c r="BL11" s="83"/>
+      <c r="BM11" s="83"/>
+      <c r="BN11" s="83"/>
+      <c r="BO11" s="83"/>
+      <c r="BP11" s="84"/>
+      <c r="BQ11" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="47" t="s">
+      <c r="BR11" s="86"/>
+      <c r="BS11" s="86"/>
+      <c r="BT11" s="86"/>
+      <c r="BU11" s="86"/>
+      <c r="BV11" s="86"/>
+      <c r="BW11" s="86"/>
+      <c r="BX11" s="86"/>
+      <c r="BY11" s="86"/>
+      <c r="BZ11" s="86"/>
+      <c r="CA11" s="86"/>
+      <c r="CB11" s="86"/>
+      <c r="CC11" s="86"/>
+      <c r="CD11" s="86"/>
+      <c r="CE11" s="86"/>
+      <c r="CF11" s="86"/>
+      <c r="CG11" s="86"/>
+      <c r="CH11" s="86"/>
+      <c r="CI11" s="87"/>
+    </row>
+    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="38">
+        <v>6</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="94" t="s">
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="47" t="s">
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="94" t="s">
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="80"/>
+      <c r="AS12" s="80"/>
+      <c r="AT12" s="81"/>
+      <c r="AU12" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF12" s="55"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="55"/>
+      <c r="BI12" s="55"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="55"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="55"/>
+      <c r="BN12" s="55"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
+      <c r="BQ12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="95"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="95"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="95"/>
-      <c r="AS11" s="95"/>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="47" t="s">
+      <c r="BR12" s="79"/>
+      <c r="BS12" s="79"/>
+      <c r="BT12" s="79"/>
+      <c r="BU12" s="79"/>
+      <c r="BV12" s="79"/>
+      <c r="BW12" s="79"/>
+      <c r="BX12" s="79"/>
+      <c r="BY12" s="79"/>
+      <c r="BZ12" s="79"/>
+      <c r="CA12" s="79"/>
+      <c r="CB12" s="79"/>
+      <c r="CC12" s="79"/>
+      <c r="CD12" s="79"/>
+      <c r="CE12" s="79"/>
+      <c r="CF12" s="79"/>
+      <c r="CG12" s="79"/>
+      <c r="CH12" s="79"/>
+      <c r="CI12" s="79"/>
+    </row>
+    <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="38">
+        <v>7</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="44">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="45"/>
+      <c r="BL13" s="45"/>
+      <c r="BM13" s="45"/>
+      <c r="BN13" s="45"/>
+      <c r="BO13" s="45"/>
+      <c r="BP13" s="46"/>
+      <c r="BQ13" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR13" s="48"/>
+      <c r="BS13" s="48"/>
+      <c r="BT13" s="48"/>
+      <c r="BU13" s="48"/>
+      <c r="BV13" s="48"/>
+      <c r="BW13" s="48"/>
+      <c r="BX13" s="48"/>
+      <c r="BY13" s="48"/>
+      <c r="BZ13" s="48"/>
+      <c r="CA13" s="48"/>
+      <c r="CB13" s="48"/>
+      <c r="CC13" s="48"/>
+      <c r="CD13" s="48"/>
+      <c r="CE13" s="48"/>
+      <c r="CF13" s="48"/>
+      <c r="CG13" s="48"/>
+      <c r="CH13" s="48"/>
+      <c r="CI13" s="49"/>
+    </row>
+    <row r="14" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="38">
+        <v>8</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="49"/>
-      <c r="BE11" s="94" t="s">
-        <v>36</v>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="44" t="s">
+        <v>22</v>
       </c>
-      <c r="BF11" s="95"/>
-      <c r="BG11" s="95"/>
-      <c r="BH11" s="95"/>
-      <c r="BI11" s="95"/>
-      <c r="BJ11" s="95"/>
-      <c r="BK11" s="95"/>
-      <c r="BL11" s="95"/>
-      <c r="BM11" s="95"/>
-      <c r="BN11" s="95"/>
-      <c r="BO11" s="95"/>
-      <c r="BP11" s="96"/>
-      <c r="BQ11" s="97" t="s">
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="45"/>
+      <c r="BK14" s="45"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="45"/>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="46"/>
+      <c r="BQ14" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR14" s="48"/>
+      <c r="BS14" s="48"/>
+      <c r="BT14" s="48"/>
+      <c r="BU14" s="48"/>
+      <c r="BV14" s="48"/>
+      <c r="BW14" s="48"/>
+      <c r="BX14" s="48"/>
+      <c r="BY14" s="48"/>
+      <c r="BZ14" s="48"/>
+      <c r="CA14" s="48"/>
+      <c r="CB14" s="48"/>
+      <c r="CC14" s="48"/>
+      <c r="CD14" s="48"/>
+      <c r="CE14" s="48"/>
+      <c r="CF14" s="48"/>
+      <c r="CG14" s="48"/>
+      <c r="CH14" s="48"/>
+      <c r="CI14" s="49"/>
+    </row>
+    <row r="15" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="60">
+        <v>9</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="69"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
+      <c r="BP15" s="69"/>
+      <c r="BQ15" s="70"/>
+      <c r="BR15" s="71"/>
+      <c r="BS15" s="71"/>
+      <c r="BT15" s="71"/>
+      <c r="BU15" s="71"/>
+      <c r="BV15" s="71"/>
+      <c r="BW15" s="71"/>
+      <c r="BX15" s="71"/>
+      <c r="BY15" s="71"/>
+      <c r="BZ15" s="71"/>
+      <c r="CA15" s="71"/>
+      <c r="CB15" s="71"/>
+      <c r="CC15" s="71"/>
+      <c r="CD15" s="71"/>
+      <c r="CE15" s="71"/>
+      <c r="CF15" s="71"/>
+      <c r="CG15" s="71"/>
+      <c r="CH15" s="71"/>
+      <c r="CI15" s="72"/>
+    </row>
+    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="38">
+        <v>10</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="98"/>
-      <c r="BS11" s="98"/>
-      <c r="BT11" s="98"/>
-      <c r="BU11" s="98"/>
-      <c r="BV11" s="98"/>
-      <c r="BW11" s="98"/>
-      <c r="BX11" s="98"/>
-      <c r="BY11" s="98"/>
-      <c r="BZ11" s="98"/>
-      <c r="CA11" s="98"/>
-      <c r="CB11" s="98"/>
-      <c r="CC11" s="98"/>
-      <c r="CD11" s="98"/>
-      <c r="CE11" s="98"/>
-      <c r="CF11" s="98"/>
-      <c r="CG11" s="98"/>
-      <c r="CH11" s="98"/>
-      <c r="CI11" s="99"/>
-    </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="56">
-        <v>6</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="47" t="s">
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="47" t="s">
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="45"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="49"/>
-      <c r="BE12" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF12" s="87"/>
-      <c r="BG12" s="87"/>
-      <c r="BH12" s="87"/>
-      <c r="BI12" s="87"/>
-      <c r="BJ12" s="87"/>
-      <c r="BK12" s="87"/>
-      <c r="BL12" s="87"/>
-      <c r="BM12" s="87"/>
-      <c r="BN12" s="87"/>
-      <c r="BO12" s="87"/>
-      <c r="BP12" s="87"/>
-      <c r="BQ12" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR12" s="88"/>
-      <c r="BS12" s="88"/>
-      <c r="BT12" s="88"/>
-      <c r="BU12" s="88"/>
-      <c r="BV12" s="88"/>
-      <c r="BW12" s="88"/>
-      <c r="BX12" s="88"/>
-      <c r="BY12" s="88"/>
-      <c r="BZ12" s="88"/>
-      <c r="CA12" s="88"/>
-      <c r="CB12" s="88"/>
-      <c r="CC12" s="88"/>
-      <c r="CD12" s="88"/>
-      <c r="CE12" s="88"/>
-      <c r="CF12" s="88"/>
-      <c r="CG12" s="88"/>
-      <c r="CH12" s="88"/>
-      <c r="CI12" s="88"/>
-    </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="56">
-        <v>7</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="47">
-        <v>10</v>
-      </c>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="48"/>
-      <c r="BN13" s="48"/>
-      <c r="BO13" s="48"/>
-      <c r="BP13" s="49"/>
-      <c r="BQ13" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR13" s="104"/>
-      <c r="BS13" s="104"/>
-      <c r="BT13" s="104"/>
-      <c r="BU13" s="104"/>
-      <c r="BV13" s="104"/>
-      <c r="BW13" s="104"/>
-      <c r="BX13" s="104"/>
-      <c r="BY13" s="104"/>
-      <c r="BZ13" s="104"/>
-      <c r="CA13" s="104"/>
-      <c r="CB13" s="104"/>
-      <c r="CC13" s="104"/>
-      <c r="CD13" s="104"/>
-      <c r="CE13" s="104"/>
-      <c r="CF13" s="104"/>
-      <c r="CG13" s="104"/>
-      <c r="CH13" s="104"/>
-      <c r="CI13" s="105"/>
-    </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="56">
-        <v>8</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="89" t="s">
+      <c r="BF16" s="45"/>
+      <c r="BG16" s="45"/>
+      <c r="BH16" s="45"/>
+      <c r="BI16" s="45"/>
+      <c r="BJ16" s="45"/>
+      <c r="BK16" s="45"/>
+      <c r="BL16" s="45"/>
+      <c r="BM16" s="45"/>
+      <c r="BN16" s="45"/>
+      <c r="BO16" s="45"/>
+      <c r="BP16" s="46"/>
+      <c r="BQ16" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL14" s="107"/>
-      <c r="AM14" s="107"/>
-      <c r="AN14" s="107"/>
-      <c r="AO14" s="107"/>
-      <c r="AP14" s="107"/>
-      <c r="AQ14" s="107"/>
-      <c r="AR14" s="107"/>
-      <c r="AS14" s="107"/>
-      <c r="AT14" s="108"/>
-      <c r="AU14" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="49"/>
-      <c r="BE14" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="48"/>
-      <c r="BK14" s="48"/>
-      <c r="BL14" s="48"/>
-      <c r="BM14" s="48"/>
-      <c r="BN14" s="48"/>
-      <c r="BO14" s="48"/>
-      <c r="BP14" s="49"/>
-      <c r="BQ14" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="BR14" s="104"/>
-      <c r="BS14" s="104"/>
-      <c r="BT14" s="104"/>
-      <c r="BU14" s="104"/>
-      <c r="BV14" s="104"/>
-      <c r="BW14" s="104"/>
-      <c r="BX14" s="104"/>
-      <c r="BY14" s="104"/>
-      <c r="BZ14" s="104"/>
-      <c r="CA14" s="104"/>
-      <c r="CB14" s="104"/>
-      <c r="CC14" s="104"/>
-      <c r="CD14" s="104"/>
-      <c r="CE14" s="104"/>
-      <c r="CF14" s="104"/>
-      <c r="CG14" s="104"/>
-      <c r="CH14" s="104"/>
-      <c r="CI14" s="105"/>
-    </row>
-    <row r="15" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="67">
-        <v>9</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="83"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="81"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="82"/>
-      <c r="BB15" s="82"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="83"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="82"/>
-      <c r="BG15" s="82"/>
-      <c r="BH15" s="82"/>
-      <c r="BI15" s="82"/>
-      <c r="BJ15" s="82"/>
-      <c r="BK15" s="82"/>
-      <c r="BL15" s="82"/>
-      <c r="BM15" s="82"/>
-      <c r="BN15" s="82"/>
-      <c r="BO15" s="82"/>
-      <c r="BP15" s="83"/>
-      <c r="BQ15" s="113"/>
-      <c r="BR15" s="114"/>
-      <c r="BS15" s="114"/>
-      <c r="BT15" s="114"/>
-      <c r="BU15" s="114"/>
-      <c r="BV15" s="114"/>
-      <c r="BW15" s="114"/>
-      <c r="BX15" s="114"/>
-      <c r="BY15" s="114"/>
-      <c r="BZ15" s="114"/>
-      <c r="CA15" s="114"/>
-      <c r="CB15" s="114"/>
-      <c r="CC15" s="114"/>
-      <c r="CD15" s="114"/>
-      <c r="CE15" s="114"/>
-      <c r="CF15" s="114"/>
-      <c r="CG15" s="114"/>
-      <c r="CH15" s="114"/>
-      <c r="CI15" s="115"/>
-    </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="56">
-        <v>10</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="48"/>
-      <c r="BD16" s="49"/>
-      <c r="BE16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF16" s="48"/>
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="48"/>
-      <c r="BJ16" s="48"/>
-      <c r="BK16" s="48"/>
-      <c r="BL16" s="48"/>
-      <c r="BM16" s="48"/>
-      <c r="BN16" s="48"/>
-      <c r="BO16" s="48"/>
-      <c r="BP16" s="49"/>
-      <c r="BQ16" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR16" s="110"/>
-      <c r="BS16" s="110"/>
-      <c r="BT16" s="110"/>
-      <c r="BU16" s="110"/>
-      <c r="BV16" s="110"/>
-      <c r="BW16" s="110"/>
-      <c r="BX16" s="110"/>
-      <c r="BY16" s="110"/>
-      <c r="BZ16" s="110"/>
-      <c r="CA16" s="110"/>
-      <c r="CB16" s="110"/>
-      <c r="CC16" s="110"/>
-      <c r="CD16" s="110"/>
-      <c r="CE16" s="110"/>
-      <c r="CF16" s="110"/>
-      <c r="CG16" s="110"/>
-      <c r="CH16" s="110"/>
-      <c r="CI16" s="111"/>
+      <c r="BR16" s="64"/>
+      <c r="BS16" s="64"/>
+      <c r="BT16" s="64"/>
+      <c r="BU16" s="64"/>
+      <c r="BV16" s="64"/>
+      <c r="BW16" s="64"/>
+      <c r="BX16" s="64"/>
+      <c r="BY16" s="64"/>
+      <c r="BZ16" s="64"/>
+      <c r="CA16" s="64"/>
+      <c r="CB16" s="64"/>
+      <c r="CC16" s="64"/>
+      <c r="CD16" s="64"/>
+      <c r="CE16" s="64"/>
+      <c r="CF16" s="64"/>
+      <c r="CG16" s="64"/>
+      <c r="CH16" s="64"/>
+      <c r="CI16" s="65"/>
     </row>
     <row r="17" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="90"/>
-      <c r="AN17" s="90"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="90"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="90"/>
-      <c r="BA17" s="90"/>
-      <c r="BB17" s="90"/>
-      <c r="BC17" s="90"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="89"/>
-      <c r="BF17" s="90"/>
-      <c r="BG17" s="90"/>
-      <c r="BH17" s="90"/>
-      <c r="BI17" s="90"/>
-      <c r="BJ17" s="90"/>
-      <c r="BK17" s="90"/>
-      <c r="BL17" s="90"/>
-      <c r="BM17" s="90"/>
-      <c r="BN17" s="90"/>
-      <c r="BO17" s="90"/>
-      <c r="BP17" s="91"/>
-      <c r="BQ17" s="103"/>
-      <c r="BR17" s="104"/>
-      <c r="BS17" s="104"/>
-      <c r="BT17" s="104"/>
-      <c r="BU17" s="104"/>
-      <c r="BV17" s="104"/>
-      <c r="BW17" s="104"/>
-      <c r="BX17" s="104"/>
-      <c r="BY17" s="104"/>
-      <c r="BZ17" s="104"/>
-      <c r="CA17" s="104"/>
-      <c r="CB17" s="104"/>
-      <c r="CC17" s="104"/>
-      <c r="CD17" s="104"/>
-      <c r="CE17" s="104"/>
-      <c r="CF17" s="104"/>
-      <c r="CG17" s="104"/>
-      <c r="CH17" s="104"/>
-      <c r="CI17" s="105"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="43"/>
+      <c r="BE17" s="41"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="42"/>
+      <c r="BM17" s="42"/>
+      <c r="BN17" s="42"/>
+      <c r="BO17" s="42"/>
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="47"/>
+      <c r="BR17" s="48"/>
+      <c r="BS17" s="48"/>
+      <c r="BT17" s="48"/>
+      <c r="BU17" s="48"/>
+      <c r="BV17" s="48"/>
+      <c r="BW17" s="48"/>
+      <c r="BX17" s="48"/>
+      <c r="BY17" s="48"/>
+      <c r="BZ17" s="48"/>
+      <c r="CA17" s="48"/>
+      <c r="CB17" s="48"/>
+      <c r="CC17" s="48"/>
+      <c r="CD17" s="48"/>
+      <c r="CE17" s="48"/>
+      <c r="CF17" s="48"/>
+      <c r="CG17" s="48"/>
+      <c r="CH17" s="48"/>
+      <c r="CI17" s="49"/>
     </row>
     <row r="18" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="90"/>
-      <c r="AM18" s="90"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="49"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="48"/>
-      <c r="BJ18" s="48"/>
-      <c r="BK18" s="48"/>
-      <c r="BL18" s="48"/>
-      <c r="BM18" s="48"/>
-      <c r="BN18" s="48"/>
-      <c r="BO18" s="48"/>
-      <c r="BP18" s="49"/>
-      <c r="BQ18" s="119"/>
-      <c r="BR18" s="120"/>
-      <c r="BS18" s="120"/>
-      <c r="BT18" s="120"/>
-      <c r="BU18" s="120"/>
-      <c r="BV18" s="120"/>
-      <c r="BW18" s="120"/>
-      <c r="BX18" s="120"/>
-      <c r="BY18" s="120"/>
-      <c r="BZ18" s="120"/>
-      <c r="CA18" s="120"/>
-      <c r="CB18" s="120"/>
-      <c r="CC18" s="120"/>
-      <c r="CD18" s="120"/>
-      <c r="CE18" s="120"/>
-      <c r="CF18" s="120"/>
-      <c r="CG18" s="120"/>
-      <c r="CH18" s="120"/>
-      <c r="CI18" s="121"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45"/>
+      <c r="BC18" s="45"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="44"/>
+      <c r="BF18" s="45"/>
+      <c r="BG18" s="45"/>
+      <c r="BH18" s="45"/>
+      <c r="BI18" s="45"/>
+      <c r="BJ18" s="45"/>
+      <c r="BK18" s="45"/>
+      <c r="BL18" s="45"/>
+      <c r="BM18" s="45"/>
+      <c r="BN18" s="45"/>
+      <c r="BO18" s="45"/>
+      <c r="BP18" s="46"/>
+      <c r="BQ18" s="57"/>
+      <c r="BR18" s="58"/>
+      <c r="BS18" s="58"/>
+      <c r="BT18" s="58"/>
+      <c r="BU18" s="58"/>
+      <c r="BV18" s="58"/>
+      <c r="BW18" s="58"/>
+      <c r="BX18" s="58"/>
+      <c r="BY18" s="58"/>
+      <c r="BZ18" s="58"/>
+      <c r="CA18" s="58"/>
+      <c r="CB18" s="58"/>
+      <c r="CC18" s="58"/>
+      <c r="CD18" s="58"/>
+      <c r="CE18" s="58"/>
+      <c r="CF18" s="58"/>
+      <c r="CG18" s="58"/>
+      <c r="CH18" s="58"/>
+      <c r="CI18" s="59"/>
     </row>
     <row r="19" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="90"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="90"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="49"/>
-      <c r="BE19" s="47"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="48"/>
-      <c r="BJ19" s="48"/>
-      <c r="BK19" s="48"/>
-      <c r="BL19" s="48"/>
-      <c r="BM19" s="48"/>
-      <c r="BN19" s="48"/>
-      <c r="BO19" s="48"/>
-      <c r="BP19" s="49"/>
-      <c r="BQ19" s="103"/>
-      <c r="BR19" s="104"/>
-      <c r="BS19" s="104"/>
-      <c r="BT19" s="104"/>
-      <c r="BU19" s="104"/>
-      <c r="BV19" s="104"/>
-      <c r="BW19" s="104"/>
-      <c r="BX19" s="104"/>
-      <c r="BY19" s="104"/>
-      <c r="BZ19" s="104"/>
-      <c r="CA19" s="104"/>
-      <c r="CB19" s="104"/>
-      <c r="CC19" s="104"/>
-      <c r="CD19" s="104"/>
-      <c r="CE19" s="104"/>
-      <c r="CF19" s="104"/>
-      <c r="CG19" s="104"/>
-      <c r="CH19" s="104"/>
-      <c r="CI19" s="105"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="44"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="45"/>
+      <c r="BL19" s="45"/>
+      <c r="BM19" s="45"/>
+      <c r="BN19" s="45"/>
+      <c r="BO19" s="45"/>
+      <c r="BP19" s="46"/>
+      <c r="BQ19" s="47"/>
+      <c r="BR19" s="48"/>
+      <c r="BS19" s="48"/>
+      <c r="BT19" s="48"/>
+      <c r="BU19" s="48"/>
+      <c r="BV19" s="48"/>
+      <c r="BW19" s="48"/>
+      <c r="BX19" s="48"/>
+      <c r="BY19" s="48"/>
+      <c r="BZ19" s="48"/>
+      <c r="CA19" s="48"/>
+      <c r="CB19" s="48"/>
+      <c r="CC19" s="48"/>
+      <c r="CD19" s="48"/>
+      <c r="CE19" s="48"/>
+      <c r="CF19" s="48"/>
+      <c r="CG19" s="48"/>
+      <c r="CH19" s="48"/>
+      <c r="CI19" s="49"/>
     </row>
     <row r="20" spans="1:1025" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="90"/>
-      <c r="AM20" s="90"/>
-      <c r="AN20" s="90"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="90"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="90"/>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="89"/>
-      <c r="AV20" s="90"/>
-      <c r="AW20" s="90"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="90"/>
-      <c r="AZ20" s="90"/>
-      <c r="BA20" s="90"/>
-      <c r="BB20" s="90"/>
-      <c r="BC20" s="90"/>
-      <c r="BD20" s="91"/>
-      <c r="BE20" s="89"/>
-      <c r="BF20" s="90"/>
-      <c r="BG20" s="90"/>
-      <c r="BH20" s="90"/>
-      <c r="BI20" s="90"/>
-      <c r="BJ20" s="90"/>
-      <c r="BK20" s="90"/>
-      <c r="BL20" s="90"/>
-      <c r="BM20" s="90"/>
-      <c r="BN20" s="90"/>
-      <c r="BO20" s="90"/>
-      <c r="BP20" s="91"/>
-      <c r="BQ20" s="103"/>
-      <c r="BR20" s="104"/>
-      <c r="BS20" s="104"/>
-      <c r="BT20" s="104"/>
-      <c r="BU20" s="104"/>
-      <c r="BV20" s="104"/>
-      <c r="BW20" s="104"/>
-      <c r="BX20" s="104"/>
-      <c r="BY20" s="104"/>
-      <c r="BZ20" s="104"/>
-      <c r="CA20" s="104"/>
-      <c r="CB20" s="104"/>
-      <c r="CC20" s="104"/>
-      <c r="CD20" s="104"/>
-      <c r="CE20" s="104"/>
-      <c r="CF20" s="104"/>
-      <c r="CG20" s="104"/>
-      <c r="CH20" s="104"/>
-      <c r="CI20" s="105"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
+      <c r="BD20" s="43"/>
+      <c r="BE20" s="41"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="42"/>
+      <c r="BM20" s="42"/>
+      <c r="BN20" s="42"/>
+      <c r="BO20" s="42"/>
+      <c r="BP20" s="43"/>
+      <c r="BQ20" s="47"/>
+      <c r="BR20" s="48"/>
+      <c r="BS20" s="48"/>
+      <c r="BT20" s="48"/>
+      <c r="BU20" s="48"/>
+      <c r="BV20" s="48"/>
+      <c r="BW20" s="48"/>
+      <c r="BX20" s="48"/>
+      <c r="BY20" s="48"/>
+      <c r="BZ20" s="48"/>
+      <c r="CA20" s="48"/>
+      <c r="CB20" s="48"/>
+      <c r="CC20" s="48"/>
+      <c r="CD20" s="48"/>
+      <c r="CE20" s="48"/>
+      <c r="CF20" s="48"/>
+      <c r="CG20" s="48"/>
+      <c r="CH20" s="48"/>
+      <c r="CI20" s="49"/>
       <c r="CJ20" s="15"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="15"/>
@@ -11878,237 +11862,271 @@
       <c r="AMK20" s="15"/>
     </row>
     <row r="21" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="90"/>
-      <c r="AM21" s="90"/>
-      <c r="AN21" s="90"/>
-      <c r="AO21" s="90"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="90"/>
-      <c r="AR21" s="122"/>
-      <c r="AS21" s="122"/>
-      <c r="AT21" s="123"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="87"/>
-      <c r="BA21" s="87"/>
-      <c r="BB21" s="87"/>
-      <c r="BC21" s="87"/>
-      <c r="BD21" s="87"/>
-      <c r="BE21" s="87"/>
-      <c r="BF21" s="87"/>
-      <c r="BG21" s="87"/>
-      <c r="BH21" s="87"/>
-      <c r="BI21" s="87"/>
-      <c r="BJ21" s="87"/>
-      <c r="BK21" s="87"/>
-      <c r="BL21" s="87"/>
-      <c r="BM21" s="87"/>
-      <c r="BN21" s="87"/>
-      <c r="BO21" s="87"/>
-      <c r="BP21" s="87"/>
-      <c r="BQ21" s="124"/>
-      <c r="BR21" s="124"/>
-      <c r="BS21" s="124"/>
-      <c r="BT21" s="124"/>
-      <c r="BU21" s="124"/>
-      <c r="BV21" s="124"/>
-      <c r="BW21" s="124"/>
-      <c r="BX21" s="124"/>
-      <c r="BY21" s="124"/>
-      <c r="BZ21" s="124"/>
-      <c r="CA21" s="124"/>
-      <c r="CB21" s="124"/>
-      <c r="CC21" s="124"/>
-      <c r="CD21" s="124"/>
-      <c r="CE21" s="124"/>
-      <c r="CF21" s="124"/>
-      <c r="CG21" s="124"/>
-      <c r="CH21" s="124"/>
-      <c r="CI21" s="124"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="53"/>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
+      <c r="BC21" s="55"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="55"/>
+      <c r="BJ21" s="55"/>
+      <c r="BK21" s="55"/>
+      <c r="BL21" s="55"/>
+      <c r="BM21" s="55"/>
+      <c r="BN21" s="55"/>
+      <c r="BO21" s="55"/>
+      <c r="BP21" s="55"/>
+      <c r="BQ21" s="56"/>
+      <c r="BR21" s="56"/>
+      <c r="BS21" s="56"/>
+      <c r="BT21" s="56"/>
+      <c r="BU21" s="56"/>
+      <c r="BV21" s="56"/>
+      <c r="BW21" s="56"/>
+      <c r="BX21" s="56"/>
+      <c r="BY21" s="56"/>
+      <c r="BZ21" s="56"/>
+      <c r="CA21" s="56"/>
+      <c r="CB21" s="56"/>
+      <c r="CC21" s="56"/>
+      <c r="CD21" s="56"/>
+      <c r="CE21" s="56"/>
+      <c r="CF21" s="56"/>
+      <c r="CG21" s="56"/>
+      <c r="CH21" s="56"/>
+      <c r="CI21" s="56"/>
     </row>
     <row r="22" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="90"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
-      <c r="BD22" s="49"/>
-      <c r="BE22" s="47"/>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="48"/>
-      <c r="BK22" s="48"/>
-      <c r="BL22" s="48"/>
-      <c r="BM22" s="48"/>
-      <c r="BN22" s="48"/>
-      <c r="BO22" s="48"/>
-      <c r="BP22" s="49"/>
-      <c r="BQ22" s="103"/>
-      <c r="BR22" s="104"/>
-      <c r="BS22" s="104"/>
-      <c r="BT22" s="104"/>
-      <c r="BU22" s="104"/>
-      <c r="BV22" s="104"/>
-      <c r="BW22" s="104"/>
-      <c r="BX22" s="104"/>
-      <c r="BY22" s="104"/>
-      <c r="BZ22" s="104"/>
-      <c r="CA22" s="104"/>
-      <c r="CB22" s="104"/>
-      <c r="CC22" s="104"/>
-      <c r="CD22" s="104"/>
-      <c r="CE22" s="104"/>
-      <c r="CF22" s="104"/>
-      <c r="CG22" s="104"/>
-      <c r="CH22" s="104"/>
-      <c r="CI22" s="105"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="45"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="45"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="44"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="45"/>
+      <c r="BI22" s="45"/>
+      <c r="BJ22" s="45"/>
+      <c r="BK22" s="45"/>
+      <c r="BL22" s="45"/>
+      <c r="BM22" s="45"/>
+      <c r="BN22" s="45"/>
+      <c r="BO22" s="45"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="47"/>
+      <c r="BR22" s="48"/>
+      <c r="BS22" s="48"/>
+      <c r="BT22" s="48"/>
+      <c r="BU22" s="48"/>
+      <c r="BV22" s="48"/>
+      <c r="BW22" s="48"/>
+      <c r="BX22" s="48"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="48"/>
+      <c r="CA22" s="48"/>
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="48"/>
+      <c r="CD22" s="48"/>
+      <c r="CE22" s="48"/>
+      <c r="CF22" s="48"/>
+      <c r="CG22" s="48"/>
+      <c r="CH22" s="48"/>
+      <c r="CI22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B14:D14"/>
@@ -12133,94 +12151,60 @@
     <mergeCell ref="AK15:AT15"/>
     <mergeCell ref="AU14:BD14"/>
     <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
